--- a/03_DB設計書/03_データベース設計書.xlsx
+++ b/03_DB設計書/03_データベース設計書.xlsx
@@ -1,27 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26508"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\asofs1\SEC_ABCC\システム系\学科\システム開発分野2年\2022\07_企業連携\ドキュメント関連\設計書フォーマット\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDB954B-368E-4AB0-B2DE-51F288A31CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="326" documentId="13_ncr:1_{4EDB954B-368E-4AB0-B2DE-51F288A31CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEB0E519-50E2-421E-A9A4-126F2727978E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27240" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27240" windowHeight="14895" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
     <sheet name="E-Rモデル　　エンティティ一覧" sheetId="11" r:id="rId2"/>
-    <sheet name="エンティティ定義書" sheetId="13" r:id="rId3"/>
-    <sheet name="CRUD図 " sheetId="18" r:id="rId4"/>
+    <sheet name="エンティティ定義書（threads）" sheetId="13" r:id="rId3"/>
+    <sheet name="エンティティ定義書 （thread_comments）" sheetId="19" r:id="rId4"/>
+    <sheet name="エンティティ定義書 （users）" sheetId="20" r:id="rId5"/>
+    <sheet name="エンティティ定義書 （rings）" sheetId="21" r:id="rId6"/>
+    <sheet name="エンティティ定義書 （ring_comments）" sheetId="22" r:id="rId7"/>
+    <sheet name="CRUD図 " sheetId="18" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'CRUD図 '!$A$1:$M$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'CRUD図 '!$A$1:$M$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'E-Rモデル　　エンティティ一覧'!$A$1:$F$74</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">エンティティ定義書!$A$1:$H$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'エンティティ定義書 （rings）'!$A$1:$H$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'エンティティ定義書 （ring_comments）'!$A$1:$H$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'エンティティ定義書 （thread_comments）'!$A$1:$H$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'エンティティ定義書 （users）'!$A$1:$H$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'エンティティ定義書（threads）'!$A$1:$H$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$34</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$1:$2</definedName>
   </definedNames>
@@ -46,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="136">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -111,6 +119,9 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
+    <t>レスバ・オブ・ザ・リング</t>
+  </si>
+  <si>
     <t>ＰＭ</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -191,6 +202,9 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
+    <t>竹井唯人</t>
+  </si>
+  <si>
     <t>工程名</t>
     <rPh sb="0" eb="2">
       <t>コウテイ</t>
@@ -201,6 +215,9 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
+    <t>データベース設計</t>
+  </si>
+  <si>
     <t>作成日付</t>
     <rPh sb="0" eb="2">
       <t>サクセイ</t>
@@ -211,6 +228,9 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
+    <t>5/15</t>
+  </si>
+  <si>
     <t>ドキュメント名</t>
     <rPh sb="6" eb="7">
       <t>メイ</t>
@@ -218,6 +238,9 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
+    <t>データベース設計書</t>
+  </si>
+  <si>
     <t>E-R図ID</t>
     <rPh sb="3" eb="4">
       <t>ズ</t>
@@ -237,6 +260,9 @@
       <t>ガイヨウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>本データベース設計書はレスバ・オブ・ザ・リングのデータベース設計を示す</t>
   </si>
   <si>
     <t>更新日付</t>
@@ -294,6 +320,57 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>スレッド</t>
+  </si>
+  <si>
+    <t>threads</t>
+  </si>
+  <si>
+    <t>イベント</t>
+  </si>
+  <si>
+    <t>ユーザーが作成したスレッドの情報</t>
+  </si>
+  <si>
+    <t>スレッドコメント</t>
+  </si>
+  <si>
+    <t>thread_comments</t>
+  </si>
+  <si>
+    <t>スレッドに書き込まれた書き込みの情報</t>
+  </si>
+  <si>
+    <t>ユーザー</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>マスタ</t>
+  </si>
+  <si>
+    <t>サイトを利用するユーザーの情報</t>
+  </si>
+  <si>
+    <t>リング</t>
+  </si>
+  <si>
+    <t>rings</t>
+  </si>
+  <si>
+    <t>ユーザーが作成したリングの情報</t>
+  </si>
+  <si>
+    <t>リングコメント</t>
+  </si>
+  <si>
+    <t>ring_comments</t>
+  </si>
+  <si>
+    <t>リングに書き込まれた書き込みの情報</t>
+  </si>
+  <si>
     <t>E-Rモデル図</t>
     <rPh sb="6" eb="7">
       <t>ズ</t>
@@ -303,6 +380,9 @@
   <si>
     <t>エンティティ定義書</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>徳永大朗</t>
   </si>
   <si>
     <t>論理エンティティ名</t>
@@ -322,6 +402,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>ユーザーが作成したスレッドの情報を管理する</t>
+  </si>
+  <si>
     <t>属性情報</t>
     <rPh sb="0" eb="2">
       <t>ゾクセイ</t>
@@ -350,6 +433,42 @@
     <t>備考</t>
   </si>
   <si>
+    <t>スレッドID</t>
+  </si>
+  <si>
+    <t>thread_id</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>NN</t>
+  </si>
+  <si>
+    <t>なし</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>スレッド名</t>
+  </si>
+  <si>
+    <t>thread_name</t>
+  </si>
+  <si>
+    <t>VARCHAR(512)</t>
+  </si>
+  <si>
+    <t>バイト数</t>
+  </si>
+  <si>
+    <t>thread_bytes</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>インデックス情報</t>
   </si>
   <si>
@@ -381,6 +500,132 @@
   </si>
   <si>
     <t>参照元カラムリスト</t>
+  </si>
+  <si>
+    <t>スレッドID（thread_id)</t>
+  </si>
+  <si>
+    <t>リング(rings)</t>
+  </si>
+  <si>
+    <t>スレッドコメント(thread_comments)</t>
+  </si>
+  <si>
+    <t>エンティティ定義書</t>
+  </si>
+  <si>
+    <t>コメントID</t>
+  </si>
+  <si>
+    <t>thread_comment_id</t>
+  </si>
+  <si>
+    <t>コメント本文</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>VERCHAR(1024)</t>
+  </si>
+  <si>
+    <t>投稿日時</t>
+  </si>
+  <si>
+    <t>create_at</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>投稿者ID</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>投稿者ID(user_id)</t>
+  </si>
+  <si>
+    <t>ユーザー(users)</t>
+  </si>
+  <si>
+    <t>ユーザーID(user_id)</t>
+  </si>
+  <si>
+    <t>スレッド(threads)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サイトを利用するユーザーの情報	</t>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+  </si>
+  <si>
+    <t>ユーザー名</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>VARCHAR(64)</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>登録日時</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>ユーザーID（作成者）(create_user)</t>
+  </si>
+  <si>
+    <t>ユーザーID（被招待者）(invitation_user)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ユーザーが作成したリングの情報	</t>
+  </si>
+  <si>
+    <t>リングID</t>
+  </si>
+  <si>
+    <t>ring_id</t>
+  </si>
+  <si>
+    <t>ユーザーID（作成者）</t>
+  </si>
+  <si>
+    <t>create_user</t>
+  </si>
+  <si>
+    <t>ユーザーID（被招待者）</t>
+  </si>
+  <si>
+    <t>invitation_user</t>
+  </si>
+  <si>
+    <t>リングID(ring_id)</t>
+  </si>
+  <si>
+    <t>リングコメント(ring_comments)</t>
+  </si>
+  <si>
+    <t>リングコメントID</t>
+  </si>
+  <si>
+    <t>ring_comment_id</t>
+  </si>
+  <si>
+    <t>ring_comment</t>
+  </si>
+  <si>
+    <t>create_date</t>
   </si>
   <si>
     <t>CRUD図</t>
@@ -423,7 +668,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -605,6 +850,23 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Meiryo UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1420,7 +1682,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1671,13 +1933,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1767,6 +2023,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1911,94 +2179,109 @@
     <xf numFmtId="49" fontId="15" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2034,17 +2317,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="24">
-    <cellStyle name="ハイパーリンク" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="16" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="18" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="標準_Sheet1" xfId="4" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
@@ -2052,13 +2350,13 @@
     <cellStyle name="標準_システム管理" xfId="2" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="標準_種別マスタ" xfId="5" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="7" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2074,10 +2372,59 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1428750</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E20C1EF-24DA-FBE5-DBAE-9660B42B2A04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="6115050"/>
+          <a:ext cx="8048625" cy="4552950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2115,9 +2462,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2150,26 +2497,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2202,26 +2532,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2400,8 +2713,8 @@
   </sheetPr>
   <dimension ref="A1:FT34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AH7" sqref="AH7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -2834,19 +3147,19 @@
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
-      <c r="U3" s="124" t="s">
+      <c r="U3" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="V3" s="126"/>
-      <c r="W3" s="150"/>
-      <c r="X3" s="125"/>
-      <c r="Y3" s="125"/>
-      <c r="Z3" s="125"/>
-      <c r="AA3" s="125"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="125"/>
-      <c r="AD3" s="125"/>
-      <c r="AE3" s="126"/>
+      <c r="V3" s="128"/>
+      <c r="W3" s="152"/>
+      <c r="X3" s="127"/>
+      <c r="Y3" s="127"/>
+      <c r="Z3" s="127"/>
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="127"/>
+      <c r="AC3" s="127"/>
+      <c r="AD3" s="127"/>
+      <c r="AE3" s="128"/>
       <c r="AF3" s="12"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -2958,20 +3271,20 @@
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
       <c r="E7" s="36"/>
-      <c r="F7" s="135" t="s">
+      <c r="F7" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="136"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
-      <c r="O7" s="136"/>
-      <c r="P7" s="136"/>
-      <c r="Q7" s="137"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="138"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="138"/>
+      <c r="P7" s="138"/>
+      <c r="Q7" s="139"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
       <c r="T7" s="12"/>
@@ -2989,78 +3302,80 @@
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="12"/>
-      <c r="B8" s="138" t="s">
+      <c r="B8" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="144"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="145"/>
-      <c r="K8" s="145"/>
-      <c r="L8" s="145"/>
-      <c r="M8" s="145"/>
-      <c r="N8" s="145"/>
-      <c r="O8" s="145"/>
-      <c r="P8" s="145"/>
-      <c r="Q8" s="146"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="146" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="147"/>
+      <c r="H8" s="147"/>
+      <c r="I8" s="147"/>
+      <c r="J8" s="147"/>
+      <c r="K8" s="147"/>
+      <c r="L8" s="147"/>
+      <c r="M8" s="147"/>
+      <c r="N8" s="147"/>
+      <c r="O8" s="147"/>
+      <c r="P8" s="147"/>
+      <c r="Q8" s="148"/>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
-      <c r="W8" s="134" t="s">
-        <v>6</v>
-      </c>
-      <c r="X8" s="134"/>
-      <c r="Y8" s="134"/>
-      <c r="Z8" s="134" t="s">
+      <c r="W8" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="AA8" s="134"/>
-      <c r="AB8" s="134"/>
-      <c r="AC8" s="134" t="s">
+      <c r="X8" s="136"/>
+      <c r="Y8" s="136"/>
+      <c r="Z8" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="AD8" s="134"/>
-      <c r="AE8" s="134"/>
+      <c r="AA8" s="136"/>
+      <c r="AB8" s="136"/>
+      <c r="AC8" s="136" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD8" s="136"/>
+      <c r="AE8" s="136"/>
       <c r="AF8" s="12"/>
     </row>
     <row r="9" spans="1:176" ht="15.75" customHeight="1">
       <c r="A9" s="12"/>
-      <c r="B9" s="141"/>
-      <c r="C9" s="142"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="143"/>
-      <c r="F9" s="147"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="148"/>
-      <c r="K9" s="148"/>
-      <c r="L9" s="148"/>
-      <c r="M9" s="148"/>
-      <c r="N9" s="148"/>
-      <c r="O9" s="148"/>
-      <c r="P9" s="148"/>
-      <c r="Q9" s="149"/>
+      <c r="B9" s="143"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="149"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="150"/>
+      <c r="I9" s="150"/>
+      <c r="J9" s="150"/>
+      <c r="K9" s="150"/>
+      <c r="L9" s="150"/>
+      <c r="M9" s="150"/>
+      <c r="N9" s="150"/>
+      <c r="O9" s="150"/>
+      <c r="P9" s="150"/>
+      <c r="Q9" s="151"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
-      <c r="W9" s="151"/>
-      <c r="X9" s="152"/>
-      <c r="Y9" s="153"/>
-      <c r="Z9" s="151"/>
-      <c r="AA9" s="152"/>
-      <c r="AB9" s="153"/>
-      <c r="AC9" s="151"/>
-      <c r="AD9" s="152"/>
-      <c r="AE9" s="153"/>
+      <c r="W9" s="153"/>
+      <c r="X9" s="154"/>
+      <c r="Y9" s="155"/>
+      <c r="Z9" s="153"/>
+      <c r="AA9" s="154"/>
+      <c r="AB9" s="155"/>
+      <c r="AC9" s="153"/>
+      <c r="AD9" s="154"/>
+      <c r="AE9" s="155"/>
       <c r="AF9" s="12"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
@@ -3086,15 +3401,15 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
-      <c r="W10" s="154"/>
-      <c r="X10" s="155"/>
-      <c r="Y10" s="156"/>
-      <c r="Z10" s="154"/>
-      <c r="AA10" s="155"/>
-      <c r="AB10" s="156"/>
-      <c r="AC10" s="154"/>
-      <c r="AD10" s="155"/>
-      <c r="AE10" s="156"/>
+      <c r="W10" s="156"/>
+      <c r="X10" s="157"/>
+      <c r="Y10" s="158"/>
+      <c r="Z10" s="156"/>
+      <c r="AA10" s="157"/>
+      <c r="AB10" s="158"/>
+      <c r="AC10" s="156"/>
+      <c r="AD10" s="157"/>
+      <c r="AE10" s="158"/>
       <c r="AF10" s="12"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -3120,15 +3435,15 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
-      <c r="W11" s="154"/>
-      <c r="X11" s="155"/>
-      <c r="Y11" s="156"/>
-      <c r="Z11" s="154"/>
-      <c r="AA11" s="155"/>
-      <c r="AB11" s="156"/>
-      <c r="AC11" s="154"/>
-      <c r="AD11" s="155"/>
-      <c r="AE11" s="156"/>
+      <c r="W11" s="156"/>
+      <c r="X11" s="157"/>
+      <c r="Y11" s="158"/>
+      <c r="Z11" s="156"/>
+      <c r="AA11" s="157"/>
+      <c r="AB11" s="158"/>
+      <c r="AC11" s="156"/>
+      <c r="AD11" s="157"/>
+      <c r="AE11" s="158"/>
       <c r="AF11" s="12"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -3154,15 +3469,15 @@
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
-      <c r="W12" s="157"/>
-      <c r="X12" s="158"/>
-      <c r="Y12" s="159"/>
-      <c r="Z12" s="157"/>
-      <c r="AA12" s="158"/>
-      <c r="AB12" s="159"/>
-      <c r="AC12" s="157"/>
-      <c r="AD12" s="158"/>
-      <c r="AE12" s="159"/>
+      <c r="W12" s="159"/>
+      <c r="X12" s="160"/>
+      <c r="Y12" s="161"/>
+      <c r="Z12" s="159"/>
+      <c r="AA12" s="160"/>
+      <c r="AB12" s="161"/>
+      <c r="AC12" s="159"/>
+      <c r="AD12" s="160"/>
+      <c r="AE12" s="161"/>
       <c r="AF12" s="12"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -3257,106 +3572,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="12"/>
-      <c r="B16" s="133" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="133"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="133"/>
-      <c r="K16" s="133"/>
-      <c r="L16" s="133"/>
-      <c r="M16" s="133"/>
-      <c r="N16" s="133"/>
-      <c r="O16" s="133"/>
-      <c r="P16" s="133"/>
-      <c r="Q16" s="133"/>
-      <c r="R16" s="133"/>
-      <c r="S16" s="133"/>
-      <c r="T16" s="133"/>
-      <c r="U16" s="133"/>
-      <c r="V16" s="133"/>
-      <c r="W16" s="133"/>
-      <c r="X16" s="133"/>
-      <c r="Y16" s="133"/>
-      <c r="Z16" s="133"/>
-      <c r="AA16" s="133"/>
-      <c r="AB16" s="133"/>
-      <c r="AC16" s="133"/>
-      <c r="AD16" s="133"/>
-      <c r="AE16" s="133"/>
+      <c r="B16" s="135" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="135"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="135"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="135"/>
+      <c r="R16" s="135"/>
+      <c r="S16" s="135"/>
+      <c r="T16" s="135"/>
+      <c r="U16" s="135"/>
+      <c r="V16" s="135"/>
+      <c r="W16" s="135"/>
+      <c r="X16" s="135"/>
+      <c r="Y16" s="135"/>
+      <c r="Z16" s="135"/>
+      <c r="AA16" s="135"/>
+      <c r="AB16" s="135"/>
+      <c r="AC16" s="135"/>
+      <c r="AD16" s="135"/>
+      <c r="AE16" s="135"/>
       <c r="AF16" s="12"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="12"/>
-      <c r="B17" s="133"/>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="133"/>
-      <c r="J17" s="133"/>
-      <c r="K17" s="133"/>
-      <c r="L17" s="133"/>
-      <c r="M17" s="133"/>
-      <c r="N17" s="133"/>
-      <c r="O17" s="133"/>
-      <c r="P17" s="133"/>
-      <c r="Q17" s="133"/>
-      <c r="R17" s="133"/>
-      <c r="S17" s="133"/>
-      <c r="T17" s="133"/>
-      <c r="U17" s="133"/>
-      <c r="V17" s="133"/>
-      <c r="W17" s="133"/>
-      <c r="X17" s="133"/>
-      <c r="Y17" s="133"/>
-      <c r="Z17" s="133"/>
-      <c r="AA17" s="133"/>
-      <c r="AB17" s="133"/>
-      <c r="AC17" s="133"/>
-      <c r="AD17" s="133"/>
-      <c r="AE17" s="133"/>
+      <c r="B17" s="135"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="135"/>
+      <c r="G17" s="135"/>
+      <c r="H17" s="135"/>
+      <c r="I17" s="135"/>
+      <c r="J17" s="135"/>
+      <c r="K17" s="135"/>
+      <c r="L17" s="135"/>
+      <c r="M17" s="135"/>
+      <c r="N17" s="135"/>
+      <c r="O17" s="135"/>
+      <c r="P17" s="135"/>
+      <c r="Q17" s="135"/>
+      <c r="R17" s="135"/>
+      <c r="S17" s="135"/>
+      <c r="T17" s="135"/>
+      <c r="U17" s="135"/>
+      <c r="V17" s="135"/>
+      <c r="W17" s="135"/>
+      <c r="X17" s="135"/>
+      <c r="Y17" s="135"/>
+      <c r="Z17" s="135"/>
+      <c r="AA17" s="135"/>
+      <c r="AB17" s="135"/>
+      <c r="AC17" s="135"/>
+      <c r="AD17" s="135"/>
+      <c r="AE17" s="135"/>
       <c r="AF17" s="12"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="12"/>
-      <c r="B18" s="133"/>
-      <c r="C18" s="133"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="133"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="133"/>
-      <c r="J18" s="133"/>
-      <c r="K18" s="133"/>
-      <c r="L18" s="133"/>
-      <c r="M18" s="133"/>
-      <c r="N18" s="133"/>
-      <c r="O18" s="133"/>
-      <c r="P18" s="133"/>
-      <c r="Q18" s="133"/>
-      <c r="R18" s="133"/>
-      <c r="S18" s="133"/>
-      <c r="T18" s="133"/>
-      <c r="U18" s="133"/>
-      <c r="V18" s="133"/>
-      <c r="W18" s="133"/>
-      <c r="X18" s="133"/>
-      <c r="Y18" s="133"/>
-      <c r="Z18" s="133"/>
-      <c r="AA18" s="133"/>
-      <c r="AB18" s="133"/>
-      <c r="AC18" s="133"/>
-      <c r="AD18" s="133"/>
-      <c r="AE18" s="133"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="135"/>
+      <c r="L18" s="135"/>
+      <c r="M18" s="135"/>
+      <c r="N18" s="135"/>
+      <c r="O18" s="135"/>
+      <c r="P18" s="135"/>
+      <c r="Q18" s="135"/>
+      <c r="R18" s="135"/>
+      <c r="S18" s="135"/>
+      <c r="T18" s="135"/>
+      <c r="U18" s="135"/>
+      <c r="V18" s="135"/>
+      <c r="W18" s="135"/>
+      <c r="X18" s="135"/>
+      <c r="Y18" s="135"/>
+      <c r="Z18" s="135"/>
+      <c r="AA18" s="135"/>
+      <c r="AB18" s="135"/>
+      <c r="AC18" s="135"/>
+      <c r="AD18" s="135"/>
+      <c r="AE18" s="135"/>
       <c r="AF18" s="12"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -3428,7 +3743,7 @@
     <row r="21" spans="1:32" s="39" customFormat="1" ht="29.25" customHeight="1">
       <c r="A21" s="37"/>
       <c r="B21" s="38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21" s="37"/>
       <c r="D21" s="37"/>
@@ -3495,384 +3810,384 @@
     </row>
     <row r="23" spans="1:32" s="39" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="37"/>
-      <c r="B23" s="124" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="125"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="124" t="s">
+      <c r="B23" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="125"/>
-      <c r="H23" s="125"/>
-      <c r="I23" s="126"/>
-      <c r="J23" s="124" t="s">
+      <c r="C23" s="127"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="K23" s="125"/>
-      <c r="L23" s="125"/>
-      <c r="M23" s="125"/>
-      <c r="N23" s="125"/>
-      <c r="O23" s="125"/>
-      <c r="P23" s="125"/>
-      <c r="Q23" s="125"/>
-      <c r="R23" s="125"/>
-      <c r="S23" s="125"/>
-      <c r="T23" s="125"/>
-      <c r="U23" s="125"/>
-      <c r="V23" s="125"/>
-      <c r="W23" s="125"/>
-      <c r="X23" s="125"/>
-      <c r="Y23" s="125"/>
-      <c r="Z23" s="125"/>
-      <c r="AA23" s="125"/>
-      <c r="AB23" s="126"/>
-      <c r="AC23" s="124" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD23" s="125"/>
-      <c r="AE23" s="126"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="127"/>
+      <c r="I23" s="128"/>
+      <c r="J23" s="126" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="127"/>
+      <c r="L23" s="127"/>
+      <c r="M23" s="127"/>
+      <c r="N23" s="127"/>
+      <c r="O23" s="127"/>
+      <c r="P23" s="127"/>
+      <c r="Q23" s="127"/>
+      <c r="R23" s="127"/>
+      <c r="S23" s="127"/>
+      <c r="T23" s="127"/>
+      <c r="U23" s="127"/>
+      <c r="V23" s="127"/>
+      <c r="W23" s="127"/>
+      <c r="X23" s="127"/>
+      <c r="Y23" s="127"/>
+      <c r="Z23" s="127"/>
+      <c r="AA23" s="127"/>
+      <c r="AB23" s="128"/>
+      <c r="AC23" s="126" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD23" s="127"/>
+      <c r="AE23" s="128"/>
       <c r="AF23" s="37"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="12"/>
-      <c r="B24" s="124"/>
-      <c r="C24" s="125"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="127"/>
-      <c r="G24" s="128"/>
-      <c r="H24" s="128"/>
-      <c r="I24" s="129"/>
-      <c r="J24" s="130"/>
-      <c r="K24" s="131"/>
-      <c r="L24" s="131"/>
-      <c r="M24" s="131"/>
-      <c r="N24" s="131"/>
-      <c r="O24" s="131"/>
-      <c r="P24" s="131"/>
-      <c r="Q24" s="131"/>
-      <c r="R24" s="131"/>
-      <c r="S24" s="131"/>
-      <c r="T24" s="131"/>
-      <c r="U24" s="131"/>
-      <c r="V24" s="131"/>
-      <c r="W24" s="131"/>
-      <c r="X24" s="131"/>
-      <c r="Y24" s="131"/>
-      <c r="Z24" s="131"/>
-      <c r="AA24" s="131"/>
-      <c r="AB24" s="132"/>
-      <c r="AC24" s="124"/>
-      <c r="AD24" s="125"/>
-      <c r="AE24" s="126"/>
+      <c r="B24" s="126"/>
+      <c r="C24" s="127"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="132"/>
+      <c r="K24" s="133"/>
+      <c r="L24" s="133"/>
+      <c r="M24" s="133"/>
+      <c r="N24" s="133"/>
+      <c r="O24" s="133"/>
+      <c r="P24" s="133"/>
+      <c r="Q24" s="133"/>
+      <c r="R24" s="133"/>
+      <c r="S24" s="133"/>
+      <c r="T24" s="133"/>
+      <c r="U24" s="133"/>
+      <c r="V24" s="133"/>
+      <c r="W24" s="133"/>
+      <c r="X24" s="133"/>
+      <c r="Y24" s="133"/>
+      <c r="Z24" s="133"/>
+      <c r="AA24" s="133"/>
+      <c r="AB24" s="134"/>
+      <c r="AC24" s="126"/>
+      <c r="AD24" s="127"/>
+      <c r="AE24" s="128"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="12"/>
-      <c r="B25" s="124"/>
-      <c r="C25" s="125"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="128"/>
-      <c r="H25" s="128"/>
-      <c r="I25" s="129"/>
-      <c r="J25" s="130"/>
-      <c r="K25" s="131"/>
-      <c r="L25" s="131"/>
-      <c r="M25" s="131"/>
-      <c r="N25" s="131"/>
-      <c r="O25" s="131"/>
-      <c r="P25" s="131"/>
-      <c r="Q25" s="131"/>
-      <c r="R25" s="131"/>
-      <c r="S25" s="131"/>
-      <c r="T25" s="131"/>
-      <c r="U25" s="131"/>
-      <c r="V25" s="131"/>
-      <c r="W25" s="131"/>
-      <c r="X25" s="131"/>
-      <c r="Y25" s="131"/>
-      <c r="Z25" s="131"/>
-      <c r="AA25" s="131"/>
-      <c r="AB25" s="132"/>
-      <c r="AC25" s="124"/>
-      <c r="AD25" s="125"/>
-      <c r="AE25" s="126"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="130"/>
+      <c r="H25" s="130"/>
+      <c r="I25" s="131"/>
+      <c r="J25" s="132"/>
+      <c r="K25" s="133"/>
+      <c r="L25" s="133"/>
+      <c r="M25" s="133"/>
+      <c r="N25" s="133"/>
+      <c r="O25" s="133"/>
+      <c r="P25" s="133"/>
+      <c r="Q25" s="133"/>
+      <c r="R25" s="133"/>
+      <c r="S25" s="133"/>
+      <c r="T25" s="133"/>
+      <c r="U25" s="133"/>
+      <c r="V25" s="133"/>
+      <c r="W25" s="133"/>
+      <c r="X25" s="133"/>
+      <c r="Y25" s="133"/>
+      <c r="Z25" s="133"/>
+      <c r="AA25" s="133"/>
+      <c r="AB25" s="134"/>
+      <c r="AC25" s="126"/>
+      <c r="AD25" s="127"/>
+      <c r="AE25" s="128"/>
       <c r="AF25" s="12"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="12"/>
-      <c r="B26" s="124"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="125"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="129"/>
-      <c r="J26" s="130"/>
-      <c r="K26" s="131"/>
-      <c r="L26" s="131"/>
-      <c r="M26" s="131"/>
-      <c r="N26" s="131"/>
-      <c r="O26" s="131"/>
-      <c r="P26" s="131"/>
-      <c r="Q26" s="131"/>
-      <c r="R26" s="131"/>
-      <c r="S26" s="131"/>
-      <c r="T26" s="131"/>
-      <c r="U26" s="131"/>
-      <c r="V26" s="131"/>
-      <c r="W26" s="131"/>
-      <c r="X26" s="131"/>
-      <c r="Y26" s="131"/>
-      <c r="Z26" s="131"/>
-      <c r="AA26" s="131"/>
-      <c r="AB26" s="132"/>
-      <c r="AC26" s="124"/>
-      <c r="AD26" s="125"/>
-      <c r="AE26" s="126"/>
+      <c r="B26" s="126"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="129"/>
+      <c r="G26" s="130"/>
+      <c r="H26" s="130"/>
+      <c r="I26" s="131"/>
+      <c r="J26" s="132"/>
+      <c r="K26" s="133"/>
+      <c r="L26" s="133"/>
+      <c r="M26" s="133"/>
+      <c r="N26" s="133"/>
+      <c r="O26" s="133"/>
+      <c r="P26" s="133"/>
+      <c r="Q26" s="133"/>
+      <c r="R26" s="133"/>
+      <c r="S26" s="133"/>
+      <c r="T26" s="133"/>
+      <c r="U26" s="133"/>
+      <c r="V26" s="133"/>
+      <c r="W26" s="133"/>
+      <c r="X26" s="133"/>
+      <c r="Y26" s="133"/>
+      <c r="Z26" s="133"/>
+      <c r="AA26" s="133"/>
+      <c r="AB26" s="134"/>
+      <c r="AC26" s="126"/>
+      <c r="AD26" s="127"/>
+      <c r="AE26" s="128"/>
       <c r="AF26" s="12"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="12"/>
-      <c r="B27" s="124"/>
-      <c r="C27" s="125"/>
-      <c r="D27" s="125"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="127"/>
-      <c r="G27" s="128"/>
-      <c r="H27" s="128"/>
-      <c r="I27" s="129"/>
-      <c r="J27" s="130"/>
-      <c r="K27" s="131"/>
-      <c r="L27" s="131"/>
-      <c r="M27" s="131"/>
-      <c r="N27" s="131"/>
-      <c r="O27" s="131"/>
-      <c r="P27" s="131"/>
-      <c r="Q27" s="131"/>
-      <c r="R27" s="131"/>
-      <c r="S27" s="131"/>
-      <c r="T27" s="131"/>
-      <c r="U27" s="131"/>
-      <c r="V27" s="131"/>
-      <c r="W27" s="131"/>
-      <c r="X27" s="131"/>
-      <c r="Y27" s="131"/>
-      <c r="Z27" s="131"/>
-      <c r="AA27" s="131"/>
-      <c r="AB27" s="132"/>
-      <c r="AC27" s="124"/>
-      <c r="AD27" s="125"/>
-      <c r="AE27" s="126"/>
+      <c r="B27" s="126"/>
+      <c r="C27" s="127"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="129"/>
+      <c r="G27" s="130"/>
+      <c r="H27" s="130"/>
+      <c r="I27" s="131"/>
+      <c r="J27" s="132"/>
+      <c r="K27" s="133"/>
+      <c r="L27" s="133"/>
+      <c r="M27" s="133"/>
+      <c r="N27" s="133"/>
+      <c r="O27" s="133"/>
+      <c r="P27" s="133"/>
+      <c r="Q27" s="133"/>
+      <c r="R27" s="133"/>
+      <c r="S27" s="133"/>
+      <c r="T27" s="133"/>
+      <c r="U27" s="133"/>
+      <c r="V27" s="133"/>
+      <c r="W27" s="133"/>
+      <c r="X27" s="133"/>
+      <c r="Y27" s="133"/>
+      <c r="Z27" s="133"/>
+      <c r="AA27" s="133"/>
+      <c r="AB27" s="134"/>
+      <c r="AC27" s="126"/>
+      <c r="AD27" s="127"/>
+      <c r="AE27" s="128"/>
       <c r="AF27" s="12"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="12"/>
-      <c r="B28" s="124"/>
-      <c r="C28" s="125"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="127"/>
-      <c r="G28" s="128"/>
-      <c r="H28" s="128"/>
-      <c r="I28" s="129"/>
-      <c r="J28" s="130"/>
-      <c r="K28" s="131"/>
-      <c r="L28" s="131"/>
-      <c r="M28" s="131"/>
-      <c r="N28" s="131"/>
-      <c r="O28" s="131"/>
-      <c r="P28" s="131"/>
-      <c r="Q28" s="131"/>
-      <c r="R28" s="131"/>
-      <c r="S28" s="131"/>
-      <c r="T28" s="131"/>
-      <c r="U28" s="131"/>
-      <c r="V28" s="131"/>
-      <c r="W28" s="131"/>
-      <c r="X28" s="131"/>
-      <c r="Y28" s="131"/>
-      <c r="Z28" s="131"/>
-      <c r="AA28" s="131"/>
-      <c r="AB28" s="132"/>
-      <c r="AC28" s="124"/>
-      <c r="AD28" s="125"/>
-      <c r="AE28" s="126"/>
+      <c r="B28" s="126"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="129"/>
+      <c r="G28" s="130"/>
+      <c r="H28" s="130"/>
+      <c r="I28" s="131"/>
+      <c r="J28" s="132"/>
+      <c r="K28" s="133"/>
+      <c r="L28" s="133"/>
+      <c r="M28" s="133"/>
+      <c r="N28" s="133"/>
+      <c r="O28" s="133"/>
+      <c r="P28" s="133"/>
+      <c r="Q28" s="133"/>
+      <c r="R28" s="133"/>
+      <c r="S28" s="133"/>
+      <c r="T28" s="133"/>
+      <c r="U28" s="133"/>
+      <c r="V28" s="133"/>
+      <c r="W28" s="133"/>
+      <c r="X28" s="133"/>
+      <c r="Y28" s="133"/>
+      <c r="Z28" s="133"/>
+      <c r="AA28" s="133"/>
+      <c r="AB28" s="134"/>
+      <c r="AC28" s="126"/>
+      <c r="AD28" s="127"/>
+      <c r="AE28" s="128"/>
       <c r="AF28" s="12"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="12"/>
-      <c r="B29" s="124"/>
-      <c r="C29" s="125"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="127"/>
-      <c r="G29" s="128"/>
-      <c r="H29" s="128"/>
-      <c r="I29" s="129"/>
-      <c r="J29" s="130"/>
-      <c r="K29" s="131"/>
-      <c r="L29" s="131"/>
-      <c r="M29" s="131"/>
-      <c r="N29" s="131"/>
-      <c r="O29" s="131"/>
-      <c r="P29" s="131"/>
-      <c r="Q29" s="131"/>
-      <c r="R29" s="131"/>
-      <c r="S29" s="131"/>
-      <c r="T29" s="131"/>
-      <c r="U29" s="131"/>
-      <c r="V29" s="131"/>
-      <c r="W29" s="131"/>
-      <c r="X29" s="131"/>
-      <c r="Y29" s="131"/>
-      <c r="Z29" s="131"/>
-      <c r="AA29" s="131"/>
-      <c r="AB29" s="132"/>
-      <c r="AC29" s="124"/>
-      <c r="AD29" s="125"/>
-      <c r="AE29" s="126"/>
+      <c r="B29" s="126"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="130"/>
+      <c r="H29" s="130"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="132"/>
+      <c r="K29" s="133"/>
+      <c r="L29" s="133"/>
+      <c r="M29" s="133"/>
+      <c r="N29" s="133"/>
+      <c r="O29" s="133"/>
+      <c r="P29" s="133"/>
+      <c r="Q29" s="133"/>
+      <c r="R29" s="133"/>
+      <c r="S29" s="133"/>
+      <c r="T29" s="133"/>
+      <c r="U29" s="133"/>
+      <c r="V29" s="133"/>
+      <c r="W29" s="133"/>
+      <c r="X29" s="133"/>
+      <c r="Y29" s="133"/>
+      <c r="Z29" s="133"/>
+      <c r="AA29" s="133"/>
+      <c r="AB29" s="134"/>
+      <c r="AC29" s="126"/>
+      <c r="AD29" s="127"/>
+      <c r="AE29" s="128"/>
       <c r="AF29" s="12"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="12"/>
-      <c r="B30" s="124"/>
-      <c r="C30" s="125"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="127"/>
-      <c r="G30" s="128"/>
-      <c r="H30" s="128"/>
-      <c r="I30" s="129"/>
-      <c r="J30" s="130"/>
-      <c r="K30" s="131"/>
-      <c r="L30" s="131"/>
-      <c r="M30" s="131"/>
-      <c r="N30" s="131"/>
-      <c r="O30" s="131"/>
-      <c r="P30" s="131"/>
-      <c r="Q30" s="131"/>
-      <c r="R30" s="131"/>
-      <c r="S30" s="131"/>
-      <c r="T30" s="131"/>
-      <c r="U30" s="131"/>
-      <c r="V30" s="131"/>
-      <c r="W30" s="131"/>
-      <c r="X30" s="131"/>
-      <c r="Y30" s="131"/>
-      <c r="Z30" s="131"/>
-      <c r="AA30" s="131"/>
-      <c r="AB30" s="132"/>
-      <c r="AC30" s="124"/>
-      <c r="AD30" s="125"/>
-      <c r="AE30" s="126"/>
+      <c r="B30" s="126"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="130"/>
+      <c r="H30" s="130"/>
+      <c r="I30" s="131"/>
+      <c r="J30" s="132"/>
+      <c r="K30" s="133"/>
+      <c r="L30" s="133"/>
+      <c r="M30" s="133"/>
+      <c r="N30" s="133"/>
+      <c r="O30" s="133"/>
+      <c r="P30" s="133"/>
+      <c r="Q30" s="133"/>
+      <c r="R30" s="133"/>
+      <c r="S30" s="133"/>
+      <c r="T30" s="133"/>
+      <c r="U30" s="133"/>
+      <c r="V30" s="133"/>
+      <c r="W30" s="133"/>
+      <c r="X30" s="133"/>
+      <c r="Y30" s="133"/>
+      <c r="Z30" s="133"/>
+      <c r="AA30" s="133"/>
+      <c r="AB30" s="134"/>
+      <c r="AC30" s="126"/>
+      <c r="AD30" s="127"/>
+      <c r="AE30" s="128"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="12"/>
-      <c r="B31" s="124"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="126"/>
-      <c r="F31" s="127"/>
-      <c r="G31" s="128"/>
-      <c r="H31" s="128"/>
-      <c r="I31" s="129"/>
-      <c r="J31" s="130"/>
-      <c r="K31" s="131"/>
-      <c r="L31" s="131"/>
-      <c r="M31" s="131"/>
-      <c r="N31" s="131"/>
-      <c r="O31" s="131"/>
-      <c r="P31" s="131"/>
-      <c r="Q31" s="131"/>
-      <c r="R31" s="131"/>
-      <c r="S31" s="131"/>
-      <c r="T31" s="131"/>
-      <c r="U31" s="131"/>
-      <c r="V31" s="131"/>
-      <c r="W31" s="131"/>
-      <c r="X31" s="131"/>
-      <c r="Y31" s="131"/>
-      <c r="Z31" s="131"/>
-      <c r="AA31" s="131"/>
-      <c r="AB31" s="132"/>
-      <c r="AC31" s="124"/>
-      <c r="AD31" s="125"/>
-      <c r="AE31" s="126"/>
+      <c r="B31" s="126"/>
+      <c r="C31" s="127"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="130"/>
+      <c r="H31" s="130"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="132"/>
+      <c r="K31" s="133"/>
+      <c r="L31" s="133"/>
+      <c r="M31" s="133"/>
+      <c r="N31" s="133"/>
+      <c r="O31" s="133"/>
+      <c r="P31" s="133"/>
+      <c r="Q31" s="133"/>
+      <c r="R31" s="133"/>
+      <c r="S31" s="133"/>
+      <c r="T31" s="133"/>
+      <c r="U31" s="133"/>
+      <c r="V31" s="133"/>
+      <c r="W31" s="133"/>
+      <c r="X31" s="133"/>
+      <c r="Y31" s="133"/>
+      <c r="Z31" s="133"/>
+      <c r="AA31" s="133"/>
+      <c r="AB31" s="134"/>
+      <c r="AC31" s="126"/>
+      <c r="AD31" s="127"/>
+      <c r="AE31" s="128"/>
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="12"/>
-      <c r="B32" s="124"/>
-      <c r="C32" s="125"/>
-      <c r="D32" s="125"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="127"/>
-      <c r="G32" s="128"/>
-      <c r="H32" s="128"/>
-      <c r="I32" s="129"/>
-      <c r="J32" s="130"/>
-      <c r="K32" s="131"/>
-      <c r="L32" s="131"/>
-      <c r="M32" s="131"/>
-      <c r="N32" s="131"/>
-      <c r="O32" s="131"/>
-      <c r="P32" s="131"/>
-      <c r="Q32" s="131"/>
-      <c r="R32" s="131"/>
-      <c r="S32" s="131"/>
-      <c r="T32" s="131"/>
-      <c r="U32" s="131"/>
-      <c r="V32" s="131"/>
-      <c r="W32" s="131"/>
-      <c r="X32" s="131"/>
-      <c r="Y32" s="131"/>
-      <c r="Z32" s="131"/>
-      <c r="AA32" s="131"/>
-      <c r="AB32" s="132"/>
-      <c r="AC32" s="124"/>
-      <c r="AD32" s="125"/>
-      <c r="AE32" s="126"/>
+      <c r="B32" s="126"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="129"/>
+      <c r="G32" s="130"/>
+      <c r="H32" s="130"/>
+      <c r="I32" s="131"/>
+      <c r="J32" s="132"/>
+      <c r="K32" s="133"/>
+      <c r="L32" s="133"/>
+      <c r="M32" s="133"/>
+      <c r="N32" s="133"/>
+      <c r="O32" s="133"/>
+      <c r="P32" s="133"/>
+      <c r="Q32" s="133"/>
+      <c r="R32" s="133"/>
+      <c r="S32" s="133"/>
+      <c r="T32" s="133"/>
+      <c r="U32" s="133"/>
+      <c r="V32" s="133"/>
+      <c r="W32" s="133"/>
+      <c r="X32" s="133"/>
+      <c r="Y32" s="133"/>
+      <c r="Z32" s="133"/>
+      <c r="AA32" s="133"/>
+      <c r="AB32" s="134"/>
+      <c r="AC32" s="126"/>
+      <c r="AD32" s="127"/>
+      <c r="AE32" s="128"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="12"/>
-      <c r="B33" s="124"/>
-      <c r="C33" s="125"/>
-      <c r="D33" s="125"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="127"/>
-      <c r="G33" s="128"/>
-      <c r="H33" s="128"/>
-      <c r="I33" s="129"/>
-      <c r="J33" s="130"/>
-      <c r="K33" s="131"/>
-      <c r="L33" s="131"/>
-      <c r="M33" s="131"/>
-      <c r="N33" s="131"/>
-      <c r="O33" s="131"/>
-      <c r="P33" s="131"/>
-      <c r="Q33" s="131"/>
-      <c r="R33" s="131"/>
-      <c r="S33" s="131"/>
-      <c r="T33" s="131"/>
-      <c r="U33" s="131"/>
-      <c r="V33" s="131"/>
-      <c r="W33" s="131"/>
-      <c r="X33" s="131"/>
-      <c r="Y33" s="131"/>
-      <c r="Z33" s="131"/>
-      <c r="AA33" s="131"/>
-      <c r="AB33" s="132"/>
-      <c r="AC33" s="124"/>
-      <c r="AD33" s="125"/>
-      <c r="AE33" s="126"/>
+      <c r="B33" s="126"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="129"/>
+      <c r="G33" s="130"/>
+      <c r="H33" s="130"/>
+      <c r="I33" s="131"/>
+      <c r="J33" s="132"/>
+      <c r="K33" s="133"/>
+      <c r="L33" s="133"/>
+      <c r="M33" s="133"/>
+      <c r="N33" s="133"/>
+      <c r="O33" s="133"/>
+      <c r="P33" s="133"/>
+      <c r="Q33" s="133"/>
+      <c r="R33" s="133"/>
+      <c r="S33" s="133"/>
+      <c r="T33" s="133"/>
+      <c r="U33" s="133"/>
+      <c r="V33" s="133"/>
+      <c r="W33" s="133"/>
+      <c r="X33" s="133"/>
+      <c r="Y33" s="133"/>
+      <c r="Z33" s="133"/>
+      <c r="AA33" s="133"/>
+      <c r="AB33" s="134"/>
+      <c r="AC33" s="126"/>
+      <c r="AD33" s="127"/>
+      <c r="AE33" s="128"/>
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -3989,8 +4304,8 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -4005,74 +4320,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25">
-      <c r="A1" s="106" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="108"/>
+      <c r="A1" s="104" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="106"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1">
-      <c r="A2" s="166" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="30"/>
+      <c r="A2" s="168" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="169"/>
+      <c r="C2" s="30" t="s">
+        <v>6</v>
+      </c>
       <c r="D2" s="31"/>
       <c r="E2" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="91"/>
+        <v>17</v>
+      </c>
+      <c r="F2" s="90" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1">
-      <c r="A3" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="30"/>
+      <c r="A3" s="168" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="169"/>
+      <c r="C3" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="D3" s="31"/>
       <c r="E3" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="90"/>
+        <v>21</v>
+      </c>
+      <c r="F3" s="124" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1">
-      <c r="A4" s="166" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="167"/>
-      <c r="C4" s="30"/>
+      <c r="A4" s="168" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="169"/>
+      <c r="C4" s="30" t="s">
+        <v>24</v>
+      </c>
       <c r="D4" s="31"/>
       <c r="E4" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="91"/>
+        <v>12</v>
+      </c>
+      <c r="F4" s="90">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1">
-      <c r="A5" s="166" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="167"/>
+      <c r="A5" s="168" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="169"/>
       <c r="C5" s="30"/>
       <c r="D5" s="31"/>
       <c r="E5" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="91"/>
+        <v>26</v>
+      </c>
+      <c r="F5" s="90"/>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1">
-      <c r="A6" s="166" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="167"/>
-      <c r="C6" s="30"/>
+      <c r="A6" s="168" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="169"/>
+      <c r="C6" s="30" t="s">
+        <v>28</v>
+      </c>
       <c r="D6" s="31"/>
       <c r="E6" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="91"/>
+        <v>29</v>
+      </c>
+      <c r="F6" s="90"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="18"/>
@@ -4084,7 +4413,7 @@
     </row>
     <row r="8" spans="1:6" ht="29.25" customHeight="1">
       <c r="A8" s="21" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -4094,89 +4423,139 @@
     </row>
     <row r="9" spans="1:6" ht="29.25" customHeight="1">
       <c r="A9" s="24" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="164" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="165"/>
+        <v>34</v>
+      </c>
+      <c r="E9" s="166" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="167"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A10" s="59"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="161"/>
+      <c r="A10" s="59">
+        <v>1</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="162" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="163"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A11" s="59"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="160"/>
-      <c r="F11" s="161"/>
+      <c r="A11" s="59">
+        <v>2</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="122" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="123"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A12" s="59"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="160"/>
-      <c r="F12" s="161"/>
+      <c r="A12" s="59">
+        <v>3</v>
+      </c>
+      <c r="B12" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="162" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="163"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A13" s="59"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="160"/>
-      <c r="F13" s="161"/>
+      <c r="A13" s="59">
+        <v>4</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="162" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="163"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A14" s="59"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="160"/>
-      <c r="F14" s="161"/>
+      <c r="A14" s="59">
+        <v>5</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="162" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="163"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="162"/>
-      <c r="F15" s="163"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="165"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="162"/>
-      <c r="F16" s="163"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="165"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="162"/>
-      <c r="F17" s="163"/>
+      <c r="E17" s="164"/>
+      <c r="F17" s="165"/>
     </row>
     <row r="18" spans="1:6" ht="29.25" customHeight="1">
       <c r="A18" s="29" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -4413,7 +4792,7 @@
       <c r="F74" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
@@ -4425,13 +4804,13 @@
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4448,7 +4827,7 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:H6"/>
+      <selection activeCell="C7" sqref="C7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -4462,62 +4841,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25">
-      <c r="A1" s="109" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="111"/>
+      <c r="A1" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="109"/>
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1">
       <c r="A2" s="40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="40"/>
-      <c r="C2" s="42"/>
+      <c r="C2" s="42" t="s">
+        <v>6</v>
+      </c>
       <c r="D2" s="41"/>
       <c r="E2" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="41"/>
+        <v>17</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>55</v>
+      </c>
       <c r="G2" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="92"/>
+        <v>21</v>
+      </c>
+      <c r="H2" s="125" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1">
       <c r="A3" s="40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" s="40"/>
-      <c r="C3" s="42"/>
+      <c r="C3" s="42" t="s">
+        <v>20</v>
+      </c>
       <c r="D3" s="41"/>
       <c r="E3" s="43" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F3" s="41"/>
       <c r="G3" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="93"/>
+        <v>29</v>
+      </c>
+      <c r="H3" s="91"/>
     </row>
     <row r="4" spans="1:8" ht="20.25" customHeight="1">
       <c r="A4" s="40" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B4" s="40"/>
-      <c r="C4" s="42"/>
+      <c r="C4" s="42" t="s">
+        <v>24</v>
+      </c>
       <c r="D4" s="42"/>
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
       <c r="G4" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="93"/>
+        <v>12</v>
+      </c>
+      <c r="H4" s="91">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1">
       <c r="A5" s="41"/>
@@ -4531,43 +4922,49 @@
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="40" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="192"/>
-      <c r="D6" s="193"/>
-      <c r="E6" s="193"/>
-      <c r="F6" s="193"/>
-      <c r="G6" s="193"/>
-      <c r="H6" s="194"/>
+      <c r="C6" s="195" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="197"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="192"/>
-      <c r="D7" s="193"/>
-      <c r="E7" s="193"/>
-      <c r="F7" s="193"/>
-      <c r="G7" s="193"/>
-      <c r="H7" s="194"/>
+      <c r="C7" s="195" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="196"/>
+      <c r="E7" s="196"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="197"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="192"/>
-      <c r="D8" s="193"/>
-      <c r="E8" s="193"/>
-      <c r="F8" s="193"/>
-      <c r="G8" s="193"/>
-      <c r="H8" s="194"/>
+      <c r="C8" s="195" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="196"/>
+      <c r="E8" s="196"/>
+      <c r="F8" s="196"/>
+      <c r="G8" s="196"/>
+      <c r="H8" s="197"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="46" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B9" s="46"/>
       <c r="C9" s="46"/>
@@ -4579,63 +4976,99 @@
     </row>
     <row r="10" spans="1:8" ht="20.25" customHeight="1">
       <c r="A10" s="47" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="170" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="171"/>
+        <v>61</v>
+      </c>
+      <c r="C10" s="172" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="173"/>
       <c r="E10" s="48" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="F10" s="48" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="G10" s="48" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="H10" s="49" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A11" s="61"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="172"/>
-      <c r="D11" s="173"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="65"/>
+      <c r="A11" s="61">
+        <v>1</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="175"/>
+      <c r="E11" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="65" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A12" s="66"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="168"/>
-      <c r="D12" s="169"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="69"/>
+      <c r="A12" s="66">
+        <v>2</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="170" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="171"/>
+      <c r="E12" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="69" t="s">
+        <v>71</v>
+      </c>
       <c r="H12" s="70"/>
     </row>
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A13" s="66"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="168"/>
-      <c r="D13" s="169"/>
-      <c r="E13" s="68"/>
+      <c r="A13" s="66">
+        <v>3</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="176" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="171"/>
+      <c r="E13" s="68" t="s">
+        <v>69</v>
+      </c>
       <c r="F13" s="68"/>
-      <c r="G13" s="69"/>
+      <c r="G13" s="69" t="s">
+        <v>78</v>
+      </c>
       <c r="H13" s="70"/>
     </row>
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="71"/>
       <c r="B14" s="72"/>
-      <c r="C14" s="168"/>
-      <c r="D14" s="169"/>
+      <c r="C14" s="170"/>
+      <c r="D14" s="171"/>
       <c r="E14" s="73"/>
       <c r="F14" s="73"/>
       <c r="G14" s="74"/>
@@ -4644,8 +5077,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="71"/>
       <c r="B15" s="72"/>
-      <c r="C15" s="168"/>
-      <c r="D15" s="169"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="171"/>
       <c r="E15" s="73"/>
       <c r="F15" s="73"/>
       <c r="G15" s="74"/>
@@ -4654,8 +5087,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="168"/>
-      <c r="D16" s="169"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="171"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="74"/>
@@ -4664,8 +5097,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="168"/>
-      <c r="D17" s="169"/>
+      <c r="C17" s="170"/>
+      <c r="D17" s="171"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
@@ -4674,8 +5107,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="168"/>
-      <c r="D18" s="169"/>
+      <c r="C18" s="170"/>
+      <c r="D18" s="171"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -4684,8 +5117,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="168"/>
-      <c r="D19" s="169"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="171"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -4694,8 +5127,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="168"/>
-      <c r="D20" s="169"/>
+      <c r="C20" s="170"/>
+      <c r="D20" s="171"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -4704,8 +5137,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="168"/>
-      <c r="D21" s="169"/>
+      <c r="C21" s="170"/>
+      <c r="D21" s="171"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -4714,8 +5147,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="168"/>
-      <c r="D22" s="169"/>
+      <c r="C22" s="170"/>
+      <c r="D22" s="171"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -4724,8 +5157,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="168"/>
-      <c r="D23" s="169"/>
+      <c r="C23" s="170"/>
+      <c r="D23" s="171"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -4734,8 +5167,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="168"/>
-      <c r="D24" s="169"/>
+      <c r="C24" s="170"/>
+      <c r="D24" s="171"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -4744,8 +5177,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="168"/>
-      <c r="D25" s="169"/>
+      <c r="C25" s="170"/>
+      <c r="D25" s="171"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -4754,8 +5187,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="168"/>
-      <c r="D26" s="169"/>
+      <c r="C26" s="170"/>
+      <c r="D26" s="171"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -4764,8 +5197,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="168"/>
-      <c r="D27" s="169"/>
+      <c r="C27" s="170"/>
+      <c r="D27" s="171"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -4774,8 +5207,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="168"/>
-      <c r="D28" s="169"/>
+      <c r="C28" s="170"/>
+      <c r="D28" s="171"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -4784,8 +5217,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="168"/>
-      <c r="D29" s="169"/>
+      <c r="C29" s="170"/>
+      <c r="D29" s="171"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -4794,8 +5227,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="185"/>
-      <c r="D30" s="187"/>
+      <c r="C30" s="188"/>
+      <c r="D30" s="190"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -4813,7 +5246,7 @@
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A32" s="46" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="B32" s="46"/>
       <c r="C32" s="52"/>
@@ -4825,71 +5258,71 @@
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A33" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="175" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="189"/>
+        <v>60</v>
+      </c>
+      <c r="B33" s="178" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="192"/>
       <c r="D33" s="54" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="E33" s="55"/>
       <c r="F33" s="56"/>
       <c r="G33" s="57" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="H33" s="58" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="195"/>
-      <c r="C34" s="196"/>
-      <c r="D34" s="177"/>
-      <c r="E34" s="201"/>
-      <c r="F34" s="178"/>
+      <c r="B34" s="198"/>
+      <c r="C34" s="199"/>
+      <c r="D34" s="180"/>
+      <c r="E34" s="204"/>
+      <c r="F34" s="181"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="197"/>
-      <c r="C35" s="198"/>
-      <c r="D35" s="179"/>
-      <c r="E35" s="191"/>
-      <c r="F35" s="180"/>
+      <c r="B35" s="200"/>
+      <c r="C35" s="201"/>
+      <c r="D35" s="182"/>
+      <c r="E35" s="194"/>
+      <c r="F35" s="183"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="197"/>
-      <c r="C36" s="198"/>
-      <c r="D36" s="179"/>
-      <c r="E36" s="191"/>
-      <c r="F36" s="180"/>
+      <c r="B36" s="200"/>
+      <c r="C36" s="201"/>
+      <c r="D36" s="182"/>
+      <c r="E36" s="194"/>
+      <c r="F36" s="183"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="197"/>
-      <c r="C37" s="198"/>
-      <c r="D37" s="179"/>
-      <c r="E37" s="191"/>
-      <c r="F37" s="180"/>
+      <c r="B37" s="200"/>
+      <c r="C37" s="201"/>
+      <c r="D37" s="182"/>
+      <c r="E37" s="194"/>
+      <c r="F37" s="183"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="199"/>
-      <c r="C38" s="200"/>
-      <c r="D38" s="185"/>
-      <c r="E38" s="186"/>
-      <c r="F38" s="187"/>
+      <c r="B38" s="202"/>
+      <c r="C38" s="203"/>
+      <c r="D38" s="188"/>
+      <c r="E38" s="189"/>
+      <c r="F38" s="190"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -4905,7 +5338,7 @@
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A40" s="46" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B40" s="46"/>
       <c r="C40" s="52"/>
@@ -4917,72 +5350,72 @@
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A41" s="53" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B41" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="175" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" s="188"/>
-      <c r="E41" s="189"/>
-      <c r="F41" s="175" t="s">
-        <v>48</v>
-      </c>
-      <c r="G41" s="176"/>
+        <v>84</v>
+      </c>
+      <c r="C41" s="178" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="191"/>
+      <c r="E41" s="192"/>
+      <c r="F41" s="178" t="s">
+        <v>85</v>
+      </c>
+      <c r="G41" s="179"/>
       <c r="H41" s="58" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="81"/>
       <c r="B42" s="82"/>
-      <c r="C42" s="177"/>
-      <c r="D42" s="201"/>
-      <c r="E42" s="178"/>
-      <c r="F42" s="177"/>
-      <c r="G42" s="178"/>
+      <c r="C42" s="180"/>
+      <c r="D42" s="204"/>
+      <c r="E42" s="181"/>
+      <c r="F42" s="180"/>
+      <c r="G42" s="181"/>
       <c r="H42" s="83"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="179"/>
-      <c r="D43" s="191"/>
-      <c r="E43" s="180"/>
-      <c r="F43" s="179"/>
-      <c r="G43" s="180"/>
+      <c r="C43" s="182"/>
+      <c r="D43" s="194"/>
+      <c r="E43" s="183"/>
+      <c r="F43" s="182"/>
+      <c r="G43" s="183"/>
       <c r="H43" s="86"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="179"/>
-      <c r="D44" s="191"/>
-      <c r="E44" s="180"/>
-      <c r="F44" s="179"/>
-      <c r="G44" s="180"/>
+      <c r="C44" s="182"/>
+      <c r="D44" s="194"/>
+      <c r="E44" s="183"/>
+      <c r="F44" s="182"/>
+      <c r="G44" s="183"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="179"/>
-      <c r="D45" s="191"/>
-      <c r="E45" s="180"/>
-      <c r="F45" s="179"/>
-      <c r="G45" s="180"/>
+      <c r="C45" s="182"/>
+      <c r="D45" s="194"/>
+      <c r="E45" s="183"/>
+      <c r="F45" s="182"/>
+      <c r="G45" s="183"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="185"/>
-      <c r="D46" s="186"/>
-      <c r="E46" s="187"/>
-      <c r="F46" s="181"/>
-      <c r="G46" s="182"/>
+      <c r="C46" s="188"/>
+      <c r="D46" s="189"/>
+      <c r="E46" s="190"/>
+      <c r="F46" s="184"/>
+      <c r="G46" s="185"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -4997,7 +5430,7 @@
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A48" s="46" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="B48" s="46"/>
       <c r="C48" s="52"/>
@@ -5009,72 +5442,88 @@
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A49" s="47" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B49" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" s="175" t="s">
-        <v>44</v>
-      </c>
-      <c r="D49" s="188"/>
-      <c r="E49" s="189"/>
-      <c r="F49" s="170" t="s">
-        <v>51</v>
-      </c>
-      <c r="G49" s="174"/>
+        <v>84</v>
+      </c>
+      <c r="C49" s="178" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" s="191"/>
+      <c r="E49" s="192"/>
+      <c r="F49" s="172" t="s">
+        <v>88</v>
+      </c>
+      <c r="G49" s="177"/>
       <c r="H49" s="49" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A50" s="94"/>
-      <c r="B50" s="95"/>
-      <c r="C50" s="183"/>
-      <c r="D50" s="190"/>
-      <c r="E50" s="184"/>
-      <c r="F50" s="183"/>
-      <c r="G50" s="184"/>
-      <c r="H50" s="96"/>
+      <c r="A50" s="92">
+        <v>1</v>
+      </c>
+      <c r="B50" s="93"/>
+      <c r="C50" s="186" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="193"/>
+      <c r="E50" s="187"/>
+      <c r="F50" s="186" t="s">
+        <v>91</v>
+      </c>
+      <c r="G50" s="187"/>
+      <c r="H50" s="94" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A51" s="84"/>
+      <c r="A51" s="223">
+        <v>2</v>
+      </c>
       <c r="B51" s="85"/>
-      <c r="C51" s="179"/>
-      <c r="D51" s="191"/>
-      <c r="E51" s="180"/>
-      <c r="F51" s="179"/>
-      <c r="G51" s="180"/>
-      <c r="H51" s="86"/>
+      <c r="C51" s="220" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" s="221"/>
+      <c r="E51" s="222"/>
+      <c r="F51" s="220" t="s">
+        <v>92</v>
+      </c>
+      <c r="G51" s="222"/>
+      <c r="H51" s="224" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="179"/>
-      <c r="D52" s="191"/>
-      <c r="E52" s="180"/>
-      <c r="F52" s="179"/>
-      <c r="G52" s="180"/>
+      <c r="C52" s="182"/>
+      <c r="D52" s="194"/>
+      <c r="E52" s="183"/>
+      <c r="F52" s="182"/>
+      <c r="G52" s="183"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="179"/>
-      <c r="D53" s="191"/>
-      <c r="E53" s="180"/>
-      <c r="F53" s="179"/>
-      <c r="G53" s="180"/>
+      <c r="C53" s="182"/>
+      <c r="D53" s="194"/>
+      <c r="E53" s="183"/>
+      <c r="F53" s="182"/>
+      <c r="G53" s="183"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="185"/>
-      <c r="D54" s="186"/>
-      <c r="E54" s="187"/>
-      <c r="F54" s="181"/>
-      <c r="G54" s="182"/>
+      <c r="C54" s="188"/>
+      <c r="D54" s="189"/>
+      <c r="E54" s="190"/>
+      <c r="F54" s="184"/>
+      <c r="G54" s="185"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
@@ -5151,6 +5600,3144 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6106475-8CA6-4BC3-BE1A-080A531791F8}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="21.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.25">
+      <c r="A1" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="109"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A2" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="41"/>
+      <c r="E2" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="125" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A3" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="41"/>
+      <c r="G3" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="91"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A4" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="41"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A6" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="195" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="197"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A7" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="195" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="196"/>
+      <c r="E7" s="196"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="197"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A8" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="45"/>
+      <c r="C8" s="205" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="206"/>
+      <c r="E8" s="206"/>
+      <c r="F8" s="206"/>
+      <c r="G8" s="206"/>
+      <c r="H8" s="207"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A9" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A10" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="172" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="173"/>
+      <c r="E10" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A11" s="61">
+        <v>1</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="208" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="175"/>
+      <c r="E11" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="64"/>
+      <c r="H11" s="65" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A12" s="66">
+        <v>2</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="170" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="171"/>
+      <c r="E12" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="69"/>
+      <c r="H12" s="70"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A13" s="66">
+        <v>3</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="170" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="171"/>
+      <c r="E13" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="69"/>
+      <c r="H13" s="70"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A14" s="71">
+        <v>4</v>
+      </c>
+      <c r="B14" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="170" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="171"/>
+      <c r="E14" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="74"/>
+      <c r="H14" s="75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A15" s="71">
+        <v>5</v>
+      </c>
+      <c r="B15" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="171"/>
+      <c r="E15" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="74"/>
+      <c r="H15" s="75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A16" s="71"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="171"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="75"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A17" s="71"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="170"/>
+      <c r="D17" s="171"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="75"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A18" s="71"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="170"/>
+      <c r="D18" s="171"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="75"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A19" s="71"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="171"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="75"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A20" s="71"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="170"/>
+      <c r="D20" s="171"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="75"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A21" s="71"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="170"/>
+      <c r="D21" s="171"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="75"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A22" s="71"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="170"/>
+      <c r="D22" s="171"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="75"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A23" s="71"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="170"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="75"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A24" s="71"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="170"/>
+      <c r="D24" s="171"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="75"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A25" s="71"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="170"/>
+      <c r="D25" s="171"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="75"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A26" s="71"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="170"/>
+      <c r="D26" s="171"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="75"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A27" s="71"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="170"/>
+      <c r="D27" s="171"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="75"/>
+    </row>
+    <row r="28" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A28" s="71"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="170"/>
+      <c r="D28" s="171"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="75"/>
+    </row>
+    <row r="29" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A29" s="71"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="170"/>
+      <c r="D29" s="171"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="75"/>
+    </row>
+    <row r="30" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A30" s="76"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="188"/>
+      <c r="D30" s="190"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="80"/>
+    </row>
+    <row r="31" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+    </row>
+    <row r="32" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A32" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="46"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+    </row>
+    <row r="33" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A33" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="178" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="192"/>
+      <c r="D33" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="55"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33" s="58" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A34" s="61"/>
+      <c r="B34" s="198"/>
+      <c r="C34" s="199"/>
+      <c r="D34" s="180"/>
+      <c r="E34" s="204"/>
+      <c r="F34" s="181"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="65"/>
+    </row>
+    <row r="35" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A35" s="66"/>
+      <c r="B35" s="200"/>
+      <c r="C35" s="201"/>
+      <c r="D35" s="182"/>
+      <c r="E35" s="194"/>
+      <c r="F35" s="183"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="70"/>
+    </row>
+    <row r="36" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A36" s="66"/>
+      <c r="B36" s="200"/>
+      <c r="C36" s="201"/>
+      <c r="D36" s="182"/>
+      <c r="E36" s="194"/>
+      <c r="F36" s="183"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="70"/>
+    </row>
+    <row r="37" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A37" s="66"/>
+      <c r="B37" s="200"/>
+      <c r="C37" s="201"/>
+      <c r="D37" s="182"/>
+      <c r="E37" s="194"/>
+      <c r="F37" s="183"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="70"/>
+    </row>
+    <row r="38" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A38" s="76"/>
+      <c r="B38" s="202"/>
+      <c r="C38" s="203"/>
+      <c r="D38" s="188"/>
+      <c r="E38" s="189"/>
+      <c r="F38" s="190"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="80"/>
+    </row>
+    <row r="39" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A39" s="50"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+    </row>
+    <row r="40" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A40" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="46"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+    </row>
+    <row r="41" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A41" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="178" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="191"/>
+      <c r="E41" s="192"/>
+      <c r="F41" s="178" t="s">
+        <v>85</v>
+      </c>
+      <c r="G41" s="179"/>
+      <c r="H41" s="58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A42" s="81"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="180" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="204"/>
+      <c r="E42" s="181"/>
+      <c r="F42" s="180" t="s">
+        <v>106</v>
+      </c>
+      <c r="G42" s="181"/>
+      <c r="H42" s="83" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A43" s="84"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="182" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="194"/>
+      <c r="E43" s="183"/>
+      <c r="F43" s="182" t="s">
+        <v>108</v>
+      </c>
+      <c r="G43" s="183"/>
+      <c r="H43" s="86" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A44" s="84"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="182"/>
+      <c r="D44" s="194"/>
+      <c r="E44" s="183"/>
+      <c r="F44" s="182"/>
+      <c r="G44" s="183"/>
+      <c r="H44" s="86"/>
+    </row>
+    <row r="45" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A45" s="84"/>
+      <c r="B45" s="85"/>
+      <c r="C45" s="182"/>
+      <c r="D45" s="194"/>
+      <c r="E45" s="183"/>
+      <c r="F45" s="182"/>
+      <c r="G45" s="183"/>
+      <c r="H45" s="86"/>
+    </row>
+    <row r="46" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A46" s="87"/>
+      <c r="B46" s="88"/>
+      <c r="C46" s="188"/>
+      <c r="D46" s="189"/>
+      <c r="E46" s="190"/>
+      <c r="F46" s="184"/>
+      <c r="G46" s="185"/>
+      <c r="H46" s="89"/>
+    </row>
+    <row r="47" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A47" s="50"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+    </row>
+    <row r="48" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A48" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="46"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
+    </row>
+    <row r="49" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A49" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="178" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" s="191"/>
+      <c r="E49" s="192"/>
+      <c r="F49" s="172" t="s">
+        <v>88</v>
+      </c>
+      <c r="G49" s="177"/>
+      <c r="H49" s="49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A50" s="92"/>
+      <c r="B50" s="93"/>
+      <c r="C50" s="186"/>
+      <c r="D50" s="193"/>
+      <c r="E50" s="187"/>
+      <c r="F50" s="186"/>
+      <c r="G50" s="187"/>
+      <c r="H50" s="94"/>
+    </row>
+    <row r="51" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A51" s="84"/>
+      <c r="B51" s="85"/>
+      <c r="C51" s="182"/>
+      <c r="D51" s="194"/>
+      <c r="E51" s="183"/>
+      <c r="F51" s="182"/>
+      <c r="G51" s="183"/>
+      <c r="H51" s="86"/>
+    </row>
+    <row r="52" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A52" s="84"/>
+      <c r="B52" s="85"/>
+      <c r="C52" s="182"/>
+      <c r="D52" s="194"/>
+      <c r="E52" s="183"/>
+      <c r="F52" s="182"/>
+      <c r="G52" s="183"/>
+      <c r="H52" s="86"/>
+    </row>
+    <row r="53" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A53" s="84"/>
+      <c r="B53" s="85"/>
+      <c r="C53" s="182"/>
+      <c r="D53" s="194"/>
+      <c r="E53" s="183"/>
+      <c r="F53" s="182"/>
+      <c r="G53" s="183"/>
+      <c r="H53" s="86"/>
+    </row>
+    <row r="54" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A54" s="87"/>
+      <c r="B54" s="88"/>
+      <c r="C54" s="188"/>
+      <c r="D54" s="189"/>
+      <c r="E54" s="190"/>
+      <c r="F54" s="184"/>
+      <c r="G54" s="185"/>
+      <c r="H54" s="89"/>
+    </row>
+  </sheetData>
+  <mergeCells count="59">
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E1473D-9A4C-4744-958A-40BBCFE9B207}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50:E50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="35.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.25">
+      <c r="A1" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="109"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A2" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="41"/>
+      <c r="E2" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="125" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A3" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="41"/>
+      <c r="G3" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="91"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A4" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="41"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A6" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="195" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="197"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A7" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="195" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="196"/>
+      <c r="E7" s="196"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="197"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A8" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="45"/>
+      <c r="C8" s="195" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="196"/>
+      <c r="E8" s="196"/>
+      <c r="F8" s="196"/>
+      <c r="G8" s="196"/>
+      <c r="H8" s="197"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A9" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A10" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="172" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="173"/>
+      <c r="E10" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A11" s="61">
+        <v>1</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="208" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="175"/>
+      <c r="E11" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="64"/>
+      <c r="H11" s="65" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A12" s="66">
+        <v>2</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="170" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="171"/>
+      <c r="E12" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="68"/>
+      <c r="G12" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" s="70"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A13" s="66">
+        <v>3</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="170" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="171"/>
+      <c r="E13" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="69"/>
+      <c r="H13" s="70"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A14" s="71"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="170"/>
+      <c r="D14" s="171"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="75"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A15" s="71"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="171"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="75"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A16" s="71"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="171"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="75"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A17" s="71"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="170"/>
+      <c r="D17" s="171"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="75"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A18" s="71"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="170"/>
+      <c r="D18" s="171"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="75"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A19" s="71"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="171"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="75"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A20" s="71"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="170"/>
+      <c r="D20" s="171"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="75"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A21" s="71"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="170"/>
+      <c r="D21" s="171"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="75"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A22" s="71"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="170"/>
+      <c r="D22" s="171"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="75"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A23" s="71"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="170"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="75"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A24" s="71"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="170"/>
+      <c r="D24" s="171"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="75"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A25" s="71"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="170"/>
+      <c r="D25" s="171"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="75"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A26" s="71"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="170"/>
+      <c r="D26" s="171"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="75"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A27" s="71"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="170"/>
+      <c r="D27" s="171"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="75"/>
+    </row>
+    <row r="28" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A28" s="71"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="170"/>
+      <c r="D28" s="171"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="75"/>
+    </row>
+    <row r="29" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A29" s="71"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="170"/>
+      <c r="D29" s="171"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="75"/>
+    </row>
+    <row r="30" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A30" s="76"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="188"/>
+      <c r="D30" s="190"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="80"/>
+    </row>
+    <row r="31" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+    </row>
+    <row r="32" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A32" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="46"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+    </row>
+    <row r="33" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A33" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="178" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="192"/>
+      <c r="D33" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="55"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33" s="58" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A34" s="61"/>
+      <c r="B34" s="198"/>
+      <c r="C34" s="199"/>
+      <c r="D34" s="180"/>
+      <c r="E34" s="204"/>
+      <c r="F34" s="181"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="65"/>
+    </row>
+    <row r="35" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A35" s="66"/>
+      <c r="B35" s="200"/>
+      <c r="C35" s="201"/>
+      <c r="D35" s="182"/>
+      <c r="E35" s="194"/>
+      <c r="F35" s="183"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="70"/>
+    </row>
+    <row r="36" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A36" s="66"/>
+      <c r="B36" s="200"/>
+      <c r="C36" s="201"/>
+      <c r="D36" s="182"/>
+      <c r="E36" s="194"/>
+      <c r="F36" s="183"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="70"/>
+    </row>
+    <row r="37" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A37" s="66"/>
+      <c r="B37" s="200"/>
+      <c r="C37" s="201"/>
+      <c r="D37" s="182"/>
+      <c r="E37" s="194"/>
+      <c r="F37" s="183"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="70"/>
+    </row>
+    <row r="38" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A38" s="76"/>
+      <c r="B38" s="202"/>
+      <c r="C38" s="203"/>
+      <c r="D38" s="188"/>
+      <c r="E38" s="189"/>
+      <c r="F38" s="190"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="80"/>
+    </row>
+    <row r="39" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A39" s="50"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+    </row>
+    <row r="40" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A40" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="46"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+    </row>
+    <row r="41" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A41" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="178" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="191"/>
+      <c r="E41" s="192"/>
+      <c r="F41" s="178" t="s">
+        <v>85</v>
+      </c>
+      <c r="G41" s="179"/>
+      <c r="H41" s="58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A42" s="81"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="180"/>
+      <c r="D42" s="204"/>
+      <c r="E42" s="181"/>
+      <c r="F42" s="180"/>
+      <c r="G42" s="181"/>
+      <c r="H42" s="83"/>
+    </row>
+    <row r="43" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A43" s="84"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="182"/>
+      <c r="D43" s="194"/>
+      <c r="E43" s="183"/>
+      <c r="F43" s="182"/>
+      <c r="G43" s="183"/>
+      <c r="H43" s="86"/>
+    </row>
+    <row r="44" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A44" s="84"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="182"/>
+      <c r="D44" s="194"/>
+      <c r="E44" s="183"/>
+      <c r="F44" s="182"/>
+      <c r="G44" s="183"/>
+      <c r="H44" s="86"/>
+    </row>
+    <row r="45" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A45" s="84"/>
+      <c r="B45" s="85"/>
+      <c r="C45" s="182"/>
+      <c r="D45" s="194"/>
+      <c r="E45" s="183"/>
+      <c r="F45" s="182"/>
+      <c r="G45" s="183"/>
+      <c r="H45" s="86"/>
+    </row>
+    <row r="46" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A46" s="87"/>
+      <c r="B46" s="88"/>
+      <c r="C46" s="188"/>
+      <c r="D46" s="189"/>
+      <c r="E46" s="190"/>
+      <c r="F46" s="184"/>
+      <c r="G46" s="185"/>
+      <c r="H46" s="89"/>
+    </row>
+    <row r="47" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A47" s="50"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+    </row>
+    <row r="48" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A48" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="46"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
+    </row>
+    <row r="49" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A49" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="178" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" s="191"/>
+      <c r="E49" s="192"/>
+      <c r="F49" s="172" t="s">
+        <v>88</v>
+      </c>
+      <c r="G49" s="177"/>
+      <c r="H49" s="49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A50" s="92">
+        <v>1</v>
+      </c>
+      <c r="B50" s="93"/>
+      <c r="C50" s="186" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="193"/>
+      <c r="E50" s="187"/>
+      <c r="F50" s="186" t="s">
+        <v>92</v>
+      </c>
+      <c r="G50" s="187"/>
+      <c r="H50" s="94" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A51" s="223">
+        <v>2</v>
+      </c>
+      <c r="B51" s="85"/>
+      <c r="C51" s="182" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="194"/>
+      <c r="E51" s="183"/>
+      <c r="F51" s="182" t="s">
+        <v>91</v>
+      </c>
+      <c r="G51" s="183"/>
+      <c r="H51" s="86" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A52" s="223">
+        <v>3</v>
+      </c>
+      <c r="B52" s="85"/>
+      <c r="C52" s="182" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="194"/>
+      <c r="E52" s="183"/>
+      <c r="F52" s="182" t="s">
+        <v>91</v>
+      </c>
+      <c r="G52" s="183"/>
+      <c r="H52" s="86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A53" s="84"/>
+      <c r="B53" s="85"/>
+      <c r="C53" s="182"/>
+      <c r="D53" s="194"/>
+      <c r="E53" s="183"/>
+      <c r="F53" s="182"/>
+      <c r="G53" s="183"/>
+      <c r="H53" s="86"/>
+    </row>
+    <row r="54" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A54" s="87"/>
+      <c r="B54" s="88"/>
+      <c r="C54" s="188"/>
+      <c r="D54" s="189"/>
+      <c r="E54" s="190"/>
+      <c r="F54" s="184"/>
+      <c r="G54" s="185"/>
+      <c r="H54" s="89"/>
+    </row>
+  </sheetData>
+  <mergeCells count="59">
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914866C7-C47E-43EE-9D46-72EAC917C259}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="21.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.25">
+      <c r="A1" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="109"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A2" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="41"/>
+      <c r="E2" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="125" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A3" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="41"/>
+      <c r="G3" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="91"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A4" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="41"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A6" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="195" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="197"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A7" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="195" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="196"/>
+      <c r="E7" s="196"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="197"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A8" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="45"/>
+      <c r="C8" s="195" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="196"/>
+      <c r="E8" s="196"/>
+      <c r="F8" s="196"/>
+      <c r="G8" s="196"/>
+      <c r="H8" s="197"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A9" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A10" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="172" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="173"/>
+      <c r="E10" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A11" s="61">
+        <v>1</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="208" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="175"/>
+      <c r="E11" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="64"/>
+      <c r="H11" s="65" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A12" s="66">
+        <v>2</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="170" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="171"/>
+      <c r="E12" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="69"/>
+      <c r="H12" s="70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A13" s="66">
+        <v>3</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="170" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="171"/>
+      <c r="E13" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="69"/>
+      <c r="H13" s="70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A14" s="71">
+        <v>4</v>
+      </c>
+      <c r="B14" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="171"/>
+      <c r="E14" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="74"/>
+      <c r="H14" s="75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A15" s="71"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="171"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="75"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A16" s="71"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="171"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="75"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A17" s="71"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="170"/>
+      <c r="D17" s="171"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="75"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A18" s="71"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="170"/>
+      <c r="D18" s="171"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="75"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A19" s="71"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="171"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="75"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A20" s="71"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="170"/>
+      <c r="D20" s="171"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="75"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A21" s="71"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="170"/>
+      <c r="D21" s="171"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="75"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A22" s="71"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="170"/>
+      <c r="D22" s="171"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="75"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A23" s="71"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="170"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="75"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A24" s="71"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="170"/>
+      <c r="D24" s="171"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="75"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A25" s="71"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="170"/>
+      <c r="D25" s="171"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="75"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A26" s="71"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="170"/>
+      <c r="D26" s="171"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="75"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A27" s="71"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="170"/>
+      <c r="D27" s="171"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="75"/>
+    </row>
+    <row r="28" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A28" s="71"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="170"/>
+      <c r="D28" s="171"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="75"/>
+    </row>
+    <row r="29" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A29" s="71"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="170"/>
+      <c r="D29" s="171"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="75"/>
+    </row>
+    <row r="30" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A30" s="76"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="188"/>
+      <c r="D30" s="190"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="80"/>
+    </row>
+    <row r="31" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+    </row>
+    <row r="32" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A32" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="46"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+    </row>
+    <row r="33" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A33" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="178" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="192"/>
+      <c r="D33" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="55"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33" s="58" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A34" s="61"/>
+      <c r="B34" s="198"/>
+      <c r="C34" s="199"/>
+      <c r="D34" s="180"/>
+      <c r="E34" s="204"/>
+      <c r="F34" s="181"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="65"/>
+    </row>
+    <row r="35" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A35" s="66"/>
+      <c r="B35" s="200"/>
+      <c r="C35" s="201"/>
+      <c r="D35" s="182"/>
+      <c r="E35" s="194"/>
+      <c r="F35" s="183"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="70"/>
+    </row>
+    <row r="36" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A36" s="66"/>
+      <c r="B36" s="200"/>
+      <c r="C36" s="201"/>
+      <c r="D36" s="182"/>
+      <c r="E36" s="194"/>
+      <c r="F36" s="183"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="70"/>
+    </row>
+    <row r="37" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A37" s="66"/>
+      <c r="B37" s="200"/>
+      <c r="C37" s="201"/>
+      <c r="D37" s="182"/>
+      <c r="E37" s="194"/>
+      <c r="F37" s="183"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="70"/>
+    </row>
+    <row r="38" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A38" s="76"/>
+      <c r="B38" s="202"/>
+      <c r="C38" s="203"/>
+      <c r="D38" s="188"/>
+      <c r="E38" s="189"/>
+      <c r="F38" s="190"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="80"/>
+    </row>
+    <row r="39" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A39" s="50"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+    </row>
+    <row r="40" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A40" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="46"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+    </row>
+    <row r="41" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A41" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="178" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="191"/>
+      <c r="E41" s="192"/>
+      <c r="F41" s="178" t="s">
+        <v>85</v>
+      </c>
+      <c r="G41" s="179"/>
+      <c r="H41" s="58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A42" s="81">
+        <v>1</v>
+      </c>
+      <c r="B42" s="82"/>
+      <c r="C42" s="180" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" s="204"/>
+      <c r="E42" s="181"/>
+      <c r="F42" s="180" t="s">
+        <v>106</v>
+      </c>
+      <c r="G42" s="181"/>
+      <c r="H42" s="83" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A43" s="84">
+        <v>2</v>
+      </c>
+      <c r="B43" s="85"/>
+      <c r="C43" s="182" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="194"/>
+      <c r="E43" s="183"/>
+      <c r="F43" s="182" t="s">
+        <v>106</v>
+      </c>
+      <c r="G43" s="183"/>
+      <c r="H43" s="86" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A44" s="84"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="182"/>
+      <c r="D44" s="194"/>
+      <c r="E44" s="183"/>
+      <c r="F44" s="182"/>
+      <c r="G44" s="183"/>
+      <c r="H44" s="86"/>
+    </row>
+    <row r="45" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A45" s="84"/>
+      <c r="B45" s="85"/>
+      <c r="C45" s="182"/>
+      <c r="D45" s="194"/>
+      <c r="E45" s="183"/>
+      <c r="F45" s="182"/>
+      <c r="G45" s="183"/>
+      <c r="H45" s="86"/>
+    </row>
+    <row r="46" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A46" s="87"/>
+      <c r="B46" s="88"/>
+      <c r="C46" s="188"/>
+      <c r="D46" s="189"/>
+      <c r="E46" s="190"/>
+      <c r="F46" s="184"/>
+      <c r="G46" s="185"/>
+      <c r="H46" s="89"/>
+    </row>
+    <row r="47" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A47" s="50"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+    </row>
+    <row r="48" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A48" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="46"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
+    </row>
+    <row r="49" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A49" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="178" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" s="191"/>
+      <c r="E49" s="192"/>
+      <c r="F49" s="172" t="s">
+        <v>88</v>
+      </c>
+      <c r="G49" s="177"/>
+      <c r="H49" s="49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A50" s="92">
+        <v>1</v>
+      </c>
+      <c r="B50" s="93"/>
+      <c r="C50" s="186" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" s="193"/>
+      <c r="E50" s="187"/>
+      <c r="F50" s="186" t="s">
+        <v>127</v>
+      </c>
+      <c r="G50" s="187"/>
+      <c r="H50" s="94" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A51" s="84"/>
+      <c r="B51" s="85"/>
+      <c r="C51" s="182"/>
+      <c r="D51" s="194"/>
+      <c r="E51" s="183"/>
+      <c r="F51" s="182"/>
+      <c r="G51" s="183"/>
+      <c r="H51" s="86"/>
+    </row>
+    <row r="52" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A52" s="84"/>
+      <c r="B52" s="85"/>
+      <c r="C52" s="182"/>
+      <c r="D52" s="194"/>
+      <c r="E52" s="183"/>
+      <c r="F52" s="182"/>
+      <c r="G52" s="183"/>
+      <c r="H52" s="86"/>
+    </row>
+    <row r="53" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A53" s="84"/>
+      <c r="B53" s="85"/>
+      <c r="C53" s="182"/>
+      <c r="D53" s="194"/>
+      <c r="E53" s="183"/>
+      <c r="F53" s="182"/>
+      <c r="G53" s="183"/>
+      <c r="H53" s="86"/>
+    </row>
+    <row r="54" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A54" s="87"/>
+      <c r="B54" s="88"/>
+      <c r="C54" s="188"/>
+      <c r="D54" s="189"/>
+      <c r="E54" s="190"/>
+      <c r="F54" s="184"/>
+      <c r="G54" s="185"/>
+      <c r="H54" s="89"/>
+    </row>
+  </sheetData>
+  <mergeCells count="59">
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3710013-86C7-4774-86BF-AFAB9729BED5}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="21.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.25">
+      <c r="A1" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="109"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A2" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="41"/>
+      <c r="E2" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="125" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A3" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="41"/>
+      <c r="G3" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="91"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A4" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="195" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="196"/>
+      <c r="E5" s="196"/>
+      <c r="F5" s="196"/>
+      <c r="G5" s="196"/>
+      <c r="H5" s="197"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A6" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="45"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A7" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="195" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="196"/>
+      <c r="E7" s="196"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="197"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A8" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="45"/>
+      <c r="C8" s="195" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="196"/>
+      <c r="E8" s="196"/>
+      <c r="F8" s="196"/>
+      <c r="G8" s="196"/>
+      <c r="H8" s="197"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A9" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A10" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="172" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="173"/>
+      <c r="E10" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A11" s="61">
+        <v>1</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="208" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="175"/>
+      <c r="E11" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="64"/>
+      <c r="H11" s="65" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A12" s="66">
+        <v>2</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="170" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="171"/>
+      <c r="E12" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="69"/>
+      <c r="H12" s="70"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A13" s="66">
+        <v>3</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="170" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="171"/>
+      <c r="E13" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="69"/>
+      <c r="H13" s="70"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A14" s="71">
+        <v>4</v>
+      </c>
+      <c r="B14" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="170" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="171"/>
+      <c r="E14" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="74"/>
+      <c r="H14" s="75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A15" s="71">
+        <v>5</v>
+      </c>
+      <c r="B15" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="170" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="171"/>
+      <c r="E15" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="74"/>
+      <c r="H15" s="75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A16" s="71"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="171"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="75"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A17" s="71"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="170"/>
+      <c r="D17" s="171"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="75"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A18" s="71"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="170"/>
+      <c r="D18" s="171"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="75"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A19" s="71"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="171"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="75"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A20" s="71"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="170"/>
+      <c r="D20" s="171"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="75"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A21" s="71"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="170"/>
+      <c r="D21" s="171"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="75"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A22" s="71"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="170"/>
+      <c r="D22" s="171"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="75"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A23" s="71"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="170"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="75"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A24" s="71"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="170"/>
+      <c r="D24" s="171"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="75"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A25" s="71"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="170"/>
+      <c r="D25" s="171"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="75"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A26" s="71"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="170"/>
+      <c r="D26" s="171"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="75"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A27" s="71"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="170"/>
+      <c r="D27" s="171"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="75"/>
+    </row>
+    <row r="28" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A28" s="71"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="170"/>
+      <c r="D28" s="171"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="75"/>
+    </row>
+    <row r="29" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A29" s="71"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="170"/>
+      <c r="D29" s="171"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="75"/>
+    </row>
+    <row r="30" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A30" s="76"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="188"/>
+      <c r="D30" s="190"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="80"/>
+    </row>
+    <row r="31" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+    </row>
+    <row r="32" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A32" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="46"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+    </row>
+    <row r="33" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A33" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="178" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="192"/>
+      <c r="D33" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="55"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33" s="58" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A34" s="61"/>
+      <c r="B34" s="198"/>
+      <c r="C34" s="199"/>
+      <c r="D34" s="180"/>
+      <c r="E34" s="204"/>
+      <c r="F34" s="181"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="65"/>
+    </row>
+    <row r="35" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A35" s="66"/>
+      <c r="B35" s="200"/>
+      <c r="C35" s="201"/>
+      <c r="D35" s="182"/>
+      <c r="E35" s="194"/>
+      <c r="F35" s="183"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="70"/>
+    </row>
+    <row r="36" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A36" s="66"/>
+      <c r="B36" s="200"/>
+      <c r="C36" s="201"/>
+      <c r="D36" s="182"/>
+      <c r="E36" s="194"/>
+      <c r="F36" s="183"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="70"/>
+    </row>
+    <row r="37" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A37" s="66"/>
+      <c r="B37" s="200"/>
+      <c r="C37" s="201"/>
+      <c r="D37" s="182"/>
+      <c r="E37" s="194"/>
+      <c r="F37" s="183"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="70"/>
+    </row>
+    <row r="38" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A38" s="76"/>
+      <c r="B38" s="202"/>
+      <c r="C38" s="203"/>
+      <c r="D38" s="188"/>
+      <c r="E38" s="189"/>
+      <c r="F38" s="190"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="80"/>
+    </row>
+    <row r="39" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A39" s="50"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+    </row>
+    <row r="40" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A40" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="46"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+    </row>
+    <row r="41" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A41" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="178" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="191"/>
+      <c r="E41" s="192"/>
+      <c r="F41" s="178" t="s">
+        <v>85</v>
+      </c>
+      <c r="G41" s="179"/>
+      <c r="H41" s="58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A42" s="81"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="180"/>
+      <c r="D42" s="204"/>
+      <c r="E42" s="181"/>
+      <c r="F42" s="180"/>
+      <c r="G42" s="181"/>
+      <c r="H42" s="83"/>
+    </row>
+    <row r="43" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A43" s="84"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="182"/>
+      <c r="D43" s="194"/>
+      <c r="E43" s="183"/>
+      <c r="F43" s="182"/>
+      <c r="G43" s="183"/>
+      <c r="H43" s="86"/>
+    </row>
+    <row r="44" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A44" s="84"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="182"/>
+      <c r="D44" s="194"/>
+      <c r="E44" s="183"/>
+      <c r="F44" s="182"/>
+      <c r="G44" s="183"/>
+      <c r="H44" s="86"/>
+    </row>
+    <row r="45" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A45" s="84"/>
+      <c r="B45" s="85"/>
+      <c r="C45" s="182"/>
+      <c r="D45" s="194"/>
+      <c r="E45" s="183"/>
+      <c r="F45" s="182"/>
+      <c r="G45" s="183"/>
+      <c r="H45" s="86"/>
+    </row>
+    <row r="46" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A46" s="87"/>
+      <c r="B46" s="88"/>
+      <c r="C46" s="188"/>
+      <c r="D46" s="189"/>
+      <c r="E46" s="190"/>
+      <c r="F46" s="184"/>
+      <c r="G46" s="185"/>
+      <c r="H46" s="89"/>
+    </row>
+    <row r="47" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A47" s="50"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+    </row>
+    <row r="48" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A48" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="46"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
+    </row>
+    <row r="49" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A49" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="178" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" s="191"/>
+      <c r="E49" s="192"/>
+      <c r="F49" s="172" t="s">
+        <v>88</v>
+      </c>
+      <c r="G49" s="177"/>
+      <c r="H49" s="49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A50" s="92"/>
+      <c r="B50" s="93"/>
+      <c r="C50" s="186"/>
+      <c r="D50" s="193"/>
+      <c r="E50" s="187"/>
+      <c r="F50" s="186"/>
+      <c r="G50" s="187"/>
+      <c r="H50" s="94"/>
+    </row>
+    <row r="51" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A51" s="84"/>
+      <c r="B51" s="85"/>
+      <c r="C51" s="182"/>
+      <c r="D51" s="194"/>
+      <c r="E51" s="183"/>
+      <c r="F51" s="182"/>
+      <c r="G51" s="183"/>
+      <c r="H51" s="86"/>
+    </row>
+    <row r="52" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A52" s="84"/>
+      <c r="B52" s="85"/>
+      <c r="C52" s="182"/>
+      <c r="D52" s="194"/>
+      <c r="E52" s="183"/>
+      <c r="F52" s="182"/>
+      <c r="G52" s="183"/>
+      <c r="H52" s="86"/>
+    </row>
+    <row r="53" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A53" s="84"/>
+      <c r="B53" s="85"/>
+      <c r="C53" s="182"/>
+      <c r="D53" s="194"/>
+      <c r="E53" s="183"/>
+      <c r="F53" s="182"/>
+      <c r="G53" s="183"/>
+      <c r="H53" s="86"/>
+    </row>
+    <row r="54" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A54" s="87"/>
+      <c r="B54" s="88"/>
+      <c r="C54" s="188"/>
+      <c r="D54" s="189"/>
+      <c r="E54" s="190"/>
+      <c r="F54" s="184"/>
+      <c r="G54" s="185"/>
+      <c r="H54" s="89"/>
+    </row>
+  </sheetData>
+  <mergeCells count="59">
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -5158,7 +8745,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B34"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -5169,543 +8756,549 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A1" s="112" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="114"/>
+      <c r="A1" s="110" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="112"/>
     </row>
     <row r="2" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A2" s="115" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
+      <c r="A2" s="113" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
       <c r="H2" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
+        <v>17</v>
+      </c>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
       <c r="K2" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="205"/>
-      <c r="M2" s="206"/>
+        <v>21</v>
+      </c>
+      <c r="L2" s="212"/>
+      <c r="M2" s="213"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A3" s="118" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
+      <c r="A3" s="116" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="114" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
       <c r="H3" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
+        <v>26</v>
+      </c>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
       <c r="K3" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="212"/>
+      <c r="M3" s="213"/>
+    </row>
+    <row r="4" spans="1:13" ht="17.25" customHeight="1">
+      <c r="A4" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="205"/>
-      <c r="M3" s="206"/>
-    </row>
-    <row r="4" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A4" s="115" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
+      <c r="B4" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
       <c r="K4" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="205"/>
-      <c r="M4" s="206"/>
+        <v>12</v>
+      </c>
+      <c r="L4" s="212"/>
+      <c r="M4" s="213"/>
     </row>
     <row r="5" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A5" s="119"/>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="117"/>
+      <c r="A5" s="117"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="115"/>
     </row>
     <row r="6" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A6" s="121" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="116"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="117"/>
-      <c r="M6" s="122"/>
+      <c r="A6" s="119" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="114"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="120"/>
     </row>
     <row r="7" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A7" s="123" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="117"/>
-      <c r="M7" s="122"/>
+      <c r="A7" s="121" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="114"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="120"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="97"/>
-      <c r="M8" s="98"/>
+      <c r="A8" s="95"/>
+      <c r="M8" s="96"/>
     </row>
     <row r="9" spans="1:13" ht="21.75" customHeight="1">
-      <c r="A9" s="97"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="207" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="208"/>
-      <c r="I9" s="208"/>
-      <c r="J9" s="208"/>
-      <c r="K9" s="208"/>
-      <c r="L9" s="209"/>
-      <c r="M9" s="98"/>
+      <c r="A9" s="95"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="214" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" s="215"/>
+      <c r="I9" s="215"/>
+      <c r="J9" s="215"/>
+      <c r="K9" s="215"/>
+      <c r="L9" s="216"/>
+      <c r="M9" s="96"/>
     </row>
     <row r="10" spans="1:13" ht="21.75" customHeight="1">
-      <c r="A10" s="97"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="98"/>
+      <c r="A10" s="95"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="96"/>
     </row>
     <row r="11" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A11" s="97"/>
-      <c r="B11" s="210" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="202"/>
-      <c r="D11" s="203"/>
-      <c r="E11" s="203"/>
-      <c r="F11" s="204"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="98"/>
+      <c r="A11" s="95"/>
+      <c r="B11" s="217" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="209"/>
+      <c r="D11" s="210"/>
+      <c r="E11" s="210"/>
+      <c r="F11" s="211"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="96"/>
     </row>
     <row r="12" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A12" s="97"/>
-      <c r="B12" s="211"/>
-      <c r="C12" s="202"/>
-      <c r="D12" s="203"/>
-      <c r="E12" s="203"/>
-      <c r="F12" s="204"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="102"/>
-      <c r="M12" s="98"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="218"/>
+      <c r="C12" s="209"/>
+      <c r="D12" s="210"/>
+      <c r="E12" s="210"/>
+      <c r="F12" s="211"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="96"/>
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A13" s="97"/>
-      <c r="B13" s="211"/>
-      <c r="C13" s="202"/>
-      <c r="D13" s="203"/>
-      <c r="E13" s="203"/>
-      <c r="F13" s="204"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="98"/>
+      <c r="A13" s="95"/>
+      <c r="B13" s="218"/>
+      <c r="C13" s="209"/>
+      <c r="D13" s="210"/>
+      <c r="E13" s="210"/>
+      <c r="F13" s="211"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="96"/>
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A14" s="97"/>
-      <c r="B14" s="211"/>
-      <c r="C14" s="202"/>
-      <c r="D14" s="203"/>
-      <c r="E14" s="203"/>
-      <c r="F14" s="204"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="102"/>
-      <c r="M14" s="98"/>
+      <c r="A14" s="95"/>
+      <c r="B14" s="218"/>
+      <c r="C14" s="209"/>
+      <c r="D14" s="210"/>
+      <c r="E14" s="210"/>
+      <c r="F14" s="211"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="96"/>
     </row>
     <row r="15" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A15" s="97"/>
-      <c r="B15" s="211"/>
-      <c r="C15" s="202"/>
-      <c r="D15" s="203"/>
-      <c r="E15" s="203"/>
-      <c r="F15" s="204"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="98"/>
+      <c r="A15" s="95"/>
+      <c r="B15" s="218"/>
+      <c r="C15" s="209"/>
+      <c r="D15" s="210"/>
+      <c r="E15" s="210"/>
+      <c r="F15" s="211"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="100"/>
+      <c r="M15" s="96"/>
     </row>
     <row r="16" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A16" s="97"/>
-      <c r="B16" s="211"/>
-      <c r="C16" s="202"/>
-      <c r="D16" s="203"/>
-      <c r="E16" s="203"/>
-      <c r="F16" s="204"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="102"/>
-      <c r="M16" s="98"/>
+      <c r="A16" s="95"/>
+      <c r="B16" s="218"/>
+      <c r="C16" s="209"/>
+      <c r="D16" s="210"/>
+      <c r="E16" s="210"/>
+      <c r="F16" s="211"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="96"/>
     </row>
     <row r="17" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A17" s="97"/>
-      <c r="B17" s="211"/>
-      <c r="C17" s="202"/>
-      <c r="D17" s="203"/>
-      <c r="E17" s="203"/>
-      <c r="F17" s="204"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="98"/>
+      <c r="A17" s="95"/>
+      <c r="B17" s="218"/>
+      <c r="C17" s="209"/>
+      <c r="D17" s="210"/>
+      <c r="E17" s="210"/>
+      <c r="F17" s="211"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="96"/>
     </row>
     <row r="18" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A18" s="97"/>
-      <c r="B18" s="211"/>
-      <c r="C18" s="202"/>
-      <c r="D18" s="203"/>
-      <c r="E18" s="203"/>
-      <c r="F18" s="204"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="102"/>
-      <c r="L18" s="102"/>
-      <c r="M18" s="98"/>
+      <c r="A18" s="95"/>
+      <c r="B18" s="218"/>
+      <c r="C18" s="209"/>
+      <c r="D18" s="210"/>
+      <c r="E18" s="210"/>
+      <c r="F18" s="211"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="100"/>
+      <c r="M18" s="96"/>
     </row>
     <row r="19" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A19" s="97"/>
-      <c r="B19" s="211"/>
-      <c r="C19" s="202"/>
-      <c r="D19" s="203"/>
-      <c r="E19" s="203"/>
-      <c r="F19" s="204"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="102"/>
-      <c r="J19" s="102"/>
-      <c r="K19" s="102"/>
-      <c r="L19" s="102"/>
-      <c r="M19" s="98"/>
+      <c r="A19" s="95"/>
+      <c r="B19" s="218"/>
+      <c r="C19" s="209"/>
+      <c r="D19" s="210"/>
+      <c r="E19" s="210"/>
+      <c r="F19" s="211"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="100"/>
+      <c r="M19" s="96"/>
     </row>
     <row r="20" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A20" s="97"/>
-      <c r="B20" s="211"/>
-      <c r="C20" s="202"/>
-      <c r="D20" s="203"/>
-      <c r="E20" s="203"/>
-      <c r="F20" s="204"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="102"/>
-      <c r="J20" s="102"/>
-      <c r="K20" s="102"/>
-      <c r="L20" s="102"/>
-      <c r="M20" s="98"/>
+      <c r="A20" s="95"/>
+      <c r="B20" s="218"/>
+      <c r="C20" s="209"/>
+      <c r="D20" s="210"/>
+      <c r="E20" s="210"/>
+      <c r="F20" s="211"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="100"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="96"/>
     </row>
     <row r="21" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A21" s="97"/>
-      <c r="B21" s="211"/>
-      <c r="C21" s="202"/>
-      <c r="D21" s="203"/>
-      <c r="E21" s="203"/>
-      <c r="F21" s="204"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="102"/>
-      <c r="J21" s="102"/>
-      <c r="K21" s="102"/>
-      <c r="L21" s="102"/>
-      <c r="M21" s="98"/>
+      <c r="A21" s="95"/>
+      <c r="B21" s="218"/>
+      <c r="C21" s="209"/>
+      <c r="D21" s="210"/>
+      <c r="E21" s="210"/>
+      <c r="F21" s="211"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A22" s="97"/>
-      <c r="B22" s="211"/>
-      <c r="C22" s="202"/>
-      <c r="D22" s="203"/>
-      <c r="E22" s="203"/>
-      <c r="F22" s="204"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="102"/>
-      <c r="J22" s="102"/>
-      <c r="K22" s="102"/>
-      <c r="L22" s="102"/>
-      <c r="M22" s="98"/>
+      <c r="A22" s="95"/>
+      <c r="B22" s="218"/>
+      <c r="C22" s="209"/>
+      <c r="D22" s="210"/>
+      <c r="E22" s="210"/>
+      <c r="F22" s="211"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="96"/>
     </row>
     <row r="23" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A23" s="97"/>
-      <c r="B23" s="211"/>
-      <c r="C23" s="202"/>
-      <c r="D23" s="203"/>
-      <c r="E23" s="203"/>
-      <c r="F23" s="204"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="102"/>
-      <c r="I23" s="102"/>
-      <c r="J23" s="102"/>
-      <c r="K23" s="102"/>
-      <c r="L23" s="102"/>
-      <c r="M23" s="98"/>
+      <c r="A23" s="95"/>
+      <c r="B23" s="218"/>
+      <c r="C23" s="209"/>
+      <c r="D23" s="210"/>
+      <c r="E23" s="210"/>
+      <c r="F23" s="211"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="96"/>
     </row>
     <row r="24" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A24" s="97"/>
-      <c r="B24" s="211"/>
-      <c r="C24" s="202"/>
-      <c r="D24" s="203"/>
-      <c r="E24" s="203"/>
-      <c r="F24" s="204"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="102"/>
-      <c r="K24" s="102"/>
-      <c r="L24" s="102"/>
-      <c r="M24" s="98"/>
+      <c r="A24" s="95"/>
+      <c r="B24" s="218"/>
+      <c r="C24" s="209"/>
+      <c r="D24" s="210"/>
+      <c r="E24" s="210"/>
+      <c r="F24" s="211"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="96"/>
     </row>
     <row r="25" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A25" s="97"/>
-      <c r="B25" s="211"/>
-      <c r="C25" s="202"/>
-      <c r="D25" s="203"/>
-      <c r="E25" s="203"/>
-      <c r="F25" s="204"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="102"/>
-      <c r="L25" s="102"/>
-      <c r="M25" s="98"/>
+      <c r="A25" s="95"/>
+      <c r="B25" s="218"/>
+      <c r="C25" s="209"/>
+      <c r="D25" s="210"/>
+      <c r="E25" s="210"/>
+      <c r="F25" s="211"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="100"/>
+      <c r="J25" s="100"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="96"/>
     </row>
     <row r="26" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A26" s="97"/>
-      <c r="B26" s="211"/>
-      <c r="C26" s="202"/>
-      <c r="D26" s="203"/>
-      <c r="E26" s="203"/>
-      <c r="F26" s="204"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="102"/>
-      <c r="J26" s="102"/>
-      <c r="K26" s="102"/>
-      <c r="L26" s="102"/>
-      <c r="M26" s="98"/>
+      <c r="A26" s="95"/>
+      <c r="B26" s="218"/>
+      <c r="C26" s="209"/>
+      <c r="D26" s="210"/>
+      <c r="E26" s="210"/>
+      <c r="F26" s="211"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="96"/>
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A27" s="97"/>
-      <c r="B27" s="211"/>
-      <c r="C27" s="202"/>
-      <c r="D27" s="203"/>
-      <c r="E27" s="203"/>
-      <c r="F27" s="204"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="102"/>
-      <c r="I27" s="102"/>
-      <c r="J27" s="102"/>
-      <c r="K27" s="102"/>
-      <c r="L27" s="102"/>
-      <c r="M27" s="98"/>
+      <c r="A27" s="95"/>
+      <c r="B27" s="218"/>
+      <c r="C27" s="209"/>
+      <c r="D27" s="210"/>
+      <c r="E27" s="210"/>
+      <c r="F27" s="211"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="100"/>
+      <c r="M27" s="96"/>
     </row>
     <row r="28" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A28" s="97"/>
-      <c r="B28" s="211"/>
-      <c r="C28" s="202"/>
-      <c r="D28" s="203"/>
-      <c r="E28" s="203"/>
-      <c r="F28" s="204"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="102"/>
-      <c r="K28" s="102"/>
-      <c r="L28" s="102"/>
-      <c r="M28" s="98"/>
+      <c r="A28" s="95"/>
+      <c r="B28" s="218"/>
+      <c r="C28" s="209"/>
+      <c r="D28" s="210"/>
+      <c r="E28" s="210"/>
+      <c r="F28" s="211"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="100"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="100"/>
+      <c r="M28" s="96"/>
     </row>
     <row r="29" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A29" s="97"/>
-      <c r="B29" s="211"/>
-      <c r="C29" s="202"/>
-      <c r="D29" s="203"/>
-      <c r="E29" s="203"/>
-      <c r="F29" s="204"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="102"/>
-      <c r="I29" s="102"/>
-      <c r="J29" s="102"/>
-      <c r="K29" s="102"/>
-      <c r="L29" s="102"/>
-      <c r="M29" s="98"/>
+      <c r="A29" s="95"/>
+      <c r="B29" s="218"/>
+      <c r="C29" s="209"/>
+      <c r="D29" s="210"/>
+      <c r="E29" s="210"/>
+      <c r="F29" s="211"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="100"/>
+      <c r="J29" s="100"/>
+      <c r="K29" s="100"/>
+      <c r="L29" s="100"/>
+      <c r="M29" s="96"/>
     </row>
     <row r="30" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A30" s="97"/>
-      <c r="B30" s="211"/>
-      <c r="C30" s="202"/>
-      <c r="D30" s="203"/>
-      <c r="E30" s="203"/>
-      <c r="F30" s="204"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="102"/>
-      <c r="I30" s="102"/>
-      <c r="J30" s="102"/>
-      <c r="K30" s="102"/>
-      <c r="L30" s="102"/>
-      <c r="M30" s="98"/>
+      <c r="A30" s="95"/>
+      <c r="B30" s="218"/>
+      <c r="C30" s="209"/>
+      <c r="D30" s="210"/>
+      <c r="E30" s="210"/>
+      <c r="F30" s="211"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="100"/>
+      <c r="J30" s="100"/>
+      <c r="K30" s="100"/>
+      <c r="L30" s="100"/>
+      <c r="M30" s="96"/>
     </row>
     <row r="31" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A31" s="97"/>
-      <c r="B31" s="211"/>
-      <c r="C31" s="202"/>
-      <c r="D31" s="203"/>
-      <c r="E31" s="203"/>
-      <c r="F31" s="204"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="102"/>
-      <c r="I31" s="102"/>
-      <c r="J31" s="102"/>
-      <c r="K31" s="102"/>
-      <c r="L31" s="102"/>
-      <c r="M31" s="98"/>
+      <c r="A31" s="95"/>
+      <c r="B31" s="218"/>
+      <c r="C31" s="209"/>
+      <c r="D31" s="210"/>
+      <c r="E31" s="210"/>
+      <c r="F31" s="211"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="100"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="100"/>
+      <c r="K31" s="100"/>
+      <c r="L31" s="100"/>
+      <c r="M31" s="96"/>
     </row>
     <row r="32" spans="1:13" ht="23.25" customHeight="1">
-      <c r="A32" s="97"/>
-      <c r="B32" s="211"/>
-      <c r="C32" s="202"/>
-      <c r="D32" s="203"/>
-      <c r="E32" s="203"/>
-      <c r="F32" s="204"/>
-      <c r="G32" s="102"/>
-      <c r="H32" s="102"/>
-      <c r="I32" s="102"/>
-      <c r="J32" s="102"/>
-      <c r="K32" s="102"/>
-      <c r="L32" s="102"/>
-      <c r="M32" s="98"/>
+      <c r="A32" s="95"/>
+      <c r="B32" s="218"/>
+      <c r="C32" s="209"/>
+      <c r="D32" s="210"/>
+      <c r="E32" s="210"/>
+      <c r="F32" s="211"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="100"/>
+      <c r="K32" s="100"/>
+      <c r="L32" s="100"/>
+      <c r="M32" s="96"/>
     </row>
     <row r="33" spans="1:13" ht="23.25" customHeight="1">
-      <c r="A33" s="97"/>
-      <c r="B33" s="211"/>
-      <c r="C33" s="202"/>
-      <c r="D33" s="203"/>
-      <c r="E33" s="203"/>
-      <c r="F33" s="204"/>
-      <c r="G33" s="102"/>
-      <c r="H33" s="102"/>
-      <c r="I33" s="102"/>
-      <c r="J33" s="102"/>
-      <c r="K33" s="102"/>
-      <c r="L33" s="102"/>
-      <c r="M33" s="98"/>
+      <c r="A33" s="95"/>
+      <c r="B33" s="218"/>
+      <c r="C33" s="209"/>
+      <c r="D33" s="210"/>
+      <c r="E33" s="210"/>
+      <c r="F33" s="211"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="100"/>
+      <c r="J33" s="100"/>
+      <c r="K33" s="100"/>
+      <c r="L33" s="100"/>
+      <c r="M33" s="96"/>
     </row>
     <row r="34" spans="1:13" ht="23.25" customHeight="1">
-      <c r="A34" s="97"/>
-      <c r="B34" s="212"/>
-      <c r="C34" s="202"/>
-      <c r="D34" s="203"/>
-      <c r="E34" s="203"/>
-      <c r="F34" s="204"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="102"/>
-      <c r="I34" s="102"/>
-      <c r="J34" s="102"/>
-      <c r="K34" s="102"/>
-      <c r="L34" s="102"/>
-      <c r="M34" s="98"/>
+      <c r="A34" s="95"/>
+      <c r="B34" s="219"/>
+      <c r="C34" s="209"/>
+      <c r="D34" s="210"/>
+      <c r="E34" s="210"/>
+      <c r="F34" s="211"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="100"/>
+      <c r="J34" s="100"/>
+      <c r="K34" s="100"/>
+      <c r="L34" s="100"/>
+      <c r="M34" s="96"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="97"/>
-      <c r="M35" s="98"/>
+      <c r="A35" s="95"/>
+      <c r="M35" s="96"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="103"/>
-      <c r="B36" s="104"/>
-      <c r="C36" s="104"/>
-      <c r="D36" s="104"/>
-      <c r="E36" s="104"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="104"/>
-      <c r="H36" s="104"/>
-      <c r="I36" s="104"/>
-      <c r="J36" s="104"/>
-      <c r="K36" s="104"/>
-      <c r="L36" s="104"/>
-      <c r="M36" s="105"/>
+      <c r="A36" s="101"/>
+      <c r="B36" s="102"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="102"/>
+      <c r="J36" s="102"/>
+      <c r="K36" s="102"/>
+      <c r="L36" s="102"/>
+      <c r="M36" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -5747,7 +9340,11 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c8a424a7-50d7-4cd5-819d-65031445e48f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
 </p:properties>
 </file>
 
@@ -5761,19 +9358,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004898E95636345E4BA9B7207E304FF02A" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="565c9b6a8aa100445eb1ff549299857f">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b2741836-0272-4e3d-8a51-652512547cb8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4fea20e6e6d2355ca003064106e1f8fa" ns2:_="">
-    <xsd:import namespace="b2741836-0272-4e3d-8a51-652512547cb8"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006CA8BB7AF5A5B141B60E23C89B396D11" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="d61432e928429b7674a5244cfb5c3aa3">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c8a424a7-50d7-4cd5-819d-65031445e48f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c86a46b6a059d74eb0cf29d000f3e8af" ns2:_="">
+    <xsd:import namespace="c8a424a7-50d7-4cd5-819d-65031445e48f"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -5781,27 +9380,41 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b2741836-0272-4e3d-8a51-652512547cb8" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c8a424a7-50d7-4cd5-819d-65031445e48f" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="9" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="画像タグ" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="7a3d4e50-da24-4b51-9333-67165e7dee8a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceOCR" ma:index="12" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -5913,5 +9526,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5128B084-413C-4023-B4B0-54A03E17B465}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D46A067E-60F7-48F8-81FC-AAC636FABCB7}"/>
 </file>
--- a/03_DB設計書/03_データベース設計書.xlsx
+++ b/03_DB設計書/03_データベース設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26508"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\asofs1\SEC_ABCC\システム系\学科\システム開発分野2年\2022\07_企業連携\ドキュメント関連\設計書フォーマット\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarot\Desktop\2023Dev3Early\03_DB設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="326" documentId="13_ncr:1_{4EDB954B-368E-4AB0-B2DE-51F288A31CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEB0E519-50E2-421E-A9A4-126F2727978E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE53FA49-DB96-46A7-96C9-0C3838236BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27240" windowHeight="14895" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -25,8 +25,8 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'CRUD図 '!$A$1:$M$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'E-Rモデル　　エンティティ一覧'!$A$1:$F$74</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'エンティティ定義書 （ring_comments）'!$A$1:$H$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'エンティティ定義書 （rings）'!$A$1:$H$54</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'エンティティ定義書 （ring_comments）'!$A$1:$H$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'エンティティ定義書 （thread_comments）'!$A$1:$H$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'エンティティ定義書 （users）'!$A$1:$H$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'エンティティ定義書（threads）'!$A$1:$H$54</definedName>
@@ -35,17 +35,6 @@
   </definedNames>
   <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -54,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="149">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -657,6 +646,58 @@
     <rPh sb="2" eb="3">
       <t>ノウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スレッドID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>thread_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スレッドID(thread_id)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>threads</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スレッド(threads)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>投稿者ID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>投稿者ID(user_id)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザー(users)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザーID(user_id)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リングコメント</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ring_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リングID(ring_id)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リング(rings)</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -859,13 +900,15 @@
       <sz val="11"/>
       <color rgb="FF444444"/>
       <name val="Meiryo UI"/>
-      <charset val="1"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="1"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1682,7 +1725,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2035,6 +2078,12 @@
     <xf numFmtId="14" fontId="13" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2221,6 +2270,12 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2237,6 +2292,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2317,19 +2375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2422,9 +2468,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2462,9 +2508,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2497,9 +2543,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2532,9 +2595,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2719,198 +2799,198 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.125" style="11" customWidth="1"/>
-    <col min="5" max="6" width="4.125" style="17" customWidth="1"/>
-    <col min="7" max="32" width="4.125" style="11" customWidth="1"/>
+    <col min="1" max="4" width="4.109375" style="11" customWidth="1"/>
+    <col min="5" max="6" width="4.109375" style="17" customWidth="1"/>
+    <col min="7" max="32" width="4.109375" style="11" customWidth="1"/>
     <col min="33" max="36" width="4" style="11" customWidth="1"/>
     <col min="37" max="256" width="9" style="11"/>
-    <col min="257" max="288" width="4.125" style="11" customWidth="1"/>
+    <col min="257" max="288" width="4.109375" style="11" customWidth="1"/>
     <col min="289" max="292" width="4" style="11" customWidth="1"/>
     <col min="293" max="512" width="9" style="11"/>
-    <col min="513" max="544" width="4.125" style="11" customWidth="1"/>
+    <col min="513" max="544" width="4.109375" style="11" customWidth="1"/>
     <col min="545" max="548" width="4" style="11" customWidth="1"/>
     <col min="549" max="768" width="9" style="11"/>
-    <col min="769" max="800" width="4.125" style="11" customWidth="1"/>
+    <col min="769" max="800" width="4.109375" style="11" customWidth="1"/>
     <col min="801" max="804" width="4" style="11" customWidth="1"/>
     <col min="805" max="1024" width="9" style="11"/>
-    <col min="1025" max="1056" width="4.125" style="11" customWidth="1"/>
+    <col min="1025" max="1056" width="4.109375" style="11" customWidth="1"/>
     <col min="1057" max="1060" width="4" style="11" customWidth="1"/>
     <col min="1061" max="1280" width="9" style="11"/>
-    <col min="1281" max="1312" width="4.125" style="11" customWidth="1"/>
+    <col min="1281" max="1312" width="4.109375" style="11" customWidth="1"/>
     <col min="1313" max="1316" width="4" style="11" customWidth="1"/>
     <col min="1317" max="1536" width="9" style="11"/>
-    <col min="1537" max="1568" width="4.125" style="11" customWidth="1"/>
+    <col min="1537" max="1568" width="4.109375" style="11" customWidth="1"/>
     <col min="1569" max="1572" width="4" style="11" customWidth="1"/>
     <col min="1573" max="1792" width="9" style="11"/>
-    <col min="1793" max="1824" width="4.125" style="11" customWidth="1"/>
+    <col min="1793" max="1824" width="4.109375" style="11" customWidth="1"/>
     <col min="1825" max="1828" width="4" style="11" customWidth="1"/>
     <col min="1829" max="2048" width="9" style="11"/>
-    <col min="2049" max="2080" width="4.125" style="11" customWidth="1"/>
+    <col min="2049" max="2080" width="4.109375" style="11" customWidth="1"/>
     <col min="2081" max="2084" width="4" style="11" customWidth="1"/>
     <col min="2085" max="2304" width="9" style="11"/>
-    <col min="2305" max="2336" width="4.125" style="11" customWidth="1"/>
+    <col min="2305" max="2336" width="4.109375" style="11" customWidth="1"/>
     <col min="2337" max="2340" width="4" style="11" customWidth="1"/>
     <col min="2341" max="2560" width="9" style="11"/>
-    <col min="2561" max="2592" width="4.125" style="11" customWidth="1"/>
+    <col min="2561" max="2592" width="4.109375" style="11" customWidth="1"/>
     <col min="2593" max="2596" width="4" style="11" customWidth="1"/>
     <col min="2597" max="2816" width="9" style="11"/>
-    <col min="2817" max="2848" width="4.125" style="11" customWidth="1"/>
+    <col min="2817" max="2848" width="4.109375" style="11" customWidth="1"/>
     <col min="2849" max="2852" width="4" style="11" customWidth="1"/>
     <col min="2853" max="3072" width="9" style="11"/>
-    <col min="3073" max="3104" width="4.125" style="11" customWidth="1"/>
+    <col min="3073" max="3104" width="4.109375" style="11" customWidth="1"/>
     <col min="3105" max="3108" width="4" style="11" customWidth="1"/>
     <col min="3109" max="3328" width="9" style="11"/>
-    <col min="3329" max="3360" width="4.125" style="11" customWidth="1"/>
+    <col min="3329" max="3360" width="4.109375" style="11" customWidth="1"/>
     <col min="3361" max="3364" width="4" style="11" customWidth="1"/>
     <col min="3365" max="3584" width="9" style="11"/>
-    <col min="3585" max="3616" width="4.125" style="11" customWidth="1"/>
+    <col min="3585" max="3616" width="4.109375" style="11" customWidth="1"/>
     <col min="3617" max="3620" width="4" style="11" customWidth="1"/>
     <col min="3621" max="3840" width="9" style="11"/>
-    <col min="3841" max="3872" width="4.125" style="11" customWidth="1"/>
+    <col min="3841" max="3872" width="4.109375" style="11" customWidth="1"/>
     <col min="3873" max="3876" width="4" style="11" customWidth="1"/>
     <col min="3877" max="4096" width="9" style="11"/>
-    <col min="4097" max="4128" width="4.125" style="11" customWidth="1"/>
+    <col min="4097" max="4128" width="4.109375" style="11" customWidth="1"/>
     <col min="4129" max="4132" width="4" style="11" customWidth="1"/>
     <col min="4133" max="4352" width="9" style="11"/>
-    <col min="4353" max="4384" width="4.125" style="11" customWidth="1"/>
+    <col min="4353" max="4384" width="4.109375" style="11" customWidth="1"/>
     <col min="4385" max="4388" width="4" style="11" customWidth="1"/>
     <col min="4389" max="4608" width="9" style="11"/>
-    <col min="4609" max="4640" width="4.125" style="11" customWidth="1"/>
+    <col min="4609" max="4640" width="4.109375" style="11" customWidth="1"/>
     <col min="4641" max="4644" width="4" style="11" customWidth="1"/>
     <col min="4645" max="4864" width="9" style="11"/>
-    <col min="4865" max="4896" width="4.125" style="11" customWidth="1"/>
+    <col min="4865" max="4896" width="4.109375" style="11" customWidth="1"/>
     <col min="4897" max="4900" width="4" style="11" customWidth="1"/>
     <col min="4901" max="5120" width="9" style="11"/>
-    <col min="5121" max="5152" width="4.125" style="11" customWidth="1"/>
+    <col min="5121" max="5152" width="4.109375" style="11" customWidth="1"/>
     <col min="5153" max="5156" width="4" style="11" customWidth="1"/>
     <col min="5157" max="5376" width="9" style="11"/>
-    <col min="5377" max="5408" width="4.125" style="11" customWidth="1"/>
+    <col min="5377" max="5408" width="4.109375" style="11" customWidth="1"/>
     <col min="5409" max="5412" width="4" style="11" customWidth="1"/>
     <col min="5413" max="5632" width="9" style="11"/>
-    <col min="5633" max="5664" width="4.125" style="11" customWidth="1"/>
+    <col min="5633" max="5664" width="4.109375" style="11" customWidth="1"/>
     <col min="5665" max="5668" width="4" style="11" customWidth="1"/>
     <col min="5669" max="5888" width="9" style="11"/>
-    <col min="5889" max="5920" width="4.125" style="11" customWidth="1"/>
+    <col min="5889" max="5920" width="4.109375" style="11" customWidth="1"/>
     <col min="5921" max="5924" width="4" style="11" customWidth="1"/>
     <col min="5925" max="6144" width="9" style="11"/>
-    <col min="6145" max="6176" width="4.125" style="11" customWidth="1"/>
+    <col min="6145" max="6176" width="4.109375" style="11" customWidth="1"/>
     <col min="6177" max="6180" width="4" style="11" customWidth="1"/>
     <col min="6181" max="6400" width="9" style="11"/>
-    <col min="6401" max="6432" width="4.125" style="11" customWidth="1"/>
+    <col min="6401" max="6432" width="4.109375" style="11" customWidth="1"/>
     <col min="6433" max="6436" width="4" style="11" customWidth="1"/>
     <col min="6437" max="6656" width="9" style="11"/>
-    <col min="6657" max="6688" width="4.125" style="11" customWidth="1"/>
+    <col min="6657" max="6688" width="4.109375" style="11" customWidth="1"/>
     <col min="6689" max="6692" width="4" style="11" customWidth="1"/>
     <col min="6693" max="6912" width="9" style="11"/>
-    <col min="6913" max="6944" width="4.125" style="11" customWidth="1"/>
+    <col min="6913" max="6944" width="4.109375" style="11" customWidth="1"/>
     <col min="6945" max="6948" width="4" style="11" customWidth="1"/>
     <col min="6949" max="7168" width="9" style="11"/>
-    <col min="7169" max="7200" width="4.125" style="11" customWidth="1"/>
+    <col min="7169" max="7200" width="4.109375" style="11" customWidth="1"/>
     <col min="7201" max="7204" width="4" style="11" customWidth="1"/>
     <col min="7205" max="7424" width="9" style="11"/>
-    <col min="7425" max="7456" width="4.125" style="11" customWidth="1"/>
+    <col min="7425" max="7456" width="4.109375" style="11" customWidth="1"/>
     <col min="7457" max="7460" width="4" style="11" customWidth="1"/>
     <col min="7461" max="7680" width="9" style="11"/>
-    <col min="7681" max="7712" width="4.125" style="11" customWidth="1"/>
+    <col min="7681" max="7712" width="4.109375" style="11" customWidth="1"/>
     <col min="7713" max="7716" width="4" style="11" customWidth="1"/>
     <col min="7717" max="7936" width="9" style="11"/>
-    <col min="7937" max="7968" width="4.125" style="11" customWidth="1"/>
+    <col min="7937" max="7968" width="4.109375" style="11" customWidth="1"/>
     <col min="7969" max="7972" width="4" style="11" customWidth="1"/>
     <col min="7973" max="8192" width="9" style="11"/>
-    <col min="8193" max="8224" width="4.125" style="11" customWidth="1"/>
+    <col min="8193" max="8224" width="4.109375" style="11" customWidth="1"/>
     <col min="8225" max="8228" width="4" style="11" customWidth="1"/>
     <col min="8229" max="8448" width="9" style="11"/>
-    <col min="8449" max="8480" width="4.125" style="11" customWidth="1"/>
+    <col min="8449" max="8480" width="4.109375" style="11" customWidth="1"/>
     <col min="8481" max="8484" width="4" style="11" customWidth="1"/>
     <col min="8485" max="8704" width="9" style="11"/>
-    <col min="8705" max="8736" width="4.125" style="11" customWidth="1"/>
+    <col min="8705" max="8736" width="4.109375" style="11" customWidth="1"/>
     <col min="8737" max="8740" width="4" style="11" customWidth="1"/>
     <col min="8741" max="8960" width="9" style="11"/>
-    <col min="8961" max="8992" width="4.125" style="11" customWidth="1"/>
+    <col min="8961" max="8992" width="4.109375" style="11" customWidth="1"/>
     <col min="8993" max="8996" width="4" style="11" customWidth="1"/>
     <col min="8997" max="9216" width="9" style="11"/>
-    <col min="9217" max="9248" width="4.125" style="11" customWidth="1"/>
+    <col min="9217" max="9248" width="4.109375" style="11" customWidth="1"/>
     <col min="9249" max="9252" width="4" style="11" customWidth="1"/>
     <col min="9253" max="9472" width="9" style="11"/>
-    <col min="9473" max="9504" width="4.125" style="11" customWidth="1"/>
+    <col min="9473" max="9504" width="4.109375" style="11" customWidth="1"/>
     <col min="9505" max="9508" width="4" style="11" customWidth="1"/>
     <col min="9509" max="9728" width="9" style="11"/>
-    <col min="9729" max="9760" width="4.125" style="11" customWidth="1"/>
+    <col min="9729" max="9760" width="4.109375" style="11" customWidth="1"/>
     <col min="9761" max="9764" width="4" style="11" customWidth="1"/>
     <col min="9765" max="9984" width="9" style="11"/>
-    <col min="9985" max="10016" width="4.125" style="11" customWidth="1"/>
+    <col min="9985" max="10016" width="4.109375" style="11" customWidth="1"/>
     <col min="10017" max="10020" width="4" style="11" customWidth="1"/>
     <col min="10021" max="10240" width="9" style="11"/>
-    <col min="10241" max="10272" width="4.125" style="11" customWidth="1"/>
+    <col min="10241" max="10272" width="4.109375" style="11" customWidth="1"/>
     <col min="10273" max="10276" width="4" style="11" customWidth="1"/>
     <col min="10277" max="10496" width="9" style="11"/>
-    <col min="10497" max="10528" width="4.125" style="11" customWidth="1"/>
+    <col min="10497" max="10528" width="4.109375" style="11" customWidth="1"/>
     <col min="10529" max="10532" width="4" style="11" customWidth="1"/>
     <col min="10533" max="10752" width="9" style="11"/>
-    <col min="10753" max="10784" width="4.125" style="11" customWidth="1"/>
+    <col min="10753" max="10784" width="4.109375" style="11" customWidth="1"/>
     <col min="10785" max="10788" width="4" style="11" customWidth="1"/>
     <col min="10789" max="11008" width="9" style="11"/>
-    <col min="11009" max="11040" width="4.125" style="11" customWidth="1"/>
+    <col min="11009" max="11040" width="4.109375" style="11" customWidth="1"/>
     <col min="11041" max="11044" width="4" style="11" customWidth="1"/>
     <col min="11045" max="11264" width="9" style="11"/>
-    <col min="11265" max="11296" width="4.125" style="11" customWidth="1"/>
+    <col min="11265" max="11296" width="4.109375" style="11" customWidth="1"/>
     <col min="11297" max="11300" width="4" style="11" customWidth="1"/>
     <col min="11301" max="11520" width="9" style="11"/>
-    <col min="11521" max="11552" width="4.125" style="11" customWidth="1"/>
+    <col min="11521" max="11552" width="4.109375" style="11" customWidth="1"/>
     <col min="11553" max="11556" width="4" style="11" customWidth="1"/>
     <col min="11557" max="11776" width="9" style="11"/>
-    <col min="11777" max="11808" width="4.125" style="11" customWidth="1"/>
+    <col min="11777" max="11808" width="4.109375" style="11" customWidth="1"/>
     <col min="11809" max="11812" width="4" style="11" customWidth="1"/>
     <col min="11813" max="12032" width="9" style="11"/>
-    <col min="12033" max="12064" width="4.125" style="11" customWidth="1"/>
+    <col min="12033" max="12064" width="4.109375" style="11" customWidth="1"/>
     <col min="12065" max="12068" width="4" style="11" customWidth="1"/>
     <col min="12069" max="12288" width="9" style="11"/>
-    <col min="12289" max="12320" width="4.125" style="11" customWidth="1"/>
+    <col min="12289" max="12320" width="4.109375" style="11" customWidth="1"/>
     <col min="12321" max="12324" width="4" style="11" customWidth="1"/>
     <col min="12325" max="12544" width="9" style="11"/>
-    <col min="12545" max="12576" width="4.125" style="11" customWidth="1"/>
+    <col min="12545" max="12576" width="4.109375" style="11" customWidth="1"/>
     <col min="12577" max="12580" width="4" style="11" customWidth="1"/>
     <col min="12581" max="12800" width="9" style="11"/>
-    <col min="12801" max="12832" width="4.125" style="11" customWidth="1"/>
+    <col min="12801" max="12832" width="4.109375" style="11" customWidth="1"/>
     <col min="12833" max="12836" width="4" style="11" customWidth="1"/>
     <col min="12837" max="13056" width="9" style="11"/>
-    <col min="13057" max="13088" width="4.125" style="11" customWidth="1"/>
+    <col min="13057" max="13088" width="4.109375" style="11" customWidth="1"/>
     <col min="13089" max="13092" width="4" style="11" customWidth="1"/>
     <col min="13093" max="13312" width="9" style="11"/>
-    <col min="13313" max="13344" width="4.125" style="11" customWidth="1"/>
+    <col min="13313" max="13344" width="4.109375" style="11" customWidth="1"/>
     <col min="13345" max="13348" width="4" style="11" customWidth="1"/>
     <col min="13349" max="13568" width="9" style="11"/>
-    <col min="13569" max="13600" width="4.125" style="11" customWidth="1"/>
+    <col min="13569" max="13600" width="4.109375" style="11" customWidth="1"/>
     <col min="13601" max="13604" width="4" style="11" customWidth="1"/>
     <col min="13605" max="13824" width="9" style="11"/>
-    <col min="13825" max="13856" width="4.125" style="11" customWidth="1"/>
+    <col min="13825" max="13856" width="4.109375" style="11" customWidth="1"/>
     <col min="13857" max="13860" width="4" style="11" customWidth="1"/>
     <col min="13861" max="14080" width="9" style="11"/>
-    <col min="14081" max="14112" width="4.125" style="11" customWidth="1"/>
+    <col min="14081" max="14112" width="4.109375" style="11" customWidth="1"/>
     <col min="14113" max="14116" width="4" style="11" customWidth="1"/>
     <col min="14117" max="14336" width="9" style="11"/>
-    <col min="14337" max="14368" width="4.125" style="11" customWidth="1"/>
+    <col min="14337" max="14368" width="4.109375" style="11" customWidth="1"/>
     <col min="14369" max="14372" width="4" style="11" customWidth="1"/>
     <col min="14373" max="14592" width="9" style="11"/>
-    <col min="14593" max="14624" width="4.125" style="11" customWidth="1"/>
+    <col min="14593" max="14624" width="4.109375" style="11" customWidth="1"/>
     <col min="14625" max="14628" width="4" style="11" customWidth="1"/>
     <col min="14629" max="14848" width="9" style="11"/>
-    <col min="14849" max="14880" width="4.125" style="11" customWidth="1"/>
+    <col min="14849" max="14880" width="4.109375" style="11" customWidth="1"/>
     <col min="14881" max="14884" width="4" style="11" customWidth="1"/>
     <col min="14885" max="15104" width="9" style="11"/>
-    <col min="15105" max="15136" width="4.125" style="11" customWidth="1"/>
+    <col min="15105" max="15136" width="4.109375" style="11" customWidth="1"/>
     <col min="15137" max="15140" width="4" style="11" customWidth="1"/>
     <col min="15141" max="15360" width="9" style="11"/>
-    <col min="15361" max="15392" width="4.125" style="11" customWidth="1"/>
+    <col min="15361" max="15392" width="4.109375" style="11" customWidth="1"/>
     <col min="15393" max="15396" width="4" style="11" customWidth="1"/>
     <col min="15397" max="15616" width="9" style="11"/>
-    <col min="15617" max="15648" width="4.125" style="11" customWidth="1"/>
+    <col min="15617" max="15648" width="4.109375" style="11" customWidth="1"/>
     <col min="15649" max="15652" width="4" style="11" customWidth="1"/>
     <col min="15653" max="15872" width="9" style="11"/>
-    <col min="15873" max="15904" width="4.125" style="11" customWidth="1"/>
+    <col min="15873" max="15904" width="4.109375" style="11" customWidth="1"/>
     <col min="15905" max="15908" width="4" style="11" customWidth="1"/>
     <col min="15909" max="16128" width="9" style="11"/>
-    <col min="16129" max="16160" width="4.125" style="11" customWidth="1"/>
+    <col min="16129" max="16160" width="4.109375" style="11" customWidth="1"/>
     <col min="16161" max="16164" width="4" style="11" customWidth="1"/>
     <col min="16165" max="16384" width="9" style="11"/>
   </cols>
@@ -3147,19 +3227,19 @@
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
-      <c r="U3" s="126" t="s">
+      <c r="U3" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="V3" s="128"/>
-      <c r="W3" s="152"/>
-      <c r="X3" s="127"/>
-      <c r="Y3" s="127"/>
-      <c r="Z3" s="127"/>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="127"/>
-      <c r="AC3" s="127"/>
-      <c r="AD3" s="127"/>
-      <c r="AE3" s="128"/>
+      <c r="V3" s="130"/>
+      <c r="W3" s="154"/>
+      <c r="X3" s="129"/>
+      <c r="Y3" s="129"/>
+      <c r="Z3" s="129"/>
+      <c r="AA3" s="129"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="129"/>
+      <c r="AD3" s="129"/>
+      <c r="AE3" s="130"/>
       <c r="AF3" s="12"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -3271,20 +3351,20 @@
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
       <c r="E7" s="36"/>
-      <c r="F7" s="137" t="s">
+      <c r="F7" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="138"/>
-      <c r="P7" s="138"/>
-      <c r="Q7" s="139"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="140"/>
+      <c r="L7" s="140"/>
+      <c r="M7" s="140"/>
+      <c r="N7" s="140"/>
+      <c r="O7" s="140"/>
+      <c r="P7" s="140"/>
+      <c r="Q7" s="141"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
       <c r="T7" s="12"/>
@@ -3302,80 +3382,80 @@
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="12"/>
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="141"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="142"/>
-      <c r="F8" s="146" t="s">
+      <c r="C8" s="143"/>
+      <c r="D8" s="143"/>
+      <c r="E8" s="144"/>
+      <c r="F8" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="147"/>
-      <c r="H8" s="147"/>
-      <c r="I8" s="147"/>
-      <c r="J8" s="147"/>
-      <c r="K8" s="147"/>
-      <c r="L8" s="147"/>
-      <c r="M8" s="147"/>
-      <c r="N8" s="147"/>
-      <c r="O8" s="147"/>
-      <c r="P8" s="147"/>
-      <c r="Q8" s="148"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="149"/>
+      <c r="J8" s="149"/>
+      <c r="K8" s="149"/>
+      <c r="L8" s="149"/>
+      <c r="M8" s="149"/>
+      <c r="N8" s="149"/>
+      <c r="O8" s="149"/>
+      <c r="P8" s="149"/>
+      <c r="Q8" s="150"/>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
-      <c r="W8" s="136" t="s">
+      <c r="W8" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="X8" s="136"/>
-      <c r="Y8" s="136"/>
-      <c r="Z8" s="136" t="s">
+      <c r="X8" s="138"/>
+      <c r="Y8" s="138"/>
+      <c r="Z8" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="AA8" s="136"/>
-      <c r="AB8" s="136"/>
-      <c r="AC8" s="136" t="s">
+      <c r="AA8" s="138"/>
+      <c r="AB8" s="138"/>
+      <c r="AC8" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="AD8" s="136"/>
-      <c r="AE8" s="136"/>
+      <c r="AD8" s="138"/>
+      <c r="AE8" s="138"/>
       <c r="AF8" s="12"/>
     </row>
     <row r="9" spans="1:176" ht="15.75" customHeight="1">
       <c r="A9" s="12"/>
-      <c r="B9" s="143"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="150"/>
-      <c r="H9" s="150"/>
-      <c r="I9" s="150"/>
-      <c r="J9" s="150"/>
-      <c r="K9" s="150"/>
-      <c r="L9" s="150"/>
-      <c r="M9" s="150"/>
-      <c r="N9" s="150"/>
-      <c r="O9" s="150"/>
-      <c r="P9" s="150"/>
-      <c r="Q9" s="151"/>
+      <c r="B9" s="145"/>
+      <c r="C9" s="146"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="152"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="152"/>
+      <c r="J9" s="152"/>
+      <c r="K9" s="152"/>
+      <c r="L9" s="152"/>
+      <c r="M9" s="152"/>
+      <c r="N9" s="152"/>
+      <c r="O9" s="152"/>
+      <c r="P9" s="152"/>
+      <c r="Q9" s="153"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
-      <c r="W9" s="153"/>
-      <c r="X9" s="154"/>
-      <c r="Y9" s="155"/>
-      <c r="Z9" s="153"/>
-      <c r="AA9" s="154"/>
-      <c r="AB9" s="155"/>
-      <c r="AC9" s="153"/>
-      <c r="AD9" s="154"/>
-      <c r="AE9" s="155"/>
+      <c r="W9" s="155"/>
+      <c r="X9" s="156"/>
+      <c r="Y9" s="157"/>
+      <c r="Z9" s="155"/>
+      <c r="AA9" s="156"/>
+      <c r="AB9" s="157"/>
+      <c r="AC9" s="155"/>
+      <c r="AD9" s="156"/>
+      <c r="AE9" s="157"/>
       <c r="AF9" s="12"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
@@ -3401,15 +3481,15 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
-      <c r="W10" s="156"/>
-      <c r="X10" s="157"/>
-      <c r="Y10" s="158"/>
-      <c r="Z10" s="156"/>
-      <c r="AA10" s="157"/>
-      <c r="AB10" s="158"/>
-      <c r="AC10" s="156"/>
-      <c r="AD10" s="157"/>
-      <c r="AE10" s="158"/>
+      <c r="W10" s="158"/>
+      <c r="X10" s="159"/>
+      <c r="Y10" s="160"/>
+      <c r="Z10" s="158"/>
+      <c r="AA10" s="159"/>
+      <c r="AB10" s="160"/>
+      <c r="AC10" s="158"/>
+      <c r="AD10" s="159"/>
+      <c r="AE10" s="160"/>
       <c r="AF10" s="12"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -3435,15 +3515,15 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
-      <c r="W11" s="156"/>
-      <c r="X11" s="157"/>
-      <c r="Y11" s="158"/>
-      <c r="Z11" s="156"/>
-      <c r="AA11" s="157"/>
-      <c r="AB11" s="158"/>
-      <c r="AC11" s="156"/>
-      <c r="AD11" s="157"/>
-      <c r="AE11" s="158"/>
+      <c r="W11" s="158"/>
+      <c r="X11" s="159"/>
+      <c r="Y11" s="160"/>
+      <c r="Z11" s="158"/>
+      <c r="AA11" s="159"/>
+      <c r="AB11" s="160"/>
+      <c r="AC11" s="158"/>
+      <c r="AD11" s="159"/>
+      <c r="AE11" s="160"/>
       <c r="AF11" s="12"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -3469,15 +3549,15 @@
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
-      <c r="W12" s="159"/>
-      <c r="X12" s="160"/>
-      <c r="Y12" s="161"/>
-      <c r="Z12" s="159"/>
-      <c r="AA12" s="160"/>
-      <c r="AB12" s="161"/>
-      <c r="AC12" s="159"/>
-      <c r="AD12" s="160"/>
-      <c r="AE12" s="161"/>
+      <c r="W12" s="161"/>
+      <c r="X12" s="162"/>
+      <c r="Y12" s="163"/>
+      <c r="Z12" s="161"/>
+      <c r="AA12" s="162"/>
+      <c r="AB12" s="163"/>
+      <c r="AC12" s="161"/>
+      <c r="AD12" s="162"/>
+      <c r="AE12" s="163"/>
       <c r="AF12" s="12"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -3572,106 +3652,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="12"/>
-      <c r="B16" s="135" t="s">
+      <c r="B16" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="135"/>
-      <c r="D16" s="135"/>
-      <c r="E16" s="135"/>
-      <c r="F16" s="135"/>
-      <c r="G16" s="135"/>
-      <c r="H16" s="135"/>
-      <c r="I16" s="135"/>
-      <c r="J16" s="135"/>
-      <c r="K16" s="135"/>
-      <c r="L16" s="135"/>
-      <c r="M16" s="135"/>
-      <c r="N16" s="135"/>
-      <c r="O16" s="135"/>
-      <c r="P16" s="135"/>
-      <c r="Q16" s="135"/>
-      <c r="R16" s="135"/>
-      <c r="S16" s="135"/>
-      <c r="T16" s="135"/>
-      <c r="U16" s="135"/>
-      <c r="V16" s="135"/>
-      <c r="W16" s="135"/>
-      <c r="X16" s="135"/>
-      <c r="Y16" s="135"/>
-      <c r="Z16" s="135"/>
-      <c r="AA16" s="135"/>
-      <c r="AB16" s="135"/>
-      <c r="AC16" s="135"/>
-      <c r="AD16" s="135"/>
-      <c r="AE16" s="135"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="137"/>
+      <c r="L16" s="137"/>
+      <c r="M16" s="137"/>
+      <c r="N16" s="137"/>
+      <c r="O16" s="137"/>
+      <c r="P16" s="137"/>
+      <c r="Q16" s="137"/>
+      <c r="R16" s="137"/>
+      <c r="S16" s="137"/>
+      <c r="T16" s="137"/>
+      <c r="U16" s="137"/>
+      <c r="V16" s="137"/>
+      <c r="W16" s="137"/>
+      <c r="X16" s="137"/>
+      <c r="Y16" s="137"/>
+      <c r="Z16" s="137"/>
+      <c r="AA16" s="137"/>
+      <c r="AB16" s="137"/>
+      <c r="AC16" s="137"/>
+      <c r="AD16" s="137"/>
+      <c r="AE16" s="137"/>
       <c r="AF16" s="12"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="12"/>
-      <c r="B17" s="135"/>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="135"/>
-      <c r="K17" s="135"/>
-      <c r="L17" s="135"/>
-      <c r="M17" s="135"/>
-      <c r="N17" s="135"/>
-      <c r="O17" s="135"/>
-      <c r="P17" s="135"/>
-      <c r="Q17" s="135"/>
-      <c r="R17" s="135"/>
-      <c r="S17" s="135"/>
-      <c r="T17" s="135"/>
-      <c r="U17" s="135"/>
-      <c r="V17" s="135"/>
-      <c r="W17" s="135"/>
-      <c r="X17" s="135"/>
-      <c r="Y17" s="135"/>
-      <c r="Z17" s="135"/>
-      <c r="AA17" s="135"/>
-      <c r="AB17" s="135"/>
-      <c r="AC17" s="135"/>
-      <c r="AD17" s="135"/>
-      <c r="AE17" s="135"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="137"/>
+      <c r="L17" s="137"/>
+      <c r="M17" s="137"/>
+      <c r="N17" s="137"/>
+      <c r="O17" s="137"/>
+      <c r="P17" s="137"/>
+      <c r="Q17" s="137"/>
+      <c r="R17" s="137"/>
+      <c r="S17" s="137"/>
+      <c r="T17" s="137"/>
+      <c r="U17" s="137"/>
+      <c r="V17" s="137"/>
+      <c r="W17" s="137"/>
+      <c r="X17" s="137"/>
+      <c r="Y17" s="137"/>
+      <c r="Z17" s="137"/>
+      <c r="AA17" s="137"/>
+      <c r="AB17" s="137"/>
+      <c r="AC17" s="137"/>
+      <c r="AD17" s="137"/>
+      <c r="AE17" s="137"/>
       <c r="AF17" s="12"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="12"/>
-      <c r="B18" s="135"/>
-      <c r="C18" s="135"/>
-      <c r="D18" s="135"/>
-      <c r="E18" s="135"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="135"/>
-      <c r="H18" s="135"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="135"/>
-      <c r="K18" s="135"/>
-      <c r="L18" s="135"/>
-      <c r="M18" s="135"/>
-      <c r="N18" s="135"/>
-      <c r="O18" s="135"/>
-      <c r="P18" s="135"/>
-      <c r="Q18" s="135"/>
-      <c r="R18" s="135"/>
-      <c r="S18" s="135"/>
-      <c r="T18" s="135"/>
-      <c r="U18" s="135"/>
-      <c r="V18" s="135"/>
-      <c r="W18" s="135"/>
-      <c r="X18" s="135"/>
-      <c r="Y18" s="135"/>
-      <c r="Z18" s="135"/>
-      <c r="AA18" s="135"/>
-      <c r="AB18" s="135"/>
-      <c r="AC18" s="135"/>
-      <c r="AD18" s="135"/>
-      <c r="AE18" s="135"/>
+      <c r="B18" s="137"/>
+      <c r="C18" s="137"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="137"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="137"/>
+      <c r="O18" s="137"/>
+      <c r="P18" s="137"/>
+      <c r="Q18" s="137"/>
+      <c r="R18" s="137"/>
+      <c r="S18" s="137"/>
+      <c r="T18" s="137"/>
+      <c r="U18" s="137"/>
+      <c r="V18" s="137"/>
+      <c r="W18" s="137"/>
+      <c r="X18" s="137"/>
+      <c r="Y18" s="137"/>
+      <c r="Z18" s="137"/>
+      <c r="AA18" s="137"/>
+      <c r="AB18" s="137"/>
+      <c r="AC18" s="137"/>
+      <c r="AD18" s="137"/>
+      <c r="AE18" s="137"/>
       <c r="AF18" s="12"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -3810,384 +3890,384 @@
     </row>
     <row r="23" spans="1:32" s="39" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="37"/>
-      <c r="B23" s="126" t="s">
+      <c r="B23" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="127"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="128"/>
-      <c r="F23" s="126" t="s">
+      <c r="C23" s="129"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="127"/>
-      <c r="H23" s="127"/>
-      <c r="I23" s="128"/>
-      <c r="J23" s="126" t="s">
+      <c r="G23" s="129"/>
+      <c r="H23" s="129"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="K23" s="127"/>
-      <c r="L23" s="127"/>
-      <c r="M23" s="127"/>
-      <c r="N23" s="127"/>
-      <c r="O23" s="127"/>
-      <c r="P23" s="127"/>
-      <c r="Q23" s="127"/>
-      <c r="R23" s="127"/>
-      <c r="S23" s="127"/>
-      <c r="T23" s="127"/>
-      <c r="U23" s="127"/>
-      <c r="V23" s="127"/>
-      <c r="W23" s="127"/>
-      <c r="X23" s="127"/>
-      <c r="Y23" s="127"/>
-      <c r="Z23" s="127"/>
-      <c r="AA23" s="127"/>
-      <c r="AB23" s="128"/>
-      <c r="AC23" s="126" t="s">
+      <c r="K23" s="129"/>
+      <c r="L23" s="129"/>
+      <c r="M23" s="129"/>
+      <c r="N23" s="129"/>
+      <c r="O23" s="129"/>
+      <c r="P23" s="129"/>
+      <c r="Q23" s="129"/>
+      <c r="R23" s="129"/>
+      <c r="S23" s="129"/>
+      <c r="T23" s="129"/>
+      <c r="U23" s="129"/>
+      <c r="V23" s="129"/>
+      <c r="W23" s="129"/>
+      <c r="X23" s="129"/>
+      <c r="Y23" s="129"/>
+      <c r="Z23" s="129"/>
+      <c r="AA23" s="129"/>
+      <c r="AB23" s="130"/>
+      <c r="AC23" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="AD23" s="127"/>
-      <c r="AE23" s="128"/>
+      <c r="AD23" s="129"/>
+      <c r="AE23" s="130"/>
       <c r="AF23" s="37"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="12"/>
-      <c r="B24" s="126"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="129"/>
-      <c r="G24" s="130"/>
-      <c r="H24" s="130"/>
-      <c r="I24" s="131"/>
-      <c r="J24" s="132"/>
-      <c r="K24" s="133"/>
-      <c r="L24" s="133"/>
-      <c r="M24" s="133"/>
-      <c r="N24" s="133"/>
-      <c r="O24" s="133"/>
-      <c r="P24" s="133"/>
-      <c r="Q24" s="133"/>
-      <c r="R24" s="133"/>
-      <c r="S24" s="133"/>
-      <c r="T24" s="133"/>
-      <c r="U24" s="133"/>
-      <c r="V24" s="133"/>
-      <c r="W24" s="133"/>
-      <c r="X24" s="133"/>
-      <c r="Y24" s="133"/>
-      <c r="Z24" s="133"/>
-      <c r="AA24" s="133"/>
-      <c r="AB24" s="134"/>
-      <c r="AC24" s="126"/>
-      <c r="AD24" s="127"/>
-      <c r="AE24" s="128"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="132"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="133"/>
+      <c r="J24" s="134"/>
+      <c r="K24" s="135"/>
+      <c r="L24" s="135"/>
+      <c r="M24" s="135"/>
+      <c r="N24" s="135"/>
+      <c r="O24" s="135"/>
+      <c r="P24" s="135"/>
+      <c r="Q24" s="135"/>
+      <c r="R24" s="135"/>
+      <c r="S24" s="135"/>
+      <c r="T24" s="135"/>
+      <c r="U24" s="135"/>
+      <c r="V24" s="135"/>
+      <c r="W24" s="135"/>
+      <c r="X24" s="135"/>
+      <c r="Y24" s="135"/>
+      <c r="Z24" s="135"/>
+      <c r="AA24" s="135"/>
+      <c r="AB24" s="136"/>
+      <c r="AC24" s="128"/>
+      <c r="AD24" s="129"/>
+      <c r="AE24" s="130"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="12"/>
-      <c r="B25" s="126"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="129"/>
-      <c r="G25" s="130"/>
-      <c r="H25" s="130"/>
-      <c r="I25" s="131"/>
-      <c r="J25" s="132"/>
-      <c r="K25" s="133"/>
-      <c r="L25" s="133"/>
-      <c r="M25" s="133"/>
-      <c r="N25" s="133"/>
-      <c r="O25" s="133"/>
-      <c r="P25" s="133"/>
-      <c r="Q25" s="133"/>
-      <c r="R25" s="133"/>
-      <c r="S25" s="133"/>
-      <c r="T25" s="133"/>
-      <c r="U25" s="133"/>
-      <c r="V25" s="133"/>
-      <c r="W25" s="133"/>
-      <c r="X25" s="133"/>
-      <c r="Y25" s="133"/>
-      <c r="Z25" s="133"/>
-      <c r="AA25" s="133"/>
-      <c r="AB25" s="134"/>
-      <c r="AC25" s="126"/>
-      <c r="AD25" s="127"/>
-      <c r="AE25" s="128"/>
+      <c r="B25" s="128"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="131"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="133"/>
+      <c r="J25" s="134"/>
+      <c r="K25" s="135"/>
+      <c r="L25" s="135"/>
+      <c r="M25" s="135"/>
+      <c r="N25" s="135"/>
+      <c r="O25" s="135"/>
+      <c r="P25" s="135"/>
+      <c r="Q25" s="135"/>
+      <c r="R25" s="135"/>
+      <c r="S25" s="135"/>
+      <c r="T25" s="135"/>
+      <c r="U25" s="135"/>
+      <c r="V25" s="135"/>
+      <c r="W25" s="135"/>
+      <c r="X25" s="135"/>
+      <c r="Y25" s="135"/>
+      <c r="Z25" s="135"/>
+      <c r="AA25" s="135"/>
+      <c r="AB25" s="136"/>
+      <c r="AC25" s="128"/>
+      <c r="AD25" s="129"/>
+      <c r="AE25" s="130"/>
       <c r="AF25" s="12"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="12"/>
-      <c r="B26" s="126"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="130"/>
-      <c r="H26" s="130"/>
-      <c r="I26" s="131"/>
-      <c r="J26" s="132"/>
-      <c r="K26" s="133"/>
-      <c r="L26" s="133"/>
-      <c r="M26" s="133"/>
-      <c r="N26" s="133"/>
-      <c r="O26" s="133"/>
-      <c r="P26" s="133"/>
-      <c r="Q26" s="133"/>
-      <c r="R26" s="133"/>
-      <c r="S26" s="133"/>
-      <c r="T26" s="133"/>
-      <c r="U26" s="133"/>
-      <c r="V26" s="133"/>
-      <c r="W26" s="133"/>
-      <c r="X26" s="133"/>
-      <c r="Y26" s="133"/>
-      <c r="Z26" s="133"/>
-      <c r="AA26" s="133"/>
-      <c r="AB26" s="134"/>
-      <c r="AC26" s="126"/>
-      <c r="AD26" s="127"/>
-      <c r="AE26" s="128"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="129"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="131"/>
+      <c r="G26" s="132"/>
+      <c r="H26" s="132"/>
+      <c r="I26" s="133"/>
+      <c r="J26" s="134"/>
+      <c r="K26" s="135"/>
+      <c r="L26" s="135"/>
+      <c r="M26" s="135"/>
+      <c r="N26" s="135"/>
+      <c r="O26" s="135"/>
+      <c r="P26" s="135"/>
+      <c r="Q26" s="135"/>
+      <c r="R26" s="135"/>
+      <c r="S26" s="135"/>
+      <c r="T26" s="135"/>
+      <c r="U26" s="135"/>
+      <c r="V26" s="135"/>
+      <c r="W26" s="135"/>
+      <c r="X26" s="135"/>
+      <c r="Y26" s="135"/>
+      <c r="Z26" s="135"/>
+      <c r="AA26" s="135"/>
+      <c r="AB26" s="136"/>
+      <c r="AC26" s="128"/>
+      <c r="AD26" s="129"/>
+      <c r="AE26" s="130"/>
       <c r="AF26" s="12"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="12"/>
-      <c r="B27" s="126"/>
-      <c r="C27" s="127"/>
-      <c r="D27" s="127"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="129"/>
-      <c r="G27" s="130"/>
-      <c r="H27" s="130"/>
-      <c r="I27" s="131"/>
-      <c r="J27" s="132"/>
-      <c r="K27" s="133"/>
-      <c r="L27" s="133"/>
-      <c r="M27" s="133"/>
-      <c r="N27" s="133"/>
-      <c r="O27" s="133"/>
-      <c r="P27" s="133"/>
-      <c r="Q27" s="133"/>
-      <c r="R27" s="133"/>
-      <c r="S27" s="133"/>
-      <c r="T27" s="133"/>
-      <c r="U27" s="133"/>
-      <c r="V27" s="133"/>
-      <c r="W27" s="133"/>
-      <c r="X27" s="133"/>
-      <c r="Y27" s="133"/>
-      <c r="Z27" s="133"/>
-      <c r="AA27" s="133"/>
-      <c r="AB27" s="134"/>
-      <c r="AC27" s="126"/>
-      <c r="AD27" s="127"/>
-      <c r="AE27" s="128"/>
+      <c r="B27" s="128"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="129"/>
+      <c r="E27" s="130"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="132"/>
+      <c r="H27" s="132"/>
+      <c r="I27" s="133"/>
+      <c r="J27" s="134"/>
+      <c r="K27" s="135"/>
+      <c r="L27" s="135"/>
+      <c r="M27" s="135"/>
+      <c r="N27" s="135"/>
+      <c r="O27" s="135"/>
+      <c r="P27" s="135"/>
+      <c r="Q27" s="135"/>
+      <c r="R27" s="135"/>
+      <c r="S27" s="135"/>
+      <c r="T27" s="135"/>
+      <c r="U27" s="135"/>
+      <c r="V27" s="135"/>
+      <c r="W27" s="135"/>
+      <c r="X27" s="135"/>
+      <c r="Y27" s="135"/>
+      <c r="Z27" s="135"/>
+      <c r="AA27" s="135"/>
+      <c r="AB27" s="136"/>
+      <c r="AC27" s="128"/>
+      <c r="AD27" s="129"/>
+      <c r="AE27" s="130"/>
       <c r="AF27" s="12"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="12"/>
-      <c r="B28" s="126"/>
-      <c r="C28" s="127"/>
-      <c r="D28" s="127"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="129"/>
-      <c r="G28" s="130"/>
-      <c r="H28" s="130"/>
-      <c r="I28" s="131"/>
-      <c r="J28" s="132"/>
-      <c r="K28" s="133"/>
-      <c r="L28" s="133"/>
-      <c r="M28" s="133"/>
-      <c r="N28" s="133"/>
-      <c r="O28" s="133"/>
-      <c r="P28" s="133"/>
-      <c r="Q28" s="133"/>
-      <c r="R28" s="133"/>
-      <c r="S28" s="133"/>
-      <c r="T28" s="133"/>
-      <c r="U28" s="133"/>
-      <c r="V28" s="133"/>
-      <c r="W28" s="133"/>
-      <c r="X28" s="133"/>
-      <c r="Y28" s="133"/>
-      <c r="Z28" s="133"/>
-      <c r="AA28" s="133"/>
-      <c r="AB28" s="134"/>
-      <c r="AC28" s="126"/>
-      <c r="AD28" s="127"/>
-      <c r="AE28" s="128"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="129"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="132"/>
+      <c r="H28" s="132"/>
+      <c r="I28" s="133"/>
+      <c r="J28" s="134"/>
+      <c r="K28" s="135"/>
+      <c r="L28" s="135"/>
+      <c r="M28" s="135"/>
+      <c r="N28" s="135"/>
+      <c r="O28" s="135"/>
+      <c r="P28" s="135"/>
+      <c r="Q28" s="135"/>
+      <c r="R28" s="135"/>
+      <c r="S28" s="135"/>
+      <c r="T28" s="135"/>
+      <c r="U28" s="135"/>
+      <c r="V28" s="135"/>
+      <c r="W28" s="135"/>
+      <c r="X28" s="135"/>
+      <c r="Y28" s="135"/>
+      <c r="Z28" s="135"/>
+      <c r="AA28" s="135"/>
+      <c r="AB28" s="136"/>
+      <c r="AC28" s="128"/>
+      <c r="AD28" s="129"/>
+      <c r="AE28" s="130"/>
       <c r="AF28" s="12"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="12"/>
-      <c r="B29" s="126"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="129"/>
-      <c r="G29" s="130"/>
-      <c r="H29" s="130"/>
-      <c r="I29" s="131"/>
-      <c r="J29" s="132"/>
-      <c r="K29" s="133"/>
-      <c r="L29" s="133"/>
-      <c r="M29" s="133"/>
-      <c r="N29" s="133"/>
-      <c r="O29" s="133"/>
-      <c r="P29" s="133"/>
-      <c r="Q29" s="133"/>
-      <c r="R29" s="133"/>
-      <c r="S29" s="133"/>
-      <c r="T29" s="133"/>
-      <c r="U29" s="133"/>
-      <c r="V29" s="133"/>
-      <c r="W29" s="133"/>
-      <c r="X29" s="133"/>
-      <c r="Y29" s="133"/>
-      <c r="Z29" s="133"/>
-      <c r="AA29" s="133"/>
-      <c r="AB29" s="134"/>
-      <c r="AC29" s="126"/>
-      <c r="AD29" s="127"/>
-      <c r="AE29" s="128"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="129"/>
+      <c r="E29" s="130"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="132"/>
+      <c r="H29" s="132"/>
+      <c r="I29" s="133"/>
+      <c r="J29" s="134"/>
+      <c r="K29" s="135"/>
+      <c r="L29" s="135"/>
+      <c r="M29" s="135"/>
+      <c r="N29" s="135"/>
+      <c r="O29" s="135"/>
+      <c r="P29" s="135"/>
+      <c r="Q29" s="135"/>
+      <c r="R29" s="135"/>
+      <c r="S29" s="135"/>
+      <c r="T29" s="135"/>
+      <c r="U29" s="135"/>
+      <c r="V29" s="135"/>
+      <c r="W29" s="135"/>
+      <c r="X29" s="135"/>
+      <c r="Y29" s="135"/>
+      <c r="Z29" s="135"/>
+      <c r="AA29" s="135"/>
+      <c r="AB29" s="136"/>
+      <c r="AC29" s="128"/>
+      <c r="AD29" s="129"/>
+      <c r="AE29" s="130"/>
       <c r="AF29" s="12"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="12"/>
-      <c r="B30" s="126"/>
-      <c r="C30" s="127"/>
-      <c r="D30" s="127"/>
-      <c r="E30" s="128"/>
-      <c r="F30" s="129"/>
-      <c r="G30" s="130"/>
-      <c r="H30" s="130"/>
-      <c r="I30" s="131"/>
-      <c r="J30" s="132"/>
-      <c r="K30" s="133"/>
-      <c r="L30" s="133"/>
-      <c r="M30" s="133"/>
-      <c r="N30" s="133"/>
-      <c r="O30" s="133"/>
-      <c r="P30" s="133"/>
-      <c r="Q30" s="133"/>
-      <c r="R30" s="133"/>
-      <c r="S30" s="133"/>
-      <c r="T30" s="133"/>
-      <c r="U30" s="133"/>
-      <c r="V30" s="133"/>
-      <c r="W30" s="133"/>
-      <c r="X30" s="133"/>
-      <c r="Y30" s="133"/>
-      <c r="Z30" s="133"/>
-      <c r="AA30" s="133"/>
-      <c r="AB30" s="134"/>
-      <c r="AC30" s="126"/>
-      <c r="AD30" s="127"/>
-      <c r="AE30" s="128"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="129"/>
+      <c r="E30" s="130"/>
+      <c r="F30" s="131"/>
+      <c r="G30" s="132"/>
+      <c r="H30" s="132"/>
+      <c r="I30" s="133"/>
+      <c r="J30" s="134"/>
+      <c r="K30" s="135"/>
+      <c r="L30" s="135"/>
+      <c r="M30" s="135"/>
+      <c r="N30" s="135"/>
+      <c r="O30" s="135"/>
+      <c r="P30" s="135"/>
+      <c r="Q30" s="135"/>
+      <c r="R30" s="135"/>
+      <c r="S30" s="135"/>
+      <c r="T30" s="135"/>
+      <c r="U30" s="135"/>
+      <c r="V30" s="135"/>
+      <c r="W30" s="135"/>
+      <c r="X30" s="135"/>
+      <c r="Y30" s="135"/>
+      <c r="Z30" s="135"/>
+      <c r="AA30" s="135"/>
+      <c r="AB30" s="136"/>
+      <c r="AC30" s="128"/>
+      <c r="AD30" s="129"/>
+      <c r="AE30" s="130"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="12"/>
-      <c r="B31" s="126"/>
-      <c r="C31" s="127"/>
-      <c r="D31" s="127"/>
-      <c r="E31" s="128"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="130"/>
-      <c r="H31" s="130"/>
-      <c r="I31" s="131"/>
-      <c r="J31" s="132"/>
-      <c r="K31" s="133"/>
-      <c r="L31" s="133"/>
-      <c r="M31" s="133"/>
-      <c r="N31" s="133"/>
-      <c r="O31" s="133"/>
-      <c r="P31" s="133"/>
-      <c r="Q31" s="133"/>
-      <c r="R31" s="133"/>
-      <c r="S31" s="133"/>
-      <c r="T31" s="133"/>
-      <c r="U31" s="133"/>
-      <c r="V31" s="133"/>
-      <c r="W31" s="133"/>
-      <c r="X31" s="133"/>
-      <c r="Y31" s="133"/>
-      <c r="Z31" s="133"/>
-      <c r="AA31" s="133"/>
-      <c r="AB31" s="134"/>
-      <c r="AC31" s="126"/>
-      <c r="AD31" s="127"/>
-      <c r="AE31" s="128"/>
+      <c r="B31" s="128"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="130"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="132"/>
+      <c r="H31" s="132"/>
+      <c r="I31" s="133"/>
+      <c r="J31" s="134"/>
+      <c r="K31" s="135"/>
+      <c r="L31" s="135"/>
+      <c r="M31" s="135"/>
+      <c r="N31" s="135"/>
+      <c r="O31" s="135"/>
+      <c r="P31" s="135"/>
+      <c r="Q31" s="135"/>
+      <c r="R31" s="135"/>
+      <c r="S31" s="135"/>
+      <c r="T31" s="135"/>
+      <c r="U31" s="135"/>
+      <c r="V31" s="135"/>
+      <c r="W31" s="135"/>
+      <c r="X31" s="135"/>
+      <c r="Y31" s="135"/>
+      <c r="Z31" s="135"/>
+      <c r="AA31" s="135"/>
+      <c r="AB31" s="136"/>
+      <c r="AC31" s="128"/>
+      <c r="AD31" s="129"/>
+      <c r="AE31" s="130"/>
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="12"/>
-      <c r="B32" s="126"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="127"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="129"/>
-      <c r="G32" s="130"/>
-      <c r="H32" s="130"/>
-      <c r="I32" s="131"/>
-      <c r="J32" s="132"/>
-      <c r="K32" s="133"/>
-      <c r="L32" s="133"/>
-      <c r="M32" s="133"/>
-      <c r="N32" s="133"/>
-      <c r="O32" s="133"/>
-      <c r="P32" s="133"/>
-      <c r="Q32" s="133"/>
-      <c r="R32" s="133"/>
-      <c r="S32" s="133"/>
-      <c r="T32" s="133"/>
-      <c r="U32" s="133"/>
-      <c r="V32" s="133"/>
-      <c r="W32" s="133"/>
-      <c r="X32" s="133"/>
-      <c r="Y32" s="133"/>
-      <c r="Z32" s="133"/>
-      <c r="AA32" s="133"/>
-      <c r="AB32" s="134"/>
-      <c r="AC32" s="126"/>
-      <c r="AD32" s="127"/>
-      <c r="AE32" s="128"/>
+      <c r="B32" s="128"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="130"/>
+      <c r="F32" s="131"/>
+      <c r="G32" s="132"/>
+      <c r="H32" s="132"/>
+      <c r="I32" s="133"/>
+      <c r="J32" s="134"/>
+      <c r="K32" s="135"/>
+      <c r="L32" s="135"/>
+      <c r="M32" s="135"/>
+      <c r="N32" s="135"/>
+      <c r="O32" s="135"/>
+      <c r="P32" s="135"/>
+      <c r="Q32" s="135"/>
+      <c r="R32" s="135"/>
+      <c r="S32" s="135"/>
+      <c r="T32" s="135"/>
+      <c r="U32" s="135"/>
+      <c r="V32" s="135"/>
+      <c r="W32" s="135"/>
+      <c r="X32" s="135"/>
+      <c r="Y32" s="135"/>
+      <c r="Z32" s="135"/>
+      <c r="AA32" s="135"/>
+      <c r="AB32" s="136"/>
+      <c r="AC32" s="128"/>
+      <c r="AD32" s="129"/>
+      <c r="AE32" s="130"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="12"/>
-      <c r="B33" s="126"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="127"/>
-      <c r="E33" s="128"/>
-      <c r="F33" s="129"/>
-      <c r="G33" s="130"/>
-      <c r="H33" s="130"/>
-      <c r="I33" s="131"/>
-      <c r="J33" s="132"/>
-      <c r="K33" s="133"/>
-      <c r="L33" s="133"/>
-      <c r="M33" s="133"/>
-      <c r="N33" s="133"/>
-      <c r="O33" s="133"/>
-      <c r="P33" s="133"/>
-      <c r="Q33" s="133"/>
-      <c r="R33" s="133"/>
-      <c r="S33" s="133"/>
-      <c r="T33" s="133"/>
-      <c r="U33" s="133"/>
-      <c r="V33" s="133"/>
-      <c r="W33" s="133"/>
-      <c r="X33" s="133"/>
-      <c r="Y33" s="133"/>
-      <c r="Z33" s="133"/>
-      <c r="AA33" s="133"/>
-      <c r="AB33" s="134"/>
-      <c r="AC33" s="126"/>
-      <c r="AD33" s="127"/>
-      <c r="AE33" s="128"/>
+      <c r="B33" s="128"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="129"/>
+      <c r="E33" s="130"/>
+      <c r="F33" s="131"/>
+      <c r="G33" s="132"/>
+      <c r="H33" s="132"/>
+      <c r="I33" s="133"/>
+      <c r="J33" s="134"/>
+      <c r="K33" s="135"/>
+      <c r="L33" s="135"/>
+      <c r="M33" s="135"/>
+      <c r="N33" s="135"/>
+      <c r="O33" s="135"/>
+      <c r="P33" s="135"/>
+      <c r="Q33" s="135"/>
+      <c r="R33" s="135"/>
+      <c r="S33" s="135"/>
+      <c r="T33" s="135"/>
+      <c r="U33" s="135"/>
+      <c r="V33" s="135"/>
+      <c r="W33" s="135"/>
+      <c r="X33" s="135"/>
+      <c r="Y33" s="135"/>
+      <c r="Z33" s="135"/>
+      <c r="AA33" s="135"/>
+      <c r="AB33" s="136"/>
+      <c r="AC33" s="128"/>
+      <c r="AD33" s="129"/>
+      <c r="AE33" s="130"/>
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -4304,22 +4384,22 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="27" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25">
+    <row r="1" spans="1:6" ht="14.4">
       <c r="A1" s="104" t="s">
         <v>15</v>
       </c>
@@ -4330,10 +4410,10 @@
       <c r="F1" s="106"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="170" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="169"/>
+      <c r="B2" s="171"/>
       <c r="C2" s="30" t="s">
         <v>6</v>
       </c>
@@ -4346,10 +4426,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="170" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="169"/>
+      <c r="B3" s="171"/>
       <c r="C3" s="30" t="s">
         <v>20</v>
       </c>
@@ -4362,10 +4442,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1">
-      <c r="A4" s="168" t="s">
+      <c r="A4" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="169"/>
+      <c r="B4" s="171"/>
       <c r="C4" s="30" t="s">
         <v>24</v>
       </c>
@@ -4378,10 +4458,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1">
-      <c r="A5" s="168" t="s">
+      <c r="A5" s="170" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="169"/>
+      <c r="B5" s="171"/>
       <c r="C5" s="30"/>
       <c r="D5" s="31"/>
       <c r="E5" s="32" t="s">
@@ -4390,10 +4470,10 @@
       <c r="F5" s="90"/>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1">
-      <c r="A6" s="168" t="s">
+      <c r="A6" s="170" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="169"/>
+      <c r="B6" s="171"/>
       <c r="C6" s="30" t="s">
         <v>28</v>
       </c>
@@ -4434,10 +4514,10 @@
       <c r="D9" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="166" t="s">
+      <c r="E9" s="168" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="167"/>
+      <c r="F9" s="169"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
       <c r="A10" s="59">
@@ -4452,10 +4532,10 @@
       <c r="D10" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="162" t="s">
+      <c r="E10" s="164" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="163"/>
+      <c r="F10" s="165"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
       <c r="A11" s="59">
@@ -4488,10 +4568,10 @@
       <c r="D12" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="162" t="s">
+      <c r="E12" s="164" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="163"/>
+      <c r="F12" s="165"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
       <c r="A13" s="59">
@@ -4506,10 +4586,10 @@
       <c r="D13" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="162" t="s">
+      <c r="E13" s="164" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="163"/>
+      <c r="F13" s="165"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
       <c r="A14" s="59">
@@ -4524,34 +4604,34 @@
       <c r="D14" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="162" t="s">
+      <c r="E14" s="164" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="163"/>
+      <c r="F14" s="165"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="164"/>
-      <c r="F15" s="165"/>
+      <c r="E15" s="166"/>
+      <c r="F15" s="167"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="164"/>
-      <c r="F16" s="165"/>
+      <c r="E16" s="166"/>
+      <c r="F16" s="167"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="164"/>
-      <c r="F17" s="165"/>
+      <c r="E17" s="166"/>
+      <c r="F17" s="167"/>
     </row>
     <row r="18" spans="1:6" ht="29.25" customHeight="1">
       <c r="A18" s="29" t="s">
@@ -4830,17 +4910,17 @@
       <selection activeCell="C7" sqref="C7:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="21.625" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:8" ht="14.4">
       <c r="A1" s="107" t="s">
         <v>54</v>
       </c>
@@ -4925,42 +5005,42 @@
         <v>56</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="195" t="s">
+      <c r="C6" s="200" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
-      <c r="G6" s="196"/>
-      <c r="H6" s="197"/>
+      <c r="D6" s="201"/>
+      <c r="E6" s="201"/>
+      <c r="F6" s="201"/>
+      <c r="G6" s="201"/>
+      <c r="H6" s="202"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="195" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="196"/>
-      <c r="E7" s="196"/>
-      <c r="F7" s="196"/>
-      <c r="G7" s="196"/>
-      <c r="H7" s="197"/>
+      <c r="C7" s="200" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="201"/>
+      <c r="E7" s="201"/>
+      <c r="F7" s="201"/>
+      <c r="G7" s="201"/>
+      <c r="H7" s="202"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>57</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="195" t="s">
+      <c r="C8" s="200" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="196"/>
-      <c r="E8" s="196"/>
-      <c r="F8" s="196"/>
-      <c r="G8" s="196"/>
-      <c r="H8" s="197"/>
+      <c r="D8" s="201"/>
+      <c r="E8" s="201"/>
+      <c r="F8" s="201"/>
+      <c r="G8" s="201"/>
+      <c r="H8" s="202"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="46" t="s">
@@ -4981,10 +5061,10 @@
       <c r="B10" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="172" t="s">
+      <c r="C10" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="173"/>
+      <c r="D10" s="175"/>
       <c r="E10" s="48" t="s">
         <v>63</v>
       </c>
@@ -5005,10 +5085,10 @@
       <c r="B11" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="174" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="175"/>
+      <c r="C11" s="176" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="177"/>
       <c r="E11" s="63" t="s">
         <v>69</v>
       </c>
@@ -5029,10 +5109,10 @@
       <c r="B12" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="170" t="s">
+      <c r="C12" s="172" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="171"/>
+      <c r="D12" s="173"/>
       <c r="E12" s="68" t="s">
         <v>75</v>
       </c>
@@ -5051,10 +5131,10 @@
       <c r="B13" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="176" t="s">
+      <c r="C13" s="178" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="171"/>
+      <c r="D13" s="173"/>
       <c r="E13" s="68" t="s">
         <v>69</v>
       </c>
@@ -5067,8 +5147,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="71"/>
       <c r="B14" s="72"/>
-      <c r="C14" s="170"/>
-      <c r="D14" s="171"/>
+      <c r="C14" s="172"/>
+      <c r="D14" s="173"/>
       <c r="E14" s="73"/>
       <c r="F14" s="73"/>
       <c r="G14" s="74"/>
@@ -5077,8 +5157,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="71"/>
       <c r="B15" s="72"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="171"/>
+      <c r="C15" s="172"/>
+      <c r="D15" s="173"/>
       <c r="E15" s="73"/>
       <c r="F15" s="73"/>
       <c r="G15" s="74"/>
@@ -5087,8 +5167,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="170"/>
-      <c r="D16" s="171"/>
+      <c r="C16" s="172"/>
+      <c r="D16" s="173"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="74"/>
@@ -5097,8 +5177,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="170"/>
-      <c r="D17" s="171"/>
+      <c r="C17" s="172"/>
+      <c r="D17" s="173"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
@@ -5107,8 +5187,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="170"/>
-      <c r="D18" s="171"/>
+      <c r="C18" s="172"/>
+      <c r="D18" s="173"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -5117,8 +5197,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="171"/>
+      <c r="C19" s="172"/>
+      <c r="D19" s="173"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -5127,8 +5207,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="170"/>
-      <c r="D20" s="171"/>
+      <c r="C20" s="172"/>
+      <c r="D20" s="173"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -5137,8 +5217,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="170"/>
-      <c r="D21" s="171"/>
+      <c r="C21" s="172"/>
+      <c r="D21" s="173"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -5147,8 +5227,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="170"/>
-      <c r="D22" s="171"/>
+      <c r="C22" s="172"/>
+      <c r="D22" s="173"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -5157,8 +5237,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="170"/>
-      <c r="D23" s="171"/>
+      <c r="C23" s="172"/>
+      <c r="D23" s="173"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -5167,8 +5247,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="170"/>
-      <c r="D24" s="171"/>
+      <c r="C24" s="172"/>
+      <c r="D24" s="173"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -5177,8 +5257,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="170"/>
-      <c r="D25" s="171"/>
+      <c r="C25" s="172"/>
+      <c r="D25" s="173"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -5187,8 +5267,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="170"/>
-      <c r="D26" s="171"/>
+      <c r="C26" s="172"/>
+      <c r="D26" s="173"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -5197,8 +5277,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="170"/>
-      <c r="D27" s="171"/>
+      <c r="C27" s="172"/>
+      <c r="D27" s="173"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -5207,8 +5287,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="170"/>
-      <c r="D28" s="171"/>
+      <c r="C28" s="172"/>
+      <c r="D28" s="173"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -5217,8 +5297,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="170"/>
-      <c r="D29" s="171"/>
+      <c r="C29" s="172"/>
+      <c r="D29" s="173"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -5227,8 +5307,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="188"/>
-      <c r="D30" s="190"/>
+      <c r="C30" s="192"/>
+      <c r="D30" s="194"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -5260,10 +5340,10 @@
       <c r="A33" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="178" t="s">
+      <c r="B33" s="180" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="192"/>
+      <c r="C33" s="196"/>
       <c r="D33" s="54" t="s">
         <v>81</v>
       </c>
@@ -5278,51 +5358,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="198"/>
-      <c r="C34" s="199"/>
-      <c r="D34" s="180"/>
-      <c r="E34" s="204"/>
-      <c r="F34" s="181"/>
+      <c r="B34" s="203"/>
+      <c r="C34" s="204"/>
+      <c r="D34" s="182"/>
+      <c r="E34" s="209"/>
+      <c r="F34" s="183"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="200"/>
-      <c r="C35" s="201"/>
-      <c r="D35" s="182"/>
-      <c r="E35" s="194"/>
-      <c r="F35" s="183"/>
+      <c r="B35" s="205"/>
+      <c r="C35" s="206"/>
+      <c r="D35" s="184"/>
+      <c r="E35" s="199"/>
+      <c r="F35" s="185"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="200"/>
-      <c r="C36" s="201"/>
-      <c r="D36" s="182"/>
-      <c r="E36" s="194"/>
-      <c r="F36" s="183"/>
+      <c r="B36" s="205"/>
+      <c r="C36" s="206"/>
+      <c r="D36" s="184"/>
+      <c r="E36" s="199"/>
+      <c r="F36" s="185"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="200"/>
-      <c r="C37" s="201"/>
-      <c r="D37" s="182"/>
-      <c r="E37" s="194"/>
-      <c r="F37" s="183"/>
+      <c r="B37" s="205"/>
+      <c r="C37" s="206"/>
+      <c r="D37" s="184"/>
+      <c r="E37" s="199"/>
+      <c r="F37" s="185"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="202"/>
-      <c r="C38" s="203"/>
-      <c r="D38" s="188"/>
-      <c r="E38" s="189"/>
-      <c r="F38" s="190"/>
+      <c r="B38" s="207"/>
+      <c r="C38" s="208"/>
+      <c r="D38" s="192"/>
+      <c r="E38" s="193"/>
+      <c r="F38" s="194"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -5355,15 +5435,15 @@
       <c r="B41" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="178" t="s">
+      <c r="C41" s="180" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="191"/>
-      <c r="E41" s="192"/>
-      <c r="F41" s="178" t="s">
+      <c r="D41" s="195"/>
+      <c r="E41" s="196"/>
+      <c r="F41" s="180" t="s">
         <v>85</v>
       </c>
-      <c r="G41" s="179"/>
+      <c r="G41" s="181"/>
       <c r="H41" s="58" t="s">
         <v>86</v>
       </c>
@@ -5371,51 +5451,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="81"/>
       <c r="B42" s="82"/>
-      <c r="C42" s="180"/>
-      <c r="D42" s="204"/>
-      <c r="E42" s="181"/>
-      <c r="F42" s="180"/>
-      <c r="G42" s="181"/>
+      <c r="C42" s="182"/>
+      <c r="D42" s="209"/>
+      <c r="E42" s="183"/>
+      <c r="F42" s="182"/>
+      <c r="G42" s="183"/>
       <c r="H42" s="83"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="182"/>
-      <c r="D43" s="194"/>
-      <c r="E43" s="183"/>
-      <c r="F43" s="182"/>
-      <c r="G43" s="183"/>
+      <c r="C43" s="184"/>
+      <c r="D43" s="199"/>
+      <c r="E43" s="185"/>
+      <c r="F43" s="184"/>
+      <c r="G43" s="185"/>
       <c r="H43" s="86"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="182"/>
-      <c r="D44" s="194"/>
-      <c r="E44" s="183"/>
-      <c r="F44" s="182"/>
-      <c r="G44" s="183"/>
+      <c r="C44" s="184"/>
+      <c r="D44" s="199"/>
+      <c r="E44" s="185"/>
+      <c r="F44" s="184"/>
+      <c r="G44" s="185"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="182"/>
-      <c r="D45" s="194"/>
-      <c r="E45" s="183"/>
-      <c r="F45" s="182"/>
-      <c r="G45" s="183"/>
+      <c r="C45" s="184"/>
+      <c r="D45" s="199"/>
+      <c r="E45" s="185"/>
+      <c r="F45" s="184"/>
+      <c r="G45" s="185"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="188"/>
-      <c r="D46" s="189"/>
-      <c r="E46" s="190"/>
-      <c r="F46" s="184"/>
-      <c r="G46" s="185"/>
+      <c r="C46" s="192"/>
+      <c r="D46" s="193"/>
+      <c r="E46" s="194"/>
+      <c r="F46" s="186"/>
+      <c r="G46" s="187"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -5447,15 +5527,15 @@
       <c r="B49" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="178" t="s">
+      <c r="C49" s="180" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="191"/>
-      <c r="E49" s="192"/>
-      <c r="F49" s="172" t="s">
+      <c r="D49" s="195"/>
+      <c r="E49" s="196"/>
+      <c r="F49" s="174" t="s">
         <v>88</v>
       </c>
-      <c r="G49" s="177"/>
+      <c r="G49" s="179"/>
       <c r="H49" s="49" t="s">
         <v>89</v>
       </c>
@@ -5465,65 +5545,65 @@
         <v>1</v>
       </c>
       <c r="B50" s="93"/>
-      <c r="C50" s="186" t="s">
+      <c r="C50" s="188" t="s">
         <v>90</v>
       </c>
-      <c r="D50" s="193"/>
-      <c r="E50" s="187"/>
-      <c r="F50" s="186" t="s">
+      <c r="D50" s="197"/>
+      <c r="E50" s="189"/>
+      <c r="F50" s="188" t="s">
         <v>91</v>
       </c>
-      <c r="G50" s="187"/>
+      <c r="G50" s="189"/>
       <c r="H50" s="94" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A51" s="223">
+      <c r="A51" s="126">
         <v>2</v>
       </c>
       <c r="B51" s="85"/>
-      <c r="C51" s="220" t="s">
+      <c r="C51" s="190" t="s">
         <v>90</v>
       </c>
-      <c r="D51" s="221"/>
-      <c r="E51" s="222"/>
-      <c r="F51" s="220" t="s">
+      <c r="D51" s="198"/>
+      <c r="E51" s="191"/>
+      <c r="F51" s="190" t="s">
         <v>92</v>
       </c>
-      <c r="G51" s="222"/>
-      <c r="H51" s="224" t="s">
+      <c r="G51" s="191"/>
+      <c r="H51" s="127" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="182"/>
-      <c r="D52" s="194"/>
-      <c r="E52" s="183"/>
-      <c r="F52" s="182"/>
-      <c r="G52" s="183"/>
+      <c r="C52" s="184"/>
+      <c r="D52" s="199"/>
+      <c r="E52" s="185"/>
+      <c r="F52" s="184"/>
+      <c r="G52" s="185"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="182"/>
-      <c r="D53" s="194"/>
-      <c r="E53" s="183"/>
-      <c r="F53" s="182"/>
-      <c r="G53" s="183"/>
+      <c r="C53" s="184"/>
+      <c r="D53" s="199"/>
+      <c r="E53" s="185"/>
+      <c r="F53" s="184"/>
+      <c r="G53" s="185"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="188"/>
-      <c r="D54" s="189"/>
-      <c r="E54" s="190"/>
-      <c r="F54" s="184"/>
-      <c r="G54" s="185"/>
+      <c r="C54" s="192"/>
+      <c r="D54" s="193"/>
+      <c r="E54" s="194"/>
+      <c r="F54" s="186"/>
+      <c r="G54" s="187"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
@@ -5610,17 +5690,17 @@
       <selection activeCell="C7" sqref="C7:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="21.625" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:8" ht="14.4">
       <c r="A1" s="107" t="s">
         <v>93</v>
       </c>
@@ -5705,42 +5785,42 @@
         <v>56</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="195" t="s">
+      <c r="C6" s="200" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
-      <c r="G6" s="196"/>
-      <c r="H6" s="197"/>
+      <c r="D6" s="201"/>
+      <c r="E6" s="201"/>
+      <c r="F6" s="201"/>
+      <c r="G6" s="201"/>
+      <c r="H6" s="202"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="195" t="s">
+      <c r="C7" s="200" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="196"/>
-      <c r="E7" s="196"/>
-      <c r="F7" s="196"/>
-      <c r="G7" s="196"/>
-      <c r="H7" s="197"/>
+      <c r="D7" s="201"/>
+      <c r="E7" s="201"/>
+      <c r="F7" s="201"/>
+      <c r="G7" s="201"/>
+      <c r="H7" s="202"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>57</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="205" t="s">
+      <c r="C8" s="210" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="206"/>
-      <c r="E8" s="206"/>
-      <c r="F8" s="206"/>
-      <c r="G8" s="206"/>
-      <c r="H8" s="207"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="211"/>
+      <c r="F8" s="211"/>
+      <c r="G8" s="211"/>
+      <c r="H8" s="212"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1">
       <c r="A9" s="46" t="s">
@@ -5761,10 +5841,10 @@
       <c r="B10" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="172" t="s">
+      <c r="C10" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="173"/>
+      <c r="D10" s="175"/>
       <c r="E10" s="48" t="s">
         <v>63</v>
       </c>
@@ -5785,10 +5865,10 @@
       <c r="B11" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="208" t="s">
+      <c r="C11" s="213" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="175"/>
+      <c r="D11" s="177"/>
       <c r="E11" s="63" t="s">
         <v>69</v>
       </c>
@@ -5807,10 +5887,10 @@
       <c r="B12" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="170" t="s">
+      <c r="C12" s="172" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="171"/>
+      <c r="D12" s="173"/>
       <c r="E12" s="68" t="s">
         <v>98</v>
       </c>
@@ -5827,10 +5907,10 @@
       <c r="B13" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="170" t="s">
+      <c r="C13" s="172" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="171"/>
+      <c r="D13" s="173"/>
       <c r="E13" s="68" t="s">
         <v>101</v>
       </c>
@@ -5847,10 +5927,10 @@
       <c r="B14" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="170" t="s">
+      <c r="C14" s="172" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="171"/>
+      <c r="D14" s="173"/>
       <c r="E14" s="73" t="s">
         <v>69</v>
       </c>
@@ -5869,10 +5949,10 @@
       <c r="B15" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="170" t="s">
+      <c r="C15" s="172" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="171"/>
+      <c r="D15" s="173"/>
       <c r="E15" s="73" t="s">
         <v>69</v>
       </c>
@@ -5887,8 +5967,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="170"/>
-      <c r="D16" s="171"/>
+      <c r="C16" s="172"/>
+      <c r="D16" s="173"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="74"/>
@@ -5897,8 +5977,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="170"/>
-      <c r="D17" s="171"/>
+      <c r="C17" s="172"/>
+      <c r="D17" s="173"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
@@ -5907,8 +5987,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="170"/>
-      <c r="D18" s="171"/>
+      <c r="C18" s="172"/>
+      <c r="D18" s="173"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -5917,8 +5997,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="171"/>
+      <c r="C19" s="172"/>
+      <c r="D19" s="173"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -5927,8 +6007,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="170"/>
-      <c r="D20" s="171"/>
+      <c r="C20" s="172"/>
+      <c r="D20" s="173"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -5937,8 +6017,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="170"/>
-      <c r="D21" s="171"/>
+      <c r="C21" s="172"/>
+      <c r="D21" s="173"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -5947,8 +6027,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="170"/>
-      <c r="D22" s="171"/>
+      <c r="C22" s="172"/>
+      <c r="D22" s="173"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -5957,8 +6037,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="170"/>
-      <c r="D23" s="171"/>
+      <c r="C23" s="172"/>
+      <c r="D23" s="173"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -5967,8 +6047,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="170"/>
-      <c r="D24" s="171"/>
+      <c r="C24" s="172"/>
+      <c r="D24" s="173"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -5977,8 +6057,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="170"/>
-      <c r="D25" s="171"/>
+      <c r="C25" s="172"/>
+      <c r="D25" s="173"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -5987,8 +6067,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="170"/>
-      <c r="D26" s="171"/>
+      <c r="C26" s="172"/>
+      <c r="D26" s="173"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -5997,8 +6077,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="170"/>
-      <c r="D27" s="171"/>
+      <c r="C27" s="172"/>
+      <c r="D27" s="173"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -6007,8 +6087,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="170"/>
-      <c r="D28" s="171"/>
+      <c r="C28" s="172"/>
+      <c r="D28" s="173"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -6017,8 +6097,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="170"/>
-      <c r="D29" s="171"/>
+      <c r="C29" s="172"/>
+      <c r="D29" s="173"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -6027,8 +6107,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="188"/>
-      <c r="D30" s="190"/>
+      <c r="C30" s="192"/>
+      <c r="D30" s="194"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -6060,10 +6140,10 @@
       <c r="A33" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="178" t="s">
+      <c r="B33" s="180" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="192"/>
+      <c r="C33" s="196"/>
       <c r="D33" s="54" t="s">
         <v>81</v>
       </c>
@@ -6078,51 +6158,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="198"/>
-      <c r="C34" s="199"/>
-      <c r="D34" s="180"/>
-      <c r="E34" s="204"/>
-      <c r="F34" s="181"/>
+      <c r="B34" s="203"/>
+      <c r="C34" s="204"/>
+      <c r="D34" s="182"/>
+      <c r="E34" s="209"/>
+      <c r="F34" s="183"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="200"/>
-      <c r="C35" s="201"/>
-      <c r="D35" s="182"/>
-      <c r="E35" s="194"/>
-      <c r="F35" s="183"/>
+      <c r="B35" s="205"/>
+      <c r="C35" s="206"/>
+      <c r="D35" s="184"/>
+      <c r="E35" s="199"/>
+      <c r="F35" s="185"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="200"/>
-      <c r="C36" s="201"/>
-      <c r="D36" s="182"/>
-      <c r="E36" s="194"/>
-      <c r="F36" s="183"/>
+      <c r="B36" s="205"/>
+      <c r="C36" s="206"/>
+      <c r="D36" s="184"/>
+      <c r="E36" s="199"/>
+      <c r="F36" s="185"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="200"/>
-      <c r="C37" s="201"/>
-      <c r="D37" s="182"/>
-      <c r="E37" s="194"/>
-      <c r="F37" s="183"/>
+      <c r="B37" s="205"/>
+      <c r="C37" s="206"/>
+      <c r="D37" s="184"/>
+      <c r="E37" s="199"/>
+      <c r="F37" s="185"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="202"/>
-      <c r="C38" s="203"/>
-      <c r="D38" s="188"/>
-      <c r="E38" s="189"/>
-      <c r="F38" s="190"/>
+      <c r="B38" s="207"/>
+      <c r="C38" s="208"/>
+      <c r="D38" s="192"/>
+      <c r="E38" s="193"/>
+      <c r="F38" s="194"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -6155,15 +6235,15 @@
       <c r="B41" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="178" t="s">
+      <c r="C41" s="180" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="191"/>
-      <c r="E41" s="192"/>
-      <c r="F41" s="178" t="s">
+      <c r="D41" s="195"/>
+      <c r="E41" s="196"/>
+      <c r="F41" s="180" t="s">
         <v>85</v>
       </c>
-      <c r="G41" s="179"/>
+      <c r="G41" s="181"/>
       <c r="H41" s="58" t="s">
         <v>86</v>
       </c>
@@ -6171,15 +6251,15 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="81"/>
       <c r="B42" s="82"/>
-      <c r="C42" s="180" t="s">
+      <c r="C42" s="182" t="s">
         <v>105</v>
       </c>
-      <c r="D42" s="204"/>
-      <c r="E42" s="181"/>
-      <c r="F42" s="180" t="s">
+      <c r="D42" s="209"/>
+      <c r="E42" s="183"/>
+      <c r="F42" s="182" t="s">
         <v>106</v>
       </c>
-      <c r="G42" s="181"/>
+      <c r="G42" s="183"/>
       <c r="H42" s="83" t="s">
         <v>107</v>
       </c>
@@ -6187,15 +6267,15 @@
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="182" t="s">
+      <c r="C43" s="184" t="s">
         <v>90</v>
       </c>
-      <c r="D43" s="194"/>
-      <c r="E43" s="183"/>
-      <c r="F43" s="182" t="s">
+      <c r="D43" s="199"/>
+      <c r="E43" s="185"/>
+      <c r="F43" s="184" t="s">
         <v>108</v>
       </c>
-      <c r="G43" s="183"/>
+      <c r="G43" s="185"/>
       <c r="H43" s="86" t="s">
         <v>90</v>
       </c>
@@ -6203,31 +6283,31 @@
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="182"/>
-      <c r="D44" s="194"/>
-      <c r="E44" s="183"/>
-      <c r="F44" s="182"/>
-      <c r="G44" s="183"/>
+      <c r="C44" s="184"/>
+      <c r="D44" s="199"/>
+      <c r="E44" s="185"/>
+      <c r="F44" s="184"/>
+      <c r="G44" s="185"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="182"/>
-      <c r="D45" s="194"/>
-      <c r="E45" s="183"/>
-      <c r="F45" s="182"/>
-      <c r="G45" s="183"/>
+      <c r="C45" s="184"/>
+      <c r="D45" s="199"/>
+      <c r="E45" s="185"/>
+      <c r="F45" s="184"/>
+      <c r="G45" s="185"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="188"/>
-      <c r="D46" s="189"/>
-      <c r="E46" s="190"/>
-      <c r="F46" s="184"/>
-      <c r="G46" s="185"/>
+      <c r="C46" s="192"/>
+      <c r="D46" s="193"/>
+      <c r="E46" s="194"/>
+      <c r="F46" s="186"/>
+      <c r="G46" s="187"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -6259,15 +6339,15 @@
       <c r="B49" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="178" t="s">
+      <c r="C49" s="180" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="191"/>
-      <c r="E49" s="192"/>
-      <c r="F49" s="172" t="s">
+      <c r="D49" s="195"/>
+      <c r="E49" s="196"/>
+      <c r="F49" s="174" t="s">
         <v>88</v>
       </c>
-      <c r="G49" s="177"/>
+      <c r="G49" s="179"/>
       <c r="H49" s="49" t="s">
         <v>89</v>
       </c>
@@ -6275,51 +6355,51 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="92"/>
       <c r="B50" s="93"/>
-      <c r="C50" s="186"/>
-      <c r="D50" s="193"/>
-      <c r="E50" s="187"/>
-      <c r="F50" s="186"/>
-      <c r="G50" s="187"/>
+      <c r="C50" s="188"/>
+      <c r="D50" s="197"/>
+      <c r="E50" s="189"/>
+      <c r="F50" s="188"/>
+      <c r="G50" s="189"/>
       <c r="H50" s="94"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="84"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="182"/>
-      <c r="D51" s="194"/>
-      <c r="E51" s="183"/>
-      <c r="F51" s="182"/>
-      <c r="G51" s="183"/>
+      <c r="C51" s="184"/>
+      <c r="D51" s="199"/>
+      <c r="E51" s="185"/>
+      <c r="F51" s="184"/>
+      <c r="G51" s="185"/>
       <c r="H51" s="86"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="182"/>
-      <c r="D52" s="194"/>
-      <c r="E52" s="183"/>
-      <c r="F52" s="182"/>
-      <c r="G52" s="183"/>
+      <c r="C52" s="184"/>
+      <c r="D52" s="199"/>
+      <c r="E52" s="185"/>
+      <c r="F52" s="184"/>
+      <c r="G52" s="185"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="182"/>
-      <c r="D53" s="194"/>
-      <c r="E53" s="183"/>
-      <c r="F53" s="182"/>
-      <c r="G53" s="183"/>
+      <c r="C53" s="184"/>
+      <c r="D53" s="199"/>
+      <c r="E53" s="185"/>
+      <c r="F53" s="184"/>
+      <c r="G53" s="185"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="188"/>
-      <c r="D54" s="189"/>
-      <c r="E54" s="190"/>
-      <c r="F54" s="184"/>
-      <c r="G54" s="185"/>
+      <c r="C54" s="192"/>
+      <c r="D54" s="193"/>
+      <c r="E54" s="194"/>
+      <c r="F54" s="186"/>
+      <c r="G54" s="187"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
@@ -6397,21 +6477,21 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="C50" sqref="C50:E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
-    <col min="8" max="8" width="35.375" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:8" ht="14.4">
       <c r="A1" s="107" t="s">
         <v>93</v>
       </c>
@@ -6496,42 +6576,42 @@
         <v>56</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="195" t="s">
+      <c r="C6" s="200" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
-      <c r="G6" s="196"/>
-      <c r="H6" s="197"/>
+      <c r="D6" s="201"/>
+      <c r="E6" s="201"/>
+      <c r="F6" s="201"/>
+      <c r="G6" s="201"/>
+      <c r="H6" s="202"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="195" t="s">
+      <c r="C7" s="200" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="196"/>
-      <c r="E7" s="196"/>
-      <c r="F7" s="196"/>
-      <c r="G7" s="196"/>
-      <c r="H7" s="197"/>
+      <c r="D7" s="201"/>
+      <c r="E7" s="201"/>
+      <c r="F7" s="201"/>
+      <c r="G7" s="201"/>
+      <c r="H7" s="202"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>57</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="195" t="s">
+      <c r="C8" s="200" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="196"/>
-      <c r="E8" s="196"/>
-      <c r="F8" s="196"/>
-      <c r="G8" s="196"/>
-      <c r="H8" s="197"/>
+      <c r="D8" s="201"/>
+      <c r="E8" s="201"/>
+      <c r="F8" s="201"/>
+      <c r="G8" s="201"/>
+      <c r="H8" s="202"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1">
       <c r="A9" s="46" t="s">
@@ -6552,10 +6632,10 @@
       <c r="B10" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="172" t="s">
+      <c r="C10" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="173"/>
+      <c r="D10" s="175"/>
       <c r="E10" s="48" t="s">
         <v>63</v>
       </c>
@@ -6576,10 +6656,10 @@
       <c r="B11" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="208" t="s">
+      <c r="C11" s="213" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="175"/>
+      <c r="D11" s="177"/>
       <c r="E11" s="63" t="s">
         <v>69</v>
       </c>
@@ -6598,10 +6678,10 @@
       <c r="B12" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="170" t="s">
+      <c r="C12" s="172" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="171"/>
+      <c r="D12" s="173"/>
       <c r="E12" s="68" t="s">
         <v>113</v>
       </c>
@@ -6618,10 +6698,10 @@
       <c r="B13" s="67" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="170" t="s">
+      <c r="C13" s="172" t="s">
         <v>116</v>
       </c>
-      <c r="D13" s="171"/>
+      <c r="D13" s="173"/>
       <c r="E13" s="68" t="s">
         <v>101</v>
       </c>
@@ -6634,8 +6714,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="71"/>
       <c r="B14" s="72"/>
-      <c r="C14" s="170"/>
-      <c r="D14" s="171"/>
+      <c r="C14" s="172"/>
+      <c r="D14" s="173"/>
       <c r="E14" s="73"/>
       <c r="F14" s="73"/>
       <c r="G14" s="74"/>
@@ -6644,8 +6724,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="71"/>
       <c r="B15" s="72"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="171"/>
+      <c r="C15" s="172"/>
+      <c r="D15" s="173"/>
       <c r="E15" s="73"/>
       <c r="F15" s="73"/>
       <c r="G15" s="74"/>
@@ -6654,8 +6734,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="170"/>
-      <c r="D16" s="171"/>
+      <c r="C16" s="172"/>
+      <c r="D16" s="173"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="74"/>
@@ -6664,8 +6744,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="170"/>
-      <c r="D17" s="171"/>
+      <c r="C17" s="172"/>
+      <c r="D17" s="173"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
@@ -6674,8 +6754,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="170"/>
-      <c r="D18" s="171"/>
+      <c r="C18" s="172"/>
+      <c r="D18" s="173"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -6684,8 +6764,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="171"/>
+      <c r="C19" s="172"/>
+      <c r="D19" s="173"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -6694,8 +6774,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="170"/>
-      <c r="D20" s="171"/>
+      <c r="C20" s="172"/>
+      <c r="D20" s="173"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -6704,8 +6784,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="170"/>
-      <c r="D21" s="171"/>
+      <c r="C21" s="172"/>
+      <c r="D21" s="173"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -6714,8 +6794,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="170"/>
-      <c r="D22" s="171"/>
+      <c r="C22" s="172"/>
+      <c r="D22" s="173"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -6724,8 +6804,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="170"/>
-      <c r="D23" s="171"/>
+      <c r="C23" s="172"/>
+      <c r="D23" s="173"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -6734,8 +6814,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="170"/>
-      <c r="D24" s="171"/>
+      <c r="C24" s="172"/>
+      <c r="D24" s="173"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -6744,8 +6824,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="170"/>
-      <c r="D25" s="171"/>
+      <c r="C25" s="172"/>
+      <c r="D25" s="173"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -6754,8 +6834,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="170"/>
-      <c r="D26" s="171"/>
+      <c r="C26" s="172"/>
+      <c r="D26" s="173"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -6764,8 +6844,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="170"/>
-      <c r="D27" s="171"/>
+      <c r="C27" s="172"/>
+      <c r="D27" s="173"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -6774,8 +6854,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="170"/>
-      <c r="D28" s="171"/>
+      <c r="C28" s="172"/>
+      <c r="D28" s="173"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -6784,8 +6864,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="170"/>
-      <c r="D29" s="171"/>
+      <c r="C29" s="172"/>
+      <c r="D29" s="173"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -6794,8 +6874,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="188"/>
-      <c r="D30" s="190"/>
+      <c r="C30" s="192"/>
+      <c r="D30" s="194"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -6827,10 +6907,10 @@
       <c r="A33" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="178" t="s">
+      <c r="B33" s="180" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="192"/>
+      <c r="C33" s="196"/>
       <c r="D33" s="54" t="s">
         <v>81</v>
       </c>
@@ -6845,51 +6925,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="198"/>
-      <c r="C34" s="199"/>
-      <c r="D34" s="180"/>
-      <c r="E34" s="204"/>
-      <c r="F34" s="181"/>
+      <c r="B34" s="203"/>
+      <c r="C34" s="204"/>
+      <c r="D34" s="182"/>
+      <c r="E34" s="209"/>
+      <c r="F34" s="183"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="200"/>
-      <c r="C35" s="201"/>
-      <c r="D35" s="182"/>
-      <c r="E35" s="194"/>
-      <c r="F35" s="183"/>
+      <c r="B35" s="205"/>
+      <c r="C35" s="206"/>
+      <c r="D35" s="184"/>
+      <c r="E35" s="199"/>
+      <c r="F35" s="185"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="200"/>
-      <c r="C36" s="201"/>
-      <c r="D36" s="182"/>
-      <c r="E36" s="194"/>
-      <c r="F36" s="183"/>
+      <c r="B36" s="205"/>
+      <c r="C36" s="206"/>
+      <c r="D36" s="184"/>
+      <c r="E36" s="199"/>
+      <c r="F36" s="185"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="200"/>
-      <c r="C37" s="201"/>
-      <c r="D37" s="182"/>
-      <c r="E37" s="194"/>
-      <c r="F37" s="183"/>
+      <c r="B37" s="205"/>
+      <c r="C37" s="206"/>
+      <c r="D37" s="184"/>
+      <c r="E37" s="199"/>
+      <c r="F37" s="185"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="202"/>
-      <c r="C38" s="203"/>
-      <c r="D38" s="188"/>
-      <c r="E38" s="189"/>
-      <c r="F38" s="190"/>
+      <c r="B38" s="207"/>
+      <c r="C38" s="208"/>
+      <c r="D38" s="192"/>
+      <c r="E38" s="193"/>
+      <c r="F38" s="194"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -6922,15 +7002,15 @@
       <c r="B41" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="178" t="s">
+      <c r="C41" s="180" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="191"/>
-      <c r="E41" s="192"/>
-      <c r="F41" s="178" t="s">
+      <c r="D41" s="195"/>
+      <c r="E41" s="196"/>
+      <c r="F41" s="180" t="s">
         <v>85</v>
       </c>
-      <c r="G41" s="179"/>
+      <c r="G41" s="181"/>
       <c r="H41" s="58" t="s">
         <v>86</v>
       </c>
@@ -6938,51 +7018,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="81"/>
       <c r="B42" s="82"/>
-      <c r="C42" s="180"/>
-      <c r="D42" s="204"/>
-      <c r="E42" s="181"/>
-      <c r="F42" s="180"/>
-      <c r="G42" s="181"/>
+      <c r="C42" s="182"/>
+      <c r="D42" s="209"/>
+      <c r="E42" s="183"/>
+      <c r="F42" s="182"/>
+      <c r="G42" s="183"/>
       <c r="H42" s="83"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="182"/>
-      <c r="D43" s="194"/>
-      <c r="E43" s="183"/>
-      <c r="F43" s="182"/>
-      <c r="G43" s="183"/>
+      <c r="C43" s="184"/>
+      <c r="D43" s="199"/>
+      <c r="E43" s="185"/>
+      <c r="F43" s="184"/>
+      <c r="G43" s="185"/>
       <c r="H43" s="86"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="182"/>
-      <c r="D44" s="194"/>
-      <c r="E44" s="183"/>
-      <c r="F44" s="182"/>
-      <c r="G44" s="183"/>
+      <c r="C44" s="184"/>
+      <c r="D44" s="199"/>
+      <c r="E44" s="185"/>
+      <c r="F44" s="184"/>
+      <c r="G44" s="185"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="182"/>
-      <c r="D45" s="194"/>
-      <c r="E45" s="183"/>
-      <c r="F45" s="182"/>
-      <c r="G45" s="183"/>
+      <c r="C45" s="184"/>
+      <c r="D45" s="199"/>
+      <c r="E45" s="185"/>
+      <c r="F45" s="184"/>
+      <c r="G45" s="185"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="188"/>
-      <c r="D46" s="189"/>
-      <c r="E46" s="190"/>
-      <c r="F46" s="184"/>
-      <c r="G46" s="185"/>
+      <c r="C46" s="192"/>
+      <c r="D46" s="193"/>
+      <c r="E46" s="194"/>
+      <c r="F46" s="186"/>
+      <c r="G46" s="187"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -7014,15 +7094,15 @@
       <c r="B49" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="178" t="s">
+      <c r="C49" s="180" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="191"/>
-      <c r="E49" s="192"/>
-      <c r="F49" s="172" t="s">
+      <c r="D49" s="195"/>
+      <c r="E49" s="196"/>
+      <c r="F49" s="174" t="s">
         <v>88</v>
       </c>
-      <c r="G49" s="177"/>
+      <c r="G49" s="179"/>
       <c r="H49" s="49" t="s">
         <v>89</v>
       </c>
@@ -7032,51 +7112,51 @@
         <v>1</v>
       </c>
       <c r="B50" s="93"/>
-      <c r="C50" s="186" t="s">
-        <v>107</v>
-      </c>
-      <c r="D50" s="193"/>
-      <c r="E50" s="187"/>
-      <c r="F50" s="186" t="s">
+      <c r="C50" s="188" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" s="197"/>
+      <c r="E50" s="189"/>
+      <c r="F50" s="188" t="s">
         <v>92</v>
       </c>
-      <c r="G50" s="187"/>
+      <c r="G50" s="189"/>
       <c r="H50" s="94" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A51" s="223">
+      <c r="A51" s="126">
         <v>2</v>
       </c>
       <c r="B51" s="85"/>
-      <c r="C51" s="182" t="s">
+      <c r="C51" s="184" t="s">
         <v>107</v>
       </c>
-      <c r="D51" s="194"/>
-      <c r="E51" s="183"/>
-      <c r="F51" s="182" t="s">
+      <c r="D51" s="199"/>
+      <c r="E51" s="185"/>
+      <c r="F51" s="184" t="s">
         <v>91</v>
       </c>
-      <c r="G51" s="183"/>
+      <c r="G51" s="185"/>
       <c r="H51" s="86" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A52" s="223">
+      <c r="A52" s="126">
         <v>3</v>
       </c>
       <c r="B52" s="85"/>
-      <c r="C52" s="182" t="s">
+      <c r="C52" s="184" t="s">
         <v>107</v>
       </c>
-      <c r="D52" s="194"/>
-      <c r="E52" s="183"/>
-      <c r="F52" s="182" t="s">
+      <c r="D52" s="199"/>
+      <c r="E52" s="185"/>
+      <c r="F52" s="184" t="s">
         <v>91</v>
       </c>
-      <c r="G52" s="183"/>
+      <c r="G52" s="185"/>
       <c r="H52" s="86" t="s">
         <v>118</v>
       </c>
@@ -7084,21 +7164,21 @@
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="182"/>
-      <c r="D53" s="194"/>
-      <c r="E53" s="183"/>
-      <c r="F53" s="182"/>
-      <c r="G53" s="183"/>
+      <c r="C53" s="184"/>
+      <c r="D53" s="199"/>
+      <c r="E53" s="185"/>
+      <c r="F53" s="184"/>
+      <c r="G53" s="185"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="188"/>
-      <c r="D54" s="189"/>
-      <c r="E54" s="190"/>
-      <c r="F54" s="184"/>
-      <c r="G54" s="185"/>
+      <c r="C54" s="192"/>
+      <c r="D54" s="193"/>
+      <c r="E54" s="194"/>
+      <c r="F54" s="186"/>
+      <c r="G54" s="187"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
@@ -7176,21 +7256,21 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45:G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="21.625" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:8" ht="14.4">
       <c r="A1" s="107" t="s">
         <v>93</v>
       </c>
@@ -7275,42 +7355,42 @@
         <v>56</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="195" t="s">
+      <c r="C6" s="200" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
-      <c r="G6" s="196"/>
-      <c r="H6" s="197"/>
+      <c r="D6" s="201"/>
+      <c r="E6" s="201"/>
+      <c r="F6" s="201"/>
+      <c r="G6" s="201"/>
+      <c r="H6" s="202"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="195" t="s">
+      <c r="C7" s="200" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="196"/>
-      <c r="E7" s="196"/>
-      <c r="F7" s="196"/>
-      <c r="G7" s="196"/>
-      <c r="H7" s="197"/>
+      <c r="D7" s="201"/>
+      <c r="E7" s="201"/>
+      <c r="F7" s="201"/>
+      <c r="G7" s="201"/>
+      <c r="H7" s="202"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>57</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="195" t="s">
+      <c r="C8" s="200" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="196"/>
-      <c r="E8" s="196"/>
-      <c r="F8" s="196"/>
-      <c r="G8" s="196"/>
-      <c r="H8" s="197"/>
+      <c r="D8" s="201"/>
+      <c r="E8" s="201"/>
+      <c r="F8" s="201"/>
+      <c r="G8" s="201"/>
+      <c r="H8" s="202"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1">
       <c r="A9" s="46" t="s">
@@ -7331,10 +7411,10 @@
       <c r="B10" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="172" t="s">
+      <c r="C10" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="173"/>
+      <c r="D10" s="175"/>
       <c r="E10" s="48" t="s">
         <v>63</v>
       </c>
@@ -7355,10 +7435,10 @@
       <c r="B11" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="208" t="s">
+      <c r="C11" s="213" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="175"/>
+      <c r="D11" s="177"/>
       <c r="E11" s="63" t="s">
         <v>69</v>
       </c>
@@ -7377,10 +7457,10 @@
       <c r="B12" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="170" t="s">
+      <c r="C12" s="172" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="171"/>
+      <c r="D12" s="173"/>
       <c r="E12" s="68" t="s">
         <v>69</v>
       </c>
@@ -7399,10 +7479,10 @@
       <c r="B13" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="170" t="s">
+      <c r="C13" s="172" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="171"/>
+      <c r="D13" s="173"/>
       <c r="E13" s="68" t="s">
         <v>69</v>
       </c>
@@ -7419,12 +7499,12 @@
         <v>4</v>
       </c>
       <c r="B14" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="170" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="172" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="171"/>
+      <c r="D14" s="173"/>
       <c r="E14" s="73" t="s">
         <v>69</v>
       </c>
@@ -7439,8 +7519,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="71"/>
       <c r="B15" s="72"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="171"/>
+      <c r="C15" s="172"/>
+      <c r="D15" s="173"/>
       <c r="E15" s="73"/>
       <c r="F15" s="73"/>
       <c r="G15" s="74"/>
@@ -7449,8 +7529,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="170"/>
-      <c r="D16" s="171"/>
+      <c r="C16" s="172"/>
+      <c r="D16" s="173"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="74"/>
@@ -7459,8 +7539,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="170"/>
-      <c r="D17" s="171"/>
+      <c r="C17" s="172"/>
+      <c r="D17" s="173"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
@@ -7469,8 +7549,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="170"/>
-      <c r="D18" s="171"/>
+      <c r="C18" s="172"/>
+      <c r="D18" s="173"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -7479,8 +7559,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="171"/>
+      <c r="C19" s="172"/>
+      <c r="D19" s="173"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -7489,8 +7569,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="170"/>
-      <c r="D20" s="171"/>
+      <c r="C20" s="172"/>
+      <c r="D20" s="173"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -7499,8 +7579,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="170"/>
-      <c r="D21" s="171"/>
+      <c r="C21" s="172"/>
+      <c r="D21" s="173"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -7509,8 +7589,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="170"/>
-      <c r="D22" s="171"/>
+      <c r="C22" s="172"/>
+      <c r="D22" s="173"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -7519,8 +7599,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="170"/>
-      <c r="D23" s="171"/>
+      <c r="C23" s="172"/>
+      <c r="D23" s="173"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -7529,8 +7609,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="170"/>
-      <c r="D24" s="171"/>
+      <c r="C24" s="172"/>
+      <c r="D24" s="173"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -7539,8 +7619,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="170"/>
-      <c r="D25" s="171"/>
+      <c r="C25" s="172"/>
+      <c r="D25" s="173"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -7549,8 +7629,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="170"/>
-      <c r="D26" s="171"/>
+      <c r="C26" s="172"/>
+      <c r="D26" s="173"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -7559,8 +7639,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="170"/>
-      <c r="D27" s="171"/>
+      <c r="C27" s="172"/>
+      <c r="D27" s="173"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -7569,8 +7649,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="170"/>
-      <c r="D28" s="171"/>
+      <c r="C28" s="172"/>
+      <c r="D28" s="173"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -7579,8 +7659,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="170"/>
-      <c r="D29" s="171"/>
+      <c r="C29" s="172"/>
+      <c r="D29" s="173"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -7589,8 +7669,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="188"/>
-      <c r="D30" s="190"/>
+      <c r="C30" s="192"/>
+      <c r="D30" s="194"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -7622,10 +7702,10 @@
       <c r="A33" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="178" t="s">
+      <c r="B33" s="180" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="192"/>
+      <c r="C33" s="196"/>
       <c r="D33" s="54" t="s">
         <v>81</v>
       </c>
@@ -7640,51 +7720,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="198"/>
-      <c r="C34" s="199"/>
-      <c r="D34" s="180"/>
-      <c r="E34" s="204"/>
-      <c r="F34" s="181"/>
+      <c r="B34" s="203"/>
+      <c r="C34" s="204"/>
+      <c r="D34" s="182"/>
+      <c r="E34" s="209"/>
+      <c r="F34" s="183"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="200"/>
-      <c r="C35" s="201"/>
-      <c r="D35" s="182"/>
-      <c r="E35" s="194"/>
-      <c r="F35" s="183"/>
+      <c r="B35" s="205"/>
+      <c r="C35" s="206"/>
+      <c r="D35" s="184"/>
+      <c r="E35" s="199"/>
+      <c r="F35" s="185"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="200"/>
-      <c r="C36" s="201"/>
-      <c r="D36" s="182"/>
-      <c r="E36" s="194"/>
-      <c r="F36" s="183"/>
+      <c r="B36" s="205"/>
+      <c r="C36" s="206"/>
+      <c r="D36" s="184"/>
+      <c r="E36" s="199"/>
+      <c r="F36" s="185"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="200"/>
-      <c r="C37" s="201"/>
-      <c r="D37" s="182"/>
-      <c r="E37" s="194"/>
-      <c r="F37" s="183"/>
+      <c r="B37" s="205"/>
+      <c r="C37" s="206"/>
+      <c r="D37" s="184"/>
+      <c r="E37" s="199"/>
+      <c r="F37" s="185"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="202"/>
-      <c r="C38" s="203"/>
-      <c r="D38" s="188"/>
-      <c r="E38" s="189"/>
-      <c r="F38" s="190"/>
+      <c r="B38" s="207"/>
+      <c r="C38" s="208"/>
+      <c r="D38" s="192"/>
+      <c r="E38" s="193"/>
+      <c r="F38" s="194"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -7717,15 +7797,15 @@
       <c r="B41" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="178" t="s">
+      <c r="C41" s="180" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="191"/>
-      <c r="E41" s="192"/>
-      <c r="F41" s="178" t="s">
+      <c r="D41" s="195"/>
+      <c r="E41" s="196"/>
+      <c r="F41" s="180" t="s">
         <v>85</v>
       </c>
-      <c r="G41" s="179"/>
+      <c r="G41" s="181"/>
       <c r="H41" s="58" t="s">
         <v>86</v>
       </c>
@@ -7735,15 +7815,15 @@
         <v>1</v>
       </c>
       <c r="B42" s="82"/>
-      <c r="C42" s="180" t="s">
+      <c r="C42" s="182" t="s">
         <v>117</v>
       </c>
-      <c r="D42" s="204"/>
-      <c r="E42" s="181"/>
-      <c r="F42" s="180" t="s">
+      <c r="D42" s="209"/>
+      <c r="E42" s="183"/>
+      <c r="F42" s="182" t="s">
         <v>106</v>
       </c>
-      <c r="G42" s="181"/>
+      <c r="G42" s="183"/>
       <c r="H42" s="83" t="s">
         <v>107</v>
       </c>
@@ -7753,47 +7833,55 @@
         <v>2</v>
       </c>
       <c r="B43" s="85"/>
-      <c r="C43" s="182" t="s">
+      <c r="C43" s="184" t="s">
         <v>118</v>
       </c>
-      <c r="D43" s="194"/>
-      <c r="E43" s="183"/>
-      <c r="F43" s="182" t="s">
+      <c r="D43" s="199"/>
+      <c r="E43" s="185"/>
+      <c r="F43" s="184" t="s">
         <v>106</v>
       </c>
-      <c r="G43" s="183"/>
+      <c r="G43" s="185"/>
       <c r="H43" s="86" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A44" s="84"/>
+      <c r="A44" s="84">
+        <v>3</v>
+      </c>
       <c r="B44" s="85"/>
-      <c r="C44" s="182"/>
-      <c r="D44" s="194"/>
-      <c r="E44" s="183"/>
-      <c r="F44" s="182"/>
-      <c r="G44" s="183"/>
-      <c r="H44" s="86"/>
+      <c r="C44" s="184" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" s="199"/>
+      <c r="E44" s="185"/>
+      <c r="F44" s="184" t="s">
+        <v>140</v>
+      </c>
+      <c r="G44" s="185"/>
+      <c r="H44" s="86" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="182"/>
-      <c r="D45" s="194"/>
-      <c r="E45" s="183"/>
-      <c r="F45" s="182"/>
-      <c r="G45" s="183"/>
+      <c r="C45" s="184"/>
+      <c r="D45" s="199"/>
+      <c r="E45" s="185"/>
+      <c r="F45" s="184"/>
+      <c r="G45" s="185"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="188"/>
-      <c r="D46" s="189"/>
-      <c r="E46" s="190"/>
-      <c r="F46" s="184"/>
-      <c r="G46" s="185"/>
+      <c r="C46" s="192"/>
+      <c r="D46" s="193"/>
+      <c r="E46" s="194"/>
+      <c r="F46" s="186"/>
+      <c r="G46" s="187"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -7825,15 +7913,15 @@
       <c r="B49" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="178" t="s">
+      <c r="C49" s="180" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="191"/>
-      <c r="E49" s="192"/>
-      <c r="F49" s="172" t="s">
+      <c r="D49" s="195"/>
+      <c r="E49" s="196"/>
+      <c r="F49" s="174" t="s">
         <v>88</v>
       </c>
-      <c r="G49" s="177"/>
+      <c r="G49" s="179"/>
       <c r="H49" s="49" t="s">
         <v>89</v>
       </c>
@@ -7843,15 +7931,15 @@
         <v>1</v>
       </c>
       <c r="B50" s="93"/>
-      <c r="C50" s="186" t="s">
+      <c r="C50" s="188" t="s">
         <v>126</v>
       </c>
-      <c r="D50" s="193"/>
-      <c r="E50" s="187"/>
-      <c r="F50" s="186" t="s">
+      <c r="D50" s="197"/>
+      <c r="E50" s="189"/>
+      <c r="F50" s="188" t="s">
         <v>127</v>
       </c>
-      <c r="G50" s="187"/>
+      <c r="G50" s="189"/>
       <c r="H50" s="94" t="s">
         <v>126</v>
       </c>
@@ -7859,41 +7947,41 @@
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="84"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="182"/>
-      <c r="D51" s="194"/>
-      <c r="E51" s="183"/>
-      <c r="F51" s="182"/>
-      <c r="G51" s="183"/>
+      <c r="C51" s="184"/>
+      <c r="D51" s="199"/>
+      <c r="E51" s="185"/>
+      <c r="F51" s="184"/>
+      <c r="G51" s="185"/>
       <c r="H51" s="86"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="182"/>
-      <c r="D52" s="194"/>
-      <c r="E52" s="183"/>
-      <c r="F52" s="182"/>
-      <c r="G52" s="183"/>
+      <c r="C52" s="184"/>
+      <c r="D52" s="199"/>
+      <c r="E52" s="185"/>
+      <c r="F52" s="184"/>
+      <c r="G52" s="185"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="182"/>
-      <c r="D53" s="194"/>
-      <c r="E53" s="183"/>
-      <c r="F53" s="182"/>
-      <c r="G53" s="183"/>
+      <c r="C53" s="184"/>
+      <c r="D53" s="199"/>
+      <c r="E53" s="185"/>
+      <c r="F53" s="184"/>
+      <c r="G53" s="185"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="188"/>
-      <c r="D54" s="189"/>
-      <c r="E54" s="190"/>
-      <c r="F54" s="184"/>
-      <c r="G54" s="185"/>
+      <c r="C54" s="192"/>
+      <c r="D54" s="193"/>
+      <c r="E54" s="194"/>
+      <c r="F54" s="186"/>
+      <c r="G54" s="187"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
@@ -7971,21 +8059,21 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:H7"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="21.625" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:8" ht="14.4">
       <c r="A1" s="107" t="s">
         <v>93</v>
       </c>
@@ -8058,48 +8146,49 @@
     <row r="5" spans="1:8" ht="20.25" customHeight="1">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
-      <c r="C5" s="195" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="196"/>
-      <c r="E5" s="196"/>
-      <c r="F5" s="196"/>
-      <c r="G5" s="196"/>
-      <c r="H5" s="197"/>
+      <c r="C5" s="200"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
+      <c r="G5" s="201"/>
+      <c r="H5" s="202"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="40" t="s">
         <v>56</v>
       </c>
       <c r="B6" s="45"/>
+      <c r="C6" s="225" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="195" t="s">
+      <c r="C7" s="200" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="196"/>
-      <c r="E7" s="196"/>
-      <c r="F7" s="196"/>
-      <c r="G7" s="196"/>
-      <c r="H7" s="197"/>
+      <c r="D7" s="201"/>
+      <c r="E7" s="201"/>
+      <c r="F7" s="201"/>
+      <c r="G7" s="201"/>
+      <c r="H7" s="202"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>57</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="195" t="s">
+      <c r="C8" s="200" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="196"/>
-      <c r="E8" s="196"/>
-      <c r="F8" s="196"/>
-      <c r="G8" s="196"/>
-      <c r="H8" s="197"/>
+      <c r="D8" s="201"/>
+      <c r="E8" s="201"/>
+      <c r="F8" s="201"/>
+      <c r="G8" s="201"/>
+      <c r="H8" s="202"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1">
       <c r="A9" s="46" t="s">
@@ -8120,10 +8209,10 @@
       <c r="B10" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="172" t="s">
+      <c r="C10" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="173"/>
+      <c r="D10" s="175"/>
       <c r="E10" s="48" t="s">
         <v>63</v>
       </c>
@@ -8144,10 +8233,10 @@
       <c r="B11" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="208" t="s">
+      <c r="C11" s="213" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="175"/>
+      <c r="D11" s="177"/>
       <c r="E11" s="63" t="s">
         <v>69</v>
       </c>
@@ -8166,10 +8255,10 @@
       <c r="B12" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="170" t="s">
+      <c r="C12" s="172" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="171"/>
+      <c r="D12" s="173"/>
       <c r="E12" s="68" t="s">
         <v>75</v>
       </c>
@@ -8186,10 +8275,10 @@
       <c r="B13" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="170" t="s">
+      <c r="C13" s="172" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="171"/>
+      <c r="D13" s="173"/>
       <c r="E13" s="68" t="s">
         <v>101</v>
       </c>
@@ -8204,12 +8293,12 @@
         <v>4</v>
       </c>
       <c r="B14" s="72" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="170" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="172" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="171"/>
+      <c r="D14" s="173"/>
       <c r="E14" s="73" t="s">
         <v>69</v>
       </c>
@@ -8228,10 +8317,10 @@
       <c r="B15" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="170" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15" s="171"/>
+      <c r="C15" s="172" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="173"/>
       <c r="E15" s="73" t="s">
         <v>69</v>
       </c>
@@ -8246,8 +8335,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="170"/>
-      <c r="D16" s="171"/>
+      <c r="C16" s="172"/>
+      <c r="D16" s="173"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="74"/>
@@ -8256,8 +8345,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="170"/>
-      <c r="D17" s="171"/>
+      <c r="C17" s="172"/>
+      <c r="D17" s="173"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
@@ -8266,8 +8355,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="170"/>
-      <c r="D18" s="171"/>
+      <c r="C18" s="172"/>
+      <c r="D18" s="173"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -8276,8 +8365,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="171"/>
+      <c r="C19" s="172"/>
+      <c r="D19" s="173"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -8286,8 +8375,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="170"/>
-      <c r="D20" s="171"/>
+      <c r="C20" s="172"/>
+      <c r="D20" s="173"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -8296,8 +8385,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="170"/>
-      <c r="D21" s="171"/>
+      <c r="C21" s="172"/>
+      <c r="D21" s="173"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -8306,8 +8395,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="170"/>
-      <c r="D22" s="171"/>
+      <c r="C22" s="172"/>
+      <c r="D22" s="173"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -8316,8 +8405,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="170"/>
-      <c r="D23" s="171"/>
+      <c r="C23" s="172"/>
+      <c r="D23" s="173"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -8326,8 +8415,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="170"/>
-      <c r="D24" s="171"/>
+      <c r="C24" s="172"/>
+      <c r="D24" s="173"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -8336,8 +8425,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="170"/>
-      <c r="D25" s="171"/>
+      <c r="C25" s="172"/>
+      <c r="D25" s="173"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -8346,8 +8435,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="170"/>
-      <c r="D26" s="171"/>
+      <c r="C26" s="172"/>
+      <c r="D26" s="173"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -8356,8 +8445,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="170"/>
-      <c r="D27" s="171"/>
+      <c r="C27" s="172"/>
+      <c r="D27" s="173"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -8366,8 +8455,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="170"/>
-      <c r="D28" s="171"/>
+      <c r="C28" s="172"/>
+      <c r="D28" s="173"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -8376,8 +8465,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="170"/>
-      <c r="D29" s="171"/>
+      <c r="C29" s="172"/>
+      <c r="D29" s="173"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -8386,8 +8475,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="188"/>
-      <c r="D30" s="190"/>
+      <c r="C30" s="192"/>
+      <c r="D30" s="194"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -8419,10 +8508,10 @@
       <c r="A33" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="178" t="s">
+      <c r="B33" s="180" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="192"/>
+      <c r="C33" s="196"/>
       <c r="D33" s="54" t="s">
         <v>81</v>
       </c>
@@ -8437,51 +8526,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="198"/>
-      <c r="C34" s="199"/>
-      <c r="D34" s="180"/>
-      <c r="E34" s="204"/>
-      <c r="F34" s="181"/>
+      <c r="B34" s="203"/>
+      <c r="C34" s="204"/>
+      <c r="D34" s="182"/>
+      <c r="E34" s="209"/>
+      <c r="F34" s="183"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="200"/>
-      <c r="C35" s="201"/>
-      <c r="D35" s="182"/>
-      <c r="E35" s="194"/>
-      <c r="F35" s="183"/>
+      <c r="B35" s="205"/>
+      <c r="C35" s="206"/>
+      <c r="D35" s="184"/>
+      <c r="E35" s="199"/>
+      <c r="F35" s="185"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="200"/>
-      <c r="C36" s="201"/>
-      <c r="D36" s="182"/>
-      <c r="E36" s="194"/>
-      <c r="F36" s="183"/>
+      <c r="B36" s="205"/>
+      <c r="C36" s="206"/>
+      <c r="D36" s="184"/>
+      <c r="E36" s="199"/>
+      <c r="F36" s="185"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="200"/>
-      <c r="C37" s="201"/>
-      <c r="D37" s="182"/>
-      <c r="E37" s="194"/>
-      <c r="F37" s="183"/>
+      <c r="B37" s="205"/>
+      <c r="C37" s="206"/>
+      <c r="D37" s="184"/>
+      <c r="E37" s="199"/>
+      <c r="F37" s="185"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="202"/>
-      <c r="C38" s="203"/>
-      <c r="D38" s="188"/>
-      <c r="E38" s="189"/>
-      <c r="F38" s="190"/>
+      <c r="B38" s="207"/>
+      <c r="C38" s="208"/>
+      <c r="D38" s="192"/>
+      <c r="E38" s="193"/>
+      <c r="F38" s="194"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -8514,67 +8603,81 @@
       <c r="B41" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="178" t="s">
+      <c r="C41" s="180" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="191"/>
-      <c r="E41" s="192"/>
-      <c r="F41" s="178" t="s">
+      <c r="D41" s="195"/>
+      <c r="E41" s="196"/>
+      <c r="F41" s="180" t="s">
         <v>85</v>
       </c>
-      <c r="G41" s="179"/>
+      <c r="G41" s="181"/>
       <c r="H41" s="58" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A42" s="81"/>
+      <c r="A42" s="81">
+        <v>1</v>
+      </c>
       <c r="B42" s="82"/>
-      <c r="C42" s="180"/>
-      <c r="D42" s="204"/>
-      <c r="E42" s="181"/>
-      <c r="F42" s="180"/>
-      <c r="G42" s="181"/>
-      <c r="H42" s="83"/>
+      <c r="C42" s="182" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" s="209"/>
+      <c r="E42" s="183"/>
+      <c r="F42" s="182" t="s">
+        <v>143</v>
+      </c>
+      <c r="G42" s="183"/>
+      <c r="H42" s="83" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="182"/>
-      <c r="D43" s="194"/>
-      <c r="E43" s="183"/>
-      <c r="F43" s="182"/>
-      <c r="G43" s="183"/>
-      <c r="H43" s="86"/>
+      <c r="C43" s="184" t="s">
+        <v>147</v>
+      </c>
+      <c r="D43" s="199"/>
+      <c r="E43" s="185"/>
+      <c r="F43" s="184" t="s">
+        <v>148</v>
+      </c>
+      <c r="G43" s="185"/>
+      <c r="H43" s="86" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="182"/>
-      <c r="D44" s="194"/>
-      <c r="E44" s="183"/>
-      <c r="F44" s="182"/>
-      <c r="G44" s="183"/>
+      <c r="C44" s="184"/>
+      <c r="D44" s="199"/>
+      <c r="E44" s="185"/>
+      <c r="F44" s="184"/>
+      <c r="G44" s="185"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="182"/>
-      <c r="D45" s="194"/>
-      <c r="E45" s="183"/>
-      <c r="F45" s="182"/>
-      <c r="G45" s="183"/>
+      <c r="C45" s="184"/>
+      <c r="D45" s="199"/>
+      <c r="E45" s="185"/>
+      <c r="F45" s="184"/>
+      <c r="G45" s="185"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="188"/>
-      <c r="D46" s="189"/>
-      <c r="E46" s="190"/>
-      <c r="F46" s="184"/>
-      <c r="G46" s="185"/>
+      <c r="C46" s="192"/>
+      <c r="D46" s="193"/>
+      <c r="E46" s="194"/>
+      <c r="F46" s="186"/>
+      <c r="G46" s="187"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -8606,15 +8709,15 @@
       <c r="B49" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="178" t="s">
+      <c r="C49" s="180" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="191"/>
-      <c r="E49" s="192"/>
-      <c r="F49" s="172" t="s">
+      <c r="D49" s="195"/>
+      <c r="E49" s="196"/>
+      <c r="F49" s="174" t="s">
         <v>88</v>
       </c>
-      <c r="G49" s="177"/>
+      <c r="G49" s="179"/>
       <c r="H49" s="49" t="s">
         <v>89</v>
       </c>
@@ -8622,51 +8725,51 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="92"/>
       <c r="B50" s="93"/>
-      <c r="C50" s="186"/>
-      <c r="D50" s="193"/>
-      <c r="E50" s="187"/>
-      <c r="F50" s="186"/>
-      <c r="G50" s="187"/>
+      <c r="C50" s="188"/>
+      <c r="D50" s="197"/>
+      <c r="E50" s="189"/>
+      <c r="F50" s="188"/>
+      <c r="G50" s="189"/>
       <c r="H50" s="94"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="84"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="182"/>
-      <c r="D51" s="194"/>
-      <c r="E51" s="183"/>
-      <c r="F51" s="182"/>
-      <c r="G51" s="183"/>
+      <c r="C51" s="184"/>
+      <c r="D51" s="199"/>
+      <c r="E51" s="185"/>
+      <c r="F51" s="184"/>
+      <c r="G51" s="185"/>
       <c r="H51" s="86"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="182"/>
-      <c r="D52" s="194"/>
-      <c r="E52" s="183"/>
-      <c r="F52" s="182"/>
-      <c r="G52" s="183"/>
+      <c r="C52" s="184"/>
+      <c r="D52" s="199"/>
+      <c r="E52" s="185"/>
+      <c r="F52" s="184"/>
+      <c r="G52" s="185"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="182"/>
-      <c r="D53" s="194"/>
-      <c r="E53" s="183"/>
-      <c r="F53" s="182"/>
-      <c r="G53" s="183"/>
+      <c r="C53" s="184"/>
+      <c r="D53" s="199"/>
+      <c r="E53" s="185"/>
+      <c r="F53" s="184"/>
+      <c r="G53" s="185"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="188"/>
-      <c r="D54" s="189"/>
-      <c r="E54" s="190"/>
-      <c r="F54" s="184"/>
-      <c r="G54" s="185"/>
+      <c r="C54" s="192"/>
+      <c r="D54" s="193"/>
+      <c r="E54" s="194"/>
+      <c r="F54" s="186"/>
+      <c r="G54" s="187"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
@@ -8748,11 +8851,11 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="12" width="10.125" customWidth="1"/>
+    <col min="3" max="12" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" customHeight="1">
@@ -8792,8 +8895,8 @@
       <c r="K2" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="212"/>
-      <c r="M2" s="213"/>
+      <c r="L2" s="217"/>
+      <c r="M2" s="218"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" customHeight="1">
       <c r="A3" s="116" t="s">
@@ -8815,8 +8918,8 @@
       <c r="K3" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="212"/>
-      <c r="M3" s="213"/>
+      <c r="L3" s="217"/>
+      <c r="M3" s="218"/>
     </row>
     <row r="4" spans="1:13" ht="17.25" customHeight="1">
       <c r="A4" s="113" t="s">
@@ -8836,8 +8939,8 @@
       <c r="K4" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="212"/>
-      <c r="M4" s="213"/>
+      <c r="L4" s="217"/>
+      <c r="M4" s="218"/>
     </row>
     <row r="5" spans="1:13" ht="17.25" customHeight="1">
       <c r="A5" s="117"/>
@@ -8894,14 +8997,14 @@
     <row r="9" spans="1:13" ht="21.75" customHeight="1">
       <c r="A9" s="95"/>
       <c r="F9" s="96"/>
-      <c r="G9" s="214" t="s">
+      <c r="G9" s="219" t="s">
         <v>134</v>
       </c>
-      <c r="H9" s="215"/>
-      <c r="I9" s="215"/>
-      <c r="J9" s="215"/>
-      <c r="K9" s="215"/>
-      <c r="L9" s="216"/>
+      <c r="H9" s="220"/>
+      <c r="I9" s="220"/>
+      <c r="J9" s="220"/>
+      <c r="K9" s="220"/>
+      <c r="L9" s="221"/>
       <c r="M9" s="96"/>
     </row>
     <row r="10" spans="1:13" ht="21.75" customHeight="1">
@@ -8921,13 +9024,13 @@
     </row>
     <row r="11" spans="1:13" ht="22.5" customHeight="1">
       <c r="A11" s="95"/>
-      <c r="B11" s="217" t="s">
+      <c r="B11" s="222" t="s">
         <v>135</v>
       </c>
-      <c r="C11" s="209"/>
-      <c r="D11" s="210"/>
-      <c r="E11" s="210"/>
-      <c r="F11" s="211"/>
+      <c r="C11" s="214"/>
+      <c r="D11" s="215"/>
+      <c r="E11" s="215"/>
+      <c r="F11" s="216"/>
       <c r="G11" s="100"/>
       <c r="H11" s="100"/>
       <c r="I11" s="100"/>
@@ -8938,11 +9041,11 @@
     </row>
     <row r="12" spans="1:13" ht="22.5" customHeight="1">
       <c r="A12" s="95"/>
-      <c r="B12" s="218"/>
-      <c r="C12" s="209"/>
-      <c r="D12" s="210"/>
-      <c r="E12" s="210"/>
-      <c r="F12" s="211"/>
+      <c r="B12" s="223"/>
+      <c r="C12" s="214"/>
+      <c r="D12" s="215"/>
+      <c r="E12" s="215"/>
+      <c r="F12" s="216"/>
       <c r="G12" s="100"/>
       <c r="H12" s="100"/>
       <c r="I12" s="100"/>
@@ -8953,11 +9056,11 @@
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1">
       <c r="A13" s="95"/>
-      <c r="B13" s="218"/>
-      <c r="C13" s="209"/>
-      <c r="D13" s="210"/>
-      <c r="E13" s="210"/>
-      <c r="F13" s="211"/>
+      <c r="B13" s="223"/>
+      <c r="C13" s="214"/>
+      <c r="D13" s="215"/>
+      <c r="E13" s="215"/>
+      <c r="F13" s="216"/>
       <c r="G13" s="100"/>
       <c r="H13" s="100"/>
       <c r="I13" s="100"/>
@@ -8968,11 +9071,11 @@
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1">
       <c r="A14" s="95"/>
-      <c r="B14" s="218"/>
-      <c r="C14" s="209"/>
-      <c r="D14" s="210"/>
-      <c r="E14" s="210"/>
-      <c r="F14" s="211"/>
+      <c r="B14" s="223"/>
+      <c r="C14" s="214"/>
+      <c r="D14" s="215"/>
+      <c r="E14" s="215"/>
+      <c r="F14" s="216"/>
       <c r="G14" s="100"/>
       <c r="H14" s="100"/>
       <c r="I14" s="100"/>
@@ -8983,11 +9086,11 @@
     </row>
     <row r="15" spans="1:13" ht="22.5" customHeight="1">
       <c r="A15" s="95"/>
-      <c r="B15" s="218"/>
-      <c r="C15" s="209"/>
-      <c r="D15" s="210"/>
-      <c r="E15" s="210"/>
-      <c r="F15" s="211"/>
+      <c r="B15" s="223"/>
+      <c r="C15" s="214"/>
+      <c r="D15" s="215"/>
+      <c r="E15" s="215"/>
+      <c r="F15" s="216"/>
       <c r="G15" s="100"/>
       <c r="H15" s="100"/>
       <c r="I15" s="100"/>
@@ -8998,11 +9101,11 @@
     </row>
     <row r="16" spans="1:13" ht="22.5" customHeight="1">
       <c r="A16" s="95"/>
-      <c r="B16" s="218"/>
-      <c r="C16" s="209"/>
-      <c r="D16" s="210"/>
-      <c r="E16" s="210"/>
-      <c r="F16" s="211"/>
+      <c r="B16" s="223"/>
+      <c r="C16" s="214"/>
+      <c r="D16" s="215"/>
+      <c r="E16" s="215"/>
+      <c r="F16" s="216"/>
       <c r="G16" s="100"/>
       <c r="H16" s="100"/>
       <c r="I16" s="100"/>
@@ -9013,11 +9116,11 @@
     </row>
     <row r="17" spans="1:13" ht="22.5" customHeight="1">
       <c r="A17" s="95"/>
-      <c r="B17" s="218"/>
-      <c r="C17" s="209"/>
-      <c r="D17" s="210"/>
-      <c r="E17" s="210"/>
-      <c r="F17" s="211"/>
+      <c r="B17" s="223"/>
+      <c r="C17" s="214"/>
+      <c r="D17" s="215"/>
+      <c r="E17" s="215"/>
+      <c r="F17" s="216"/>
       <c r="G17" s="100"/>
       <c r="H17" s="100"/>
       <c r="I17" s="100"/>
@@ -9028,11 +9131,11 @@
     </row>
     <row r="18" spans="1:13" ht="22.5" customHeight="1">
       <c r="A18" s="95"/>
-      <c r="B18" s="218"/>
-      <c r="C18" s="209"/>
-      <c r="D18" s="210"/>
-      <c r="E18" s="210"/>
-      <c r="F18" s="211"/>
+      <c r="B18" s="223"/>
+      <c r="C18" s="214"/>
+      <c r="D18" s="215"/>
+      <c r="E18" s="215"/>
+      <c r="F18" s="216"/>
       <c r="G18" s="100"/>
       <c r="H18" s="100"/>
       <c r="I18" s="100"/>
@@ -9043,11 +9146,11 @@
     </row>
     <row r="19" spans="1:13" ht="22.5" customHeight="1">
       <c r="A19" s="95"/>
-      <c r="B19" s="218"/>
-      <c r="C19" s="209"/>
-      <c r="D19" s="210"/>
-      <c r="E19" s="210"/>
-      <c r="F19" s="211"/>
+      <c r="B19" s="223"/>
+      <c r="C19" s="214"/>
+      <c r="D19" s="215"/>
+      <c r="E19" s="215"/>
+      <c r="F19" s="216"/>
       <c r="G19" s="100"/>
       <c r="H19" s="100"/>
       <c r="I19" s="100"/>
@@ -9058,11 +9161,11 @@
     </row>
     <row r="20" spans="1:13" ht="22.5" customHeight="1">
       <c r="A20" s="95"/>
-      <c r="B20" s="218"/>
-      <c r="C20" s="209"/>
-      <c r="D20" s="210"/>
-      <c r="E20" s="210"/>
-      <c r="F20" s="211"/>
+      <c r="B20" s="223"/>
+      <c r="C20" s="214"/>
+      <c r="D20" s="215"/>
+      <c r="E20" s="215"/>
+      <c r="F20" s="216"/>
       <c r="G20" s="100"/>
       <c r="H20" s="100"/>
       <c r="I20" s="100"/>
@@ -9073,11 +9176,11 @@
     </row>
     <row r="21" spans="1:13" ht="22.5" customHeight="1">
       <c r="A21" s="95"/>
-      <c r="B21" s="218"/>
-      <c r="C21" s="209"/>
-      <c r="D21" s="210"/>
-      <c r="E21" s="210"/>
-      <c r="F21" s="211"/>
+      <c r="B21" s="223"/>
+      <c r="C21" s="214"/>
+      <c r="D21" s="215"/>
+      <c r="E21" s="215"/>
+      <c r="F21" s="216"/>
       <c r="G21" s="100"/>
       <c r="H21" s="100"/>
       <c r="I21" s="100"/>
@@ -9088,11 +9191,11 @@
     </row>
     <row r="22" spans="1:13" ht="22.5" customHeight="1">
       <c r="A22" s="95"/>
-      <c r="B22" s="218"/>
-      <c r="C22" s="209"/>
-      <c r="D22" s="210"/>
-      <c r="E22" s="210"/>
-      <c r="F22" s="211"/>
+      <c r="B22" s="223"/>
+      <c r="C22" s="214"/>
+      <c r="D22" s="215"/>
+      <c r="E22" s="215"/>
+      <c r="F22" s="216"/>
       <c r="G22" s="100"/>
       <c r="H22" s="100"/>
       <c r="I22" s="100"/>
@@ -9103,11 +9206,11 @@
     </row>
     <row r="23" spans="1:13" ht="22.5" customHeight="1">
       <c r="A23" s="95"/>
-      <c r="B23" s="218"/>
-      <c r="C23" s="209"/>
-      <c r="D23" s="210"/>
-      <c r="E23" s="210"/>
-      <c r="F23" s="211"/>
+      <c r="B23" s="223"/>
+      <c r="C23" s="214"/>
+      <c r="D23" s="215"/>
+      <c r="E23" s="215"/>
+      <c r="F23" s="216"/>
       <c r="G23" s="100"/>
       <c r="H23" s="100"/>
       <c r="I23" s="100"/>
@@ -9118,11 +9221,11 @@
     </row>
     <row r="24" spans="1:13" ht="22.5" customHeight="1">
       <c r="A24" s="95"/>
-      <c r="B24" s="218"/>
-      <c r="C24" s="209"/>
-      <c r="D24" s="210"/>
-      <c r="E24" s="210"/>
-      <c r="F24" s="211"/>
+      <c r="B24" s="223"/>
+      <c r="C24" s="214"/>
+      <c r="D24" s="215"/>
+      <c r="E24" s="215"/>
+      <c r="F24" s="216"/>
       <c r="G24" s="100"/>
       <c r="H24" s="100"/>
       <c r="I24" s="100"/>
@@ -9133,11 +9236,11 @@
     </row>
     <row r="25" spans="1:13" ht="22.5" customHeight="1">
       <c r="A25" s="95"/>
-      <c r="B25" s="218"/>
-      <c r="C25" s="209"/>
-      <c r="D25" s="210"/>
-      <c r="E25" s="210"/>
-      <c r="F25" s="211"/>
+      <c r="B25" s="223"/>
+      <c r="C25" s="214"/>
+      <c r="D25" s="215"/>
+      <c r="E25" s="215"/>
+      <c r="F25" s="216"/>
       <c r="G25" s="100"/>
       <c r="H25" s="100"/>
       <c r="I25" s="100"/>
@@ -9148,11 +9251,11 @@
     </row>
     <row r="26" spans="1:13" ht="22.5" customHeight="1">
       <c r="A26" s="95"/>
-      <c r="B26" s="218"/>
-      <c r="C26" s="209"/>
-      <c r="D26" s="210"/>
-      <c r="E26" s="210"/>
-      <c r="F26" s="211"/>
+      <c r="B26" s="223"/>
+      <c r="C26" s="214"/>
+      <c r="D26" s="215"/>
+      <c r="E26" s="215"/>
+      <c r="F26" s="216"/>
       <c r="G26" s="100"/>
       <c r="H26" s="100"/>
       <c r="I26" s="100"/>
@@ -9163,11 +9266,11 @@
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1">
       <c r="A27" s="95"/>
-      <c r="B27" s="218"/>
-      <c r="C27" s="209"/>
-      <c r="D27" s="210"/>
-      <c r="E27" s="210"/>
-      <c r="F27" s="211"/>
+      <c r="B27" s="223"/>
+      <c r="C27" s="214"/>
+      <c r="D27" s="215"/>
+      <c r="E27" s="215"/>
+      <c r="F27" s="216"/>
       <c r="G27" s="100"/>
       <c r="H27" s="100"/>
       <c r="I27" s="100"/>
@@ -9178,11 +9281,11 @@
     </row>
     <row r="28" spans="1:13" ht="22.5" customHeight="1">
       <c r="A28" s="95"/>
-      <c r="B28" s="218"/>
-      <c r="C28" s="209"/>
-      <c r="D28" s="210"/>
-      <c r="E28" s="210"/>
-      <c r="F28" s="211"/>
+      <c r="B28" s="223"/>
+      <c r="C28" s="214"/>
+      <c r="D28" s="215"/>
+      <c r="E28" s="215"/>
+      <c r="F28" s="216"/>
       <c r="G28" s="100"/>
       <c r="H28" s="100"/>
       <c r="I28" s="100"/>
@@ -9193,11 +9296,11 @@
     </row>
     <row r="29" spans="1:13" ht="22.5" customHeight="1">
       <c r="A29" s="95"/>
-      <c r="B29" s="218"/>
-      <c r="C29" s="209"/>
-      <c r="D29" s="210"/>
-      <c r="E29" s="210"/>
-      <c r="F29" s="211"/>
+      <c r="B29" s="223"/>
+      <c r="C29" s="214"/>
+      <c r="D29" s="215"/>
+      <c r="E29" s="215"/>
+      <c r="F29" s="216"/>
       <c r="G29" s="100"/>
       <c r="H29" s="100"/>
       <c r="I29" s="100"/>
@@ -9208,11 +9311,11 @@
     </row>
     <row r="30" spans="1:13" ht="22.5" customHeight="1">
       <c r="A30" s="95"/>
-      <c r="B30" s="218"/>
-      <c r="C30" s="209"/>
-      <c r="D30" s="210"/>
-      <c r="E30" s="210"/>
-      <c r="F30" s="211"/>
+      <c r="B30" s="223"/>
+      <c r="C30" s="214"/>
+      <c r="D30" s="215"/>
+      <c r="E30" s="215"/>
+      <c r="F30" s="216"/>
       <c r="G30" s="100"/>
       <c r="H30" s="100"/>
       <c r="I30" s="100"/>
@@ -9223,11 +9326,11 @@
     </row>
     <row r="31" spans="1:13" ht="22.5" customHeight="1">
       <c r="A31" s="95"/>
-      <c r="B31" s="218"/>
-      <c r="C31" s="209"/>
-      <c r="D31" s="210"/>
-      <c r="E31" s="210"/>
-      <c r="F31" s="211"/>
+      <c r="B31" s="223"/>
+      <c r="C31" s="214"/>
+      <c r="D31" s="215"/>
+      <c r="E31" s="215"/>
+      <c r="F31" s="216"/>
       <c r="G31" s="100"/>
       <c r="H31" s="100"/>
       <c r="I31" s="100"/>
@@ -9238,11 +9341,11 @@
     </row>
     <row r="32" spans="1:13" ht="23.25" customHeight="1">
       <c r="A32" s="95"/>
-      <c r="B32" s="218"/>
-      <c r="C32" s="209"/>
-      <c r="D32" s="210"/>
-      <c r="E32" s="210"/>
-      <c r="F32" s="211"/>
+      <c r="B32" s="223"/>
+      <c r="C32" s="214"/>
+      <c r="D32" s="215"/>
+      <c r="E32" s="215"/>
+      <c r="F32" s="216"/>
       <c r="G32" s="100"/>
       <c r="H32" s="100"/>
       <c r="I32" s="100"/>
@@ -9253,11 +9356,11 @@
     </row>
     <row r="33" spans="1:13" ht="23.25" customHeight="1">
       <c r="A33" s="95"/>
-      <c r="B33" s="218"/>
-      <c r="C33" s="209"/>
-      <c r="D33" s="210"/>
-      <c r="E33" s="210"/>
-      <c r="F33" s="211"/>
+      <c r="B33" s="223"/>
+      <c r="C33" s="214"/>
+      <c r="D33" s="215"/>
+      <c r="E33" s="215"/>
+      <c r="F33" s="216"/>
       <c r="G33" s="100"/>
       <c r="H33" s="100"/>
       <c r="I33" s="100"/>
@@ -9268,11 +9371,11 @@
     </row>
     <row r="34" spans="1:13" ht="23.25" customHeight="1">
       <c r="A34" s="95"/>
-      <c r="B34" s="219"/>
-      <c r="C34" s="209"/>
-      <c r="D34" s="210"/>
-      <c r="E34" s="210"/>
-      <c r="F34" s="211"/>
+      <c r="B34" s="224"/>
+      <c r="C34" s="214"/>
+      <c r="D34" s="215"/>
+      <c r="E34" s="215"/>
+      <c r="F34" s="216"/>
       <c r="G34" s="100"/>
       <c r="H34" s="100"/>
       <c r="I34" s="100"/>
@@ -9339,25 +9442,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c8a424a7-50d7-4cd5-819d-65031445e48f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006CA8BB7AF5A5B141B60E23C89B396D11" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="d61432e928429b7674a5244cfb5c3aa3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c8a424a7-50d7-4cd5-819d-65031445e48f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c86a46b6a059d74eb0cf29d000f3e8af" ns2:_="">
     <xsd:import namespace="c8a424a7-50d7-4cd5-819d-65031445e48f"/>
@@ -9517,14 +9601,57 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c8a424a7-50d7-4cd5-819d-65031445e48f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1631EF5-CEDC-4597-B938-E1023FBA0E2F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D46A067E-60F7-48F8-81FC-AAC636FABCB7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c8a424a7-50d7-4cd5-819d-65031445e48f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96326D39-5435-48DC-AF0E-CDD4943397FA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1631EF5-CEDC-4597-B938-E1023FBA0E2F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c8a424a7-50d7-4cd5-819d-65031445e48f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D46A067E-60F7-48F8-81FC-AAC636FABCB7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96326D39-5435-48DC-AF0E-CDD4943397FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/03_DB設計書/03_データベース設計書.xlsx
+++ b/03_DB設計書/03_データベース設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarot\Desktop\2023Dev3Early\03_DB設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE53FA49-DB96-46A7-96C9-0C3838236BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D7551E-5D58-4F7E-B855-8AD943860B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -569,9 +569,6 @@
     <t>登録日時</t>
   </si>
   <si>
-    <t>create</t>
-  </si>
-  <si>
     <t>ユーザーID（作成者）(create_user)</t>
   </si>
   <si>
@@ -698,6 +695,10 @@
   </si>
   <si>
     <t>リング(rings)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>create_date</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2084,13 +2085,97 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2111,86 +2196,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -2210,10 +2220,67 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2222,9 +2289,39 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2237,99 +2334,6 @@
     <xf numFmtId="49" fontId="27" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2341,6 +2345,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2365,18 +2378,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -3227,19 +3228,19 @@
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
-      <c r="U3" s="128" t="s">
+      <c r="U3" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="V3" s="130"/>
-      <c r="W3" s="154"/>
-      <c r="X3" s="129"/>
-      <c r="Y3" s="129"/>
-      <c r="Z3" s="129"/>
-      <c r="AA3" s="129"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="129"/>
-      <c r="AD3" s="129"/>
-      <c r="AE3" s="130"/>
+      <c r="V3" s="146"/>
+      <c r="W3" s="147"/>
+      <c r="X3" s="148"/>
+      <c r="Y3" s="148"/>
+      <c r="Z3" s="148"/>
+      <c r="AA3" s="148"/>
+      <c r="AB3" s="148"/>
+      <c r="AC3" s="148"/>
+      <c r="AD3" s="148"/>
+      <c r="AE3" s="146"/>
       <c r="AF3" s="12"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -3351,20 +3352,20 @@
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
       <c r="E7" s="36"/>
-      <c r="F7" s="139" t="s">
+      <c r="F7" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="140"/>
-      <c r="K7" s="140"/>
-      <c r="L7" s="140"/>
-      <c r="M7" s="140"/>
-      <c r="N7" s="140"/>
-      <c r="O7" s="140"/>
-      <c r="P7" s="140"/>
-      <c r="Q7" s="141"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="131"/>
+      <c r="L7" s="131"/>
+      <c r="M7" s="131"/>
+      <c r="N7" s="131"/>
+      <c r="O7" s="131"/>
+      <c r="P7" s="131"/>
+      <c r="Q7" s="132"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
       <c r="T7" s="12"/>
@@ -3382,80 +3383,80 @@
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="12"/>
-      <c r="B8" s="142" t="s">
+      <c r="B8" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="143"/>
-      <c r="D8" s="143"/>
-      <c r="E8" s="144"/>
-      <c r="F8" s="148" t="s">
+      <c r="C8" s="134"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="149"/>
-      <c r="H8" s="149"/>
-      <c r="I8" s="149"/>
-      <c r="J8" s="149"/>
-      <c r="K8" s="149"/>
-      <c r="L8" s="149"/>
-      <c r="M8" s="149"/>
-      <c r="N8" s="149"/>
-      <c r="O8" s="149"/>
-      <c r="P8" s="149"/>
-      <c r="Q8" s="150"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="140"/>
+      <c r="J8" s="140"/>
+      <c r="K8" s="140"/>
+      <c r="L8" s="140"/>
+      <c r="M8" s="140"/>
+      <c r="N8" s="140"/>
+      <c r="O8" s="140"/>
+      <c r="P8" s="140"/>
+      <c r="Q8" s="141"/>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
-      <c r="W8" s="138" t="s">
+      <c r="W8" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="X8" s="138"/>
-      <c r="Y8" s="138"/>
-      <c r="Z8" s="138" t="s">
+      <c r="X8" s="129"/>
+      <c r="Y8" s="129"/>
+      <c r="Z8" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="AA8" s="138"/>
-      <c r="AB8" s="138"/>
-      <c r="AC8" s="138" t="s">
+      <c r="AA8" s="129"/>
+      <c r="AB8" s="129"/>
+      <c r="AC8" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="AD8" s="138"/>
-      <c r="AE8" s="138"/>
+      <c r="AD8" s="129"/>
+      <c r="AE8" s="129"/>
       <c r="AF8" s="12"/>
     </row>
     <row r="9" spans="1:176" ht="15.75" customHeight="1">
       <c r="A9" s="12"/>
-      <c r="B9" s="145"/>
-      <c r="C9" s="146"/>
-      <c r="D9" s="146"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="151"/>
-      <c r="G9" s="152"/>
-      <c r="H9" s="152"/>
-      <c r="I9" s="152"/>
-      <c r="J9" s="152"/>
-      <c r="K9" s="152"/>
-      <c r="L9" s="152"/>
-      <c r="M9" s="152"/>
-      <c r="N9" s="152"/>
-      <c r="O9" s="152"/>
-      <c r="P9" s="152"/>
-      <c r="Q9" s="153"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="143"/>
+      <c r="H9" s="143"/>
+      <c r="I9" s="143"/>
+      <c r="J9" s="143"/>
+      <c r="K9" s="143"/>
+      <c r="L9" s="143"/>
+      <c r="M9" s="143"/>
+      <c r="N9" s="143"/>
+      <c r="O9" s="143"/>
+      <c r="P9" s="143"/>
+      <c r="Q9" s="144"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
-      <c r="W9" s="155"/>
-      <c r="X9" s="156"/>
-      <c r="Y9" s="157"/>
-      <c r="Z9" s="155"/>
-      <c r="AA9" s="156"/>
-      <c r="AB9" s="157"/>
-      <c r="AC9" s="155"/>
-      <c r="AD9" s="156"/>
-      <c r="AE9" s="157"/>
+      <c r="W9" s="149"/>
+      <c r="X9" s="150"/>
+      <c r="Y9" s="151"/>
+      <c r="Z9" s="149"/>
+      <c r="AA9" s="150"/>
+      <c r="AB9" s="151"/>
+      <c r="AC9" s="149"/>
+      <c r="AD9" s="150"/>
+      <c r="AE9" s="151"/>
       <c r="AF9" s="12"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
@@ -3481,15 +3482,15 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
-      <c r="W10" s="158"/>
-      <c r="X10" s="159"/>
-      <c r="Y10" s="160"/>
-      <c r="Z10" s="158"/>
-      <c r="AA10" s="159"/>
-      <c r="AB10" s="160"/>
-      <c r="AC10" s="158"/>
-      <c r="AD10" s="159"/>
-      <c r="AE10" s="160"/>
+      <c r="W10" s="152"/>
+      <c r="X10" s="153"/>
+      <c r="Y10" s="154"/>
+      <c r="Z10" s="152"/>
+      <c r="AA10" s="153"/>
+      <c r="AB10" s="154"/>
+      <c r="AC10" s="152"/>
+      <c r="AD10" s="153"/>
+      <c r="AE10" s="154"/>
       <c r="AF10" s="12"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -3515,15 +3516,15 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
-      <c r="W11" s="158"/>
-      <c r="X11" s="159"/>
-      <c r="Y11" s="160"/>
-      <c r="Z11" s="158"/>
-      <c r="AA11" s="159"/>
-      <c r="AB11" s="160"/>
-      <c r="AC11" s="158"/>
-      <c r="AD11" s="159"/>
-      <c r="AE11" s="160"/>
+      <c r="W11" s="152"/>
+      <c r="X11" s="153"/>
+      <c r="Y11" s="154"/>
+      <c r="Z11" s="152"/>
+      <c r="AA11" s="153"/>
+      <c r="AB11" s="154"/>
+      <c r="AC11" s="152"/>
+      <c r="AD11" s="153"/>
+      <c r="AE11" s="154"/>
       <c r="AF11" s="12"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -3549,15 +3550,15 @@
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
-      <c r="W12" s="161"/>
-      <c r="X12" s="162"/>
-      <c r="Y12" s="163"/>
-      <c r="Z12" s="161"/>
-      <c r="AA12" s="162"/>
-      <c r="AB12" s="163"/>
-      <c r="AC12" s="161"/>
-      <c r="AD12" s="162"/>
-      <c r="AE12" s="163"/>
+      <c r="W12" s="155"/>
+      <c r="X12" s="156"/>
+      <c r="Y12" s="157"/>
+      <c r="Z12" s="155"/>
+      <c r="AA12" s="156"/>
+      <c r="AB12" s="157"/>
+      <c r="AC12" s="155"/>
+      <c r="AD12" s="156"/>
+      <c r="AE12" s="157"/>
       <c r="AF12" s="12"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -3652,106 +3653,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="12"/>
-      <c r="B16" s="137" t="s">
+      <c r="B16" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="137"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="137"/>
-      <c r="L16" s="137"/>
-      <c r="M16" s="137"/>
-      <c r="N16" s="137"/>
-      <c r="O16" s="137"/>
-      <c r="P16" s="137"/>
-      <c r="Q16" s="137"/>
-      <c r="R16" s="137"/>
-      <c r="S16" s="137"/>
-      <c r="T16" s="137"/>
-      <c r="U16" s="137"/>
-      <c r="V16" s="137"/>
-      <c r="W16" s="137"/>
-      <c r="X16" s="137"/>
-      <c r="Y16" s="137"/>
-      <c r="Z16" s="137"/>
-      <c r="AA16" s="137"/>
-      <c r="AB16" s="137"/>
-      <c r="AC16" s="137"/>
-      <c r="AD16" s="137"/>
-      <c r="AE16" s="137"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="158"/>
+      <c r="L16" s="158"/>
+      <c r="M16" s="158"/>
+      <c r="N16" s="158"/>
+      <c r="O16" s="158"/>
+      <c r="P16" s="158"/>
+      <c r="Q16" s="158"/>
+      <c r="R16" s="158"/>
+      <c r="S16" s="158"/>
+      <c r="T16" s="158"/>
+      <c r="U16" s="158"/>
+      <c r="V16" s="158"/>
+      <c r="W16" s="158"/>
+      <c r="X16" s="158"/>
+      <c r="Y16" s="158"/>
+      <c r="Z16" s="158"/>
+      <c r="AA16" s="158"/>
+      <c r="AB16" s="158"/>
+      <c r="AC16" s="158"/>
+      <c r="AD16" s="158"/>
+      <c r="AE16" s="158"/>
       <c r="AF16" s="12"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="12"/>
-      <c r="B17" s="137"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="137"/>
-      <c r="M17" s="137"/>
-      <c r="N17" s="137"/>
-      <c r="O17" s="137"/>
-      <c r="P17" s="137"/>
-      <c r="Q17" s="137"/>
-      <c r="R17" s="137"/>
-      <c r="S17" s="137"/>
-      <c r="T17" s="137"/>
-      <c r="U17" s="137"/>
-      <c r="V17" s="137"/>
-      <c r="W17" s="137"/>
-      <c r="X17" s="137"/>
-      <c r="Y17" s="137"/>
-      <c r="Z17" s="137"/>
-      <c r="AA17" s="137"/>
-      <c r="AB17" s="137"/>
-      <c r="AC17" s="137"/>
-      <c r="AD17" s="137"/>
-      <c r="AE17" s="137"/>
+      <c r="B17" s="158"/>
+      <c r="C17" s="158"/>
+      <c r="D17" s="158"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="158"/>
+      <c r="K17" s="158"/>
+      <c r="L17" s="158"/>
+      <c r="M17" s="158"/>
+      <c r="N17" s="158"/>
+      <c r="O17" s="158"/>
+      <c r="P17" s="158"/>
+      <c r="Q17" s="158"/>
+      <c r="R17" s="158"/>
+      <c r="S17" s="158"/>
+      <c r="T17" s="158"/>
+      <c r="U17" s="158"/>
+      <c r="V17" s="158"/>
+      <c r="W17" s="158"/>
+      <c r="X17" s="158"/>
+      <c r="Y17" s="158"/>
+      <c r="Z17" s="158"/>
+      <c r="AA17" s="158"/>
+      <c r="AB17" s="158"/>
+      <c r="AC17" s="158"/>
+      <c r="AD17" s="158"/>
+      <c r="AE17" s="158"/>
       <c r="AF17" s="12"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="12"/>
-      <c r="B18" s="137"/>
-      <c r="C18" s="137"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="137"/>
-      <c r="I18" s="137"/>
-      <c r="J18" s="137"/>
-      <c r="K18" s="137"/>
-      <c r="L18" s="137"/>
-      <c r="M18" s="137"/>
-      <c r="N18" s="137"/>
-      <c r="O18" s="137"/>
-      <c r="P18" s="137"/>
-      <c r="Q18" s="137"/>
-      <c r="R18" s="137"/>
-      <c r="S18" s="137"/>
-      <c r="T18" s="137"/>
-      <c r="U18" s="137"/>
-      <c r="V18" s="137"/>
-      <c r="W18" s="137"/>
-      <c r="X18" s="137"/>
-      <c r="Y18" s="137"/>
-      <c r="Z18" s="137"/>
-      <c r="AA18" s="137"/>
-      <c r="AB18" s="137"/>
-      <c r="AC18" s="137"/>
-      <c r="AD18" s="137"/>
-      <c r="AE18" s="137"/>
+      <c r="B18" s="158"/>
+      <c r="C18" s="158"/>
+      <c r="D18" s="158"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="158"/>
+      <c r="I18" s="158"/>
+      <c r="J18" s="158"/>
+      <c r="K18" s="158"/>
+      <c r="L18" s="158"/>
+      <c r="M18" s="158"/>
+      <c r="N18" s="158"/>
+      <c r="O18" s="158"/>
+      <c r="P18" s="158"/>
+      <c r="Q18" s="158"/>
+      <c r="R18" s="158"/>
+      <c r="S18" s="158"/>
+      <c r="T18" s="158"/>
+      <c r="U18" s="158"/>
+      <c r="V18" s="158"/>
+      <c r="W18" s="158"/>
+      <c r="X18" s="158"/>
+      <c r="Y18" s="158"/>
+      <c r="Z18" s="158"/>
+      <c r="AA18" s="158"/>
+      <c r="AB18" s="158"/>
+      <c r="AC18" s="158"/>
+      <c r="AD18" s="158"/>
+      <c r="AE18" s="158"/>
       <c r="AF18" s="12"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -3890,384 +3891,384 @@
     </row>
     <row r="23" spans="1:32" s="39" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="37"/>
-      <c r="B23" s="128" t="s">
+      <c r="B23" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="129"/>
-      <c r="D23" s="129"/>
-      <c r="E23" s="130"/>
-      <c r="F23" s="128" t="s">
+      <c r="C23" s="148"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="146"/>
+      <c r="F23" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="129"/>
-      <c r="H23" s="129"/>
-      <c r="I23" s="130"/>
-      <c r="J23" s="128" t="s">
+      <c r="G23" s="148"/>
+      <c r="H23" s="148"/>
+      <c r="I23" s="146"/>
+      <c r="J23" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="K23" s="129"/>
-      <c r="L23" s="129"/>
-      <c r="M23" s="129"/>
-      <c r="N23" s="129"/>
-      <c r="O23" s="129"/>
-      <c r="P23" s="129"/>
-      <c r="Q23" s="129"/>
-      <c r="R23" s="129"/>
-      <c r="S23" s="129"/>
-      <c r="T23" s="129"/>
-      <c r="U23" s="129"/>
-      <c r="V23" s="129"/>
-      <c r="W23" s="129"/>
-      <c r="X23" s="129"/>
-      <c r="Y23" s="129"/>
-      <c r="Z23" s="129"/>
-      <c r="AA23" s="129"/>
-      <c r="AB23" s="130"/>
-      <c r="AC23" s="128" t="s">
+      <c r="K23" s="148"/>
+      <c r="L23" s="148"/>
+      <c r="M23" s="148"/>
+      <c r="N23" s="148"/>
+      <c r="O23" s="148"/>
+      <c r="P23" s="148"/>
+      <c r="Q23" s="148"/>
+      <c r="R23" s="148"/>
+      <c r="S23" s="148"/>
+      <c r="T23" s="148"/>
+      <c r="U23" s="148"/>
+      <c r="V23" s="148"/>
+      <c r="W23" s="148"/>
+      <c r="X23" s="148"/>
+      <c r="Y23" s="148"/>
+      <c r="Z23" s="148"/>
+      <c r="AA23" s="148"/>
+      <c r="AB23" s="146"/>
+      <c r="AC23" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="AD23" s="129"/>
-      <c r="AE23" s="130"/>
+      <c r="AD23" s="148"/>
+      <c r="AE23" s="146"/>
       <c r="AF23" s="37"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="12"/>
-      <c r="B24" s="128"/>
-      <c r="C24" s="129"/>
-      <c r="D24" s="129"/>
-      <c r="E24" s="130"/>
-      <c r="F24" s="131"/>
-      <c r="G24" s="132"/>
-      <c r="H24" s="132"/>
-      <c r="I24" s="133"/>
-      <c r="J24" s="134"/>
-      <c r="K24" s="135"/>
-      <c r="L24" s="135"/>
-      <c r="M24" s="135"/>
-      <c r="N24" s="135"/>
-      <c r="O24" s="135"/>
-      <c r="P24" s="135"/>
-      <c r="Q24" s="135"/>
-      <c r="R24" s="135"/>
-      <c r="S24" s="135"/>
-      <c r="T24" s="135"/>
-      <c r="U24" s="135"/>
-      <c r="V24" s="135"/>
-      <c r="W24" s="135"/>
-      <c r="X24" s="135"/>
-      <c r="Y24" s="135"/>
-      <c r="Z24" s="135"/>
-      <c r="AA24" s="135"/>
-      <c r="AB24" s="136"/>
-      <c r="AC24" s="128"/>
-      <c r="AD24" s="129"/>
-      <c r="AE24" s="130"/>
+      <c r="B24" s="145"/>
+      <c r="C24" s="148"/>
+      <c r="D24" s="148"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="159"/>
+      <c r="G24" s="160"/>
+      <c r="H24" s="160"/>
+      <c r="I24" s="161"/>
+      <c r="J24" s="162"/>
+      <c r="K24" s="163"/>
+      <c r="L24" s="163"/>
+      <c r="M24" s="163"/>
+      <c r="N24" s="163"/>
+      <c r="O24" s="163"/>
+      <c r="P24" s="163"/>
+      <c r="Q24" s="163"/>
+      <c r="R24" s="163"/>
+      <c r="S24" s="163"/>
+      <c r="T24" s="163"/>
+      <c r="U24" s="163"/>
+      <c r="V24" s="163"/>
+      <c r="W24" s="163"/>
+      <c r="X24" s="163"/>
+      <c r="Y24" s="163"/>
+      <c r="Z24" s="163"/>
+      <c r="AA24" s="163"/>
+      <c r="AB24" s="164"/>
+      <c r="AC24" s="145"/>
+      <c r="AD24" s="148"/>
+      <c r="AE24" s="146"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="12"/>
-      <c r="B25" s="128"/>
-      <c r="C25" s="129"/>
-      <c r="D25" s="129"/>
-      <c r="E25" s="130"/>
-      <c r="F25" s="131"/>
-      <c r="G25" s="132"/>
-      <c r="H25" s="132"/>
-      <c r="I25" s="133"/>
-      <c r="J25" s="134"/>
-      <c r="K25" s="135"/>
-      <c r="L25" s="135"/>
-      <c r="M25" s="135"/>
-      <c r="N25" s="135"/>
-      <c r="O25" s="135"/>
-      <c r="P25" s="135"/>
-      <c r="Q25" s="135"/>
-      <c r="R25" s="135"/>
-      <c r="S25" s="135"/>
-      <c r="T25" s="135"/>
-      <c r="U25" s="135"/>
-      <c r="V25" s="135"/>
-      <c r="W25" s="135"/>
-      <c r="X25" s="135"/>
-      <c r="Y25" s="135"/>
-      <c r="Z25" s="135"/>
-      <c r="AA25" s="135"/>
-      <c r="AB25" s="136"/>
-      <c r="AC25" s="128"/>
-      <c r="AD25" s="129"/>
-      <c r="AE25" s="130"/>
+      <c r="B25" s="145"/>
+      <c r="C25" s="148"/>
+      <c r="D25" s="148"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="159"/>
+      <c r="G25" s="160"/>
+      <c r="H25" s="160"/>
+      <c r="I25" s="161"/>
+      <c r="J25" s="162"/>
+      <c r="K25" s="163"/>
+      <c r="L25" s="163"/>
+      <c r="M25" s="163"/>
+      <c r="N25" s="163"/>
+      <c r="O25" s="163"/>
+      <c r="P25" s="163"/>
+      <c r="Q25" s="163"/>
+      <c r="R25" s="163"/>
+      <c r="S25" s="163"/>
+      <c r="T25" s="163"/>
+      <c r="U25" s="163"/>
+      <c r="V25" s="163"/>
+      <c r="W25" s="163"/>
+      <c r="X25" s="163"/>
+      <c r="Y25" s="163"/>
+      <c r="Z25" s="163"/>
+      <c r="AA25" s="163"/>
+      <c r="AB25" s="164"/>
+      <c r="AC25" s="145"/>
+      <c r="AD25" s="148"/>
+      <c r="AE25" s="146"/>
       <c r="AF25" s="12"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="12"/>
-      <c r="B26" s="128"/>
-      <c r="C26" s="129"/>
-      <c r="D26" s="129"/>
-      <c r="E26" s="130"/>
-      <c r="F26" s="131"/>
-      <c r="G26" s="132"/>
-      <c r="H26" s="132"/>
-      <c r="I26" s="133"/>
-      <c r="J26" s="134"/>
-      <c r="K26" s="135"/>
-      <c r="L26" s="135"/>
-      <c r="M26" s="135"/>
-      <c r="N26" s="135"/>
-      <c r="O26" s="135"/>
-      <c r="P26" s="135"/>
-      <c r="Q26" s="135"/>
-      <c r="R26" s="135"/>
-      <c r="S26" s="135"/>
-      <c r="T26" s="135"/>
-      <c r="U26" s="135"/>
-      <c r="V26" s="135"/>
-      <c r="W26" s="135"/>
-      <c r="X26" s="135"/>
-      <c r="Y26" s="135"/>
-      <c r="Z26" s="135"/>
-      <c r="AA26" s="135"/>
-      <c r="AB26" s="136"/>
-      <c r="AC26" s="128"/>
-      <c r="AD26" s="129"/>
-      <c r="AE26" s="130"/>
+      <c r="B26" s="145"/>
+      <c r="C26" s="148"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="160"/>
+      <c r="H26" s="160"/>
+      <c r="I26" s="161"/>
+      <c r="J26" s="162"/>
+      <c r="K26" s="163"/>
+      <c r="L26" s="163"/>
+      <c r="M26" s="163"/>
+      <c r="N26" s="163"/>
+      <c r="O26" s="163"/>
+      <c r="P26" s="163"/>
+      <c r="Q26" s="163"/>
+      <c r="R26" s="163"/>
+      <c r="S26" s="163"/>
+      <c r="T26" s="163"/>
+      <c r="U26" s="163"/>
+      <c r="V26" s="163"/>
+      <c r="W26" s="163"/>
+      <c r="X26" s="163"/>
+      <c r="Y26" s="163"/>
+      <c r="Z26" s="163"/>
+      <c r="AA26" s="163"/>
+      <c r="AB26" s="164"/>
+      <c r="AC26" s="145"/>
+      <c r="AD26" s="148"/>
+      <c r="AE26" s="146"/>
       <c r="AF26" s="12"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="12"/>
-      <c r="B27" s="128"/>
-      <c r="C27" s="129"/>
-      <c r="D27" s="129"/>
-      <c r="E27" s="130"/>
-      <c r="F27" s="131"/>
-      <c r="G27" s="132"/>
-      <c r="H27" s="132"/>
-      <c r="I27" s="133"/>
-      <c r="J27" s="134"/>
-      <c r="K27" s="135"/>
-      <c r="L27" s="135"/>
-      <c r="M27" s="135"/>
-      <c r="N27" s="135"/>
-      <c r="O27" s="135"/>
-      <c r="P27" s="135"/>
-      <c r="Q27" s="135"/>
-      <c r="R27" s="135"/>
-      <c r="S27" s="135"/>
-      <c r="T27" s="135"/>
-      <c r="U27" s="135"/>
-      <c r="V27" s="135"/>
-      <c r="W27" s="135"/>
-      <c r="X27" s="135"/>
-      <c r="Y27" s="135"/>
-      <c r="Z27" s="135"/>
-      <c r="AA27" s="135"/>
-      <c r="AB27" s="136"/>
-      <c r="AC27" s="128"/>
-      <c r="AD27" s="129"/>
-      <c r="AE27" s="130"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="148"/>
+      <c r="D27" s="148"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="159"/>
+      <c r="G27" s="160"/>
+      <c r="H27" s="160"/>
+      <c r="I27" s="161"/>
+      <c r="J27" s="162"/>
+      <c r="K27" s="163"/>
+      <c r="L27" s="163"/>
+      <c r="M27" s="163"/>
+      <c r="N27" s="163"/>
+      <c r="O27" s="163"/>
+      <c r="P27" s="163"/>
+      <c r="Q27" s="163"/>
+      <c r="R27" s="163"/>
+      <c r="S27" s="163"/>
+      <c r="T27" s="163"/>
+      <c r="U27" s="163"/>
+      <c r="V27" s="163"/>
+      <c r="W27" s="163"/>
+      <c r="X27" s="163"/>
+      <c r="Y27" s="163"/>
+      <c r="Z27" s="163"/>
+      <c r="AA27" s="163"/>
+      <c r="AB27" s="164"/>
+      <c r="AC27" s="145"/>
+      <c r="AD27" s="148"/>
+      <c r="AE27" s="146"/>
       <c r="AF27" s="12"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="12"/>
-      <c r="B28" s="128"/>
-      <c r="C28" s="129"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="130"/>
-      <c r="F28" s="131"/>
-      <c r="G28" s="132"/>
-      <c r="H28" s="132"/>
-      <c r="I28" s="133"/>
-      <c r="J28" s="134"/>
-      <c r="K28" s="135"/>
-      <c r="L28" s="135"/>
-      <c r="M28" s="135"/>
-      <c r="N28" s="135"/>
-      <c r="O28" s="135"/>
-      <c r="P28" s="135"/>
-      <c r="Q28" s="135"/>
-      <c r="R28" s="135"/>
-      <c r="S28" s="135"/>
-      <c r="T28" s="135"/>
-      <c r="U28" s="135"/>
-      <c r="V28" s="135"/>
-      <c r="W28" s="135"/>
-      <c r="X28" s="135"/>
-      <c r="Y28" s="135"/>
-      <c r="Z28" s="135"/>
-      <c r="AA28" s="135"/>
-      <c r="AB28" s="136"/>
-      <c r="AC28" s="128"/>
-      <c r="AD28" s="129"/>
-      <c r="AE28" s="130"/>
+      <c r="B28" s="145"/>
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="160"/>
+      <c r="I28" s="161"/>
+      <c r="J28" s="162"/>
+      <c r="K28" s="163"/>
+      <c r="L28" s="163"/>
+      <c r="M28" s="163"/>
+      <c r="N28" s="163"/>
+      <c r="O28" s="163"/>
+      <c r="P28" s="163"/>
+      <c r="Q28" s="163"/>
+      <c r="R28" s="163"/>
+      <c r="S28" s="163"/>
+      <c r="T28" s="163"/>
+      <c r="U28" s="163"/>
+      <c r="V28" s="163"/>
+      <c r="W28" s="163"/>
+      <c r="X28" s="163"/>
+      <c r="Y28" s="163"/>
+      <c r="Z28" s="163"/>
+      <c r="AA28" s="163"/>
+      <c r="AB28" s="164"/>
+      <c r="AC28" s="145"/>
+      <c r="AD28" s="148"/>
+      <c r="AE28" s="146"/>
       <c r="AF28" s="12"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="12"/>
-      <c r="B29" s="128"/>
-      <c r="C29" s="129"/>
-      <c r="D29" s="129"/>
-      <c r="E29" s="130"/>
-      <c r="F29" s="131"/>
-      <c r="G29" s="132"/>
-      <c r="H29" s="132"/>
-      <c r="I29" s="133"/>
-      <c r="J29" s="134"/>
-      <c r="K29" s="135"/>
-      <c r="L29" s="135"/>
-      <c r="M29" s="135"/>
-      <c r="N29" s="135"/>
-      <c r="O29" s="135"/>
-      <c r="P29" s="135"/>
-      <c r="Q29" s="135"/>
-      <c r="R29" s="135"/>
-      <c r="S29" s="135"/>
-      <c r="T29" s="135"/>
-      <c r="U29" s="135"/>
-      <c r="V29" s="135"/>
-      <c r="W29" s="135"/>
-      <c r="X29" s="135"/>
-      <c r="Y29" s="135"/>
-      <c r="Z29" s="135"/>
-      <c r="AA29" s="135"/>
-      <c r="AB29" s="136"/>
-      <c r="AC29" s="128"/>
-      <c r="AD29" s="129"/>
-      <c r="AE29" s="130"/>
+      <c r="B29" s="145"/>
+      <c r="C29" s="148"/>
+      <c r="D29" s="148"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="160"/>
+      <c r="I29" s="161"/>
+      <c r="J29" s="162"/>
+      <c r="K29" s="163"/>
+      <c r="L29" s="163"/>
+      <c r="M29" s="163"/>
+      <c r="N29" s="163"/>
+      <c r="O29" s="163"/>
+      <c r="P29" s="163"/>
+      <c r="Q29" s="163"/>
+      <c r="R29" s="163"/>
+      <c r="S29" s="163"/>
+      <c r="T29" s="163"/>
+      <c r="U29" s="163"/>
+      <c r="V29" s="163"/>
+      <c r="W29" s="163"/>
+      <c r="X29" s="163"/>
+      <c r="Y29" s="163"/>
+      <c r="Z29" s="163"/>
+      <c r="AA29" s="163"/>
+      <c r="AB29" s="164"/>
+      <c r="AC29" s="145"/>
+      <c r="AD29" s="148"/>
+      <c r="AE29" s="146"/>
       <c r="AF29" s="12"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="12"/>
-      <c r="B30" s="128"/>
-      <c r="C30" s="129"/>
-      <c r="D30" s="129"/>
-      <c r="E30" s="130"/>
-      <c r="F30" s="131"/>
-      <c r="G30" s="132"/>
-      <c r="H30" s="132"/>
-      <c r="I30" s="133"/>
-      <c r="J30" s="134"/>
-      <c r="K30" s="135"/>
-      <c r="L30" s="135"/>
-      <c r="M30" s="135"/>
-      <c r="N30" s="135"/>
-      <c r="O30" s="135"/>
-      <c r="P30" s="135"/>
-      <c r="Q30" s="135"/>
-      <c r="R30" s="135"/>
-      <c r="S30" s="135"/>
-      <c r="T30" s="135"/>
-      <c r="U30" s="135"/>
-      <c r="V30" s="135"/>
-      <c r="W30" s="135"/>
-      <c r="X30" s="135"/>
-      <c r="Y30" s="135"/>
-      <c r="Z30" s="135"/>
-      <c r="AA30" s="135"/>
-      <c r="AB30" s="136"/>
-      <c r="AC30" s="128"/>
-      <c r="AD30" s="129"/>
-      <c r="AE30" s="130"/>
+      <c r="B30" s="145"/>
+      <c r="C30" s="148"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="159"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="160"/>
+      <c r="I30" s="161"/>
+      <c r="J30" s="162"/>
+      <c r="K30" s="163"/>
+      <c r="L30" s="163"/>
+      <c r="M30" s="163"/>
+      <c r="N30" s="163"/>
+      <c r="O30" s="163"/>
+      <c r="P30" s="163"/>
+      <c r="Q30" s="163"/>
+      <c r="R30" s="163"/>
+      <c r="S30" s="163"/>
+      <c r="T30" s="163"/>
+      <c r="U30" s="163"/>
+      <c r="V30" s="163"/>
+      <c r="W30" s="163"/>
+      <c r="X30" s="163"/>
+      <c r="Y30" s="163"/>
+      <c r="Z30" s="163"/>
+      <c r="AA30" s="163"/>
+      <c r="AB30" s="164"/>
+      <c r="AC30" s="145"/>
+      <c r="AD30" s="148"/>
+      <c r="AE30" s="146"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="12"/>
-      <c r="B31" s="128"/>
-      <c r="C31" s="129"/>
-      <c r="D31" s="129"/>
-      <c r="E31" s="130"/>
-      <c r="F31" s="131"/>
-      <c r="G31" s="132"/>
-      <c r="H31" s="132"/>
-      <c r="I31" s="133"/>
-      <c r="J31" s="134"/>
-      <c r="K31" s="135"/>
-      <c r="L31" s="135"/>
-      <c r="M31" s="135"/>
-      <c r="N31" s="135"/>
-      <c r="O31" s="135"/>
-      <c r="P31" s="135"/>
-      <c r="Q31" s="135"/>
-      <c r="R31" s="135"/>
-      <c r="S31" s="135"/>
-      <c r="T31" s="135"/>
-      <c r="U31" s="135"/>
-      <c r="V31" s="135"/>
-      <c r="W31" s="135"/>
-      <c r="X31" s="135"/>
-      <c r="Y31" s="135"/>
-      <c r="Z31" s="135"/>
-      <c r="AA31" s="135"/>
-      <c r="AB31" s="136"/>
-      <c r="AC31" s="128"/>
-      <c r="AD31" s="129"/>
-      <c r="AE31" s="130"/>
+      <c r="B31" s="145"/>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="159"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="160"/>
+      <c r="I31" s="161"/>
+      <c r="J31" s="162"/>
+      <c r="K31" s="163"/>
+      <c r="L31" s="163"/>
+      <c r="M31" s="163"/>
+      <c r="N31" s="163"/>
+      <c r="O31" s="163"/>
+      <c r="P31" s="163"/>
+      <c r="Q31" s="163"/>
+      <c r="R31" s="163"/>
+      <c r="S31" s="163"/>
+      <c r="T31" s="163"/>
+      <c r="U31" s="163"/>
+      <c r="V31" s="163"/>
+      <c r="W31" s="163"/>
+      <c r="X31" s="163"/>
+      <c r="Y31" s="163"/>
+      <c r="Z31" s="163"/>
+      <c r="AA31" s="163"/>
+      <c r="AB31" s="164"/>
+      <c r="AC31" s="145"/>
+      <c r="AD31" s="148"/>
+      <c r="AE31" s="146"/>
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="12"/>
-      <c r="B32" s="128"/>
-      <c r="C32" s="129"/>
-      <c r="D32" s="129"/>
-      <c r="E32" s="130"/>
-      <c r="F32" s="131"/>
-      <c r="G32" s="132"/>
-      <c r="H32" s="132"/>
-      <c r="I32" s="133"/>
-      <c r="J32" s="134"/>
-      <c r="K32" s="135"/>
-      <c r="L32" s="135"/>
-      <c r="M32" s="135"/>
-      <c r="N32" s="135"/>
-      <c r="O32" s="135"/>
-      <c r="P32" s="135"/>
-      <c r="Q32" s="135"/>
-      <c r="R32" s="135"/>
-      <c r="S32" s="135"/>
-      <c r="T32" s="135"/>
-      <c r="U32" s="135"/>
-      <c r="V32" s="135"/>
-      <c r="W32" s="135"/>
-      <c r="X32" s="135"/>
-      <c r="Y32" s="135"/>
-      <c r="Z32" s="135"/>
-      <c r="AA32" s="135"/>
-      <c r="AB32" s="136"/>
-      <c r="AC32" s="128"/>
-      <c r="AD32" s="129"/>
-      <c r="AE32" s="130"/>
+      <c r="B32" s="145"/>
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="159"/>
+      <c r="G32" s="160"/>
+      <c r="H32" s="160"/>
+      <c r="I32" s="161"/>
+      <c r="J32" s="162"/>
+      <c r="K32" s="163"/>
+      <c r="L32" s="163"/>
+      <c r="M32" s="163"/>
+      <c r="N32" s="163"/>
+      <c r="O32" s="163"/>
+      <c r="P32" s="163"/>
+      <c r="Q32" s="163"/>
+      <c r="R32" s="163"/>
+      <c r="S32" s="163"/>
+      <c r="T32" s="163"/>
+      <c r="U32" s="163"/>
+      <c r="V32" s="163"/>
+      <c r="W32" s="163"/>
+      <c r="X32" s="163"/>
+      <c r="Y32" s="163"/>
+      <c r="Z32" s="163"/>
+      <c r="AA32" s="163"/>
+      <c r="AB32" s="164"/>
+      <c r="AC32" s="145"/>
+      <c r="AD32" s="148"/>
+      <c r="AE32" s="146"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="12"/>
-      <c r="B33" s="128"/>
-      <c r="C33" s="129"/>
-      <c r="D33" s="129"/>
-      <c r="E33" s="130"/>
-      <c r="F33" s="131"/>
-      <c r="G33" s="132"/>
-      <c r="H33" s="132"/>
-      <c r="I33" s="133"/>
-      <c r="J33" s="134"/>
-      <c r="K33" s="135"/>
-      <c r="L33" s="135"/>
-      <c r="M33" s="135"/>
-      <c r="N33" s="135"/>
-      <c r="O33" s="135"/>
-      <c r="P33" s="135"/>
-      <c r="Q33" s="135"/>
-      <c r="R33" s="135"/>
-      <c r="S33" s="135"/>
-      <c r="T33" s="135"/>
-      <c r="U33" s="135"/>
-      <c r="V33" s="135"/>
-      <c r="W33" s="135"/>
-      <c r="X33" s="135"/>
-      <c r="Y33" s="135"/>
-      <c r="Z33" s="135"/>
-      <c r="AA33" s="135"/>
-      <c r="AB33" s="136"/>
-      <c r="AC33" s="128"/>
-      <c r="AD33" s="129"/>
-      <c r="AE33" s="130"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="146"/>
+      <c r="F33" s="159"/>
+      <c r="G33" s="160"/>
+      <c r="H33" s="160"/>
+      <c r="I33" s="161"/>
+      <c r="J33" s="162"/>
+      <c r="K33" s="163"/>
+      <c r="L33" s="163"/>
+      <c r="M33" s="163"/>
+      <c r="N33" s="163"/>
+      <c r="O33" s="163"/>
+      <c r="P33" s="163"/>
+      <c r="Q33" s="163"/>
+      <c r="R33" s="163"/>
+      <c r="S33" s="163"/>
+      <c r="T33" s="163"/>
+      <c r="U33" s="163"/>
+      <c r="V33" s="163"/>
+      <c r="W33" s="163"/>
+      <c r="X33" s="163"/>
+      <c r="Y33" s="163"/>
+      <c r="Z33" s="163"/>
+      <c r="AA33" s="163"/>
+      <c r="AB33" s="164"/>
+      <c r="AC33" s="145"/>
+      <c r="AD33" s="148"/>
+      <c r="AE33" s="146"/>
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -4305,6 +4306,51 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="AC8:AE8"/>
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="B8:E9"/>
@@ -4316,51 +4362,6 @@
     <mergeCell ref="AC9:AE12"/>
     <mergeCell ref="Z9:AB12"/>
     <mergeCell ref="W9:Y12"/>
-    <mergeCell ref="B16:AE18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -4384,7 +4385,7 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B17" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
@@ -4410,10 +4411,10 @@
       <c r="F1" s="106"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="165" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="171"/>
+      <c r="B2" s="166"/>
       <c r="C2" s="30" t="s">
         <v>6</v>
       </c>
@@ -4426,10 +4427,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1">
-      <c r="A3" s="170" t="s">
+      <c r="A3" s="165" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="171"/>
+      <c r="B3" s="166"/>
       <c r="C3" s="30" t="s">
         <v>20</v>
       </c>
@@ -4442,10 +4443,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1">
-      <c r="A4" s="170" t="s">
+      <c r="A4" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="171"/>
+      <c r="B4" s="166"/>
       <c r="C4" s="30" t="s">
         <v>24</v>
       </c>
@@ -4458,10 +4459,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1">
-      <c r="A5" s="170" t="s">
+      <c r="A5" s="165" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="171"/>
+      <c r="B5" s="166"/>
       <c r="C5" s="30"/>
       <c r="D5" s="31"/>
       <c r="E5" s="32" t="s">
@@ -4470,10 +4471,10 @@
       <c r="F5" s="90"/>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1">
-      <c r="A6" s="170" t="s">
+      <c r="A6" s="165" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="171"/>
+      <c r="B6" s="166"/>
       <c r="C6" s="30" t="s">
         <v>28</v>
       </c>
@@ -4514,10 +4515,10 @@
       <c r="D9" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="168" t="s">
+      <c r="E9" s="171" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="169"/>
+      <c r="F9" s="172"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
       <c r="A10" s="59">
@@ -4532,10 +4533,10 @@
       <c r="D10" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="164" t="s">
+      <c r="E10" s="167" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="165"/>
+      <c r="F10" s="168"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
       <c r="A11" s="59">
@@ -4568,10 +4569,10 @@
       <c r="D12" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="164" t="s">
+      <c r="E12" s="167" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="165"/>
+      <c r="F12" s="168"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
       <c r="A13" s="59">
@@ -4586,10 +4587,10 @@
       <c r="D13" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="164" t="s">
+      <c r="E13" s="167" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="165"/>
+      <c r="F13" s="168"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
       <c r="A14" s="59">
@@ -4604,34 +4605,34 @@
       <c r="D14" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="164" t="s">
+      <c r="E14" s="167" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="165"/>
+      <c r="F14" s="168"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="166"/>
-      <c r="F15" s="167"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="170"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="166"/>
-      <c r="F16" s="167"/>
+      <c r="E16" s="169"/>
+      <c r="F16" s="170"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="166"/>
-      <c r="F17" s="167"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="170"/>
     </row>
     <row r="18" spans="1:6" ht="29.25" customHeight="1">
       <c r="A18" s="29" t="s">
@@ -4873,11 +4874,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -4886,6 +4882,11 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5005,42 +5006,42 @@
         <v>56</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="200" t="s">
+      <c r="C6" s="191" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="201"/>
-      <c r="E6" s="201"/>
-      <c r="F6" s="201"/>
-      <c r="G6" s="201"/>
-      <c r="H6" s="202"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="192"/>
+      <c r="F6" s="192"/>
+      <c r="G6" s="192"/>
+      <c r="H6" s="193"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="200" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="201"/>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
-      <c r="H7" s="202"/>
+      <c r="C7" s="191" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="192"/>
+      <c r="E7" s="192"/>
+      <c r="F7" s="192"/>
+      <c r="G7" s="192"/>
+      <c r="H7" s="193"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>57</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="200" t="s">
+      <c r="C8" s="191" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="201"/>
-      <c r="E8" s="201"/>
-      <c r="F8" s="201"/>
-      <c r="G8" s="201"/>
-      <c r="H8" s="202"/>
+      <c r="D8" s="192"/>
+      <c r="E8" s="192"/>
+      <c r="F8" s="192"/>
+      <c r="G8" s="192"/>
+      <c r="H8" s="193"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="46" t="s">
@@ -5061,10 +5062,10 @@
       <c r="B10" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="174" t="s">
+      <c r="C10" s="204" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="175"/>
+      <c r="D10" s="207"/>
       <c r="E10" s="48" t="s">
         <v>63</v>
       </c>
@@ -5085,10 +5086,10 @@
       <c r="B11" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="176" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" s="177"/>
+      <c r="C11" s="208" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="209"/>
       <c r="E11" s="63" t="s">
         <v>69</v>
       </c>
@@ -5109,10 +5110,10 @@
       <c r="B12" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="172" t="s">
+      <c r="C12" s="194" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="173"/>
+      <c r="D12" s="195"/>
       <c r="E12" s="68" t="s">
         <v>75</v>
       </c>
@@ -5131,10 +5132,10 @@
       <c r="B13" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="178" t="s">
+      <c r="C13" s="210" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="173"/>
+      <c r="D13" s="195"/>
       <c r="E13" s="68" t="s">
         <v>69</v>
       </c>
@@ -5147,8 +5148,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="71"/>
       <c r="B14" s="72"/>
-      <c r="C14" s="172"/>
-      <c r="D14" s="173"/>
+      <c r="C14" s="194"/>
+      <c r="D14" s="195"/>
       <c r="E14" s="73"/>
       <c r="F14" s="73"/>
       <c r="G14" s="74"/>
@@ -5157,8 +5158,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="71"/>
       <c r="B15" s="72"/>
-      <c r="C15" s="172"/>
-      <c r="D15" s="173"/>
+      <c r="C15" s="194"/>
+      <c r="D15" s="195"/>
       <c r="E15" s="73"/>
       <c r="F15" s="73"/>
       <c r="G15" s="74"/>
@@ -5167,8 +5168,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="172"/>
-      <c r="D16" s="173"/>
+      <c r="C16" s="194"/>
+      <c r="D16" s="195"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="74"/>
@@ -5177,8 +5178,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="172"/>
-      <c r="D17" s="173"/>
+      <c r="C17" s="194"/>
+      <c r="D17" s="195"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
@@ -5187,8 +5188,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="172"/>
-      <c r="D18" s="173"/>
+      <c r="C18" s="194"/>
+      <c r="D18" s="195"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -5197,8 +5198,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="172"/>
-      <c r="D19" s="173"/>
+      <c r="C19" s="194"/>
+      <c r="D19" s="195"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -5207,8 +5208,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="172"/>
-      <c r="D20" s="173"/>
+      <c r="C20" s="194"/>
+      <c r="D20" s="195"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -5217,8 +5218,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="172"/>
-      <c r="D21" s="173"/>
+      <c r="C21" s="194"/>
+      <c r="D21" s="195"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -5227,8 +5228,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="172"/>
-      <c r="D22" s="173"/>
+      <c r="C22" s="194"/>
+      <c r="D22" s="195"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -5237,8 +5238,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="172"/>
-      <c r="D23" s="173"/>
+      <c r="C23" s="194"/>
+      <c r="D23" s="195"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -5247,8 +5248,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="172"/>
-      <c r="D24" s="173"/>
+      <c r="C24" s="194"/>
+      <c r="D24" s="195"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -5257,8 +5258,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="172"/>
-      <c r="D25" s="173"/>
+      <c r="C25" s="194"/>
+      <c r="D25" s="195"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -5267,8 +5268,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="172"/>
-      <c r="D26" s="173"/>
+      <c r="C26" s="194"/>
+      <c r="D26" s="195"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -5277,8 +5278,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="172"/>
-      <c r="D27" s="173"/>
+      <c r="C27" s="194"/>
+      <c r="D27" s="195"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -5287,8 +5288,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="172"/>
-      <c r="D28" s="173"/>
+      <c r="C28" s="194"/>
+      <c r="D28" s="195"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -5297,8 +5298,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="172"/>
-      <c r="D29" s="173"/>
+      <c r="C29" s="194"/>
+      <c r="D29" s="195"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -5307,8 +5308,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="192"/>
-      <c r="D30" s="194"/>
+      <c r="C30" s="179"/>
+      <c r="D30" s="181"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -5340,10 +5341,10 @@
       <c r="A33" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="180" t="s">
+      <c r="B33" s="184" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="196"/>
+      <c r="C33" s="186"/>
       <c r="D33" s="54" t="s">
         <v>81</v>
       </c>
@@ -5358,51 +5359,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="203"/>
-      <c r="C34" s="204"/>
-      <c r="D34" s="182"/>
-      <c r="E34" s="209"/>
-      <c r="F34" s="183"/>
+      <c r="B34" s="187"/>
+      <c r="C34" s="188"/>
+      <c r="D34" s="173"/>
+      <c r="E34" s="174"/>
+      <c r="F34" s="175"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="205"/>
-      <c r="C35" s="206"/>
-      <c r="D35" s="184"/>
-      <c r="E35" s="199"/>
-      <c r="F35" s="185"/>
+      <c r="B35" s="189"/>
+      <c r="C35" s="190"/>
+      <c r="D35" s="176"/>
+      <c r="E35" s="177"/>
+      <c r="F35" s="178"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="205"/>
-      <c r="C36" s="206"/>
-      <c r="D36" s="184"/>
-      <c r="E36" s="199"/>
-      <c r="F36" s="185"/>
+      <c r="B36" s="189"/>
+      <c r="C36" s="190"/>
+      <c r="D36" s="176"/>
+      <c r="E36" s="177"/>
+      <c r="F36" s="178"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="205"/>
-      <c r="C37" s="206"/>
-      <c r="D37" s="184"/>
-      <c r="E37" s="199"/>
-      <c r="F37" s="185"/>
+      <c r="B37" s="189"/>
+      <c r="C37" s="190"/>
+      <c r="D37" s="176"/>
+      <c r="E37" s="177"/>
+      <c r="F37" s="178"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="207"/>
-      <c r="C38" s="208"/>
-      <c r="D38" s="192"/>
-      <c r="E38" s="193"/>
-      <c r="F38" s="194"/>
+      <c r="B38" s="182"/>
+      <c r="C38" s="183"/>
+      <c r="D38" s="179"/>
+      <c r="E38" s="180"/>
+      <c r="F38" s="181"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -5435,15 +5436,15 @@
       <c r="B41" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="180" t="s">
+      <c r="C41" s="184" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="195"/>
-      <c r="E41" s="196"/>
-      <c r="F41" s="180" t="s">
+      <c r="D41" s="185"/>
+      <c r="E41" s="186"/>
+      <c r="F41" s="184" t="s">
         <v>85</v>
       </c>
-      <c r="G41" s="181"/>
+      <c r="G41" s="206"/>
       <c r="H41" s="58" t="s">
         <v>86</v>
       </c>
@@ -5451,51 +5452,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="81"/>
       <c r="B42" s="82"/>
-      <c r="C42" s="182"/>
-      <c r="D42" s="209"/>
-      <c r="E42" s="183"/>
-      <c r="F42" s="182"/>
-      <c r="G42" s="183"/>
+      <c r="C42" s="173"/>
+      <c r="D42" s="174"/>
+      <c r="E42" s="175"/>
+      <c r="F42" s="173"/>
+      <c r="G42" s="175"/>
       <c r="H42" s="83"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="184"/>
-      <c r="D43" s="199"/>
-      <c r="E43" s="185"/>
-      <c r="F43" s="184"/>
-      <c r="G43" s="185"/>
+      <c r="C43" s="176"/>
+      <c r="D43" s="177"/>
+      <c r="E43" s="178"/>
+      <c r="F43" s="176"/>
+      <c r="G43" s="178"/>
       <c r="H43" s="86"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="184"/>
-      <c r="D44" s="199"/>
-      <c r="E44" s="185"/>
-      <c r="F44" s="184"/>
-      <c r="G44" s="185"/>
+      <c r="C44" s="176"/>
+      <c r="D44" s="177"/>
+      <c r="E44" s="178"/>
+      <c r="F44" s="176"/>
+      <c r="G44" s="178"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="184"/>
-      <c r="D45" s="199"/>
-      <c r="E45" s="185"/>
-      <c r="F45" s="184"/>
-      <c r="G45" s="185"/>
+      <c r="C45" s="176"/>
+      <c r="D45" s="177"/>
+      <c r="E45" s="178"/>
+      <c r="F45" s="176"/>
+      <c r="G45" s="178"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="192"/>
-      <c r="D46" s="193"/>
-      <c r="E46" s="194"/>
-      <c r="F46" s="186"/>
-      <c r="G46" s="187"/>
+      <c r="C46" s="179"/>
+      <c r="D46" s="180"/>
+      <c r="E46" s="181"/>
+      <c r="F46" s="196"/>
+      <c r="G46" s="197"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -5527,15 +5528,15 @@
       <c r="B49" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="180" t="s">
+      <c r="C49" s="184" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="195"/>
-      <c r="E49" s="196"/>
-      <c r="F49" s="174" t="s">
+      <c r="D49" s="185"/>
+      <c r="E49" s="186"/>
+      <c r="F49" s="204" t="s">
         <v>88</v>
       </c>
-      <c r="G49" s="179"/>
+      <c r="G49" s="205"/>
       <c r="H49" s="49" t="s">
         <v>89</v>
       </c>
@@ -5545,15 +5546,15 @@
         <v>1</v>
       </c>
       <c r="B50" s="93"/>
-      <c r="C50" s="188" t="s">
+      <c r="C50" s="198" t="s">
         <v>90</v>
       </c>
-      <c r="D50" s="197"/>
-      <c r="E50" s="189"/>
-      <c r="F50" s="188" t="s">
+      <c r="D50" s="202"/>
+      <c r="E50" s="199"/>
+      <c r="F50" s="198" t="s">
         <v>91</v>
       </c>
-      <c r="G50" s="189"/>
+      <c r="G50" s="199"/>
       <c r="H50" s="94" t="s">
         <v>90</v>
       </c>
@@ -5563,15 +5564,15 @@
         <v>2</v>
       </c>
       <c r="B51" s="85"/>
-      <c r="C51" s="190" t="s">
+      <c r="C51" s="200" t="s">
         <v>90</v>
       </c>
-      <c r="D51" s="198"/>
-      <c r="E51" s="191"/>
-      <c r="F51" s="190" t="s">
+      <c r="D51" s="203"/>
+      <c r="E51" s="201"/>
+      <c r="F51" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="G51" s="191"/>
+      <c r="G51" s="201"/>
       <c r="H51" s="127" t="s">
         <v>90</v>
       </c>
@@ -5579,51 +5580,62 @@
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="184"/>
-      <c r="D52" s="199"/>
-      <c r="E52" s="185"/>
-      <c r="F52" s="184"/>
-      <c r="G52" s="185"/>
+      <c r="C52" s="176"/>
+      <c r="D52" s="177"/>
+      <c r="E52" s="178"/>
+      <c r="F52" s="176"/>
+      <c r="G52" s="178"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="184"/>
-      <c r="D53" s="199"/>
-      <c r="E53" s="185"/>
-      <c r="F53" s="184"/>
-      <c r="G53" s="185"/>
+      <c r="C53" s="176"/>
+      <c r="D53" s="177"/>
+      <c r="E53" s="178"/>
+      <c r="F53" s="176"/>
+      <c r="G53" s="178"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="192"/>
-      <c r="D54" s="193"/>
-      <c r="E54" s="194"/>
-      <c r="F54" s="186"/>
-      <c r="G54" s="187"/>
+      <c r="C54" s="179"/>
+      <c r="D54" s="180"/>
+      <c r="E54" s="181"/>
+      <c r="F54" s="196"/>
+      <c r="G54" s="197"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F43:G43"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="C7:H7"/>
@@ -5640,33 +5652,22 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5785,42 +5786,42 @@
         <v>56</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="200" t="s">
+      <c r="C6" s="191" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="201"/>
-      <c r="E6" s="201"/>
-      <c r="F6" s="201"/>
-      <c r="G6" s="201"/>
-      <c r="H6" s="202"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="192"/>
+      <c r="F6" s="192"/>
+      <c r="G6" s="192"/>
+      <c r="H6" s="193"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="200" t="s">
+      <c r="C7" s="191" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="201"/>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
-      <c r="H7" s="202"/>
+      <c r="D7" s="192"/>
+      <c r="E7" s="192"/>
+      <c r="F7" s="192"/>
+      <c r="G7" s="192"/>
+      <c r="H7" s="193"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>57</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="210" t="s">
+      <c r="C8" s="211" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="211"/>
-      <c r="E8" s="211"/>
-      <c r="F8" s="211"/>
-      <c r="G8" s="211"/>
-      <c r="H8" s="212"/>
+      <c r="D8" s="212"/>
+      <c r="E8" s="212"/>
+      <c r="F8" s="212"/>
+      <c r="G8" s="212"/>
+      <c r="H8" s="213"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1">
       <c r="A9" s="46" t="s">
@@ -5841,10 +5842,10 @@
       <c r="B10" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="174" t="s">
+      <c r="C10" s="204" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="175"/>
+      <c r="D10" s="207"/>
       <c r="E10" s="48" t="s">
         <v>63</v>
       </c>
@@ -5865,10 +5866,10 @@
       <c r="B11" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="213" t="s">
+      <c r="C11" s="214" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="177"/>
+      <c r="D11" s="209"/>
       <c r="E11" s="63" t="s">
         <v>69</v>
       </c>
@@ -5887,10 +5888,10 @@
       <c r="B12" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="172" t="s">
+      <c r="C12" s="194" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="173"/>
+      <c r="D12" s="195"/>
       <c r="E12" s="68" t="s">
         <v>98</v>
       </c>
@@ -5907,10 +5908,10 @@
       <c r="B13" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="172" t="s">
+      <c r="C13" s="194" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="173"/>
+      <c r="D13" s="195"/>
       <c r="E13" s="68" t="s">
         <v>101</v>
       </c>
@@ -5927,10 +5928,10 @@
       <c r="B14" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="172" t="s">
+      <c r="C14" s="194" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="173"/>
+      <c r="D14" s="195"/>
       <c r="E14" s="73" t="s">
         <v>69</v>
       </c>
@@ -5949,10 +5950,10 @@
       <c r="B15" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="172" t="s">
+      <c r="C15" s="194" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="173"/>
+      <c r="D15" s="195"/>
       <c r="E15" s="73" t="s">
         <v>69</v>
       </c>
@@ -5967,8 +5968,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="172"/>
-      <c r="D16" s="173"/>
+      <c r="C16" s="194"/>
+      <c r="D16" s="195"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="74"/>
@@ -5977,8 +5978,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="172"/>
-      <c r="D17" s="173"/>
+      <c r="C17" s="194"/>
+      <c r="D17" s="195"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
@@ -5987,8 +5988,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="172"/>
-      <c r="D18" s="173"/>
+      <c r="C18" s="194"/>
+      <c r="D18" s="195"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -5997,8 +5998,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="172"/>
-      <c r="D19" s="173"/>
+      <c r="C19" s="194"/>
+      <c r="D19" s="195"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -6007,8 +6008,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="172"/>
-      <c r="D20" s="173"/>
+      <c r="C20" s="194"/>
+      <c r="D20" s="195"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -6017,8 +6018,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="172"/>
-      <c r="D21" s="173"/>
+      <c r="C21" s="194"/>
+      <c r="D21" s="195"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -6027,8 +6028,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="172"/>
-      <c r="D22" s="173"/>
+      <c r="C22" s="194"/>
+      <c r="D22" s="195"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -6037,8 +6038,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="172"/>
-      <c r="D23" s="173"/>
+      <c r="C23" s="194"/>
+      <c r="D23" s="195"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -6047,8 +6048,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="172"/>
-      <c r="D24" s="173"/>
+      <c r="C24" s="194"/>
+      <c r="D24" s="195"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -6057,8 +6058,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="172"/>
-      <c r="D25" s="173"/>
+      <c r="C25" s="194"/>
+      <c r="D25" s="195"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -6067,8 +6068,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="172"/>
-      <c r="D26" s="173"/>
+      <c r="C26" s="194"/>
+      <c r="D26" s="195"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -6077,8 +6078,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="172"/>
-      <c r="D27" s="173"/>
+      <c r="C27" s="194"/>
+      <c r="D27" s="195"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -6087,8 +6088,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="172"/>
-      <c r="D28" s="173"/>
+      <c r="C28" s="194"/>
+      <c r="D28" s="195"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -6097,8 +6098,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="172"/>
-      <c r="D29" s="173"/>
+      <c r="C29" s="194"/>
+      <c r="D29" s="195"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -6107,8 +6108,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="192"/>
-      <c r="D30" s="194"/>
+      <c r="C30" s="179"/>
+      <c r="D30" s="181"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -6140,10 +6141,10 @@
       <c r="A33" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="180" t="s">
+      <c r="B33" s="184" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="196"/>
+      <c r="C33" s="186"/>
       <c r="D33" s="54" t="s">
         <v>81</v>
       </c>
@@ -6158,51 +6159,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="203"/>
-      <c r="C34" s="204"/>
-      <c r="D34" s="182"/>
-      <c r="E34" s="209"/>
-      <c r="F34" s="183"/>
+      <c r="B34" s="187"/>
+      <c r="C34" s="188"/>
+      <c r="D34" s="173"/>
+      <c r="E34" s="174"/>
+      <c r="F34" s="175"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="205"/>
-      <c r="C35" s="206"/>
-      <c r="D35" s="184"/>
-      <c r="E35" s="199"/>
-      <c r="F35" s="185"/>
+      <c r="B35" s="189"/>
+      <c r="C35" s="190"/>
+      <c r="D35" s="176"/>
+      <c r="E35" s="177"/>
+      <c r="F35" s="178"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="205"/>
-      <c r="C36" s="206"/>
-      <c r="D36" s="184"/>
-      <c r="E36" s="199"/>
-      <c r="F36" s="185"/>
+      <c r="B36" s="189"/>
+      <c r="C36" s="190"/>
+      <c r="D36" s="176"/>
+      <c r="E36" s="177"/>
+      <c r="F36" s="178"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="205"/>
-      <c r="C37" s="206"/>
-      <c r="D37" s="184"/>
-      <c r="E37" s="199"/>
-      <c r="F37" s="185"/>
+      <c r="B37" s="189"/>
+      <c r="C37" s="190"/>
+      <c r="D37" s="176"/>
+      <c r="E37" s="177"/>
+      <c r="F37" s="178"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="207"/>
-      <c r="C38" s="208"/>
-      <c r="D38" s="192"/>
-      <c r="E38" s="193"/>
-      <c r="F38" s="194"/>
+      <c r="B38" s="182"/>
+      <c r="C38" s="183"/>
+      <c r="D38" s="179"/>
+      <c r="E38" s="180"/>
+      <c r="F38" s="181"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -6235,15 +6236,15 @@
       <c r="B41" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="180" t="s">
+      <c r="C41" s="184" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="195"/>
-      <c r="E41" s="196"/>
-      <c r="F41" s="180" t="s">
+      <c r="D41" s="185"/>
+      <c r="E41" s="186"/>
+      <c r="F41" s="184" t="s">
         <v>85</v>
       </c>
-      <c r="G41" s="181"/>
+      <c r="G41" s="206"/>
       <c r="H41" s="58" t="s">
         <v>86</v>
       </c>
@@ -6251,15 +6252,15 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="81"/>
       <c r="B42" s="82"/>
-      <c r="C42" s="182" t="s">
+      <c r="C42" s="173" t="s">
         <v>105</v>
       </c>
-      <c r="D42" s="209"/>
-      <c r="E42" s="183"/>
-      <c r="F42" s="182" t="s">
+      <c r="D42" s="174"/>
+      <c r="E42" s="175"/>
+      <c r="F42" s="173" t="s">
         <v>106</v>
       </c>
-      <c r="G42" s="183"/>
+      <c r="G42" s="175"/>
       <c r="H42" s="83" t="s">
         <v>107</v>
       </c>
@@ -6267,15 +6268,15 @@
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="184" t="s">
+      <c r="C43" s="176" t="s">
         <v>90</v>
       </c>
-      <c r="D43" s="199"/>
-      <c r="E43" s="185"/>
-      <c r="F43" s="184" t="s">
+      <c r="D43" s="177"/>
+      <c r="E43" s="178"/>
+      <c r="F43" s="176" t="s">
         <v>108</v>
       </c>
-      <c r="G43" s="185"/>
+      <c r="G43" s="178"/>
       <c r="H43" s="86" t="s">
         <v>90</v>
       </c>
@@ -6283,31 +6284,31 @@
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="184"/>
-      <c r="D44" s="199"/>
-      <c r="E44" s="185"/>
-      <c r="F44" s="184"/>
-      <c r="G44" s="185"/>
+      <c r="C44" s="176"/>
+      <c r="D44" s="177"/>
+      <c r="E44" s="178"/>
+      <c r="F44" s="176"/>
+      <c r="G44" s="178"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="184"/>
-      <c r="D45" s="199"/>
-      <c r="E45" s="185"/>
-      <c r="F45" s="184"/>
-      <c r="G45" s="185"/>
+      <c r="C45" s="176"/>
+      <c r="D45" s="177"/>
+      <c r="E45" s="178"/>
+      <c r="F45" s="176"/>
+      <c r="G45" s="178"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="192"/>
-      <c r="D46" s="193"/>
-      <c r="E46" s="194"/>
-      <c r="F46" s="186"/>
-      <c r="G46" s="187"/>
+      <c r="C46" s="179"/>
+      <c r="D46" s="180"/>
+      <c r="E46" s="181"/>
+      <c r="F46" s="196"/>
+      <c r="G46" s="197"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -6339,15 +6340,15 @@
       <c r="B49" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="180" t="s">
+      <c r="C49" s="184" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="195"/>
-      <c r="E49" s="196"/>
-      <c r="F49" s="174" t="s">
+      <c r="D49" s="185"/>
+      <c r="E49" s="186"/>
+      <c r="F49" s="204" t="s">
         <v>88</v>
       </c>
-      <c r="G49" s="179"/>
+      <c r="G49" s="205"/>
       <c r="H49" s="49" t="s">
         <v>89</v>
       </c>
@@ -6355,83 +6356,73 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="92"/>
       <c r="B50" s="93"/>
-      <c r="C50" s="188"/>
-      <c r="D50" s="197"/>
-      <c r="E50" s="189"/>
-      <c r="F50" s="188"/>
-      <c r="G50" s="189"/>
+      <c r="C50" s="198"/>
+      <c r="D50" s="202"/>
+      <c r="E50" s="199"/>
+      <c r="F50" s="198"/>
+      <c r="G50" s="199"/>
       <c r="H50" s="94"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="84"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="184"/>
-      <c r="D51" s="199"/>
-      <c r="E51" s="185"/>
-      <c r="F51" s="184"/>
-      <c r="G51" s="185"/>
+      <c r="C51" s="176"/>
+      <c r="D51" s="177"/>
+      <c r="E51" s="178"/>
+      <c r="F51" s="176"/>
+      <c r="G51" s="178"/>
       <c r="H51" s="86"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="184"/>
-      <c r="D52" s="199"/>
-      <c r="E52" s="185"/>
-      <c r="F52" s="184"/>
-      <c r="G52" s="185"/>
+      <c r="C52" s="176"/>
+      <c r="D52" s="177"/>
+      <c r="E52" s="178"/>
+      <c r="F52" s="176"/>
+      <c r="G52" s="178"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="184"/>
-      <c r="D53" s="199"/>
-      <c r="E53" s="185"/>
-      <c r="F53" s="184"/>
-      <c r="G53" s="185"/>
+      <c r="C53" s="176"/>
+      <c r="D53" s="177"/>
+      <c r="E53" s="178"/>
+      <c r="F53" s="176"/>
+      <c r="G53" s="178"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="192"/>
-      <c r="D54" s="193"/>
-      <c r="E54" s="194"/>
-      <c r="F54" s="186"/>
-      <c r="G54" s="187"/>
+      <c r="C54" s="179"/>
+      <c r="D54" s="180"/>
+      <c r="E54" s="181"/>
+      <c r="F54" s="196"/>
+      <c r="G54" s="197"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -6445,24 +6436,34 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6477,8 +6478,8 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50:E50"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -6576,42 +6577,42 @@
         <v>56</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="200" t="s">
+      <c r="C6" s="191" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="201"/>
-      <c r="E6" s="201"/>
-      <c r="F6" s="201"/>
-      <c r="G6" s="201"/>
-      <c r="H6" s="202"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="192"/>
+      <c r="F6" s="192"/>
+      <c r="G6" s="192"/>
+      <c r="H6" s="193"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="200" t="s">
+      <c r="C7" s="191" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="201"/>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
-      <c r="H7" s="202"/>
+      <c r="D7" s="192"/>
+      <c r="E7" s="192"/>
+      <c r="F7" s="192"/>
+      <c r="G7" s="192"/>
+      <c r="H7" s="193"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>57</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="200" t="s">
+      <c r="C8" s="191" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="201"/>
-      <c r="E8" s="201"/>
-      <c r="F8" s="201"/>
-      <c r="G8" s="201"/>
-      <c r="H8" s="202"/>
+      <c r="D8" s="192"/>
+      <c r="E8" s="192"/>
+      <c r="F8" s="192"/>
+      <c r="G8" s="192"/>
+      <c r="H8" s="193"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1">
       <c r="A9" s="46" t="s">
@@ -6632,10 +6633,10 @@
       <c r="B10" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="174" t="s">
+      <c r="C10" s="204" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="175"/>
+      <c r="D10" s="207"/>
       <c r="E10" s="48" t="s">
         <v>63</v>
       </c>
@@ -6656,10 +6657,10 @@
       <c r="B11" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="213" t="s">
+      <c r="C11" s="214" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="177"/>
+      <c r="D11" s="209"/>
       <c r="E11" s="63" t="s">
         <v>69</v>
       </c>
@@ -6678,10 +6679,10 @@
       <c r="B12" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="172" t="s">
+      <c r="C12" s="194" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="173"/>
+      <c r="D12" s="195"/>
       <c r="E12" s="68" t="s">
         <v>113</v>
       </c>
@@ -6698,10 +6699,10 @@
       <c r="B13" s="67" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="172" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="173"/>
+      <c r="C13" s="194" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="195"/>
       <c r="E13" s="68" t="s">
         <v>101</v>
       </c>
@@ -6714,8 +6715,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="71"/>
       <c r="B14" s="72"/>
-      <c r="C14" s="172"/>
-      <c r="D14" s="173"/>
+      <c r="C14" s="194"/>
+      <c r="D14" s="195"/>
       <c r="E14" s="73"/>
       <c r="F14" s="73"/>
       <c r="G14" s="74"/>
@@ -6724,8 +6725,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="71"/>
       <c r="B15" s="72"/>
-      <c r="C15" s="172"/>
-      <c r="D15" s="173"/>
+      <c r="C15" s="194"/>
+      <c r="D15" s="195"/>
       <c r="E15" s="73"/>
       <c r="F15" s="73"/>
       <c r="G15" s="74"/>
@@ -6734,8 +6735,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="172"/>
-      <c r="D16" s="173"/>
+      <c r="C16" s="194"/>
+      <c r="D16" s="195"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="74"/>
@@ -6744,8 +6745,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="172"/>
-      <c r="D17" s="173"/>
+      <c r="C17" s="194"/>
+      <c r="D17" s="195"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
@@ -6754,8 +6755,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="172"/>
-      <c r="D18" s="173"/>
+      <c r="C18" s="194"/>
+      <c r="D18" s="195"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -6764,8 +6765,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="172"/>
-      <c r="D19" s="173"/>
+      <c r="C19" s="194"/>
+      <c r="D19" s="195"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -6774,8 +6775,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="172"/>
-      <c r="D20" s="173"/>
+      <c r="C20" s="194"/>
+      <c r="D20" s="195"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -6784,8 +6785,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="172"/>
-      <c r="D21" s="173"/>
+      <c r="C21" s="194"/>
+      <c r="D21" s="195"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -6794,8 +6795,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="172"/>
-      <c r="D22" s="173"/>
+      <c r="C22" s="194"/>
+      <c r="D22" s="195"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -6804,8 +6805,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="172"/>
-      <c r="D23" s="173"/>
+      <c r="C23" s="194"/>
+      <c r="D23" s="195"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -6814,8 +6815,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="172"/>
-      <c r="D24" s="173"/>
+      <c r="C24" s="194"/>
+      <c r="D24" s="195"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -6824,8 +6825,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="172"/>
-      <c r="D25" s="173"/>
+      <c r="C25" s="194"/>
+      <c r="D25" s="195"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -6834,8 +6835,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="172"/>
-      <c r="D26" s="173"/>
+      <c r="C26" s="194"/>
+      <c r="D26" s="195"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -6844,8 +6845,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="172"/>
-      <c r="D27" s="173"/>
+      <c r="C27" s="194"/>
+      <c r="D27" s="195"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -6854,8 +6855,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="172"/>
-      <c r="D28" s="173"/>
+      <c r="C28" s="194"/>
+      <c r="D28" s="195"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -6864,8 +6865,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="172"/>
-      <c r="D29" s="173"/>
+      <c r="C29" s="194"/>
+      <c r="D29" s="195"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -6874,8 +6875,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="192"/>
-      <c r="D30" s="194"/>
+      <c r="C30" s="179"/>
+      <c r="D30" s="181"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -6907,10 +6908,10 @@
       <c r="A33" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="180" t="s">
+      <c r="B33" s="184" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="196"/>
+      <c r="C33" s="186"/>
       <c r="D33" s="54" t="s">
         <v>81</v>
       </c>
@@ -6925,51 +6926,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="203"/>
-      <c r="C34" s="204"/>
-      <c r="D34" s="182"/>
-      <c r="E34" s="209"/>
-      <c r="F34" s="183"/>
+      <c r="B34" s="187"/>
+      <c r="C34" s="188"/>
+      <c r="D34" s="173"/>
+      <c r="E34" s="174"/>
+      <c r="F34" s="175"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="205"/>
-      <c r="C35" s="206"/>
-      <c r="D35" s="184"/>
-      <c r="E35" s="199"/>
-      <c r="F35" s="185"/>
+      <c r="B35" s="189"/>
+      <c r="C35" s="190"/>
+      <c r="D35" s="176"/>
+      <c r="E35" s="177"/>
+      <c r="F35" s="178"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="205"/>
-      <c r="C36" s="206"/>
-      <c r="D36" s="184"/>
-      <c r="E36" s="199"/>
-      <c r="F36" s="185"/>
+      <c r="B36" s="189"/>
+      <c r="C36" s="190"/>
+      <c r="D36" s="176"/>
+      <c r="E36" s="177"/>
+      <c r="F36" s="178"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="205"/>
-      <c r="C37" s="206"/>
-      <c r="D37" s="184"/>
-      <c r="E37" s="199"/>
-      <c r="F37" s="185"/>
+      <c r="B37" s="189"/>
+      <c r="C37" s="190"/>
+      <c r="D37" s="176"/>
+      <c r="E37" s="177"/>
+      <c r="F37" s="178"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="207"/>
-      <c r="C38" s="208"/>
-      <c r="D38" s="192"/>
-      <c r="E38" s="193"/>
-      <c r="F38" s="194"/>
+      <c r="B38" s="182"/>
+      <c r="C38" s="183"/>
+      <c r="D38" s="179"/>
+      <c r="E38" s="180"/>
+      <c r="F38" s="181"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -7002,15 +7003,15 @@
       <c r="B41" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="180" t="s">
+      <c r="C41" s="184" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="195"/>
-      <c r="E41" s="196"/>
-      <c r="F41" s="180" t="s">
+      <c r="D41" s="185"/>
+      <c r="E41" s="186"/>
+      <c r="F41" s="184" t="s">
         <v>85</v>
       </c>
-      <c r="G41" s="181"/>
+      <c r="G41" s="206"/>
       <c r="H41" s="58" t="s">
         <v>86</v>
       </c>
@@ -7018,51 +7019,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="81"/>
       <c r="B42" s="82"/>
-      <c r="C42" s="182"/>
-      <c r="D42" s="209"/>
-      <c r="E42" s="183"/>
-      <c r="F42" s="182"/>
-      <c r="G42" s="183"/>
+      <c r="C42" s="173"/>
+      <c r="D42" s="174"/>
+      <c r="E42" s="175"/>
+      <c r="F42" s="173"/>
+      <c r="G42" s="175"/>
       <c r="H42" s="83"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="184"/>
-      <c r="D43" s="199"/>
-      <c r="E43" s="185"/>
-      <c r="F43" s="184"/>
-      <c r="G43" s="185"/>
+      <c r="C43" s="176"/>
+      <c r="D43" s="177"/>
+      <c r="E43" s="178"/>
+      <c r="F43" s="176"/>
+      <c r="G43" s="178"/>
       <c r="H43" s="86"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="184"/>
-      <c r="D44" s="199"/>
-      <c r="E44" s="185"/>
-      <c r="F44" s="184"/>
-      <c r="G44" s="185"/>
+      <c r="C44" s="176"/>
+      <c r="D44" s="177"/>
+      <c r="E44" s="178"/>
+      <c r="F44" s="176"/>
+      <c r="G44" s="178"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="184"/>
-      <c r="D45" s="199"/>
-      <c r="E45" s="185"/>
-      <c r="F45" s="184"/>
-      <c r="G45" s="185"/>
+      <c r="C45" s="176"/>
+      <c r="D45" s="177"/>
+      <c r="E45" s="178"/>
+      <c r="F45" s="176"/>
+      <c r="G45" s="178"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="192"/>
-      <c r="D46" s="193"/>
-      <c r="E46" s="194"/>
-      <c r="F46" s="186"/>
-      <c r="G46" s="187"/>
+      <c r="C46" s="179"/>
+      <c r="D46" s="180"/>
+      <c r="E46" s="181"/>
+      <c r="F46" s="196"/>
+      <c r="G46" s="197"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -7094,15 +7095,15 @@
       <c r="B49" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="180" t="s">
+      <c r="C49" s="184" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="195"/>
-      <c r="E49" s="196"/>
-      <c r="F49" s="174" t="s">
+      <c r="D49" s="185"/>
+      <c r="E49" s="186"/>
+      <c r="F49" s="204" t="s">
         <v>88</v>
       </c>
-      <c r="G49" s="179"/>
+      <c r="G49" s="205"/>
       <c r="H49" s="49" t="s">
         <v>89</v>
       </c>
@@ -7112,15 +7113,15 @@
         <v>1</v>
       </c>
       <c r="B50" s="93"/>
-      <c r="C50" s="188" t="s">
-        <v>144</v>
-      </c>
-      <c r="D50" s="197"/>
-      <c r="E50" s="189"/>
-      <c r="F50" s="188" t="s">
+      <c r="C50" s="198" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" s="202"/>
+      <c r="E50" s="199"/>
+      <c r="F50" s="198" t="s">
         <v>92</v>
       </c>
-      <c r="G50" s="189"/>
+      <c r="G50" s="199"/>
       <c r="H50" s="94" t="s">
         <v>105</v>
       </c>
@@ -7130,17 +7131,17 @@
         <v>2</v>
       </c>
       <c r="B51" s="85"/>
-      <c r="C51" s="184" t="s">
+      <c r="C51" s="176" t="s">
         <v>107</v>
       </c>
-      <c r="D51" s="199"/>
-      <c r="E51" s="185"/>
-      <c r="F51" s="184" t="s">
+      <c r="D51" s="177"/>
+      <c r="E51" s="178"/>
+      <c r="F51" s="176" t="s">
         <v>91</v>
       </c>
-      <c r="G51" s="185"/>
+      <c r="G51" s="178"/>
       <c r="H51" s="86" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
@@ -7148,69 +7149,59 @@
         <v>3</v>
       </c>
       <c r="B52" s="85"/>
-      <c r="C52" s="184" t="s">
+      <c r="C52" s="176" t="s">
         <v>107</v>
       </c>
-      <c r="D52" s="199"/>
-      <c r="E52" s="185"/>
-      <c r="F52" s="184" t="s">
+      <c r="D52" s="177"/>
+      <c r="E52" s="178"/>
+      <c r="F52" s="176" t="s">
         <v>91</v>
       </c>
-      <c r="G52" s="185"/>
+      <c r="G52" s="178"/>
       <c r="H52" s="86" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="184"/>
-      <c r="D53" s="199"/>
-      <c r="E53" s="185"/>
-      <c r="F53" s="184"/>
-      <c r="G53" s="185"/>
+      <c r="C53" s="176"/>
+      <c r="D53" s="177"/>
+      <c r="E53" s="178"/>
+      <c r="F53" s="176"/>
+      <c r="G53" s="178"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="192"/>
-      <c r="D54" s="193"/>
-      <c r="E54" s="194"/>
-      <c r="F54" s="186"/>
-      <c r="G54" s="187"/>
+      <c r="C54" s="179"/>
+      <c r="D54" s="180"/>
+      <c r="E54" s="181"/>
+      <c r="F54" s="196"/>
+      <c r="G54" s="197"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -7224,24 +7215,34 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7355,42 +7356,42 @@
         <v>56</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="200" t="s">
+      <c r="C6" s="191" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="201"/>
-      <c r="E6" s="201"/>
-      <c r="F6" s="201"/>
-      <c r="G6" s="201"/>
-      <c r="H6" s="202"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="192"/>
+      <c r="F6" s="192"/>
+      <c r="G6" s="192"/>
+      <c r="H6" s="193"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="200" t="s">
+      <c r="C7" s="191" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="201"/>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
-      <c r="H7" s="202"/>
+      <c r="D7" s="192"/>
+      <c r="E7" s="192"/>
+      <c r="F7" s="192"/>
+      <c r="G7" s="192"/>
+      <c r="H7" s="193"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>57</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="200" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="201"/>
-      <c r="E8" s="201"/>
-      <c r="F8" s="201"/>
-      <c r="G8" s="201"/>
-      <c r="H8" s="202"/>
+      <c r="C8" s="191" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="192"/>
+      <c r="E8" s="192"/>
+      <c r="F8" s="192"/>
+      <c r="G8" s="192"/>
+      <c r="H8" s="193"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1">
       <c r="A9" s="46" t="s">
@@ -7411,10 +7412,10 @@
       <c r="B10" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="174" t="s">
+      <c r="C10" s="204" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="175"/>
+      <c r="D10" s="207"/>
       <c r="E10" s="48" t="s">
         <v>63</v>
       </c>
@@ -7433,12 +7434,12 @@
         <v>1</v>
       </c>
       <c r="B11" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="214" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="213" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="177"/>
+      <c r="D11" s="209"/>
       <c r="E11" s="63" t="s">
         <v>69</v>
       </c>
@@ -7455,12 +7456,12 @@
         <v>2</v>
       </c>
       <c r="B12" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="194" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="172" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="173"/>
+      <c r="D12" s="195"/>
       <c r="E12" s="68" t="s">
         <v>69</v>
       </c>
@@ -7477,12 +7478,12 @@
         <v>3</v>
       </c>
       <c r="B13" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="194" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="172" t="s">
-        <v>125</v>
-      </c>
-      <c r="D13" s="173"/>
+      <c r="D13" s="195"/>
       <c r="E13" s="68" t="s">
         <v>69</v>
       </c>
@@ -7499,12 +7500,12 @@
         <v>4</v>
       </c>
       <c r="B14" s="72" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="172" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="194" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="173"/>
+      <c r="D14" s="195"/>
       <c r="E14" s="73" t="s">
         <v>69</v>
       </c>
@@ -7519,8 +7520,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="71"/>
       <c r="B15" s="72"/>
-      <c r="C15" s="172"/>
-      <c r="D15" s="173"/>
+      <c r="C15" s="194"/>
+      <c r="D15" s="195"/>
       <c r="E15" s="73"/>
       <c r="F15" s="73"/>
       <c r="G15" s="74"/>
@@ -7529,8 +7530,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="172"/>
-      <c r="D16" s="173"/>
+      <c r="C16" s="194"/>
+      <c r="D16" s="195"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="74"/>
@@ -7539,8 +7540,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="172"/>
-      <c r="D17" s="173"/>
+      <c r="C17" s="194"/>
+      <c r="D17" s="195"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
@@ -7549,8 +7550,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="172"/>
-      <c r="D18" s="173"/>
+      <c r="C18" s="194"/>
+      <c r="D18" s="195"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -7559,8 +7560,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="172"/>
-      <c r="D19" s="173"/>
+      <c r="C19" s="194"/>
+      <c r="D19" s="195"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -7569,8 +7570,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="172"/>
-      <c r="D20" s="173"/>
+      <c r="C20" s="194"/>
+      <c r="D20" s="195"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -7579,8 +7580,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="172"/>
-      <c r="D21" s="173"/>
+      <c r="C21" s="194"/>
+      <c r="D21" s="195"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -7589,8 +7590,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="172"/>
-      <c r="D22" s="173"/>
+      <c r="C22" s="194"/>
+      <c r="D22" s="195"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -7599,8 +7600,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="172"/>
-      <c r="D23" s="173"/>
+      <c r="C23" s="194"/>
+      <c r="D23" s="195"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -7609,8 +7610,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="172"/>
-      <c r="D24" s="173"/>
+      <c r="C24" s="194"/>
+      <c r="D24" s="195"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -7619,8 +7620,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="172"/>
-      <c r="D25" s="173"/>
+      <c r="C25" s="194"/>
+      <c r="D25" s="195"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -7629,8 +7630,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="172"/>
-      <c r="D26" s="173"/>
+      <c r="C26" s="194"/>
+      <c r="D26" s="195"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -7639,8 +7640,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="172"/>
-      <c r="D27" s="173"/>
+      <c r="C27" s="194"/>
+      <c r="D27" s="195"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -7649,8 +7650,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="172"/>
-      <c r="D28" s="173"/>
+      <c r="C28" s="194"/>
+      <c r="D28" s="195"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -7659,8 +7660,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="172"/>
-      <c r="D29" s="173"/>
+      <c r="C29" s="194"/>
+      <c r="D29" s="195"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -7669,8 +7670,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="192"/>
-      <c r="D30" s="194"/>
+      <c r="C30" s="179"/>
+      <c r="D30" s="181"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -7702,10 +7703,10 @@
       <c r="A33" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="180" t="s">
+      <c r="B33" s="184" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="196"/>
+      <c r="C33" s="186"/>
       <c r="D33" s="54" t="s">
         <v>81</v>
       </c>
@@ -7720,51 +7721,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="203"/>
-      <c r="C34" s="204"/>
-      <c r="D34" s="182"/>
-      <c r="E34" s="209"/>
-      <c r="F34" s="183"/>
+      <c r="B34" s="187"/>
+      <c r="C34" s="188"/>
+      <c r="D34" s="173"/>
+      <c r="E34" s="174"/>
+      <c r="F34" s="175"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="205"/>
-      <c r="C35" s="206"/>
-      <c r="D35" s="184"/>
-      <c r="E35" s="199"/>
-      <c r="F35" s="185"/>
+      <c r="B35" s="189"/>
+      <c r="C35" s="190"/>
+      <c r="D35" s="176"/>
+      <c r="E35" s="177"/>
+      <c r="F35" s="178"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="205"/>
-      <c r="C36" s="206"/>
-      <c r="D36" s="184"/>
-      <c r="E36" s="199"/>
-      <c r="F36" s="185"/>
+      <c r="B36" s="189"/>
+      <c r="C36" s="190"/>
+      <c r="D36" s="176"/>
+      <c r="E36" s="177"/>
+      <c r="F36" s="178"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="205"/>
-      <c r="C37" s="206"/>
-      <c r="D37" s="184"/>
-      <c r="E37" s="199"/>
-      <c r="F37" s="185"/>
+      <c r="B37" s="189"/>
+      <c r="C37" s="190"/>
+      <c r="D37" s="176"/>
+      <c r="E37" s="177"/>
+      <c r="F37" s="178"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="207"/>
-      <c r="C38" s="208"/>
-      <c r="D38" s="192"/>
-      <c r="E38" s="193"/>
-      <c r="F38" s="194"/>
+      <c r="B38" s="182"/>
+      <c r="C38" s="183"/>
+      <c r="D38" s="179"/>
+      <c r="E38" s="180"/>
+      <c r="F38" s="181"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -7797,15 +7798,15 @@
       <c r="B41" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="180" t="s">
+      <c r="C41" s="184" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="195"/>
-      <c r="E41" s="196"/>
-      <c r="F41" s="180" t="s">
+      <c r="D41" s="185"/>
+      <c r="E41" s="186"/>
+      <c r="F41" s="184" t="s">
         <v>85</v>
       </c>
-      <c r="G41" s="181"/>
+      <c r="G41" s="206"/>
       <c r="H41" s="58" t="s">
         <v>86</v>
       </c>
@@ -7815,15 +7816,15 @@
         <v>1</v>
       </c>
       <c r="B42" s="82"/>
-      <c r="C42" s="182" t="s">
-        <v>117</v>
-      </c>
-      <c r="D42" s="209"/>
-      <c r="E42" s="183"/>
-      <c r="F42" s="182" t="s">
+      <c r="C42" s="173" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" s="174"/>
+      <c r="E42" s="175"/>
+      <c r="F42" s="173" t="s">
         <v>106</v>
       </c>
-      <c r="G42" s="183"/>
+      <c r="G42" s="175"/>
       <c r="H42" s="83" t="s">
         <v>107</v>
       </c>
@@ -7833,15 +7834,15 @@
         <v>2</v>
       </c>
       <c r="B43" s="85"/>
-      <c r="C43" s="184" t="s">
-        <v>118</v>
-      </c>
-      <c r="D43" s="199"/>
-      <c r="E43" s="185"/>
-      <c r="F43" s="184" t="s">
+      <c r="C43" s="176" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" s="177"/>
+      <c r="E43" s="178"/>
+      <c r="F43" s="176" t="s">
         <v>106</v>
       </c>
-      <c r="G43" s="185"/>
+      <c r="G43" s="178"/>
       <c r="H43" s="86" t="s">
         <v>107</v>
       </c>
@@ -7851,37 +7852,37 @@
         <v>3</v>
       </c>
       <c r="B44" s="85"/>
-      <c r="C44" s="184" t="s">
-        <v>136</v>
-      </c>
-      <c r="D44" s="199"/>
-      <c r="E44" s="185"/>
-      <c r="F44" s="184" t="s">
-        <v>140</v>
-      </c>
-      <c r="G44" s="185"/>
+      <c r="C44" s="176" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" s="177"/>
+      <c r="E44" s="178"/>
+      <c r="F44" s="176" t="s">
+        <v>139</v>
+      </c>
+      <c r="G44" s="178"/>
       <c r="H44" s="86" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="184"/>
-      <c r="D45" s="199"/>
-      <c r="E45" s="185"/>
-      <c r="F45" s="184"/>
-      <c r="G45" s="185"/>
+      <c r="C45" s="176"/>
+      <c r="D45" s="177"/>
+      <c r="E45" s="178"/>
+      <c r="F45" s="176"/>
+      <c r="G45" s="178"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="192"/>
-      <c r="D46" s="193"/>
-      <c r="E46" s="194"/>
-      <c r="F46" s="186"/>
-      <c r="G46" s="187"/>
+      <c r="C46" s="179"/>
+      <c r="D46" s="180"/>
+      <c r="E46" s="181"/>
+      <c r="F46" s="196"/>
+      <c r="G46" s="197"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -7913,15 +7914,15 @@
       <c r="B49" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="180" t="s">
+      <c r="C49" s="184" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="195"/>
-      <c r="E49" s="196"/>
-      <c r="F49" s="174" t="s">
+      <c r="D49" s="185"/>
+      <c r="E49" s="186"/>
+      <c r="F49" s="204" t="s">
         <v>88</v>
       </c>
-      <c r="G49" s="179"/>
+      <c r="G49" s="205"/>
       <c r="H49" s="49" t="s">
         <v>89</v>
       </c>
@@ -7931,89 +7932,79 @@
         <v>1</v>
       </c>
       <c r="B50" s="93"/>
-      <c r="C50" s="188" t="s">
+      <c r="C50" s="198" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" s="202"/>
+      <c r="E50" s="199"/>
+      <c r="F50" s="198" t="s">
         <v>126</v>
       </c>
-      <c r="D50" s="197"/>
-      <c r="E50" s="189"/>
-      <c r="F50" s="188" t="s">
-        <v>127</v>
-      </c>
-      <c r="G50" s="189"/>
+      <c r="G50" s="199"/>
       <c r="H50" s="94" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="84"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="184"/>
-      <c r="D51" s="199"/>
-      <c r="E51" s="185"/>
-      <c r="F51" s="184"/>
-      <c r="G51" s="185"/>
+      <c r="C51" s="176"/>
+      <c r="D51" s="177"/>
+      <c r="E51" s="178"/>
+      <c r="F51" s="176"/>
+      <c r="G51" s="178"/>
       <c r="H51" s="86"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="184"/>
-      <c r="D52" s="199"/>
-      <c r="E52" s="185"/>
-      <c r="F52" s="184"/>
-      <c r="G52" s="185"/>
+      <c r="C52" s="176"/>
+      <c r="D52" s="177"/>
+      <c r="E52" s="178"/>
+      <c r="F52" s="176"/>
+      <c r="G52" s="178"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="184"/>
-      <c r="D53" s="199"/>
-      <c r="E53" s="185"/>
-      <c r="F53" s="184"/>
-      <c r="G53" s="185"/>
+      <c r="C53" s="176"/>
+      <c r="D53" s="177"/>
+      <c r="E53" s="178"/>
+      <c r="F53" s="176"/>
+      <c r="G53" s="178"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="192"/>
-      <c r="D54" s="193"/>
-      <c r="E54" s="194"/>
-      <c r="F54" s="186"/>
-      <c r="G54" s="187"/>
+      <c r="C54" s="179"/>
+      <c r="D54" s="180"/>
+      <c r="E54" s="181"/>
+      <c r="F54" s="196"/>
+      <c r="G54" s="197"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -8027,24 +8018,34 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8146,20 +8147,20 @@
     <row r="5" spans="1:8" ht="20.25" customHeight="1">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
-      <c r="C5" s="200"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="201"/>
-      <c r="G5" s="201"/>
-      <c r="H5" s="202"/>
+      <c r="C5" s="191"/>
+      <c r="D5" s="192"/>
+      <c r="E5" s="192"/>
+      <c r="F5" s="192"/>
+      <c r="G5" s="192"/>
+      <c r="H5" s="193"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="40" t="s">
         <v>56</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="225" t="s">
-        <v>145</v>
+      <c r="C6" s="128" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
@@ -8167,28 +8168,28 @@
         <v>33</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="200" t="s">
+      <c r="C7" s="191" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="201"/>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
-      <c r="H7" s="202"/>
+      <c r="D7" s="192"/>
+      <c r="E7" s="192"/>
+      <c r="F7" s="192"/>
+      <c r="G7" s="192"/>
+      <c r="H7" s="193"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>57</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="200" t="s">
+      <c r="C8" s="191" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="201"/>
-      <c r="E8" s="201"/>
-      <c r="F8" s="201"/>
-      <c r="G8" s="201"/>
-      <c r="H8" s="202"/>
+      <c r="D8" s="192"/>
+      <c r="E8" s="192"/>
+      <c r="F8" s="192"/>
+      <c r="G8" s="192"/>
+      <c r="H8" s="193"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1">
       <c r="A9" s="46" t="s">
@@ -8209,10 +8210,10 @@
       <c r="B10" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="174" t="s">
+      <c r="C10" s="204" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="175"/>
+      <c r="D10" s="207"/>
       <c r="E10" s="48" t="s">
         <v>63</v>
       </c>
@@ -8231,12 +8232,12 @@
         <v>1</v>
       </c>
       <c r="B11" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="214" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="213" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" s="177"/>
+      <c r="D11" s="209"/>
       <c r="E11" s="63" t="s">
         <v>69</v>
       </c>
@@ -8255,10 +8256,10 @@
       <c r="B12" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="172" t="s">
-        <v>130</v>
-      </c>
-      <c r="D12" s="173"/>
+      <c r="C12" s="194" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="195"/>
       <c r="E12" s="68" t="s">
         <v>75</v>
       </c>
@@ -8275,10 +8276,10 @@
       <c r="B13" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="172" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" s="173"/>
+      <c r="C13" s="194" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="195"/>
       <c r="E13" s="68" t="s">
         <v>101</v>
       </c>
@@ -8293,12 +8294,12 @@
         <v>4</v>
       </c>
       <c r="B14" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="172" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="194" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="173"/>
+      <c r="D14" s="195"/>
       <c r="E14" s="73" t="s">
         <v>69</v>
       </c>
@@ -8315,12 +8316,12 @@
         <v>5</v>
       </c>
       <c r="B15" s="72" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" s="172" t="s">
-        <v>146</v>
-      </c>
-      <c r="D15" s="173"/>
+        <v>119</v>
+      </c>
+      <c r="C15" s="194" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="195"/>
       <c r="E15" s="73" t="s">
         <v>69</v>
       </c>
@@ -8335,8 +8336,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="172"/>
-      <c r="D16" s="173"/>
+      <c r="C16" s="194"/>
+      <c r="D16" s="195"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="74"/>
@@ -8345,8 +8346,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="172"/>
-      <c r="D17" s="173"/>
+      <c r="C17" s="194"/>
+      <c r="D17" s="195"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
@@ -8355,8 +8356,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="172"/>
-      <c r="D18" s="173"/>
+      <c r="C18" s="194"/>
+      <c r="D18" s="195"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -8365,8 +8366,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="172"/>
-      <c r="D19" s="173"/>
+      <c r="C19" s="194"/>
+      <c r="D19" s="195"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -8375,8 +8376,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="172"/>
-      <c r="D20" s="173"/>
+      <c r="C20" s="194"/>
+      <c r="D20" s="195"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -8385,8 +8386,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="172"/>
-      <c r="D21" s="173"/>
+      <c r="C21" s="194"/>
+      <c r="D21" s="195"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -8395,8 +8396,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="172"/>
-      <c r="D22" s="173"/>
+      <c r="C22" s="194"/>
+      <c r="D22" s="195"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -8405,8 +8406,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="172"/>
-      <c r="D23" s="173"/>
+      <c r="C23" s="194"/>
+      <c r="D23" s="195"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -8415,8 +8416,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="172"/>
-      <c r="D24" s="173"/>
+      <c r="C24" s="194"/>
+      <c r="D24" s="195"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -8425,8 +8426,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="172"/>
-      <c r="D25" s="173"/>
+      <c r="C25" s="194"/>
+      <c r="D25" s="195"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -8435,8 +8436,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="172"/>
-      <c r="D26" s="173"/>
+      <c r="C26" s="194"/>
+      <c r="D26" s="195"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -8445,8 +8446,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="172"/>
-      <c r="D27" s="173"/>
+      <c r="C27" s="194"/>
+      <c r="D27" s="195"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -8455,8 +8456,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="172"/>
-      <c r="D28" s="173"/>
+      <c r="C28" s="194"/>
+      <c r="D28" s="195"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -8465,8 +8466,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="172"/>
-      <c r="D29" s="173"/>
+      <c r="C29" s="194"/>
+      <c r="D29" s="195"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -8475,8 +8476,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="192"/>
-      <c r="D30" s="194"/>
+      <c r="C30" s="179"/>
+      <c r="D30" s="181"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -8508,10 +8509,10 @@
       <c r="A33" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="180" t="s">
+      <c r="B33" s="184" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="196"/>
+      <c r="C33" s="186"/>
       <c r="D33" s="54" t="s">
         <v>81</v>
       </c>
@@ -8526,51 +8527,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="203"/>
-      <c r="C34" s="204"/>
-      <c r="D34" s="182"/>
-      <c r="E34" s="209"/>
-      <c r="F34" s="183"/>
+      <c r="B34" s="187"/>
+      <c r="C34" s="188"/>
+      <c r="D34" s="173"/>
+      <c r="E34" s="174"/>
+      <c r="F34" s="175"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="205"/>
-      <c r="C35" s="206"/>
-      <c r="D35" s="184"/>
-      <c r="E35" s="199"/>
-      <c r="F35" s="185"/>
+      <c r="B35" s="189"/>
+      <c r="C35" s="190"/>
+      <c r="D35" s="176"/>
+      <c r="E35" s="177"/>
+      <c r="F35" s="178"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="205"/>
-      <c r="C36" s="206"/>
-      <c r="D36" s="184"/>
-      <c r="E36" s="199"/>
-      <c r="F36" s="185"/>
+      <c r="B36" s="189"/>
+      <c r="C36" s="190"/>
+      <c r="D36" s="176"/>
+      <c r="E36" s="177"/>
+      <c r="F36" s="178"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="205"/>
-      <c r="C37" s="206"/>
-      <c r="D37" s="184"/>
-      <c r="E37" s="199"/>
-      <c r="F37" s="185"/>
+      <c r="B37" s="189"/>
+      <c r="C37" s="190"/>
+      <c r="D37" s="176"/>
+      <c r="E37" s="177"/>
+      <c r="F37" s="178"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="207"/>
-      <c r="C38" s="208"/>
-      <c r="D38" s="192"/>
-      <c r="E38" s="193"/>
-      <c r="F38" s="194"/>
+      <c r="B38" s="182"/>
+      <c r="C38" s="183"/>
+      <c r="D38" s="179"/>
+      <c r="E38" s="180"/>
+      <c r="F38" s="181"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -8603,15 +8604,15 @@
       <c r="B41" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="180" t="s">
+      <c r="C41" s="184" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="195"/>
-      <c r="E41" s="196"/>
-      <c r="F41" s="180" t="s">
+      <c r="D41" s="185"/>
+      <c r="E41" s="186"/>
+      <c r="F41" s="184" t="s">
         <v>85</v>
       </c>
-      <c r="G41" s="181"/>
+      <c r="G41" s="206"/>
       <c r="H41" s="58" t="s">
         <v>86</v>
       </c>
@@ -8621,63 +8622,63 @@
         <v>1</v>
       </c>
       <c r="B42" s="82"/>
-      <c r="C42" s="182" t="s">
+      <c r="C42" s="173" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" s="174"/>
+      <c r="E42" s="175"/>
+      <c r="F42" s="173" t="s">
         <v>142</v>
       </c>
-      <c r="D42" s="209"/>
-      <c r="E42" s="183"/>
-      <c r="F42" s="182" t="s">
+      <c r="G42" s="175"/>
+      <c r="H42" s="83" t="s">
         <v>143</v>
-      </c>
-      <c r="G42" s="183"/>
-      <c r="H42" s="83" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="184" t="s">
+      <c r="C43" s="176" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43" s="177"/>
+      <c r="E43" s="178"/>
+      <c r="F43" s="176" t="s">
         <v>147</v>
       </c>
-      <c r="D43" s="199"/>
-      <c r="E43" s="185"/>
-      <c r="F43" s="184" t="s">
-        <v>148</v>
-      </c>
-      <c r="G43" s="185"/>
+      <c r="G43" s="178"/>
       <c r="H43" s="86" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="184"/>
-      <c r="D44" s="199"/>
-      <c r="E44" s="185"/>
-      <c r="F44" s="184"/>
-      <c r="G44" s="185"/>
+      <c r="C44" s="176"/>
+      <c r="D44" s="177"/>
+      <c r="E44" s="178"/>
+      <c r="F44" s="176"/>
+      <c r="G44" s="178"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="184"/>
-      <c r="D45" s="199"/>
-      <c r="E45" s="185"/>
-      <c r="F45" s="184"/>
-      <c r="G45" s="185"/>
+      <c r="C45" s="176"/>
+      <c r="D45" s="177"/>
+      <c r="E45" s="178"/>
+      <c r="F45" s="176"/>
+      <c r="G45" s="178"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="192"/>
-      <c r="D46" s="193"/>
-      <c r="E46" s="194"/>
-      <c r="F46" s="186"/>
-      <c r="G46" s="187"/>
+      <c r="C46" s="179"/>
+      <c r="D46" s="180"/>
+      <c r="E46" s="181"/>
+      <c r="F46" s="196"/>
+      <c r="G46" s="197"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -8709,15 +8710,15 @@
       <c r="B49" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="180" t="s">
+      <c r="C49" s="184" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="195"/>
-      <c r="E49" s="196"/>
-      <c r="F49" s="174" t="s">
+      <c r="D49" s="185"/>
+      <c r="E49" s="186"/>
+      <c r="F49" s="204" t="s">
         <v>88</v>
       </c>
-      <c r="G49" s="179"/>
+      <c r="G49" s="205"/>
       <c r="H49" s="49" t="s">
         <v>89</v>
       </c>
@@ -8725,83 +8726,73 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="92"/>
       <c r="B50" s="93"/>
-      <c r="C50" s="188"/>
-      <c r="D50" s="197"/>
-      <c r="E50" s="189"/>
-      <c r="F50" s="188"/>
-      <c r="G50" s="189"/>
+      <c r="C50" s="198"/>
+      <c r="D50" s="202"/>
+      <c r="E50" s="199"/>
+      <c r="F50" s="198"/>
+      <c r="G50" s="199"/>
       <c r="H50" s="94"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="84"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="184"/>
-      <c r="D51" s="199"/>
-      <c r="E51" s="185"/>
-      <c r="F51" s="184"/>
-      <c r="G51" s="185"/>
+      <c r="C51" s="176"/>
+      <c r="D51" s="177"/>
+      <c r="E51" s="178"/>
+      <c r="F51" s="176"/>
+      <c r="G51" s="178"/>
       <c r="H51" s="86"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="184"/>
-      <c r="D52" s="199"/>
-      <c r="E52" s="185"/>
-      <c r="F52" s="184"/>
-      <c r="G52" s="185"/>
+      <c r="C52" s="176"/>
+      <c r="D52" s="177"/>
+      <c r="E52" s="178"/>
+      <c r="F52" s="176"/>
+      <c r="G52" s="178"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="184"/>
-      <c r="D53" s="199"/>
-      <c r="E53" s="185"/>
-      <c r="F53" s="184"/>
-      <c r="G53" s="185"/>
+      <c r="C53" s="176"/>
+      <c r="D53" s="177"/>
+      <c r="E53" s="178"/>
+      <c r="F53" s="176"/>
+      <c r="G53" s="178"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="192"/>
-      <c r="D54" s="193"/>
-      <c r="E54" s="194"/>
-      <c r="F54" s="186"/>
-      <c r="G54" s="187"/>
+      <c r="C54" s="179"/>
+      <c r="D54" s="180"/>
+      <c r="E54" s="181"/>
+      <c r="F54" s="196"/>
+      <c r="G54" s="197"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -8815,24 +8806,34 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8860,7 +8861,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" customHeight="1">
       <c r="A1" s="110" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B1" s="111"/>
       <c r="C1" s="111"/>
@@ -8895,8 +8896,8 @@
       <c r="K2" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="217"/>
-      <c r="M2" s="218"/>
+      <c r="L2" s="221"/>
+      <c r="M2" s="222"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" customHeight="1">
       <c r="A3" s="116" t="s">
@@ -8918,8 +8919,8 @@
       <c r="K3" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="217"/>
-      <c r="M3" s="218"/>
+      <c r="L3" s="221"/>
+      <c r="M3" s="222"/>
     </row>
     <row r="4" spans="1:13" ht="17.25" customHeight="1">
       <c r="A4" s="113" t="s">
@@ -8939,8 +8940,8 @@
       <c r="K4" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="217"/>
-      <c r="M4" s="218"/>
+      <c r="L4" s="221"/>
+      <c r="M4" s="222"/>
     </row>
     <row r="5" spans="1:13" ht="17.25" customHeight="1">
       <c r="A5" s="117"/>
@@ -8958,7 +8959,7 @@
     </row>
     <row r="6" spans="1:13" ht="17.25" customHeight="1">
       <c r="A6" s="119" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B6" s="114"/>
       <c r="C6" s="115"/>
@@ -8997,14 +8998,14 @@
     <row r="9" spans="1:13" ht="21.75" customHeight="1">
       <c r="A9" s="95"/>
       <c r="F9" s="96"/>
-      <c r="G9" s="219" t="s">
-        <v>134</v>
-      </c>
-      <c r="H9" s="220"/>
-      <c r="I9" s="220"/>
-      <c r="J9" s="220"/>
-      <c r="K9" s="220"/>
-      <c r="L9" s="221"/>
+      <c r="G9" s="223" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" s="224"/>
+      <c r="I9" s="224"/>
+      <c r="J9" s="224"/>
+      <c r="K9" s="224"/>
+      <c r="L9" s="225"/>
       <c r="M9" s="96"/>
     </row>
     <row r="10" spans="1:13" ht="21.75" customHeight="1">
@@ -9024,13 +9025,13 @@
     </row>
     <row r="11" spans="1:13" ht="22.5" customHeight="1">
       <c r="A11" s="95"/>
-      <c r="B11" s="222" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" s="214"/>
-      <c r="D11" s="215"/>
-      <c r="E11" s="215"/>
-      <c r="F11" s="216"/>
+      <c r="B11" s="215" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="218"/>
+      <c r="D11" s="219"/>
+      <c r="E11" s="219"/>
+      <c r="F11" s="220"/>
       <c r="G11" s="100"/>
       <c r="H11" s="100"/>
       <c r="I11" s="100"/>
@@ -9041,11 +9042,11 @@
     </row>
     <row r="12" spans="1:13" ht="22.5" customHeight="1">
       <c r="A12" s="95"/>
-      <c r="B12" s="223"/>
-      <c r="C12" s="214"/>
-      <c r="D12" s="215"/>
-      <c r="E12" s="215"/>
-      <c r="F12" s="216"/>
+      <c r="B12" s="216"/>
+      <c r="C12" s="218"/>
+      <c r="D12" s="219"/>
+      <c r="E12" s="219"/>
+      <c r="F12" s="220"/>
       <c r="G12" s="100"/>
       <c r="H12" s="100"/>
       <c r="I12" s="100"/>
@@ -9056,11 +9057,11 @@
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1">
       <c r="A13" s="95"/>
-      <c r="B13" s="223"/>
-      <c r="C13" s="214"/>
-      <c r="D13" s="215"/>
-      <c r="E13" s="215"/>
-      <c r="F13" s="216"/>
+      <c r="B13" s="216"/>
+      <c r="C13" s="218"/>
+      <c r="D13" s="219"/>
+      <c r="E13" s="219"/>
+      <c r="F13" s="220"/>
       <c r="G13" s="100"/>
       <c r="H13" s="100"/>
       <c r="I13" s="100"/>
@@ -9071,11 +9072,11 @@
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1">
       <c r="A14" s="95"/>
-      <c r="B14" s="223"/>
-      <c r="C14" s="214"/>
-      <c r="D14" s="215"/>
-      <c r="E14" s="215"/>
-      <c r="F14" s="216"/>
+      <c r="B14" s="216"/>
+      <c r="C14" s="218"/>
+      <c r="D14" s="219"/>
+      <c r="E14" s="219"/>
+      <c r="F14" s="220"/>
       <c r="G14" s="100"/>
       <c r="H14" s="100"/>
       <c r="I14" s="100"/>
@@ -9086,11 +9087,11 @@
     </row>
     <row r="15" spans="1:13" ht="22.5" customHeight="1">
       <c r="A15" s="95"/>
-      <c r="B15" s="223"/>
-      <c r="C15" s="214"/>
-      <c r="D15" s="215"/>
-      <c r="E15" s="215"/>
-      <c r="F15" s="216"/>
+      <c r="B15" s="216"/>
+      <c r="C15" s="218"/>
+      <c r="D15" s="219"/>
+      <c r="E15" s="219"/>
+      <c r="F15" s="220"/>
       <c r="G15" s="100"/>
       <c r="H15" s="100"/>
       <c r="I15" s="100"/>
@@ -9101,11 +9102,11 @@
     </row>
     <row r="16" spans="1:13" ht="22.5" customHeight="1">
       <c r="A16" s="95"/>
-      <c r="B16" s="223"/>
-      <c r="C16" s="214"/>
-      <c r="D16" s="215"/>
-      <c r="E16" s="215"/>
-      <c r="F16" s="216"/>
+      <c r="B16" s="216"/>
+      <c r="C16" s="218"/>
+      <c r="D16" s="219"/>
+      <c r="E16" s="219"/>
+      <c r="F16" s="220"/>
       <c r="G16" s="100"/>
       <c r="H16" s="100"/>
       <c r="I16" s="100"/>
@@ -9116,11 +9117,11 @@
     </row>
     <row r="17" spans="1:13" ht="22.5" customHeight="1">
       <c r="A17" s="95"/>
-      <c r="B17" s="223"/>
-      <c r="C17" s="214"/>
-      <c r="D17" s="215"/>
-      <c r="E17" s="215"/>
-      <c r="F17" s="216"/>
+      <c r="B17" s="216"/>
+      <c r="C17" s="218"/>
+      <c r="D17" s="219"/>
+      <c r="E17" s="219"/>
+      <c r="F17" s="220"/>
       <c r="G17" s="100"/>
       <c r="H17" s="100"/>
       <c r="I17" s="100"/>
@@ -9131,11 +9132,11 @@
     </row>
     <row r="18" spans="1:13" ht="22.5" customHeight="1">
       <c r="A18" s="95"/>
-      <c r="B18" s="223"/>
-      <c r="C18" s="214"/>
-      <c r="D18" s="215"/>
-      <c r="E18" s="215"/>
-      <c r="F18" s="216"/>
+      <c r="B18" s="216"/>
+      <c r="C18" s="218"/>
+      <c r="D18" s="219"/>
+      <c r="E18" s="219"/>
+      <c r="F18" s="220"/>
       <c r="G18" s="100"/>
       <c r="H18" s="100"/>
       <c r="I18" s="100"/>
@@ -9146,11 +9147,11 @@
     </row>
     <row r="19" spans="1:13" ht="22.5" customHeight="1">
       <c r="A19" s="95"/>
-      <c r="B19" s="223"/>
-      <c r="C19" s="214"/>
-      <c r="D19" s="215"/>
-      <c r="E19" s="215"/>
-      <c r="F19" s="216"/>
+      <c r="B19" s="216"/>
+      <c r="C19" s="218"/>
+      <c r="D19" s="219"/>
+      <c r="E19" s="219"/>
+      <c r="F19" s="220"/>
       <c r="G19" s="100"/>
       <c r="H19" s="100"/>
       <c r="I19" s="100"/>
@@ -9161,11 +9162,11 @@
     </row>
     <row r="20" spans="1:13" ht="22.5" customHeight="1">
       <c r="A20" s="95"/>
-      <c r="B20" s="223"/>
-      <c r="C20" s="214"/>
-      <c r="D20" s="215"/>
-      <c r="E20" s="215"/>
-      <c r="F20" s="216"/>
+      <c r="B20" s="216"/>
+      <c r="C20" s="218"/>
+      <c r="D20" s="219"/>
+      <c r="E20" s="219"/>
+      <c r="F20" s="220"/>
       <c r="G20" s="100"/>
       <c r="H20" s="100"/>
       <c r="I20" s="100"/>
@@ -9176,11 +9177,11 @@
     </row>
     <row r="21" spans="1:13" ht="22.5" customHeight="1">
       <c r="A21" s="95"/>
-      <c r="B21" s="223"/>
-      <c r="C21" s="214"/>
-      <c r="D21" s="215"/>
-      <c r="E21" s="215"/>
-      <c r="F21" s="216"/>
+      <c r="B21" s="216"/>
+      <c r="C21" s="218"/>
+      <c r="D21" s="219"/>
+      <c r="E21" s="219"/>
+      <c r="F21" s="220"/>
       <c r="G21" s="100"/>
       <c r="H21" s="100"/>
       <c r="I21" s="100"/>
@@ -9191,11 +9192,11 @@
     </row>
     <row r="22" spans="1:13" ht="22.5" customHeight="1">
       <c r="A22" s="95"/>
-      <c r="B22" s="223"/>
-      <c r="C22" s="214"/>
-      <c r="D22" s="215"/>
-      <c r="E22" s="215"/>
-      <c r="F22" s="216"/>
+      <c r="B22" s="216"/>
+      <c r="C22" s="218"/>
+      <c r="D22" s="219"/>
+      <c r="E22" s="219"/>
+      <c r="F22" s="220"/>
       <c r="G22" s="100"/>
       <c r="H22" s="100"/>
       <c r="I22" s="100"/>
@@ -9206,11 +9207,11 @@
     </row>
     <row r="23" spans="1:13" ht="22.5" customHeight="1">
       <c r="A23" s="95"/>
-      <c r="B23" s="223"/>
-      <c r="C23" s="214"/>
-      <c r="D23" s="215"/>
-      <c r="E23" s="215"/>
-      <c r="F23" s="216"/>
+      <c r="B23" s="216"/>
+      <c r="C23" s="218"/>
+      <c r="D23" s="219"/>
+      <c r="E23" s="219"/>
+      <c r="F23" s="220"/>
       <c r="G23" s="100"/>
       <c r="H23" s="100"/>
       <c r="I23" s="100"/>
@@ -9221,11 +9222,11 @@
     </row>
     <row r="24" spans="1:13" ht="22.5" customHeight="1">
       <c r="A24" s="95"/>
-      <c r="B24" s="223"/>
-      <c r="C24" s="214"/>
-      <c r="D24" s="215"/>
-      <c r="E24" s="215"/>
-      <c r="F24" s="216"/>
+      <c r="B24" s="216"/>
+      <c r="C24" s="218"/>
+      <c r="D24" s="219"/>
+      <c r="E24" s="219"/>
+      <c r="F24" s="220"/>
       <c r="G24" s="100"/>
       <c r="H24" s="100"/>
       <c r="I24" s="100"/>
@@ -9236,11 +9237,11 @@
     </row>
     <row r="25" spans="1:13" ht="22.5" customHeight="1">
       <c r="A25" s="95"/>
-      <c r="B25" s="223"/>
-      <c r="C25" s="214"/>
-      <c r="D25" s="215"/>
-      <c r="E25" s="215"/>
-      <c r="F25" s="216"/>
+      <c r="B25" s="216"/>
+      <c r="C25" s="218"/>
+      <c r="D25" s="219"/>
+      <c r="E25" s="219"/>
+      <c r="F25" s="220"/>
       <c r="G25" s="100"/>
       <c r="H25" s="100"/>
       <c r="I25" s="100"/>
@@ -9251,11 +9252,11 @@
     </row>
     <row r="26" spans="1:13" ht="22.5" customHeight="1">
       <c r="A26" s="95"/>
-      <c r="B26" s="223"/>
-      <c r="C26" s="214"/>
-      <c r="D26" s="215"/>
-      <c r="E26" s="215"/>
-      <c r="F26" s="216"/>
+      <c r="B26" s="216"/>
+      <c r="C26" s="218"/>
+      <c r="D26" s="219"/>
+      <c r="E26" s="219"/>
+      <c r="F26" s="220"/>
       <c r="G26" s="100"/>
       <c r="H26" s="100"/>
       <c r="I26" s="100"/>
@@ -9266,11 +9267,11 @@
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1">
       <c r="A27" s="95"/>
-      <c r="B27" s="223"/>
-      <c r="C27" s="214"/>
-      <c r="D27" s="215"/>
-      <c r="E27" s="215"/>
-      <c r="F27" s="216"/>
+      <c r="B27" s="216"/>
+      <c r="C27" s="218"/>
+      <c r="D27" s="219"/>
+      <c r="E27" s="219"/>
+      <c r="F27" s="220"/>
       <c r="G27" s="100"/>
       <c r="H27" s="100"/>
       <c r="I27" s="100"/>
@@ -9281,11 +9282,11 @@
     </row>
     <row r="28" spans="1:13" ht="22.5" customHeight="1">
       <c r="A28" s="95"/>
-      <c r="B28" s="223"/>
-      <c r="C28" s="214"/>
-      <c r="D28" s="215"/>
-      <c r="E28" s="215"/>
-      <c r="F28" s="216"/>
+      <c r="B28" s="216"/>
+      <c r="C28" s="218"/>
+      <c r="D28" s="219"/>
+      <c r="E28" s="219"/>
+      <c r="F28" s="220"/>
       <c r="G28" s="100"/>
       <c r="H28" s="100"/>
       <c r="I28" s="100"/>
@@ -9296,11 +9297,11 @@
     </row>
     <row r="29" spans="1:13" ht="22.5" customHeight="1">
       <c r="A29" s="95"/>
-      <c r="B29" s="223"/>
-      <c r="C29" s="214"/>
-      <c r="D29" s="215"/>
-      <c r="E29" s="215"/>
-      <c r="F29" s="216"/>
+      <c r="B29" s="216"/>
+      <c r="C29" s="218"/>
+      <c r="D29" s="219"/>
+      <c r="E29" s="219"/>
+      <c r="F29" s="220"/>
       <c r="G29" s="100"/>
       <c r="H29" s="100"/>
       <c r="I29" s="100"/>
@@ -9311,11 +9312,11 @@
     </row>
     <row r="30" spans="1:13" ht="22.5" customHeight="1">
       <c r="A30" s="95"/>
-      <c r="B30" s="223"/>
-      <c r="C30" s="214"/>
-      <c r="D30" s="215"/>
-      <c r="E30" s="215"/>
-      <c r="F30" s="216"/>
+      <c r="B30" s="216"/>
+      <c r="C30" s="218"/>
+      <c r="D30" s="219"/>
+      <c r="E30" s="219"/>
+      <c r="F30" s="220"/>
       <c r="G30" s="100"/>
       <c r="H30" s="100"/>
       <c r="I30" s="100"/>
@@ -9326,11 +9327,11 @@
     </row>
     <row r="31" spans="1:13" ht="22.5" customHeight="1">
       <c r="A31" s="95"/>
-      <c r="B31" s="223"/>
-      <c r="C31" s="214"/>
-      <c r="D31" s="215"/>
-      <c r="E31" s="215"/>
-      <c r="F31" s="216"/>
+      <c r="B31" s="216"/>
+      <c r="C31" s="218"/>
+      <c r="D31" s="219"/>
+      <c r="E31" s="219"/>
+      <c r="F31" s="220"/>
       <c r="G31" s="100"/>
       <c r="H31" s="100"/>
       <c r="I31" s="100"/>
@@ -9341,11 +9342,11 @@
     </row>
     <row r="32" spans="1:13" ht="23.25" customHeight="1">
       <c r="A32" s="95"/>
-      <c r="B32" s="223"/>
-      <c r="C32" s="214"/>
-      <c r="D32" s="215"/>
-      <c r="E32" s="215"/>
-      <c r="F32" s="216"/>
+      <c r="B32" s="216"/>
+      <c r="C32" s="218"/>
+      <c r="D32" s="219"/>
+      <c r="E32" s="219"/>
+      <c r="F32" s="220"/>
       <c r="G32" s="100"/>
       <c r="H32" s="100"/>
       <c r="I32" s="100"/>
@@ -9356,11 +9357,11 @@
     </row>
     <row r="33" spans="1:13" ht="23.25" customHeight="1">
       <c r="A33" s="95"/>
-      <c r="B33" s="223"/>
-      <c r="C33" s="214"/>
-      <c r="D33" s="215"/>
-      <c r="E33" s="215"/>
-      <c r="F33" s="216"/>
+      <c r="B33" s="216"/>
+      <c r="C33" s="218"/>
+      <c r="D33" s="219"/>
+      <c r="E33" s="219"/>
+      <c r="F33" s="220"/>
       <c r="G33" s="100"/>
       <c r="H33" s="100"/>
       <c r="I33" s="100"/>
@@ -9371,11 +9372,11 @@
     </row>
     <row r="34" spans="1:13" ht="23.25" customHeight="1">
       <c r="A34" s="95"/>
-      <c r="B34" s="224"/>
-      <c r="C34" s="214"/>
-      <c r="D34" s="215"/>
-      <c r="E34" s="215"/>
-      <c r="F34" s="216"/>
+      <c r="B34" s="217"/>
+      <c r="C34" s="218"/>
+      <c r="D34" s="219"/>
+      <c r="E34" s="219"/>
+      <c r="F34" s="220"/>
       <c r="G34" s="100"/>
       <c r="H34" s="100"/>
       <c r="I34" s="100"/>
@@ -9405,6 +9406,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="C15:F15"/>
     <mergeCell ref="B11:B34"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
@@ -9421,19 +9435,6 @@
     <mergeCell ref="C32:F32"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="C17:F17"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9602,6 +9603,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="c8a424a7-50d7-4cd5-819d-65031445e48f">
@@ -9609,15 +9619,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9639,6 +9640,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96326D39-5435-48DC-AF0E-CDD4943397FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1631EF5-CEDC-4597-B938-E1023FBA0E2F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9646,12 +9655,4 @@
     <ds:schemaRef ds:uri="c8a424a7-50d7-4cd5-819d-65031445e48f"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96326D39-5435-48DC-AF0E-CDD4943397FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/03_DB設計書/03_データベース設計書.xlsx
+++ b/03_DB設計書/03_データベース設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarot\Desktop\2023Dev3Early\03_DB設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D7551E-5D58-4F7E-B855-8AD943860B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA8A413-7DB7-4901-BF3B-77DA44DC4AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="150">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -515,9 +515,6 @@
     <t>comment</t>
   </si>
   <si>
-    <t>VERCHAR(1024)</t>
-  </si>
-  <si>
     <t>投稿日時</t>
   </si>
   <si>
@@ -699,6 +696,14 @@
   </si>
   <si>
     <t>create_date</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VARCHAR(64)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VARCHAR(1024)</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2088,6 +2093,36 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2136,18 +2171,9 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2175,33 +2201,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -2220,120 +2219,126 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2345,6 +2350,30 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2354,30 +2383,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -3228,19 +3233,19 @@
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
-      <c r="U3" s="145" t="s">
+      <c r="U3" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="V3" s="146"/>
-      <c r="W3" s="147"/>
-      <c r="X3" s="148"/>
-      <c r="Y3" s="148"/>
-      <c r="Z3" s="148"/>
-      <c r="AA3" s="148"/>
-      <c r="AB3" s="148"/>
-      <c r="AC3" s="148"/>
-      <c r="AD3" s="148"/>
-      <c r="AE3" s="146"/>
+      <c r="V3" s="131"/>
+      <c r="W3" s="155"/>
+      <c r="X3" s="130"/>
+      <c r="Y3" s="130"/>
+      <c r="Z3" s="130"/>
+      <c r="AA3" s="130"/>
+      <c r="AB3" s="130"/>
+      <c r="AC3" s="130"/>
+      <c r="AD3" s="130"/>
+      <c r="AE3" s="131"/>
       <c r="AF3" s="12"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -3352,20 +3357,20 @@
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
       <c r="E7" s="36"/>
-      <c r="F7" s="130" t="s">
+      <c r="F7" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="131"/>
-      <c r="K7" s="131"/>
-      <c r="L7" s="131"/>
-      <c r="M7" s="131"/>
-      <c r="N7" s="131"/>
-      <c r="O7" s="131"/>
-      <c r="P7" s="131"/>
-      <c r="Q7" s="132"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="141"/>
+      <c r="M7" s="141"/>
+      <c r="N7" s="141"/>
+      <c r="O7" s="141"/>
+      <c r="P7" s="141"/>
+      <c r="Q7" s="142"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
       <c r="T7" s="12"/>
@@ -3383,80 +3388,80 @@
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="12"/>
-      <c r="B8" s="133" t="s">
+      <c r="B8" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="134"/>
-      <c r="D8" s="134"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="139" t="s">
+      <c r="C8" s="144"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="140"/>
-      <c r="K8" s="140"/>
-      <c r="L8" s="140"/>
-      <c r="M8" s="140"/>
-      <c r="N8" s="140"/>
-      <c r="O8" s="140"/>
-      <c r="P8" s="140"/>
-      <c r="Q8" s="141"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="150"/>
+      <c r="I8" s="150"/>
+      <c r="J8" s="150"/>
+      <c r="K8" s="150"/>
+      <c r="L8" s="150"/>
+      <c r="M8" s="150"/>
+      <c r="N8" s="150"/>
+      <c r="O8" s="150"/>
+      <c r="P8" s="150"/>
+      <c r="Q8" s="151"/>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
-      <c r="W8" s="129" t="s">
+      <c r="W8" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="X8" s="129"/>
-      <c r="Y8" s="129"/>
-      <c r="Z8" s="129" t="s">
+      <c r="X8" s="139"/>
+      <c r="Y8" s="139"/>
+      <c r="Z8" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="AA8" s="129"/>
-      <c r="AB8" s="129"/>
-      <c r="AC8" s="129" t="s">
+      <c r="AA8" s="139"/>
+      <c r="AB8" s="139"/>
+      <c r="AC8" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="AD8" s="129"/>
-      <c r="AE8" s="129"/>
+      <c r="AD8" s="139"/>
+      <c r="AE8" s="139"/>
       <c r="AF8" s="12"/>
     </row>
     <row r="9" spans="1:176" ht="15.75" customHeight="1">
       <c r="A9" s="12"/>
-      <c r="B9" s="136"/>
-      <c r="C9" s="137"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="143"/>
-      <c r="H9" s="143"/>
-      <c r="I9" s="143"/>
-      <c r="J9" s="143"/>
-      <c r="K9" s="143"/>
-      <c r="L9" s="143"/>
-      <c r="M9" s="143"/>
-      <c r="N9" s="143"/>
-      <c r="O9" s="143"/>
-      <c r="P9" s="143"/>
-      <c r="Q9" s="144"/>
+      <c r="B9" s="146"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="153"/>
+      <c r="K9" s="153"/>
+      <c r="L9" s="153"/>
+      <c r="M9" s="153"/>
+      <c r="N9" s="153"/>
+      <c r="O9" s="153"/>
+      <c r="P9" s="153"/>
+      <c r="Q9" s="154"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
-      <c r="W9" s="149"/>
-      <c r="X9" s="150"/>
-      <c r="Y9" s="151"/>
-      <c r="Z9" s="149"/>
-      <c r="AA9" s="150"/>
-      <c r="AB9" s="151"/>
-      <c r="AC9" s="149"/>
-      <c r="AD9" s="150"/>
-      <c r="AE9" s="151"/>
+      <c r="W9" s="156"/>
+      <c r="X9" s="157"/>
+      <c r="Y9" s="158"/>
+      <c r="Z9" s="156"/>
+      <c r="AA9" s="157"/>
+      <c r="AB9" s="158"/>
+      <c r="AC9" s="156"/>
+      <c r="AD9" s="157"/>
+      <c r="AE9" s="158"/>
       <c r="AF9" s="12"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
@@ -3482,15 +3487,15 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
-      <c r="W10" s="152"/>
-      <c r="X10" s="153"/>
-      <c r="Y10" s="154"/>
-      <c r="Z10" s="152"/>
-      <c r="AA10" s="153"/>
-      <c r="AB10" s="154"/>
-      <c r="AC10" s="152"/>
-      <c r="AD10" s="153"/>
-      <c r="AE10" s="154"/>
+      <c r="W10" s="159"/>
+      <c r="X10" s="160"/>
+      <c r="Y10" s="161"/>
+      <c r="Z10" s="159"/>
+      <c r="AA10" s="160"/>
+      <c r="AB10" s="161"/>
+      <c r="AC10" s="159"/>
+      <c r="AD10" s="160"/>
+      <c r="AE10" s="161"/>
       <c r="AF10" s="12"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -3516,15 +3521,15 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
-      <c r="W11" s="152"/>
-      <c r="X11" s="153"/>
-      <c r="Y11" s="154"/>
-      <c r="Z11" s="152"/>
-      <c r="AA11" s="153"/>
-      <c r="AB11" s="154"/>
-      <c r="AC11" s="152"/>
-      <c r="AD11" s="153"/>
-      <c r="AE11" s="154"/>
+      <c r="W11" s="159"/>
+      <c r="X11" s="160"/>
+      <c r="Y11" s="161"/>
+      <c r="Z11" s="159"/>
+      <c r="AA11" s="160"/>
+      <c r="AB11" s="161"/>
+      <c r="AC11" s="159"/>
+      <c r="AD11" s="160"/>
+      <c r="AE11" s="161"/>
       <c r="AF11" s="12"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -3550,15 +3555,15 @@
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
-      <c r="W12" s="155"/>
-      <c r="X12" s="156"/>
-      <c r="Y12" s="157"/>
-      <c r="Z12" s="155"/>
-      <c r="AA12" s="156"/>
-      <c r="AB12" s="157"/>
-      <c r="AC12" s="155"/>
-      <c r="AD12" s="156"/>
-      <c r="AE12" s="157"/>
+      <c r="W12" s="162"/>
+      <c r="X12" s="163"/>
+      <c r="Y12" s="164"/>
+      <c r="Z12" s="162"/>
+      <c r="AA12" s="163"/>
+      <c r="AB12" s="164"/>
+      <c r="AC12" s="162"/>
+      <c r="AD12" s="163"/>
+      <c r="AE12" s="164"/>
       <c r="AF12" s="12"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -3653,106 +3658,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="12"/>
-      <c r="B16" s="158" t="s">
+      <c r="B16" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="158"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
-      <c r="M16" s="158"/>
-      <c r="N16" s="158"/>
-      <c r="O16" s="158"/>
-      <c r="P16" s="158"/>
-      <c r="Q16" s="158"/>
-      <c r="R16" s="158"/>
-      <c r="S16" s="158"/>
-      <c r="T16" s="158"/>
-      <c r="U16" s="158"/>
-      <c r="V16" s="158"/>
-      <c r="W16" s="158"/>
-      <c r="X16" s="158"/>
-      <c r="Y16" s="158"/>
-      <c r="Z16" s="158"/>
-      <c r="AA16" s="158"/>
-      <c r="AB16" s="158"/>
-      <c r="AC16" s="158"/>
-      <c r="AD16" s="158"/>
-      <c r="AE16" s="158"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="138"/>
+      <c r="J16" s="138"/>
+      <c r="K16" s="138"/>
+      <c r="L16" s="138"/>
+      <c r="M16" s="138"/>
+      <c r="N16" s="138"/>
+      <c r="O16" s="138"/>
+      <c r="P16" s="138"/>
+      <c r="Q16" s="138"/>
+      <c r="R16" s="138"/>
+      <c r="S16" s="138"/>
+      <c r="T16" s="138"/>
+      <c r="U16" s="138"/>
+      <c r="V16" s="138"/>
+      <c r="W16" s="138"/>
+      <c r="X16" s="138"/>
+      <c r="Y16" s="138"/>
+      <c r="Z16" s="138"/>
+      <c r="AA16" s="138"/>
+      <c r="AB16" s="138"/>
+      <c r="AC16" s="138"/>
+      <c r="AD16" s="138"/>
+      <c r="AE16" s="138"/>
       <c r="AF16" s="12"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="12"/>
-      <c r="B17" s="158"/>
-      <c r="C17" s="158"/>
-      <c r="D17" s="158"/>
-      <c r="E17" s="158"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="158"/>
-      <c r="J17" s="158"/>
-      <c r="K17" s="158"/>
-      <c r="L17" s="158"/>
-      <c r="M17" s="158"/>
-      <c r="N17" s="158"/>
-      <c r="O17" s="158"/>
-      <c r="P17" s="158"/>
-      <c r="Q17" s="158"/>
-      <c r="R17" s="158"/>
-      <c r="S17" s="158"/>
-      <c r="T17" s="158"/>
-      <c r="U17" s="158"/>
-      <c r="V17" s="158"/>
-      <c r="W17" s="158"/>
-      <c r="X17" s="158"/>
-      <c r="Y17" s="158"/>
-      <c r="Z17" s="158"/>
-      <c r="AA17" s="158"/>
-      <c r="AB17" s="158"/>
-      <c r="AC17" s="158"/>
-      <c r="AD17" s="158"/>
-      <c r="AE17" s="158"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="138"/>
+      <c r="K17" s="138"/>
+      <c r="L17" s="138"/>
+      <c r="M17" s="138"/>
+      <c r="N17" s="138"/>
+      <c r="O17" s="138"/>
+      <c r="P17" s="138"/>
+      <c r="Q17" s="138"/>
+      <c r="R17" s="138"/>
+      <c r="S17" s="138"/>
+      <c r="T17" s="138"/>
+      <c r="U17" s="138"/>
+      <c r="V17" s="138"/>
+      <c r="W17" s="138"/>
+      <c r="X17" s="138"/>
+      <c r="Y17" s="138"/>
+      <c r="Z17" s="138"/>
+      <c r="AA17" s="138"/>
+      <c r="AB17" s="138"/>
+      <c r="AC17" s="138"/>
+      <c r="AD17" s="138"/>
+      <c r="AE17" s="138"/>
       <c r="AF17" s="12"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="12"/>
-      <c r="B18" s="158"/>
-      <c r="C18" s="158"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="158"/>
-      <c r="J18" s="158"/>
-      <c r="K18" s="158"/>
-      <c r="L18" s="158"/>
-      <c r="M18" s="158"/>
-      <c r="N18" s="158"/>
-      <c r="O18" s="158"/>
-      <c r="P18" s="158"/>
-      <c r="Q18" s="158"/>
-      <c r="R18" s="158"/>
-      <c r="S18" s="158"/>
-      <c r="T18" s="158"/>
-      <c r="U18" s="158"/>
-      <c r="V18" s="158"/>
-      <c r="W18" s="158"/>
-      <c r="X18" s="158"/>
-      <c r="Y18" s="158"/>
-      <c r="Z18" s="158"/>
-      <c r="AA18" s="158"/>
-      <c r="AB18" s="158"/>
-      <c r="AC18" s="158"/>
-      <c r="AD18" s="158"/>
-      <c r="AE18" s="158"/>
+      <c r="B18" s="138"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="138"/>
+      <c r="J18" s="138"/>
+      <c r="K18" s="138"/>
+      <c r="L18" s="138"/>
+      <c r="M18" s="138"/>
+      <c r="N18" s="138"/>
+      <c r="O18" s="138"/>
+      <c r="P18" s="138"/>
+      <c r="Q18" s="138"/>
+      <c r="R18" s="138"/>
+      <c r="S18" s="138"/>
+      <c r="T18" s="138"/>
+      <c r="U18" s="138"/>
+      <c r="V18" s="138"/>
+      <c r="W18" s="138"/>
+      <c r="X18" s="138"/>
+      <c r="Y18" s="138"/>
+      <c r="Z18" s="138"/>
+      <c r="AA18" s="138"/>
+      <c r="AB18" s="138"/>
+      <c r="AC18" s="138"/>
+      <c r="AD18" s="138"/>
+      <c r="AE18" s="138"/>
       <c r="AF18" s="12"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -3891,384 +3896,384 @@
     </row>
     <row r="23" spans="1:32" s="39" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="37"/>
-      <c r="B23" s="145" t="s">
+      <c r="B23" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="148"/>
-      <c r="D23" s="148"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="145" t="s">
+      <c r="C23" s="130"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="148"/>
-      <c r="H23" s="148"/>
-      <c r="I23" s="146"/>
-      <c r="J23" s="145" t="s">
+      <c r="G23" s="130"/>
+      <c r="H23" s="130"/>
+      <c r="I23" s="131"/>
+      <c r="J23" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="K23" s="148"/>
-      <c r="L23" s="148"/>
-      <c r="M23" s="148"/>
-      <c r="N23" s="148"/>
-      <c r="O23" s="148"/>
-      <c r="P23" s="148"/>
-      <c r="Q23" s="148"/>
-      <c r="R23" s="148"/>
-      <c r="S23" s="148"/>
-      <c r="T23" s="148"/>
-      <c r="U23" s="148"/>
-      <c r="V23" s="148"/>
-      <c r="W23" s="148"/>
-      <c r="X23" s="148"/>
-      <c r="Y23" s="148"/>
-      <c r="Z23" s="148"/>
-      <c r="AA23" s="148"/>
-      <c r="AB23" s="146"/>
-      <c r="AC23" s="145" t="s">
+      <c r="K23" s="130"/>
+      <c r="L23" s="130"/>
+      <c r="M23" s="130"/>
+      <c r="N23" s="130"/>
+      <c r="O23" s="130"/>
+      <c r="P23" s="130"/>
+      <c r="Q23" s="130"/>
+      <c r="R23" s="130"/>
+      <c r="S23" s="130"/>
+      <c r="T23" s="130"/>
+      <c r="U23" s="130"/>
+      <c r="V23" s="130"/>
+      <c r="W23" s="130"/>
+      <c r="X23" s="130"/>
+      <c r="Y23" s="130"/>
+      <c r="Z23" s="130"/>
+      <c r="AA23" s="130"/>
+      <c r="AB23" s="131"/>
+      <c r="AC23" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="AD23" s="148"/>
-      <c r="AE23" s="146"/>
+      <c r="AD23" s="130"/>
+      <c r="AE23" s="131"/>
       <c r="AF23" s="37"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="12"/>
-      <c r="B24" s="145"/>
-      <c r="C24" s="148"/>
-      <c r="D24" s="148"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="159"/>
-      <c r="G24" s="160"/>
-      <c r="H24" s="160"/>
-      <c r="I24" s="161"/>
-      <c r="J24" s="162"/>
-      <c r="K24" s="163"/>
-      <c r="L24" s="163"/>
-      <c r="M24" s="163"/>
-      <c r="N24" s="163"/>
-      <c r="O24" s="163"/>
-      <c r="P24" s="163"/>
-      <c r="Q24" s="163"/>
-      <c r="R24" s="163"/>
-      <c r="S24" s="163"/>
-      <c r="T24" s="163"/>
-      <c r="U24" s="163"/>
-      <c r="V24" s="163"/>
-      <c r="W24" s="163"/>
-      <c r="X24" s="163"/>
-      <c r="Y24" s="163"/>
-      <c r="Z24" s="163"/>
-      <c r="AA24" s="163"/>
-      <c r="AB24" s="164"/>
-      <c r="AC24" s="145"/>
-      <c r="AD24" s="148"/>
-      <c r="AE24" s="146"/>
+      <c r="B24" s="129"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="132"/>
+      <c r="G24" s="133"/>
+      <c r="H24" s="133"/>
+      <c r="I24" s="134"/>
+      <c r="J24" s="135"/>
+      <c r="K24" s="136"/>
+      <c r="L24" s="136"/>
+      <c r="M24" s="136"/>
+      <c r="N24" s="136"/>
+      <c r="O24" s="136"/>
+      <c r="P24" s="136"/>
+      <c r="Q24" s="136"/>
+      <c r="R24" s="136"/>
+      <c r="S24" s="136"/>
+      <c r="T24" s="136"/>
+      <c r="U24" s="136"/>
+      <c r="V24" s="136"/>
+      <c r="W24" s="136"/>
+      <c r="X24" s="136"/>
+      <c r="Y24" s="136"/>
+      <c r="Z24" s="136"/>
+      <c r="AA24" s="136"/>
+      <c r="AB24" s="137"/>
+      <c r="AC24" s="129"/>
+      <c r="AD24" s="130"/>
+      <c r="AE24" s="131"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="12"/>
-      <c r="B25" s="145"/>
-      <c r="C25" s="148"/>
-      <c r="D25" s="148"/>
-      <c r="E25" s="146"/>
-      <c r="F25" s="159"/>
-      <c r="G25" s="160"/>
-      <c r="H25" s="160"/>
-      <c r="I25" s="161"/>
-      <c r="J25" s="162"/>
-      <c r="K25" s="163"/>
-      <c r="L25" s="163"/>
-      <c r="M25" s="163"/>
-      <c r="N25" s="163"/>
-      <c r="O25" s="163"/>
-      <c r="P25" s="163"/>
-      <c r="Q25" s="163"/>
-      <c r="R25" s="163"/>
-      <c r="S25" s="163"/>
-      <c r="T25" s="163"/>
-      <c r="U25" s="163"/>
-      <c r="V25" s="163"/>
-      <c r="W25" s="163"/>
-      <c r="X25" s="163"/>
-      <c r="Y25" s="163"/>
-      <c r="Z25" s="163"/>
-      <c r="AA25" s="163"/>
-      <c r="AB25" s="164"/>
-      <c r="AC25" s="145"/>
-      <c r="AD25" s="148"/>
-      <c r="AE25" s="146"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="131"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="133"/>
+      <c r="H25" s="133"/>
+      <c r="I25" s="134"/>
+      <c r="J25" s="135"/>
+      <c r="K25" s="136"/>
+      <c r="L25" s="136"/>
+      <c r="M25" s="136"/>
+      <c r="N25" s="136"/>
+      <c r="O25" s="136"/>
+      <c r="P25" s="136"/>
+      <c r="Q25" s="136"/>
+      <c r="R25" s="136"/>
+      <c r="S25" s="136"/>
+      <c r="T25" s="136"/>
+      <c r="U25" s="136"/>
+      <c r="V25" s="136"/>
+      <c r="W25" s="136"/>
+      <c r="X25" s="136"/>
+      <c r="Y25" s="136"/>
+      <c r="Z25" s="136"/>
+      <c r="AA25" s="136"/>
+      <c r="AB25" s="137"/>
+      <c r="AC25" s="129"/>
+      <c r="AD25" s="130"/>
+      <c r="AE25" s="131"/>
       <c r="AF25" s="12"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="12"/>
-      <c r="B26" s="145"/>
-      <c r="C26" s="148"/>
-      <c r="D26" s="148"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="160"/>
-      <c r="H26" s="160"/>
-      <c r="I26" s="161"/>
-      <c r="J26" s="162"/>
-      <c r="K26" s="163"/>
-      <c r="L26" s="163"/>
-      <c r="M26" s="163"/>
-      <c r="N26" s="163"/>
-      <c r="O26" s="163"/>
-      <c r="P26" s="163"/>
-      <c r="Q26" s="163"/>
-      <c r="R26" s="163"/>
-      <c r="S26" s="163"/>
-      <c r="T26" s="163"/>
-      <c r="U26" s="163"/>
-      <c r="V26" s="163"/>
-      <c r="W26" s="163"/>
-      <c r="X26" s="163"/>
-      <c r="Y26" s="163"/>
-      <c r="Z26" s="163"/>
-      <c r="AA26" s="163"/>
-      <c r="AB26" s="164"/>
-      <c r="AC26" s="145"/>
-      <c r="AD26" s="148"/>
-      <c r="AE26" s="146"/>
+      <c r="B26" s="129"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="131"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="133"/>
+      <c r="H26" s="133"/>
+      <c r="I26" s="134"/>
+      <c r="J26" s="135"/>
+      <c r="K26" s="136"/>
+      <c r="L26" s="136"/>
+      <c r="M26" s="136"/>
+      <c r="N26" s="136"/>
+      <c r="O26" s="136"/>
+      <c r="P26" s="136"/>
+      <c r="Q26" s="136"/>
+      <c r="R26" s="136"/>
+      <c r="S26" s="136"/>
+      <c r="T26" s="136"/>
+      <c r="U26" s="136"/>
+      <c r="V26" s="136"/>
+      <c r="W26" s="136"/>
+      <c r="X26" s="136"/>
+      <c r="Y26" s="136"/>
+      <c r="Z26" s="136"/>
+      <c r="AA26" s="136"/>
+      <c r="AB26" s="137"/>
+      <c r="AC26" s="129"/>
+      <c r="AD26" s="130"/>
+      <c r="AE26" s="131"/>
       <c r="AF26" s="12"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="12"/>
-      <c r="B27" s="145"/>
-      <c r="C27" s="148"/>
-      <c r="D27" s="148"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="159"/>
-      <c r="G27" s="160"/>
-      <c r="H27" s="160"/>
-      <c r="I27" s="161"/>
-      <c r="J27" s="162"/>
-      <c r="K27" s="163"/>
-      <c r="L27" s="163"/>
-      <c r="M27" s="163"/>
-      <c r="N27" s="163"/>
-      <c r="O27" s="163"/>
-      <c r="P27" s="163"/>
-      <c r="Q27" s="163"/>
-      <c r="R27" s="163"/>
-      <c r="S27" s="163"/>
-      <c r="T27" s="163"/>
-      <c r="U27" s="163"/>
-      <c r="V27" s="163"/>
-      <c r="W27" s="163"/>
-      <c r="X27" s="163"/>
-      <c r="Y27" s="163"/>
-      <c r="Z27" s="163"/>
-      <c r="AA27" s="163"/>
-      <c r="AB27" s="164"/>
-      <c r="AC27" s="145"/>
-      <c r="AD27" s="148"/>
-      <c r="AE27" s="146"/>
+      <c r="B27" s="129"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="132"/>
+      <c r="G27" s="133"/>
+      <c r="H27" s="133"/>
+      <c r="I27" s="134"/>
+      <c r="J27" s="135"/>
+      <c r="K27" s="136"/>
+      <c r="L27" s="136"/>
+      <c r="M27" s="136"/>
+      <c r="N27" s="136"/>
+      <c r="O27" s="136"/>
+      <c r="P27" s="136"/>
+      <c r="Q27" s="136"/>
+      <c r="R27" s="136"/>
+      <c r="S27" s="136"/>
+      <c r="T27" s="136"/>
+      <c r="U27" s="136"/>
+      <c r="V27" s="136"/>
+      <c r="W27" s="136"/>
+      <c r="X27" s="136"/>
+      <c r="Y27" s="136"/>
+      <c r="Z27" s="136"/>
+      <c r="AA27" s="136"/>
+      <c r="AB27" s="137"/>
+      <c r="AC27" s="129"/>
+      <c r="AD27" s="130"/>
+      <c r="AE27" s="131"/>
       <c r="AF27" s="12"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="12"/>
-      <c r="B28" s="145"/>
-      <c r="C28" s="148"/>
-      <c r="D28" s="148"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="159"/>
-      <c r="G28" s="160"/>
-      <c r="H28" s="160"/>
-      <c r="I28" s="161"/>
-      <c r="J28" s="162"/>
-      <c r="K28" s="163"/>
-      <c r="L28" s="163"/>
-      <c r="M28" s="163"/>
-      <c r="N28" s="163"/>
-      <c r="O28" s="163"/>
-      <c r="P28" s="163"/>
-      <c r="Q28" s="163"/>
-      <c r="R28" s="163"/>
-      <c r="S28" s="163"/>
-      <c r="T28" s="163"/>
-      <c r="U28" s="163"/>
-      <c r="V28" s="163"/>
-      <c r="W28" s="163"/>
-      <c r="X28" s="163"/>
-      <c r="Y28" s="163"/>
-      <c r="Z28" s="163"/>
-      <c r="AA28" s="163"/>
-      <c r="AB28" s="164"/>
-      <c r="AC28" s="145"/>
-      <c r="AD28" s="148"/>
-      <c r="AE28" s="146"/>
+      <c r="B28" s="129"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="133"/>
+      <c r="H28" s="133"/>
+      <c r="I28" s="134"/>
+      <c r="J28" s="135"/>
+      <c r="K28" s="136"/>
+      <c r="L28" s="136"/>
+      <c r="M28" s="136"/>
+      <c r="N28" s="136"/>
+      <c r="O28" s="136"/>
+      <c r="P28" s="136"/>
+      <c r="Q28" s="136"/>
+      <c r="R28" s="136"/>
+      <c r="S28" s="136"/>
+      <c r="T28" s="136"/>
+      <c r="U28" s="136"/>
+      <c r="V28" s="136"/>
+      <c r="W28" s="136"/>
+      <c r="X28" s="136"/>
+      <c r="Y28" s="136"/>
+      <c r="Z28" s="136"/>
+      <c r="AA28" s="136"/>
+      <c r="AB28" s="137"/>
+      <c r="AC28" s="129"/>
+      <c r="AD28" s="130"/>
+      <c r="AE28" s="131"/>
       <c r="AF28" s="12"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="12"/>
-      <c r="B29" s="145"/>
-      <c r="C29" s="148"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="159"/>
-      <c r="G29" s="160"/>
-      <c r="H29" s="160"/>
-      <c r="I29" s="161"/>
-      <c r="J29" s="162"/>
-      <c r="K29" s="163"/>
-      <c r="L29" s="163"/>
-      <c r="M29" s="163"/>
-      <c r="N29" s="163"/>
-      <c r="O29" s="163"/>
-      <c r="P29" s="163"/>
-      <c r="Q29" s="163"/>
-      <c r="R29" s="163"/>
-      <c r="S29" s="163"/>
-      <c r="T29" s="163"/>
-      <c r="U29" s="163"/>
-      <c r="V29" s="163"/>
-      <c r="W29" s="163"/>
-      <c r="X29" s="163"/>
-      <c r="Y29" s="163"/>
-      <c r="Z29" s="163"/>
-      <c r="AA29" s="163"/>
-      <c r="AB29" s="164"/>
-      <c r="AC29" s="145"/>
-      <c r="AD29" s="148"/>
-      <c r="AE29" s="146"/>
+      <c r="B29" s="129"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="133"/>
+      <c r="H29" s="133"/>
+      <c r="I29" s="134"/>
+      <c r="J29" s="135"/>
+      <c r="K29" s="136"/>
+      <c r="L29" s="136"/>
+      <c r="M29" s="136"/>
+      <c r="N29" s="136"/>
+      <c r="O29" s="136"/>
+      <c r="P29" s="136"/>
+      <c r="Q29" s="136"/>
+      <c r="R29" s="136"/>
+      <c r="S29" s="136"/>
+      <c r="T29" s="136"/>
+      <c r="U29" s="136"/>
+      <c r="V29" s="136"/>
+      <c r="W29" s="136"/>
+      <c r="X29" s="136"/>
+      <c r="Y29" s="136"/>
+      <c r="Z29" s="136"/>
+      <c r="AA29" s="136"/>
+      <c r="AB29" s="137"/>
+      <c r="AC29" s="129"/>
+      <c r="AD29" s="130"/>
+      <c r="AE29" s="131"/>
       <c r="AF29" s="12"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="12"/>
-      <c r="B30" s="145"/>
-      <c r="C30" s="148"/>
-      <c r="D30" s="148"/>
-      <c r="E30" s="146"/>
-      <c r="F30" s="159"/>
-      <c r="G30" s="160"/>
-      <c r="H30" s="160"/>
-      <c r="I30" s="161"/>
-      <c r="J30" s="162"/>
-      <c r="K30" s="163"/>
-      <c r="L30" s="163"/>
-      <c r="M30" s="163"/>
-      <c r="N30" s="163"/>
-      <c r="O30" s="163"/>
-      <c r="P30" s="163"/>
-      <c r="Q30" s="163"/>
-      <c r="R30" s="163"/>
-      <c r="S30" s="163"/>
-      <c r="T30" s="163"/>
-      <c r="U30" s="163"/>
-      <c r="V30" s="163"/>
-      <c r="W30" s="163"/>
-      <c r="X30" s="163"/>
-      <c r="Y30" s="163"/>
-      <c r="Z30" s="163"/>
-      <c r="AA30" s="163"/>
-      <c r="AB30" s="164"/>
-      <c r="AC30" s="145"/>
-      <c r="AD30" s="148"/>
-      <c r="AE30" s="146"/>
+      <c r="B30" s="129"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="130"/>
+      <c r="E30" s="131"/>
+      <c r="F30" s="132"/>
+      <c r="G30" s="133"/>
+      <c r="H30" s="133"/>
+      <c r="I30" s="134"/>
+      <c r="J30" s="135"/>
+      <c r="K30" s="136"/>
+      <c r="L30" s="136"/>
+      <c r="M30" s="136"/>
+      <c r="N30" s="136"/>
+      <c r="O30" s="136"/>
+      <c r="P30" s="136"/>
+      <c r="Q30" s="136"/>
+      <c r="R30" s="136"/>
+      <c r="S30" s="136"/>
+      <c r="T30" s="136"/>
+      <c r="U30" s="136"/>
+      <c r="V30" s="136"/>
+      <c r="W30" s="136"/>
+      <c r="X30" s="136"/>
+      <c r="Y30" s="136"/>
+      <c r="Z30" s="136"/>
+      <c r="AA30" s="136"/>
+      <c r="AB30" s="137"/>
+      <c r="AC30" s="129"/>
+      <c r="AD30" s="130"/>
+      <c r="AE30" s="131"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="12"/>
-      <c r="B31" s="145"/>
-      <c r="C31" s="148"/>
-      <c r="D31" s="148"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="159"/>
-      <c r="G31" s="160"/>
-      <c r="H31" s="160"/>
-      <c r="I31" s="161"/>
-      <c r="J31" s="162"/>
-      <c r="K31" s="163"/>
-      <c r="L31" s="163"/>
-      <c r="M31" s="163"/>
-      <c r="N31" s="163"/>
-      <c r="O31" s="163"/>
-      <c r="P31" s="163"/>
-      <c r="Q31" s="163"/>
-      <c r="R31" s="163"/>
-      <c r="S31" s="163"/>
-      <c r="T31" s="163"/>
-      <c r="U31" s="163"/>
-      <c r="V31" s="163"/>
-      <c r="W31" s="163"/>
-      <c r="X31" s="163"/>
-      <c r="Y31" s="163"/>
-      <c r="Z31" s="163"/>
-      <c r="AA31" s="163"/>
-      <c r="AB31" s="164"/>
-      <c r="AC31" s="145"/>
-      <c r="AD31" s="148"/>
-      <c r="AE31" s="146"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="132"/>
+      <c r="G31" s="133"/>
+      <c r="H31" s="133"/>
+      <c r="I31" s="134"/>
+      <c r="J31" s="135"/>
+      <c r="K31" s="136"/>
+      <c r="L31" s="136"/>
+      <c r="M31" s="136"/>
+      <c r="N31" s="136"/>
+      <c r="O31" s="136"/>
+      <c r="P31" s="136"/>
+      <c r="Q31" s="136"/>
+      <c r="R31" s="136"/>
+      <c r="S31" s="136"/>
+      <c r="T31" s="136"/>
+      <c r="U31" s="136"/>
+      <c r="V31" s="136"/>
+      <c r="W31" s="136"/>
+      <c r="X31" s="136"/>
+      <c r="Y31" s="136"/>
+      <c r="Z31" s="136"/>
+      <c r="AA31" s="136"/>
+      <c r="AB31" s="137"/>
+      <c r="AC31" s="129"/>
+      <c r="AD31" s="130"/>
+      <c r="AE31" s="131"/>
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="12"/>
-      <c r="B32" s="145"/>
-      <c r="C32" s="148"/>
-      <c r="D32" s="148"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="159"/>
-      <c r="G32" s="160"/>
-      <c r="H32" s="160"/>
-      <c r="I32" s="161"/>
-      <c r="J32" s="162"/>
-      <c r="K32" s="163"/>
-      <c r="L32" s="163"/>
-      <c r="M32" s="163"/>
-      <c r="N32" s="163"/>
-      <c r="O32" s="163"/>
-      <c r="P32" s="163"/>
-      <c r="Q32" s="163"/>
-      <c r="R32" s="163"/>
-      <c r="S32" s="163"/>
-      <c r="T32" s="163"/>
-      <c r="U32" s="163"/>
-      <c r="V32" s="163"/>
-      <c r="W32" s="163"/>
-      <c r="X32" s="163"/>
-      <c r="Y32" s="163"/>
-      <c r="Z32" s="163"/>
-      <c r="AA32" s="163"/>
-      <c r="AB32" s="164"/>
-      <c r="AC32" s="145"/>
-      <c r="AD32" s="148"/>
-      <c r="AE32" s="146"/>
+      <c r="B32" s="129"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="130"/>
+      <c r="E32" s="131"/>
+      <c r="F32" s="132"/>
+      <c r="G32" s="133"/>
+      <c r="H32" s="133"/>
+      <c r="I32" s="134"/>
+      <c r="J32" s="135"/>
+      <c r="K32" s="136"/>
+      <c r="L32" s="136"/>
+      <c r="M32" s="136"/>
+      <c r="N32" s="136"/>
+      <c r="O32" s="136"/>
+      <c r="P32" s="136"/>
+      <c r="Q32" s="136"/>
+      <c r="R32" s="136"/>
+      <c r="S32" s="136"/>
+      <c r="T32" s="136"/>
+      <c r="U32" s="136"/>
+      <c r="V32" s="136"/>
+      <c r="W32" s="136"/>
+      <c r="X32" s="136"/>
+      <c r="Y32" s="136"/>
+      <c r="Z32" s="136"/>
+      <c r="AA32" s="136"/>
+      <c r="AB32" s="137"/>
+      <c r="AC32" s="129"/>
+      <c r="AD32" s="130"/>
+      <c r="AE32" s="131"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="12"/>
-      <c r="B33" s="145"/>
-      <c r="C33" s="148"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="146"/>
-      <c r="F33" s="159"/>
-      <c r="G33" s="160"/>
-      <c r="H33" s="160"/>
-      <c r="I33" s="161"/>
-      <c r="J33" s="162"/>
-      <c r="K33" s="163"/>
-      <c r="L33" s="163"/>
-      <c r="M33" s="163"/>
-      <c r="N33" s="163"/>
-      <c r="O33" s="163"/>
-      <c r="P33" s="163"/>
-      <c r="Q33" s="163"/>
-      <c r="R33" s="163"/>
-      <c r="S33" s="163"/>
-      <c r="T33" s="163"/>
-      <c r="U33" s="163"/>
-      <c r="V33" s="163"/>
-      <c r="W33" s="163"/>
-      <c r="X33" s="163"/>
-      <c r="Y33" s="163"/>
-      <c r="Z33" s="163"/>
-      <c r="AA33" s="163"/>
-      <c r="AB33" s="164"/>
-      <c r="AC33" s="145"/>
-      <c r="AD33" s="148"/>
-      <c r="AE33" s="146"/>
+      <c r="B33" s="129"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="131"/>
+      <c r="F33" s="132"/>
+      <c r="G33" s="133"/>
+      <c r="H33" s="133"/>
+      <c r="I33" s="134"/>
+      <c r="J33" s="135"/>
+      <c r="K33" s="136"/>
+      <c r="L33" s="136"/>
+      <c r="M33" s="136"/>
+      <c r="N33" s="136"/>
+      <c r="O33" s="136"/>
+      <c r="P33" s="136"/>
+      <c r="Q33" s="136"/>
+      <c r="R33" s="136"/>
+      <c r="S33" s="136"/>
+      <c r="T33" s="136"/>
+      <c r="U33" s="136"/>
+      <c r="V33" s="136"/>
+      <c r="W33" s="136"/>
+      <c r="X33" s="136"/>
+      <c r="Y33" s="136"/>
+      <c r="Z33" s="136"/>
+      <c r="AA33" s="136"/>
+      <c r="AB33" s="137"/>
+      <c r="AC33" s="129"/>
+      <c r="AD33" s="130"/>
+      <c r="AE33" s="131"/>
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -4306,51 +4311,6 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B16:AE18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="AC8:AE8"/>
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="B8:E9"/>
@@ -4362,6 +4322,51 @@
     <mergeCell ref="AC9:AE12"/>
     <mergeCell ref="Z9:AB12"/>
     <mergeCell ref="W9:Y12"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -4411,10 +4416,10 @@
       <c r="F1" s="106"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="166"/>
+      <c r="B2" s="172"/>
       <c r="C2" s="30" t="s">
         <v>6</v>
       </c>
@@ -4427,10 +4432,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="171" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="166"/>
+      <c r="B3" s="172"/>
       <c r="C3" s="30" t="s">
         <v>20</v>
       </c>
@@ -4443,10 +4448,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1">
-      <c r="A4" s="165" t="s">
+      <c r="A4" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="166"/>
+      <c r="B4" s="172"/>
       <c r="C4" s="30" t="s">
         <v>24</v>
       </c>
@@ -4459,10 +4464,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1">
-      <c r="A5" s="165" t="s">
+      <c r="A5" s="171" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="166"/>
+      <c r="B5" s="172"/>
       <c r="C5" s="30"/>
       <c r="D5" s="31"/>
       <c r="E5" s="32" t="s">
@@ -4471,10 +4476,10 @@
       <c r="F5" s="90"/>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1">
-      <c r="A6" s="165" t="s">
+      <c r="A6" s="171" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="166"/>
+      <c r="B6" s="172"/>
       <c r="C6" s="30" t="s">
         <v>28</v>
       </c>
@@ -4515,10 +4520,10 @@
       <c r="D9" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="171" t="s">
+      <c r="E9" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="172"/>
+      <c r="F9" s="170"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
       <c r="A10" s="59">
@@ -4533,10 +4538,10 @@
       <c r="D10" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="167" t="s">
+      <c r="E10" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="168"/>
+      <c r="F10" s="166"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
       <c r="A11" s="59">
@@ -4569,10 +4574,10 @@
       <c r="D12" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="167" t="s">
+      <c r="E12" s="165" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="168"/>
+      <c r="F12" s="166"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
       <c r="A13" s="59">
@@ -4587,10 +4592,10 @@
       <c r="D13" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="167" t="s">
+      <c r="E13" s="165" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="168"/>
+      <c r="F13" s="166"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
       <c r="A14" s="59">
@@ -4605,34 +4610,34 @@
       <c r="D14" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="167" t="s">
+      <c r="E14" s="165" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="168"/>
+      <c r="F14" s="166"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="170"/>
+      <c r="E15" s="167"/>
+      <c r="F15" s="168"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="170"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="168"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="170"/>
+      <c r="E17" s="167"/>
+      <c r="F17" s="168"/>
     </row>
     <row r="18" spans="1:6" ht="29.25" customHeight="1">
       <c r="A18" s="29" t="s">
@@ -4874,6 +4879,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -4882,11 +4892,6 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4907,7 +4912,7 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7:H7"/>
     </sheetView>
   </sheetViews>
@@ -5006,42 +5011,42 @@
         <v>56</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="191" t="s">
+      <c r="C6" s="201" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="192"/>
-      <c r="E6" s="192"/>
-      <c r="F6" s="192"/>
-      <c r="G6" s="192"/>
-      <c r="H6" s="193"/>
+      <c r="D6" s="202"/>
+      <c r="E6" s="202"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="202"/>
+      <c r="H6" s="203"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="191" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" s="192"/>
-      <c r="E7" s="192"/>
-      <c r="F7" s="192"/>
-      <c r="G7" s="192"/>
-      <c r="H7" s="193"/>
+      <c r="C7" s="201" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="202"/>
+      <c r="E7" s="202"/>
+      <c r="F7" s="202"/>
+      <c r="G7" s="202"/>
+      <c r="H7" s="203"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>57</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="191" t="s">
+      <c r="C8" s="201" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="192"/>
-      <c r="E8" s="192"/>
-      <c r="F8" s="192"/>
-      <c r="G8" s="192"/>
-      <c r="H8" s="193"/>
+      <c r="D8" s="202"/>
+      <c r="E8" s="202"/>
+      <c r="F8" s="202"/>
+      <c r="G8" s="202"/>
+      <c r="H8" s="203"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="46" t="s">
@@ -5062,10 +5067,10 @@
       <c r="B10" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="204" t="s">
+      <c r="C10" s="175" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="207"/>
+      <c r="D10" s="176"/>
       <c r="E10" s="48" t="s">
         <v>63</v>
       </c>
@@ -5086,10 +5091,10 @@
       <c r="B11" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="208" t="s">
-        <v>136</v>
-      </c>
-      <c r="D11" s="209"/>
+      <c r="C11" s="177" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="178"/>
       <c r="E11" s="63" t="s">
         <v>69</v>
       </c>
@@ -5110,10 +5115,10 @@
       <c r="B12" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="194" t="s">
+      <c r="C12" s="173" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="195"/>
+      <c r="D12" s="174"/>
       <c r="E12" s="68" t="s">
         <v>75</v>
       </c>
@@ -5132,10 +5137,10 @@
       <c r="B13" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="210" t="s">
+      <c r="C13" s="179" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="195"/>
+      <c r="D13" s="174"/>
       <c r="E13" s="68" t="s">
         <v>69</v>
       </c>
@@ -5148,8 +5153,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="71"/>
       <c r="B14" s="72"/>
-      <c r="C14" s="194"/>
-      <c r="D14" s="195"/>
+      <c r="C14" s="173"/>
+      <c r="D14" s="174"/>
       <c r="E14" s="73"/>
       <c r="F14" s="73"/>
       <c r="G14" s="74"/>
@@ -5158,8 +5163,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="71"/>
       <c r="B15" s="72"/>
-      <c r="C15" s="194"/>
-      <c r="D15" s="195"/>
+      <c r="C15" s="173"/>
+      <c r="D15" s="174"/>
       <c r="E15" s="73"/>
       <c r="F15" s="73"/>
       <c r="G15" s="74"/>
@@ -5168,8 +5173,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="194"/>
-      <c r="D16" s="195"/>
+      <c r="C16" s="173"/>
+      <c r="D16" s="174"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="74"/>
@@ -5178,8 +5183,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="194"/>
-      <c r="D17" s="195"/>
+      <c r="C17" s="173"/>
+      <c r="D17" s="174"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
@@ -5188,8 +5193,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="194"/>
-      <c r="D18" s="195"/>
+      <c r="C18" s="173"/>
+      <c r="D18" s="174"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -5198,8 +5203,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="194"/>
-      <c r="D19" s="195"/>
+      <c r="C19" s="173"/>
+      <c r="D19" s="174"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -5208,8 +5213,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="194"/>
-      <c r="D20" s="195"/>
+      <c r="C20" s="173"/>
+      <c r="D20" s="174"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -5218,8 +5223,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="194"/>
-      <c r="D21" s="195"/>
+      <c r="C21" s="173"/>
+      <c r="D21" s="174"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -5228,8 +5233,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="194"/>
-      <c r="D22" s="195"/>
+      <c r="C22" s="173"/>
+      <c r="D22" s="174"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -5238,8 +5243,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="194"/>
-      <c r="D23" s="195"/>
+      <c r="C23" s="173"/>
+      <c r="D23" s="174"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -5248,8 +5253,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="194"/>
-      <c r="D24" s="195"/>
+      <c r="C24" s="173"/>
+      <c r="D24" s="174"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -5258,8 +5263,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="194"/>
-      <c r="D25" s="195"/>
+      <c r="C25" s="173"/>
+      <c r="D25" s="174"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -5268,8 +5273,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="194"/>
-      <c r="D26" s="195"/>
+      <c r="C26" s="173"/>
+      <c r="D26" s="174"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -5278,8 +5283,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="194"/>
-      <c r="D27" s="195"/>
+      <c r="C27" s="173"/>
+      <c r="D27" s="174"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -5288,8 +5293,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="194"/>
-      <c r="D28" s="195"/>
+      <c r="C28" s="173"/>
+      <c r="D28" s="174"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -5298,8 +5303,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="194"/>
-      <c r="D29" s="195"/>
+      <c r="C29" s="173"/>
+      <c r="D29" s="174"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -5308,8 +5313,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="179"/>
-      <c r="D30" s="181"/>
+      <c r="C30" s="193"/>
+      <c r="D30" s="195"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -5341,10 +5346,10 @@
       <c r="A33" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="184" t="s">
+      <c r="B33" s="181" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="186"/>
+      <c r="C33" s="197"/>
       <c r="D33" s="54" t="s">
         <v>81</v>
       </c>
@@ -5359,51 +5364,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="187"/>
-      <c r="C34" s="188"/>
-      <c r="D34" s="173"/>
-      <c r="E34" s="174"/>
-      <c r="F34" s="175"/>
+      <c r="B34" s="204"/>
+      <c r="C34" s="205"/>
+      <c r="D34" s="183"/>
+      <c r="E34" s="210"/>
+      <c r="F34" s="184"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="189"/>
-      <c r="C35" s="190"/>
-      <c r="D35" s="176"/>
-      <c r="E35" s="177"/>
-      <c r="F35" s="178"/>
+      <c r="B35" s="206"/>
+      <c r="C35" s="207"/>
+      <c r="D35" s="185"/>
+      <c r="E35" s="200"/>
+      <c r="F35" s="186"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="189"/>
-      <c r="C36" s="190"/>
-      <c r="D36" s="176"/>
-      <c r="E36" s="177"/>
-      <c r="F36" s="178"/>
+      <c r="B36" s="206"/>
+      <c r="C36" s="207"/>
+      <c r="D36" s="185"/>
+      <c r="E36" s="200"/>
+      <c r="F36" s="186"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="189"/>
-      <c r="C37" s="190"/>
-      <c r="D37" s="176"/>
-      <c r="E37" s="177"/>
-      <c r="F37" s="178"/>
+      <c r="B37" s="206"/>
+      <c r="C37" s="207"/>
+      <c r="D37" s="185"/>
+      <c r="E37" s="200"/>
+      <c r="F37" s="186"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="182"/>
-      <c r="C38" s="183"/>
-      <c r="D38" s="179"/>
-      <c r="E38" s="180"/>
-      <c r="F38" s="181"/>
+      <c r="B38" s="208"/>
+      <c r="C38" s="209"/>
+      <c r="D38" s="193"/>
+      <c r="E38" s="194"/>
+      <c r="F38" s="195"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -5436,15 +5441,15 @@
       <c r="B41" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="184" t="s">
+      <c r="C41" s="181" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="185"/>
-      <c r="E41" s="186"/>
-      <c r="F41" s="184" t="s">
+      <c r="D41" s="196"/>
+      <c r="E41" s="197"/>
+      <c r="F41" s="181" t="s">
         <v>85</v>
       </c>
-      <c r="G41" s="206"/>
+      <c r="G41" s="182"/>
       <c r="H41" s="58" t="s">
         <v>86</v>
       </c>
@@ -5452,51 +5457,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="81"/>
       <c r="B42" s="82"/>
-      <c r="C42" s="173"/>
-      <c r="D42" s="174"/>
-      <c r="E42" s="175"/>
-      <c r="F42" s="173"/>
-      <c r="G42" s="175"/>
+      <c r="C42" s="183"/>
+      <c r="D42" s="210"/>
+      <c r="E42" s="184"/>
+      <c r="F42" s="183"/>
+      <c r="G42" s="184"/>
       <c r="H42" s="83"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="176"/>
-      <c r="D43" s="177"/>
-      <c r="E43" s="178"/>
-      <c r="F43" s="176"/>
-      <c r="G43" s="178"/>
+      <c r="C43" s="185"/>
+      <c r="D43" s="200"/>
+      <c r="E43" s="186"/>
+      <c r="F43" s="185"/>
+      <c r="G43" s="186"/>
       <c r="H43" s="86"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="176"/>
-      <c r="D44" s="177"/>
-      <c r="E44" s="178"/>
-      <c r="F44" s="176"/>
-      <c r="G44" s="178"/>
+      <c r="C44" s="185"/>
+      <c r="D44" s="200"/>
+      <c r="E44" s="186"/>
+      <c r="F44" s="185"/>
+      <c r="G44" s="186"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="176"/>
-      <c r="D45" s="177"/>
-      <c r="E45" s="178"/>
-      <c r="F45" s="176"/>
-      <c r="G45" s="178"/>
+      <c r="C45" s="185"/>
+      <c r="D45" s="200"/>
+      <c r="E45" s="186"/>
+      <c r="F45" s="185"/>
+      <c r="G45" s="186"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="179"/>
-      <c r="D46" s="180"/>
-      <c r="E46" s="181"/>
-      <c r="F46" s="196"/>
-      <c r="G46" s="197"/>
+      <c r="C46" s="193"/>
+      <c r="D46" s="194"/>
+      <c r="E46" s="195"/>
+      <c r="F46" s="187"/>
+      <c r="G46" s="188"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -5528,15 +5533,15 @@
       <c r="B49" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="184" t="s">
+      <c r="C49" s="181" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="185"/>
-      <c r="E49" s="186"/>
-      <c r="F49" s="204" t="s">
+      <c r="D49" s="196"/>
+      <c r="E49" s="197"/>
+      <c r="F49" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="G49" s="205"/>
+      <c r="G49" s="180"/>
       <c r="H49" s="49" t="s">
         <v>89</v>
       </c>
@@ -5546,15 +5551,15 @@
         <v>1</v>
       </c>
       <c r="B50" s="93"/>
-      <c r="C50" s="198" t="s">
+      <c r="C50" s="189" t="s">
         <v>90</v>
       </c>
-      <c r="D50" s="202"/>
-      <c r="E50" s="199"/>
-      <c r="F50" s="198" t="s">
+      <c r="D50" s="198"/>
+      <c r="E50" s="190"/>
+      <c r="F50" s="189" t="s">
         <v>91</v>
       </c>
-      <c r="G50" s="199"/>
+      <c r="G50" s="190"/>
       <c r="H50" s="94" t="s">
         <v>90</v>
       </c>
@@ -5564,15 +5569,15 @@
         <v>2</v>
       </c>
       <c r="B51" s="85"/>
-      <c r="C51" s="200" t="s">
+      <c r="C51" s="191" t="s">
         <v>90</v>
       </c>
-      <c r="D51" s="203"/>
-      <c r="E51" s="201"/>
-      <c r="F51" s="200" t="s">
+      <c r="D51" s="199"/>
+      <c r="E51" s="192"/>
+      <c r="F51" s="191" t="s">
         <v>92</v>
       </c>
-      <c r="G51" s="201"/>
+      <c r="G51" s="192"/>
       <c r="H51" s="127" t="s">
         <v>90</v>
       </c>
@@ -5580,46 +5585,67 @@
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="176"/>
-      <c r="D52" s="177"/>
-      <c r="E52" s="178"/>
-      <c r="F52" s="176"/>
-      <c r="G52" s="178"/>
+      <c r="C52" s="185"/>
+      <c r="D52" s="200"/>
+      <c r="E52" s="186"/>
+      <c r="F52" s="185"/>
+      <c r="G52" s="186"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="176"/>
-      <c r="D53" s="177"/>
-      <c r="E53" s="178"/>
-      <c r="F53" s="176"/>
-      <c r="G53" s="178"/>
+      <c r="C53" s="185"/>
+      <c r="D53" s="200"/>
+      <c r="E53" s="186"/>
+      <c r="F53" s="185"/>
+      <c r="G53" s="186"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="179"/>
-      <c r="D54" s="180"/>
-      <c r="E54" s="181"/>
-      <c r="F54" s="196"/>
-      <c r="G54" s="197"/>
+      <c r="C54" s="193"/>
+      <c r="D54" s="194"/>
+      <c r="E54" s="195"/>
+      <c r="F54" s="187"/>
+      <c r="G54" s="188"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="F54:G54"/>
@@ -5636,38 +5662,17 @@
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="C54:E54"/>
     <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5688,7 +5693,7 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:H7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -5786,28 +5791,28 @@
         <v>56</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="191" t="s">
+      <c r="C6" s="201" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="192"/>
-      <c r="E6" s="192"/>
-      <c r="F6" s="192"/>
-      <c r="G6" s="192"/>
-      <c r="H6" s="193"/>
+      <c r="D6" s="202"/>
+      <c r="E6" s="202"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="202"/>
+      <c r="H6" s="203"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="191" t="s">
+      <c r="C7" s="201" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="192"/>
-      <c r="E7" s="192"/>
-      <c r="F7" s="192"/>
-      <c r="G7" s="192"/>
-      <c r="H7" s="193"/>
+      <c r="D7" s="202"/>
+      <c r="E7" s="202"/>
+      <c r="F7" s="202"/>
+      <c r="G7" s="202"/>
+      <c r="H7" s="203"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
@@ -5842,10 +5847,10 @@
       <c r="B10" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="204" t="s">
+      <c r="C10" s="175" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="207"/>
+      <c r="D10" s="176"/>
       <c r="E10" s="48" t="s">
         <v>63</v>
       </c>
@@ -5869,7 +5874,7 @@
       <c r="C11" s="214" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="209"/>
+      <c r="D11" s="178"/>
       <c r="E11" s="63" t="s">
         <v>69</v>
       </c>
@@ -5888,12 +5893,12 @@
       <c r="B12" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="194" t="s">
+      <c r="C12" s="173" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="195"/>
+      <c r="D12" s="174"/>
       <c r="E12" s="68" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="F12" s="68" t="s">
         <v>70</v>
@@ -5906,14 +5911,14 @@
         <v>3</v>
       </c>
       <c r="B13" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="173" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="194" t="s">
+      <c r="D13" s="174"/>
+      <c r="E13" s="68" t="s">
         <v>100</v>
-      </c>
-      <c r="D13" s="195"/>
-      <c r="E13" s="68" t="s">
-        <v>101</v>
       </c>
       <c r="F13" s="68" t="s">
         <v>70</v>
@@ -5926,21 +5931,21 @@
         <v>4</v>
       </c>
       <c r="B14" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="173" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="194" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="195"/>
+      <c r="D14" s="174"/>
       <c r="E14" s="73" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="F14" s="73" t="s">
         <v>70</v>
       </c>
       <c r="G14" s="74"/>
       <c r="H14" s="75" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
@@ -5950,10 +5955,10 @@
       <c r="B15" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="194" t="s">
+      <c r="C15" s="173" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="195"/>
+      <c r="D15" s="174"/>
       <c r="E15" s="73" t="s">
         <v>69</v>
       </c>
@@ -5962,14 +5967,14 @@
       </c>
       <c r="G15" s="74"/>
       <c r="H15" s="75" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="194"/>
-      <c r="D16" s="195"/>
+      <c r="C16" s="173"/>
+      <c r="D16" s="174"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="74"/>
@@ -5978,8 +5983,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="194"/>
-      <c r="D17" s="195"/>
+      <c r="C17" s="173"/>
+      <c r="D17" s="174"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
@@ -5988,8 +5993,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="194"/>
-      <c r="D18" s="195"/>
+      <c r="C18" s="173"/>
+      <c r="D18" s="174"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -5998,8 +6003,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="194"/>
-      <c r="D19" s="195"/>
+      <c r="C19" s="173"/>
+      <c r="D19" s="174"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -6008,8 +6013,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="194"/>
-      <c r="D20" s="195"/>
+      <c r="C20" s="173"/>
+      <c r="D20" s="174"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -6018,8 +6023,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="194"/>
-      <c r="D21" s="195"/>
+      <c r="C21" s="173"/>
+      <c r="D21" s="174"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -6028,8 +6033,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="194"/>
-      <c r="D22" s="195"/>
+      <c r="C22" s="173"/>
+      <c r="D22" s="174"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -6038,8 +6043,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="194"/>
-      <c r="D23" s="195"/>
+      <c r="C23" s="173"/>
+      <c r="D23" s="174"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -6048,8 +6053,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="194"/>
-      <c r="D24" s="195"/>
+      <c r="C24" s="173"/>
+      <c r="D24" s="174"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -6058,8 +6063,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="194"/>
-      <c r="D25" s="195"/>
+      <c r="C25" s="173"/>
+      <c r="D25" s="174"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -6068,8 +6073,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="194"/>
-      <c r="D26" s="195"/>
+      <c r="C26" s="173"/>
+      <c r="D26" s="174"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -6078,8 +6083,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="194"/>
-      <c r="D27" s="195"/>
+      <c r="C27" s="173"/>
+      <c r="D27" s="174"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -6088,8 +6093,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="194"/>
-      <c r="D28" s="195"/>
+      <c r="C28" s="173"/>
+      <c r="D28" s="174"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -6098,8 +6103,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="194"/>
-      <c r="D29" s="195"/>
+      <c r="C29" s="173"/>
+      <c r="D29" s="174"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -6108,8 +6113,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="179"/>
-      <c r="D30" s="181"/>
+      <c r="C30" s="193"/>
+      <c r="D30" s="195"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -6141,10 +6146,10 @@
       <c r="A33" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="184" t="s">
+      <c r="B33" s="181" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="186"/>
+      <c r="C33" s="197"/>
       <c r="D33" s="54" t="s">
         <v>81</v>
       </c>
@@ -6159,51 +6164,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="187"/>
-      <c r="C34" s="188"/>
-      <c r="D34" s="173"/>
-      <c r="E34" s="174"/>
-      <c r="F34" s="175"/>
+      <c r="B34" s="204"/>
+      <c r="C34" s="205"/>
+      <c r="D34" s="183"/>
+      <c r="E34" s="210"/>
+      <c r="F34" s="184"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="189"/>
-      <c r="C35" s="190"/>
-      <c r="D35" s="176"/>
-      <c r="E35" s="177"/>
-      <c r="F35" s="178"/>
+      <c r="B35" s="206"/>
+      <c r="C35" s="207"/>
+      <c r="D35" s="185"/>
+      <c r="E35" s="200"/>
+      <c r="F35" s="186"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="189"/>
-      <c r="C36" s="190"/>
-      <c r="D36" s="176"/>
-      <c r="E36" s="177"/>
-      <c r="F36" s="178"/>
+      <c r="B36" s="206"/>
+      <c r="C36" s="207"/>
+      <c r="D36" s="185"/>
+      <c r="E36" s="200"/>
+      <c r="F36" s="186"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="189"/>
-      <c r="C37" s="190"/>
-      <c r="D37" s="176"/>
-      <c r="E37" s="177"/>
-      <c r="F37" s="178"/>
+      <c r="B37" s="206"/>
+      <c r="C37" s="207"/>
+      <c r="D37" s="185"/>
+      <c r="E37" s="200"/>
+      <c r="F37" s="186"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="182"/>
-      <c r="C38" s="183"/>
-      <c r="D38" s="179"/>
-      <c r="E38" s="180"/>
-      <c r="F38" s="181"/>
+      <c r="B38" s="208"/>
+      <c r="C38" s="209"/>
+      <c r="D38" s="193"/>
+      <c r="E38" s="194"/>
+      <c r="F38" s="195"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -6236,15 +6241,15 @@
       <c r="B41" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="184" t="s">
+      <c r="C41" s="181" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="185"/>
-      <c r="E41" s="186"/>
-      <c r="F41" s="184" t="s">
+      <c r="D41" s="196"/>
+      <c r="E41" s="197"/>
+      <c r="F41" s="181" t="s">
         <v>85</v>
       </c>
-      <c r="G41" s="206"/>
+      <c r="G41" s="182"/>
       <c r="H41" s="58" t="s">
         <v>86</v>
       </c>
@@ -6252,31 +6257,31 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="81"/>
       <c r="B42" s="82"/>
-      <c r="C42" s="173" t="s">
+      <c r="C42" s="183" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="210"/>
+      <c r="E42" s="184"/>
+      <c r="F42" s="183" t="s">
         <v>105</v>
       </c>
-      <c r="D42" s="174"/>
-      <c r="E42" s="175"/>
-      <c r="F42" s="173" t="s">
+      <c r="G42" s="184"/>
+      <c r="H42" s="83" t="s">
         <v>106</v>
-      </c>
-      <c r="G42" s="175"/>
-      <c r="H42" s="83" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="176" t="s">
+      <c r="C43" s="185" t="s">
         <v>90</v>
       </c>
-      <c r="D43" s="177"/>
-      <c r="E43" s="178"/>
-      <c r="F43" s="176" t="s">
-        <v>108</v>
-      </c>
-      <c r="G43" s="178"/>
+      <c r="D43" s="200"/>
+      <c r="E43" s="186"/>
+      <c r="F43" s="185" t="s">
+        <v>107</v>
+      </c>
+      <c r="G43" s="186"/>
       <c r="H43" s="86" t="s">
         <v>90</v>
       </c>
@@ -6284,31 +6289,31 @@
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="176"/>
-      <c r="D44" s="177"/>
-      <c r="E44" s="178"/>
-      <c r="F44" s="176"/>
-      <c r="G44" s="178"/>
+      <c r="C44" s="185"/>
+      <c r="D44" s="200"/>
+      <c r="E44" s="186"/>
+      <c r="F44" s="185"/>
+      <c r="G44" s="186"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="176"/>
-      <c r="D45" s="177"/>
-      <c r="E45" s="178"/>
-      <c r="F45" s="176"/>
-      <c r="G45" s="178"/>
+      <c r="C45" s="185"/>
+      <c r="D45" s="200"/>
+      <c r="E45" s="186"/>
+      <c r="F45" s="185"/>
+      <c r="G45" s="186"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="179"/>
-      <c r="D46" s="180"/>
-      <c r="E46" s="181"/>
-      <c r="F46" s="196"/>
-      <c r="G46" s="197"/>
+      <c r="C46" s="193"/>
+      <c r="D46" s="194"/>
+      <c r="E46" s="195"/>
+      <c r="F46" s="187"/>
+      <c r="G46" s="188"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -6340,15 +6345,15 @@
       <c r="B49" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="184" t="s">
+      <c r="C49" s="181" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="185"/>
-      <c r="E49" s="186"/>
-      <c r="F49" s="204" t="s">
+      <c r="D49" s="196"/>
+      <c r="E49" s="197"/>
+      <c r="F49" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="G49" s="205"/>
+      <c r="G49" s="180"/>
       <c r="H49" s="49" t="s">
         <v>89</v>
       </c>
@@ -6356,73 +6361,83 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="92"/>
       <c r="B50" s="93"/>
-      <c r="C50" s="198"/>
-      <c r="D50" s="202"/>
-      <c r="E50" s="199"/>
-      <c r="F50" s="198"/>
-      <c r="G50" s="199"/>
+      <c r="C50" s="189"/>
+      <c r="D50" s="198"/>
+      <c r="E50" s="190"/>
+      <c r="F50" s="189"/>
+      <c r="G50" s="190"/>
       <c r="H50" s="94"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="84"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="176"/>
-      <c r="D51" s="177"/>
-      <c r="E51" s="178"/>
-      <c r="F51" s="176"/>
-      <c r="G51" s="178"/>
+      <c r="C51" s="185"/>
+      <c r="D51" s="200"/>
+      <c r="E51" s="186"/>
+      <c r="F51" s="185"/>
+      <c r="G51" s="186"/>
       <c r="H51" s="86"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="176"/>
-      <c r="D52" s="177"/>
-      <c r="E52" s="178"/>
-      <c r="F52" s="176"/>
-      <c r="G52" s="178"/>
+      <c r="C52" s="185"/>
+      <c r="D52" s="200"/>
+      <c r="E52" s="186"/>
+      <c r="F52" s="185"/>
+      <c r="G52" s="186"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="176"/>
-      <c r="D53" s="177"/>
-      <c r="E53" s="178"/>
-      <c r="F53" s="176"/>
-      <c r="G53" s="178"/>
+      <c r="C53" s="185"/>
+      <c r="D53" s="200"/>
+      <c r="E53" s="186"/>
+      <c r="F53" s="185"/>
+      <c r="G53" s="186"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="179"/>
-      <c r="D54" s="180"/>
-      <c r="E54" s="181"/>
-      <c r="F54" s="196"/>
-      <c r="G54" s="197"/>
+      <c r="C54" s="193"/>
+      <c r="D54" s="194"/>
+      <c r="E54" s="195"/>
+      <c r="F54" s="187"/>
+      <c r="G54" s="188"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -6436,34 +6451,24 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6478,8 +6483,8 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -6577,42 +6582,42 @@
         <v>56</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="191" t="s">
+      <c r="C6" s="201" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="192"/>
-      <c r="E6" s="192"/>
-      <c r="F6" s="192"/>
-      <c r="G6" s="192"/>
-      <c r="H6" s="193"/>
+      <c r="D6" s="202"/>
+      <c r="E6" s="202"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="202"/>
+      <c r="H6" s="203"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="191" t="s">
+      <c r="C7" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="192"/>
-      <c r="E7" s="192"/>
-      <c r="F7" s="192"/>
-      <c r="G7" s="192"/>
-      <c r="H7" s="193"/>
+      <c r="D7" s="202"/>
+      <c r="E7" s="202"/>
+      <c r="F7" s="202"/>
+      <c r="G7" s="202"/>
+      <c r="H7" s="203"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>57</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="191" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="192"/>
-      <c r="E8" s="192"/>
-      <c r="F8" s="192"/>
-      <c r="G8" s="192"/>
-      <c r="H8" s="193"/>
+      <c r="C8" s="201" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="202"/>
+      <c r="E8" s="202"/>
+      <c r="F8" s="202"/>
+      <c r="G8" s="202"/>
+      <c r="H8" s="203"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1">
       <c r="A9" s="46" t="s">
@@ -6633,10 +6638,10 @@
       <c r="B10" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="204" t="s">
+      <c r="C10" s="175" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="207"/>
+      <c r="D10" s="176"/>
       <c r="E10" s="48" t="s">
         <v>63</v>
       </c>
@@ -6655,14 +6660,14 @@
         <v>1</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" s="214" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="209"/>
+        <v>102</v>
+      </c>
+      <c r="D11" s="178"/>
       <c r="E11" s="63" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="F11" s="63" t="s">
         <v>70</v>
@@ -6677,18 +6682,18 @@
         <v>2</v>
       </c>
       <c r="B12" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="173" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="194" t="s">
+      <c r="D12" s="174"/>
+      <c r="E12" s="68" t="s">
         <v>112</v>
-      </c>
-      <c r="D12" s="195"/>
-      <c r="E12" s="68" t="s">
-        <v>113</v>
       </c>
       <c r="F12" s="68"/>
       <c r="G12" s="69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H12" s="70"/>
     </row>
@@ -6697,14 +6702,14 @@
         <v>3</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="194" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" s="195"/>
+        <v>114</v>
+      </c>
+      <c r="C13" s="173" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="174"/>
       <c r="E13" s="68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F13" s="68" t="s">
         <v>70</v>
@@ -6715,8 +6720,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="71"/>
       <c r="B14" s="72"/>
-      <c r="C14" s="194"/>
-      <c r="D14" s="195"/>
+      <c r="C14" s="173"/>
+      <c r="D14" s="174"/>
       <c r="E14" s="73"/>
       <c r="F14" s="73"/>
       <c r="G14" s="74"/>
@@ -6725,8 +6730,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="71"/>
       <c r="B15" s="72"/>
-      <c r="C15" s="194"/>
-      <c r="D15" s="195"/>
+      <c r="C15" s="173"/>
+      <c r="D15" s="174"/>
       <c r="E15" s="73"/>
       <c r="F15" s="73"/>
       <c r="G15" s="74"/>
@@ -6735,8 +6740,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="194"/>
-      <c r="D16" s="195"/>
+      <c r="C16" s="173"/>
+      <c r="D16" s="174"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="74"/>
@@ -6745,8 +6750,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="194"/>
-      <c r="D17" s="195"/>
+      <c r="C17" s="173"/>
+      <c r="D17" s="174"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
@@ -6755,8 +6760,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="194"/>
-      <c r="D18" s="195"/>
+      <c r="C18" s="173"/>
+      <c r="D18" s="174"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -6765,8 +6770,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="194"/>
-      <c r="D19" s="195"/>
+      <c r="C19" s="173"/>
+      <c r="D19" s="174"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -6775,8 +6780,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="194"/>
-      <c r="D20" s="195"/>
+      <c r="C20" s="173"/>
+      <c r="D20" s="174"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -6785,8 +6790,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="194"/>
-      <c r="D21" s="195"/>
+      <c r="C21" s="173"/>
+      <c r="D21" s="174"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -6795,8 +6800,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="194"/>
-      <c r="D22" s="195"/>
+      <c r="C22" s="173"/>
+      <c r="D22" s="174"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -6805,8 +6810,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="194"/>
-      <c r="D23" s="195"/>
+      <c r="C23" s="173"/>
+      <c r="D23" s="174"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -6815,8 +6820,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="194"/>
-      <c r="D24" s="195"/>
+      <c r="C24" s="173"/>
+      <c r="D24" s="174"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -6825,8 +6830,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="194"/>
-      <c r="D25" s="195"/>
+      <c r="C25" s="173"/>
+      <c r="D25" s="174"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -6835,8 +6840,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="194"/>
-      <c r="D26" s="195"/>
+      <c r="C26" s="173"/>
+      <c r="D26" s="174"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -6845,8 +6850,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="194"/>
-      <c r="D27" s="195"/>
+      <c r="C27" s="173"/>
+      <c r="D27" s="174"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -6855,8 +6860,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="194"/>
-      <c r="D28" s="195"/>
+      <c r="C28" s="173"/>
+      <c r="D28" s="174"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -6865,8 +6870,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="194"/>
-      <c r="D29" s="195"/>
+      <c r="C29" s="173"/>
+      <c r="D29" s="174"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -6875,8 +6880,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="179"/>
-      <c r="D30" s="181"/>
+      <c r="C30" s="193"/>
+      <c r="D30" s="195"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -6908,10 +6913,10 @@
       <c r="A33" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="184" t="s">
+      <c r="B33" s="181" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="186"/>
+      <c r="C33" s="197"/>
       <c r="D33" s="54" t="s">
         <v>81</v>
       </c>
@@ -6926,51 +6931,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="187"/>
-      <c r="C34" s="188"/>
-      <c r="D34" s="173"/>
-      <c r="E34" s="174"/>
-      <c r="F34" s="175"/>
+      <c r="B34" s="204"/>
+      <c r="C34" s="205"/>
+      <c r="D34" s="183"/>
+      <c r="E34" s="210"/>
+      <c r="F34" s="184"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="189"/>
-      <c r="C35" s="190"/>
-      <c r="D35" s="176"/>
-      <c r="E35" s="177"/>
-      <c r="F35" s="178"/>
+      <c r="B35" s="206"/>
+      <c r="C35" s="207"/>
+      <c r="D35" s="185"/>
+      <c r="E35" s="200"/>
+      <c r="F35" s="186"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="189"/>
-      <c r="C36" s="190"/>
-      <c r="D36" s="176"/>
-      <c r="E36" s="177"/>
-      <c r="F36" s="178"/>
+      <c r="B36" s="206"/>
+      <c r="C36" s="207"/>
+      <c r="D36" s="185"/>
+      <c r="E36" s="200"/>
+      <c r="F36" s="186"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="189"/>
-      <c r="C37" s="190"/>
-      <c r="D37" s="176"/>
-      <c r="E37" s="177"/>
-      <c r="F37" s="178"/>
+      <c r="B37" s="206"/>
+      <c r="C37" s="207"/>
+      <c r="D37" s="185"/>
+      <c r="E37" s="200"/>
+      <c r="F37" s="186"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="182"/>
-      <c r="C38" s="183"/>
-      <c r="D38" s="179"/>
-      <c r="E38" s="180"/>
-      <c r="F38" s="181"/>
+      <c r="B38" s="208"/>
+      <c r="C38" s="209"/>
+      <c r="D38" s="193"/>
+      <c r="E38" s="194"/>
+      <c r="F38" s="195"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -7003,15 +7008,15 @@
       <c r="B41" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="184" t="s">
+      <c r="C41" s="181" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="185"/>
-      <c r="E41" s="186"/>
-      <c r="F41" s="184" t="s">
+      <c r="D41" s="196"/>
+      <c r="E41" s="197"/>
+      <c r="F41" s="181" t="s">
         <v>85</v>
       </c>
-      <c r="G41" s="206"/>
+      <c r="G41" s="182"/>
       <c r="H41" s="58" t="s">
         <v>86</v>
       </c>
@@ -7019,51 +7024,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="81"/>
       <c r="B42" s="82"/>
-      <c r="C42" s="173"/>
-      <c r="D42" s="174"/>
-      <c r="E42" s="175"/>
-      <c r="F42" s="173"/>
-      <c r="G42" s="175"/>
+      <c r="C42" s="183"/>
+      <c r="D42" s="210"/>
+      <c r="E42" s="184"/>
+      <c r="F42" s="183"/>
+      <c r="G42" s="184"/>
       <c r="H42" s="83"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="176"/>
-      <c r="D43" s="177"/>
-      <c r="E43" s="178"/>
-      <c r="F43" s="176"/>
-      <c r="G43" s="178"/>
+      <c r="C43" s="185"/>
+      <c r="D43" s="200"/>
+      <c r="E43" s="186"/>
+      <c r="F43" s="185"/>
+      <c r="G43" s="186"/>
       <c r="H43" s="86"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="176"/>
-      <c r="D44" s="177"/>
-      <c r="E44" s="178"/>
-      <c r="F44" s="176"/>
-      <c r="G44" s="178"/>
+      <c r="C44" s="185"/>
+      <c r="D44" s="200"/>
+      <c r="E44" s="186"/>
+      <c r="F44" s="185"/>
+      <c r="G44" s="186"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="176"/>
-      <c r="D45" s="177"/>
-      <c r="E45" s="178"/>
-      <c r="F45" s="176"/>
-      <c r="G45" s="178"/>
+      <c r="C45" s="185"/>
+      <c r="D45" s="200"/>
+      <c r="E45" s="186"/>
+      <c r="F45" s="185"/>
+      <c r="G45" s="186"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="179"/>
-      <c r="D46" s="180"/>
-      <c r="E46" s="181"/>
-      <c r="F46" s="196"/>
-      <c r="G46" s="197"/>
+      <c r="C46" s="193"/>
+      <c r="D46" s="194"/>
+      <c r="E46" s="195"/>
+      <c r="F46" s="187"/>
+      <c r="G46" s="188"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -7095,15 +7100,15 @@
       <c r="B49" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="184" t="s">
+      <c r="C49" s="181" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="185"/>
-      <c r="E49" s="186"/>
-      <c r="F49" s="204" t="s">
+      <c r="D49" s="196"/>
+      <c r="E49" s="197"/>
+      <c r="F49" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="G49" s="205"/>
+      <c r="G49" s="180"/>
       <c r="H49" s="49" t="s">
         <v>89</v>
       </c>
@@ -7113,17 +7118,17 @@
         <v>1</v>
       </c>
       <c r="B50" s="93"/>
-      <c r="C50" s="198" t="s">
-        <v>143</v>
-      </c>
-      <c r="D50" s="202"/>
-      <c r="E50" s="199"/>
-      <c r="F50" s="198" t="s">
+      <c r="C50" s="189" t="s">
+        <v>142</v>
+      </c>
+      <c r="D50" s="198"/>
+      <c r="E50" s="190"/>
+      <c r="F50" s="189" t="s">
         <v>92</v>
       </c>
-      <c r="G50" s="199"/>
+      <c r="G50" s="190"/>
       <c r="H50" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
@@ -7131,17 +7136,17 @@
         <v>2</v>
       </c>
       <c r="B51" s="85"/>
-      <c r="C51" s="176" t="s">
-        <v>107</v>
-      </c>
-      <c r="D51" s="177"/>
-      <c r="E51" s="178"/>
-      <c r="F51" s="176" t="s">
+      <c r="C51" s="185" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" s="200"/>
+      <c r="E51" s="186"/>
+      <c r="F51" s="185" t="s">
         <v>91</v>
       </c>
-      <c r="G51" s="178"/>
+      <c r="G51" s="186"/>
       <c r="H51" s="86" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
@@ -7149,59 +7154,69 @@
         <v>3</v>
       </c>
       <c r="B52" s="85"/>
-      <c r="C52" s="176" t="s">
-        <v>107</v>
-      </c>
-      <c r="D52" s="177"/>
-      <c r="E52" s="178"/>
-      <c r="F52" s="176" t="s">
+      <c r="C52" s="185" t="s">
+        <v>106</v>
+      </c>
+      <c r="D52" s="200"/>
+      <c r="E52" s="186"/>
+      <c r="F52" s="185" t="s">
         <v>91</v>
       </c>
-      <c r="G52" s="178"/>
+      <c r="G52" s="186"/>
       <c r="H52" s="86" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="176"/>
-      <c r="D53" s="177"/>
-      <c r="E53" s="178"/>
-      <c r="F53" s="176"/>
-      <c r="G53" s="178"/>
+      <c r="C53" s="185"/>
+      <c r="D53" s="200"/>
+      <c r="E53" s="186"/>
+      <c r="F53" s="185"/>
+      <c r="G53" s="186"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="179"/>
-      <c r="D54" s="180"/>
-      <c r="E54" s="181"/>
-      <c r="F54" s="196"/>
-      <c r="G54" s="197"/>
+      <c r="C54" s="193"/>
+      <c r="D54" s="194"/>
+      <c r="E54" s="195"/>
+      <c r="F54" s="187"/>
+      <c r="G54" s="188"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -7215,34 +7230,24 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7257,8 +7262,8 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45:G45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -7356,42 +7361,42 @@
         <v>56</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="191" t="s">
+      <c r="C6" s="201" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="192"/>
-      <c r="E6" s="192"/>
-      <c r="F6" s="192"/>
-      <c r="G6" s="192"/>
-      <c r="H6" s="193"/>
+      <c r="D6" s="202"/>
+      <c r="E6" s="202"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="202"/>
+      <c r="H6" s="203"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="191" t="s">
+      <c r="C7" s="201" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="192"/>
-      <c r="E7" s="192"/>
-      <c r="F7" s="192"/>
-      <c r="G7" s="192"/>
-      <c r="H7" s="193"/>
+      <c r="D7" s="202"/>
+      <c r="E7" s="202"/>
+      <c r="F7" s="202"/>
+      <c r="G7" s="202"/>
+      <c r="H7" s="203"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>57</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="191" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="192"/>
-      <c r="E8" s="192"/>
-      <c r="F8" s="192"/>
-      <c r="G8" s="192"/>
-      <c r="H8" s="193"/>
+      <c r="C8" s="201" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="202"/>
+      <c r="E8" s="202"/>
+      <c r="F8" s="202"/>
+      <c r="G8" s="202"/>
+      <c r="H8" s="203"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1">
       <c r="A9" s="46" t="s">
@@ -7412,10 +7417,10 @@
       <c r="B10" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="204" t="s">
+      <c r="C10" s="175" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="207"/>
+      <c r="D10" s="176"/>
       <c r="E10" s="48" t="s">
         <v>63</v>
       </c>
@@ -7434,12 +7439,12 @@
         <v>1</v>
       </c>
       <c r="B11" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="214" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="214" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" s="209"/>
+      <c r="D11" s="178"/>
       <c r="E11" s="63" t="s">
         <v>69</v>
       </c>
@@ -7456,21 +7461,21 @@
         <v>2</v>
       </c>
       <c r="B12" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="173" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="194" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="195"/>
+      <c r="D12" s="174"/>
       <c r="E12" s="68" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="F12" s="68" t="s">
         <v>70</v>
       </c>
       <c r="G12" s="69"/>
       <c r="H12" s="70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
@@ -7478,21 +7483,21 @@
         <v>3</v>
       </c>
       <c r="B13" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="173" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="194" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" s="195"/>
+      <c r="D13" s="174"/>
       <c r="E13" s="68" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="F13" s="68" t="s">
         <v>70</v>
       </c>
       <c r="G13" s="69"/>
       <c r="H13" s="70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
@@ -7500,12 +7505,12 @@
         <v>4</v>
       </c>
       <c r="B14" s="72" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="194" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="173" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="195"/>
+      <c r="D14" s="174"/>
       <c r="E14" s="73" t="s">
         <v>69</v>
       </c>
@@ -7514,14 +7519,14 @@
       </c>
       <c r="G14" s="74"/>
       <c r="H14" s="75" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="71"/>
       <c r="B15" s="72"/>
-      <c r="C15" s="194"/>
-      <c r="D15" s="195"/>
+      <c r="C15" s="173"/>
+      <c r="D15" s="174"/>
       <c r="E15" s="73"/>
       <c r="F15" s="73"/>
       <c r="G15" s="74"/>
@@ -7530,8 +7535,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="194"/>
-      <c r="D16" s="195"/>
+      <c r="C16" s="173"/>
+      <c r="D16" s="174"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="74"/>
@@ -7540,8 +7545,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="194"/>
-      <c r="D17" s="195"/>
+      <c r="C17" s="173"/>
+      <c r="D17" s="174"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
@@ -7550,8 +7555,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="194"/>
-      <c r="D18" s="195"/>
+      <c r="C18" s="173"/>
+      <c r="D18" s="174"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -7560,8 +7565,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="194"/>
-      <c r="D19" s="195"/>
+      <c r="C19" s="173"/>
+      <c r="D19" s="174"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -7570,8 +7575,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="194"/>
-      <c r="D20" s="195"/>
+      <c r="C20" s="173"/>
+      <c r="D20" s="174"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -7580,8 +7585,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="194"/>
-      <c r="D21" s="195"/>
+      <c r="C21" s="173"/>
+      <c r="D21" s="174"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -7590,8 +7595,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="194"/>
-      <c r="D22" s="195"/>
+      <c r="C22" s="173"/>
+      <c r="D22" s="174"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -7600,8 +7605,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="194"/>
-      <c r="D23" s="195"/>
+      <c r="C23" s="173"/>
+      <c r="D23" s="174"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -7610,8 +7615,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="194"/>
-      <c r="D24" s="195"/>
+      <c r="C24" s="173"/>
+      <c r="D24" s="174"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -7620,8 +7625,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="194"/>
-      <c r="D25" s="195"/>
+      <c r="C25" s="173"/>
+      <c r="D25" s="174"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -7630,8 +7635,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="194"/>
-      <c r="D26" s="195"/>
+      <c r="C26" s="173"/>
+      <c r="D26" s="174"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -7640,8 +7645,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="194"/>
-      <c r="D27" s="195"/>
+      <c r="C27" s="173"/>
+      <c r="D27" s="174"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -7650,8 +7655,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="194"/>
-      <c r="D28" s="195"/>
+      <c r="C28" s="173"/>
+      <c r="D28" s="174"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -7660,8 +7665,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="194"/>
-      <c r="D29" s="195"/>
+      <c r="C29" s="173"/>
+      <c r="D29" s="174"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -7670,8 +7675,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="179"/>
-      <c r="D30" s="181"/>
+      <c r="C30" s="193"/>
+      <c r="D30" s="195"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -7703,10 +7708,10 @@
       <c r="A33" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="184" t="s">
+      <c r="B33" s="181" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="186"/>
+      <c r="C33" s="197"/>
       <c r="D33" s="54" t="s">
         <v>81</v>
       </c>
@@ -7721,51 +7726,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="187"/>
-      <c r="C34" s="188"/>
-      <c r="D34" s="173"/>
-      <c r="E34" s="174"/>
-      <c r="F34" s="175"/>
+      <c r="B34" s="204"/>
+      <c r="C34" s="205"/>
+      <c r="D34" s="183"/>
+      <c r="E34" s="210"/>
+      <c r="F34" s="184"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="189"/>
-      <c r="C35" s="190"/>
-      <c r="D35" s="176"/>
-      <c r="E35" s="177"/>
-      <c r="F35" s="178"/>
+      <c r="B35" s="206"/>
+      <c r="C35" s="207"/>
+      <c r="D35" s="185"/>
+      <c r="E35" s="200"/>
+      <c r="F35" s="186"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="189"/>
-      <c r="C36" s="190"/>
-      <c r="D36" s="176"/>
-      <c r="E36" s="177"/>
-      <c r="F36" s="178"/>
+      <c r="B36" s="206"/>
+      <c r="C36" s="207"/>
+      <c r="D36" s="185"/>
+      <c r="E36" s="200"/>
+      <c r="F36" s="186"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="189"/>
-      <c r="C37" s="190"/>
-      <c r="D37" s="176"/>
-      <c r="E37" s="177"/>
-      <c r="F37" s="178"/>
+      <c r="B37" s="206"/>
+      <c r="C37" s="207"/>
+      <c r="D37" s="185"/>
+      <c r="E37" s="200"/>
+      <c r="F37" s="186"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="182"/>
-      <c r="C38" s="183"/>
-      <c r="D38" s="179"/>
-      <c r="E38" s="180"/>
-      <c r="F38" s="181"/>
+      <c r="B38" s="208"/>
+      <c r="C38" s="209"/>
+      <c r="D38" s="193"/>
+      <c r="E38" s="194"/>
+      <c r="F38" s="195"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -7798,15 +7803,15 @@
       <c r="B41" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="184" t="s">
+      <c r="C41" s="181" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="185"/>
-      <c r="E41" s="186"/>
-      <c r="F41" s="184" t="s">
+      <c r="D41" s="196"/>
+      <c r="E41" s="197"/>
+      <c r="F41" s="181" t="s">
         <v>85</v>
       </c>
-      <c r="G41" s="206"/>
+      <c r="G41" s="182"/>
       <c r="H41" s="58" t="s">
         <v>86</v>
       </c>
@@ -7816,17 +7821,17 @@
         <v>1</v>
       </c>
       <c r="B42" s="82"/>
-      <c r="C42" s="173" t="s">
-        <v>116</v>
-      </c>
-      <c r="D42" s="174"/>
-      <c r="E42" s="175"/>
-      <c r="F42" s="173" t="s">
+      <c r="C42" s="183" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="210"/>
+      <c r="E42" s="184"/>
+      <c r="F42" s="183" t="s">
+        <v>105</v>
+      </c>
+      <c r="G42" s="184"/>
+      <c r="H42" s="83" t="s">
         <v>106</v>
-      </c>
-      <c r="G42" s="175"/>
-      <c r="H42" s="83" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
@@ -7834,17 +7839,17 @@
         <v>2</v>
       </c>
       <c r="B43" s="85"/>
-      <c r="C43" s="176" t="s">
-        <v>117</v>
-      </c>
-      <c r="D43" s="177"/>
-      <c r="E43" s="178"/>
-      <c r="F43" s="176" t="s">
+      <c r="C43" s="185" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" s="200"/>
+      <c r="E43" s="186"/>
+      <c r="F43" s="185" t="s">
+        <v>105</v>
+      </c>
+      <c r="G43" s="186"/>
+      <c r="H43" s="86" t="s">
         <v>106</v>
-      </c>
-      <c r="G43" s="178"/>
-      <c r="H43" s="86" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
@@ -7852,37 +7857,37 @@
         <v>3</v>
       </c>
       <c r="B44" s="85"/>
-      <c r="C44" s="176" t="s">
-        <v>135</v>
-      </c>
-      <c r="D44" s="177"/>
-      <c r="E44" s="178"/>
-      <c r="F44" s="176" t="s">
-        <v>139</v>
-      </c>
-      <c r="G44" s="178"/>
+      <c r="C44" s="185" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44" s="200"/>
+      <c r="E44" s="186"/>
+      <c r="F44" s="185" t="s">
+        <v>138</v>
+      </c>
+      <c r="G44" s="186"/>
       <c r="H44" s="86" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="176"/>
-      <c r="D45" s="177"/>
-      <c r="E45" s="178"/>
-      <c r="F45" s="176"/>
-      <c r="G45" s="178"/>
+      <c r="C45" s="185"/>
+      <c r="D45" s="200"/>
+      <c r="E45" s="186"/>
+      <c r="F45" s="185"/>
+      <c r="G45" s="186"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="179"/>
-      <c r="D46" s="180"/>
-      <c r="E46" s="181"/>
-      <c r="F46" s="196"/>
-      <c r="G46" s="197"/>
+      <c r="C46" s="193"/>
+      <c r="D46" s="194"/>
+      <c r="E46" s="195"/>
+      <c r="F46" s="187"/>
+      <c r="G46" s="188"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -7914,15 +7919,15 @@
       <c r="B49" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="184" t="s">
+      <c r="C49" s="181" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="185"/>
-      <c r="E49" s="186"/>
-      <c r="F49" s="204" t="s">
+      <c r="D49" s="196"/>
+      <c r="E49" s="197"/>
+      <c r="F49" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="G49" s="205"/>
+      <c r="G49" s="180"/>
       <c r="H49" s="49" t="s">
         <v>89</v>
       </c>
@@ -7932,79 +7937,89 @@
         <v>1</v>
       </c>
       <c r="B50" s="93"/>
-      <c r="C50" s="198" t="s">
+      <c r="C50" s="189" t="s">
+        <v>124</v>
+      </c>
+      <c r="D50" s="198"/>
+      <c r="E50" s="190"/>
+      <c r="F50" s="189" t="s">
         <v>125</v>
       </c>
-      <c r="D50" s="202"/>
-      <c r="E50" s="199"/>
-      <c r="F50" s="198" t="s">
-        <v>126</v>
-      </c>
-      <c r="G50" s="199"/>
+      <c r="G50" s="190"/>
       <c r="H50" s="94" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="84"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="176"/>
-      <c r="D51" s="177"/>
-      <c r="E51" s="178"/>
-      <c r="F51" s="176"/>
-      <c r="G51" s="178"/>
+      <c r="C51" s="185"/>
+      <c r="D51" s="200"/>
+      <c r="E51" s="186"/>
+      <c r="F51" s="185"/>
+      <c r="G51" s="186"/>
       <c r="H51" s="86"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="176"/>
-      <c r="D52" s="177"/>
-      <c r="E52" s="178"/>
-      <c r="F52" s="176"/>
-      <c r="G52" s="178"/>
+      <c r="C52" s="185"/>
+      <c r="D52" s="200"/>
+      <c r="E52" s="186"/>
+      <c r="F52" s="185"/>
+      <c r="G52" s="186"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="176"/>
-      <c r="D53" s="177"/>
-      <c r="E53" s="178"/>
-      <c r="F53" s="176"/>
-      <c r="G53" s="178"/>
+      <c r="C53" s="185"/>
+      <c r="D53" s="200"/>
+      <c r="E53" s="186"/>
+      <c r="F53" s="185"/>
+      <c r="G53" s="186"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="179"/>
-      <c r="D54" s="180"/>
-      <c r="E54" s="181"/>
-      <c r="F54" s="196"/>
-      <c r="G54" s="197"/>
+      <c r="C54" s="193"/>
+      <c r="D54" s="194"/>
+      <c r="E54" s="195"/>
+      <c r="F54" s="187"/>
+      <c r="G54" s="188"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -8018,34 +8033,24 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8060,8 +8065,8 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -8147,12 +8152,12 @@
     <row r="5" spans="1:8" ht="20.25" customHeight="1">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
-      <c r="C5" s="191"/>
-      <c r="D5" s="192"/>
-      <c r="E5" s="192"/>
-      <c r="F5" s="192"/>
-      <c r="G5" s="192"/>
-      <c r="H5" s="193"/>
+      <c r="C5" s="201"/>
+      <c r="D5" s="202"/>
+      <c r="E5" s="202"/>
+      <c r="F5" s="202"/>
+      <c r="G5" s="202"/>
+      <c r="H5" s="203"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="40" t="s">
@@ -8160,7 +8165,7 @@
       </c>
       <c r="B6" s="45"/>
       <c r="C6" s="128" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
@@ -8168,28 +8173,28 @@
         <v>33</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="191" t="s">
+      <c r="C7" s="201" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="192"/>
-      <c r="E7" s="192"/>
-      <c r="F7" s="192"/>
-      <c r="G7" s="192"/>
-      <c r="H7" s="193"/>
+      <c r="D7" s="202"/>
+      <c r="E7" s="202"/>
+      <c r="F7" s="202"/>
+      <c r="G7" s="202"/>
+      <c r="H7" s="203"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>57</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="191" t="s">
+      <c r="C8" s="201" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="192"/>
-      <c r="E8" s="192"/>
-      <c r="F8" s="192"/>
-      <c r="G8" s="192"/>
-      <c r="H8" s="193"/>
+      <c r="D8" s="202"/>
+      <c r="E8" s="202"/>
+      <c r="F8" s="202"/>
+      <c r="G8" s="202"/>
+      <c r="H8" s="203"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1">
       <c r="A9" s="46" t="s">
@@ -8210,10 +8215,10 @@
       <c r="B10" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="204" t="s">
+      <c r="C10" s="175" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="207"/>
+      <c r="D10" s="176"/>
       <c r="E10" s="48" t="s">
         <v>63</v>
       </c>
@@ -8232,12 +8237,12 @@
         <v>1</v>
       </c>
       <c r="B11" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="214" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="214" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" s="209"/>
+      <c r="D11" s="178"/>
       <c r="E11" s="63" t="s">
         <v>69</v>
       </c>
@@ -8256,10 +8261,10 @@
       <c r="B12" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="194" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" s="195"/>
+      <c r="C12" s="173" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="174"/>
       <c r="E12" s="68" t="s">
         <v>75</v>
       </c>
@@ -8274,14 +8279,14 @@
         <v>3</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="194" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13" s="195"/>
+        <v>98</v>
+      </c>
+      <c r="C13" s="173" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="174"/>
       <c r="E13" s="68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F13" s="68" t="s">
         <v>70</v>
@@ -8294,21 +8299,21 @@
         <v>4</v>
       </c>
       <c r="B14" s="72" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="194" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="195"/>
+        <v>139</v>
+      </c>
+      <c r="C14" s="173" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="174"/>
       <c r="E14" s="73" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="F14" s="73" t="s">
         <v>70</v>
       </c>
       <c r="G14" s="74"/>
       <c r="H14" s="75" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
@@ -8316,12 +8321,12 @@
         <v>5</v>
       </c>
       <c r="B15" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="194" t="s">
-        <v>145</v>
-      </c>
-      <c r="D15" s="195"/>
+        <v>118</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="174"/>
       <c r="E15" s="73" t="s">
         <v>69</v>
       </c>
@@ -8330,14 +8335,14 @@
       </c>
       <c r="G15" s="74"/>
       <c r="H15" s="75" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="194"/>
-      <c r="D16" s="195"/>
+      <c r="C16" s="173"/>
+      <c r="D16" s="174"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="74"/>
@@ -8346,8 +8351,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="194"/>
-      <c r="D17" s="195"/>
+      <c r="C17" s="173"/>
+      <c r="D17" s="174"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
@@ -8356,8 +8361,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="194"/>
-      <c r="D18" s="195"/>
+      <c r="C18" s="173"/>
+      <c r="D18" s="174"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -8366,8 +8371,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="194"/>
-      <c r="D19" s="195"/>
+      <c r="C19" s="173"/>
+      <c r="D19" s="174"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -8376,8 +8381,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="194"/>
-      <c r="D20" s="195"/>
+      <c r="C20" s="173"/>
+      <c r="D20" s="174"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -8386,8 +8391,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="194"/>
-      <c r="D21" s="195"/>
+      <c r="C21" s="173"/>
+      <c r="D21" s="174"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -8396,8 +8401,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="194"/>
-      <c r="D22" s="195"/>
+      <c r="C22" s="173"/>
+      <c r="D22" s="174"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -8406,8 +8411,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="194"/>
-      <c r="D23" s="195"/>
+      <c r="C23" s="173"/>
+      <c r="D23" s="174"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -8416,8 +8421,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="194"/>
-      <c r="D24" s="195"/>
+      <c r="C24" s="173"/>
+      <c r="D24" s="174"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -8426,8 +8431,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="194"/>
-      <c r="D25" s="195"/>
+      <c r="C25" s="173"/>
+      <c r="D25" s="174"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -8436,8 +8441,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="194"/>
-      <c r="D26" s="195"/>
+      <c r="C26" s="173"/>
+      <c r="D26" s="174"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -8446,8 +8451,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="194"/>
-      <c r="D27" s="195"/>
+      <c r="C27" s="173"/>
+      <c r="D27" s="174"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -8456,8 +8461,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="194"/>
-      <c r="D28" s="195"/>
+      <c r="C28" s="173"/>
+      <c r="D28" s="174"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -8466,8 +8471,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="194"/>
-      <c r="D29" s="195"/>
+      <c r="C29" s="173"/>
+      <c r="D29" s="174"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -8476,8 +8481,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="179"/>
-      <c r="D30" s="181"/>
+      <c r="C30" s="193"/>
+      <c r="D30" s="195"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -8509,10 +8514,10 @@
       <c r="A33" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="184" t="s">
+      <c r="B33" s="181" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="186"/>
+      <c r="C33" s="197"/>
       <c r="D33" s="54" t="s">
         <v>81</v>
       </c>
@@ -8527,51 +8532,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="187"/>
-      <c r="C34" s="188"/>
-      <c r="D34" s="173"/>
-      <c r="E34" s="174"/>
-      <c r="F34" s="175"/>
+      <c r="B34" s="204"/>
+      <c r="C34" s="205"/>
+      <c r="D34" s="183"/>
+      <c r="E34" s="210"/>
+      <c r="F34" s="184"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="189"/>
-      <c r="C35" s="190"/>
-      <c r="D35" s="176"/>
-      <c r="E35" s="177"/>
-      <c r="F35" s="178"/>
+      <c r="B35" s="206"/>
+      <c r="C35" s="207"/>
+      <c r="D35" s="185"/>
+      <c r="E35" s="200"/>
+      <c r="F35" s="186"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="189"/>
-      <c r="C36" s="190"/>
-      <c r="D36" s="176"/>
-      <c r="E36" s="177"/>
-      <c r="F36" s="178"/>
+      <c r="B36" s="206"/>
+      <c r="C36" s="207"/>
+      <c r="D36" s="185"/>
+      <c r="E36" s="200"/>
+      <c r="F36" s="186"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="189"/>
-      <c r="C37" s="190"/>
-      <c r="D37" s="176"/>
-      <c r="E37" s="177"/>
-      <c r="F37" s="178"/>
+      <c r="B37" s="206"/>
+      <c r="C37" s="207"/>
+      <c r="D37" s="185"/>
+      <c r="E37" s="200"/>
+      <c r="F37" s="186"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="182"/>
-      <c r="C38" s="183"/>
-      <c r="D38" s="179"/>
-      <c r="E38" s="180"/>
-      <c r="F38" s="181"/>
+      <c r="B38" s="208"/>
+      <c r="C38" s="209"/>
+      <c r="D38" s="193"/>
+      <c r="E38" s="194"/>
+      <c r="F38" s="195"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -8604,15 +8609,15 @@
       <c r="B41" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="184" t="s">
+      <c r="C41" s="181" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="185"/>
-      <c r="E41" s="186"/>
-      <c r="F41" s="184" t="s">
+      <c r="D41" s="196"/>
+      <c r="E41" s="197"/>
+      <c r="F41" s="181" t="s">
         <v>85</v>
       </c>
-      <c r="G41" s="206"/>
+      <c r="G41" s="182"/>
       <c r="H41" s="58" t="s">
         <v>86</v>
       </c>
@@ -8622,63 +8627,63 @@
         <v>1</v>
       </c>
       <c r="B42" s="82"/>
-      <c r="C42" s="173" t="s">
+      <c r="C42" s="183" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" s="210"/>
+      <c r="E42" s="184"/>
+      <c r="F42" s="183" t="s">
         <v>141</v>
       </c>
-      <c r="D42" s="174"/>
-      <c r="E42" s="175"/>
-      <c r="F42" s="173" t="s">
+      <c r="G42" s="184"/>
+      <c r="H42" s="83" t="s">
         <v>142</v>
-      </c>
-      <c r="G42" s="175"/>
-      <c r="H42" s="83" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="176" t="s">
+      <c r="C43" s="185" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" s="200"/>
+      <c r="E43" s="186"/>
+      <c r="F43" s="185" t="s">
         <v>146</v>
       </c>
-      <c r="D43" s="177"/>
-      <c r="E43" s="178"/>
-      <c r="F43" s="176" t="s">
-        <v>147</v>
-      </c>
-      <c r="G43" s="178"/>
+      <c r="G43" s="186"/>
       <c r="H43" s="86" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="176"/>
-      <c r="D44" s="177"/>
-      <c r="E44" s="178"/>
-      <c r="F44" s="176"/>
-      <c r="G44" s="178"/>
+      <c r="C44" s="185"/>
+      <c r="D44" s="200"/>
+      <c r="E44" s="186"/>
+      <c r="F44" s="185"/>
+      <c r="G44" s="186"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="176"/>
-      <c r="D45" s="177"/>
-      <c r="E45" s="178"/>
-      <c r="F45" s="176"/>
-      <c r="G45" s="178"/>
+      <c r="C45" s="185"/>
+      <c r="D45" s="200"/>
+      <c r="E45" s="186"/>
+      <c r="F45" s="185"/>
+      <c r="G45" s="186"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="179"/>
-      <c r="D46" s="180"/>
-      <c r="E46" s="181"/>
-      <c r="F46" s="196"/>
-      <c r="G46" s="197"/>
+      <c r="C46" s="193"/>
+      <c r="D46" s="194"/>
+      <c r="E46" s="195"/>
+      <c r="F46" s="187"/>
+      <c r="G46" s="188"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -8710,15 +8715,15 @@
       <c r="B49" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="184" t="s">
+      <c r="C49" s="181" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="185"/>
-      <c r="E49" s="186"/>
-      <c r="F49" s="204" t="s">
+      <c r="D49" s="196"/>
+      <c r="E49" s="197"/>
+      <c r="F49" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="G49" s="205"/>
+      <c r="G49" s="180"/>
       <c r="H49" s="49" t="s">
         <v>89</v>
       </c>
@@ -8726,73 +8731,83 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="92"/>
       <c r="B50" s="93"/>
-      <c r="C50" s="198"/>
-      <c r="D50" s="202"/>
-      <c r="E50" s="199"/>
-      <c r="F50" s="198"/>
-      <c r="G50" s="199"/>
+      <c r="C50" s="189"/>
+      <c r="D50" s="198"/>
+      <c r="E50" s="190"/>
+      <c r="F50" s="189"/>
+      <c r="G50" s="190"/>
       <c r="H50" s="94"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="84"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="176"/>
-      <c r="D51" s="177"/>
-      <c r="E51" s="178"/>
-      <c r="F51" s="176"/>
-      <c r="G51" s="178"/>
+      <c r="C51" s="185"/>
+      <c r="D51" s="200"/>
+      <c r="E51" s="186"/>
+      <c r="F51" s="185"/>
+      <c r="G51" s="186"/>
       <c r="H51" s="86"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="176"/>
-      <c r="D52" s="177"/>
-      <c r="E52" s="178"/>
-      <c r="F52" s="176"/>
-      <c r="G52" s="178"/>
+      <c r="C52" s="185"/>
+      <c r="D52" s="200"/>
+      <c r="E52" s="186"/>
+      <c r="F52" s="185"/>
+      <c r="G52" s="186"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="176"/>
-      <c r="D53" s="177"/>
-      <c r="E53" s="178"/>
-      <c r="F53" s="176"/>
-      <c r="G53" s="178"/>
+      <c r="C53" s="185"/>
+      <c r="D53" s="200"/>
+      <c r="E53" s="186"/>
+      <c r="F53" s="185"/>
+      <c r="G53" s="186"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="179"/>
-      <c r="D54" s="180"/>
-      <c r="E54" s="181"/>
-      <c r="F54" s="196"/>
-      <c r="G54" s="197"/>
+      <c r="C54" s="193"/>
+      <c r="D54" s="194"/>
+      <c r="E54" s="195"/>
+      <c r="F54" s="187"/>
+      <c r="G54" s="188"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -8806,34 +8821,24 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8861,7 +8866,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" customHeight="1">
       <c r="A1" s="110" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1" s="111"/>
       <c r="C1" s="111"/>
@@ -8896,8 +8901,8 @@
       <c r="K2" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="221"/>
-      <c r="M2" s="222"/>
+      <c r="L2" s="218"/>
+      <c r="M2" s="219"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" customHeight="1">
       <c r="A3" s="116" t="s">
@@ -8919,8 +8924,8 @@
       <c r="K3" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="221"/>
-      <c r="M3" s="222"/>
+      <c r="L3" s="218"/>
+      <c r="M3" s="219"/>
     </row>
     <row r="4" spans="1:13" ht="17.25" customHeight="1">
       <c r="A4" s="113" t="s">
@@ -8940,8 +8945,8 @@
       <c r="K4" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="221"/>
-      <c r="M4" s="222"/>
+      <c r="L4" s="218"/>
+      <c r="M4" s="219"/>
     </row>
     <row r="5" spans="1:13" ht="17.25" customHeight="1">
       <c r="A5" s="117"/>
@@ -8959,7 +8964,7 @@
     </row>
     <row r="6" spans="1:13" ht="17.25" customHeight="1">
       <c r="A6" s="119" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" s="114"/>
       <c r="C6" s="115"/>
@@ -8998,14 +9003,14 @@
     <row r="9" spans="1:13" ht="21.75" customHeight="1">
       <c r="A9" s="95"/>
       <c r="F9" s="96"/>
-      <c r="G9" s="223" t="s">
-        <v>133</v>
-      </c>
-      <c r="H9" s="224"/>
-      <c r="I9" s="224"/>
-      <c r="J9" s="224"/>
-      <c r="K9" s="224"/>
-      <c r="L9" s="225"/>
+      <c r="G9" s="220" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" s="221"/>
+      <c r="I9" s="221"/>
+      <c r="J9" s="221"/>
+      <c r="K9" s="221"/>
+      <c r="L9" s="222"/>
       <c r="M9" s="96"/>
     </row>
     <row r="10" spans="1:13" ht="21.75" customHeight="1">
@@ -9025,13 +9030,13 @@
     </row>
     <row r="11" spans="1:13" ht="22.5" customHeight="1">
       <c r="A11" s="95"/>
-      <c r="B11" s="215" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11" s="218"/>
-      <c r="D11" s="219"/>
-      <c r="E11" s="219"/>
-      <c r="F11" s="220"/>
+      <c r="B11" s="223" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="215"/>
+      <c r="D11" s="216"/>
+      <c r="E11" s="216"/>
+      <c r="F11" s="217"/>
       <c r="G11" s="100"/>
       <c r="H11" s="100"/>
       <c r="I11" s="100"/>
@@ -9042,11 +9047,11 @@
     </row>
     <row r="12" spans="1:13" ht="22.5" customHeight="1">
       <c r="A12" s="95"/>
-      <c r="B12" s="216"/>
-      <c r="C12" s="218"/>
-      <c r="D12" s="219"/>
-      <c r="E12" s="219"/>
-      <c r="F12" s="220"/>
+      <c r="B12" s="224"/>
+      <c r="C12" s="215"/>
+      <c r="D12" s="216"/>
+      <c r="E12" s="216"/>
+      <c r="F12" s="217"/>
       <c r="G12" s="100"/>
       <c r="H12" s="100"/>
       <c r="I12" s="100"/>
@@ -9057,11 +9062,11 @@
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1">
       <c r="A13" s="95"/>
-      <c r="B13" s="216"/>
-      <c r="C13" s="218"/>
-      <c r="D13" s="219"/>
-      <c r="E13" s="219"/>
-      <c r="F13" s="220"/>
+      <c r="B13" s="224"/>
+      <c r="C13" s="215"/>
+      <c r="D13" s="216"/>
+      <c r="E13" s="216"/>
+      <c r="F13" s="217"/>
       <c r="G13" s="100"/>
       <c r="H13" s="100"/>
       <c r="I13" s="100"/>
@@ -9072,11 +9077,11 @@
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1">
       <c r="A14" s="95"/>
-      <c r="B14" s="216"/>
-      <c r="C14" s="218"/>
-      <c r="D14" s="219"/>
-      <c r="E14" s="219"/>
-      <c r="F14" s="220"/>
+      <c r="B14" s="224"/>
+      <c r="C14" s="215"/>
+      <c r="D14" s="216"/>
+      <c r="E14" s="216"/>
+      <c r="F14" s="217"/>
       <c r="G14" s="100"/>
       <c r="H14" s="100"/>
       <c r="I14" s="100"/>
@@ -9087,11 +9092,11 @@
     </row>
     <row r="15" spans="1:13" ht="22.5" customHeight="1">
       <c r="A15" s="95"/>
-      <c r="B15" s="216"/>
-      <c r="C15" s="218"/>
-      <c r="D15" s="219"/>
-      <c r="E15" s="219"/>
-      <c r="F15" s="220"/>
+      <c r="B15" s="224"/>
+      <c r="C15" s="215"/>
+      <c r="D15" s="216"/>
+      <c r="E15" s="216"/>
+      <c r="F15" s="217"/>
       <c r="G15" s="100"/>
       <c r="H15" s="100"/>
       <c r="I15" s="100"/>
@@ -9102,11 +9107,11 @@
     </row>
     <row r="16" spans="1:13" ht="22.5" customHeight="1">
       <c r="A16" s="95"/>
-      <c r="B16" s="216"/>
-      <c r="C16" s="218"/>
-      <c r="D16" s="219"/>
-      <c r="E16" s="219"/>
-      <c r="F16" s="220"/>
+      <c r="B16" s="224"/>
+      <c r="C16" s="215"/>
+      <c r="D16" s="216"/>
+      <c r="E16" s="216"/>
+      <c r="F16" s="217"/>
       <c r="G16" s="100"/>
       <c r="H16" s="100"/>
       <c r="I16" s="100"/>
@@ -9117,11 +9122,11 @@
     </row>
     <row r="17" spans="1:13" ht="22.5" customHeight="1">
       <c r="A17" s="95"/>
-      <c r="B17" s="216"/>
-      <c r="C17" s="218"/>
-      <c r="D17" s="219"/>
-      <c r="E17" s="219"/>
-      <c r="F17" s="220"/>
+      <c r="B17" s="224"/>
+      <c r="C17" s="215"/>
+      <c r="D17" s="216"/>
+      <c r="E17" s="216"/>
+      <c r="F17" s="217"/>
       <c r="G17" s="100"/>
       <c r="H17" s="100"/>
       <c r="I17" s="100"/>
@@ -9132,11 +9137,11 @@
     </row>
     <row r="18" spans="1:13" ht="22.5" customHeight="1">
       <c r="A18" s="95"/>
-      <c r="B18" s="216"/>
-      <c r="C18" s="218"/>
-      <c r="D18" s="219"/>
-      <c r="E18" s="219"/>
-      <c r="F18" s="220"/>
+      <c r="B18" s="224"/>
+      <c r="C18" s="215"/>
+      <c r="D18" s="216"/>
+      <c r="E18" s="216"/>
+      <c r="F18" s="217"/>
       <c r="G18" s="100"/>
       <c r="H18" s="100"/>
       <c r="I18" s="100"/>
@@ -9147,11 +9152,11 @@
     </row>
     <row r="19" spans="1:13" ht="22.5" customHeight="1">
       <c r="A19" s="95"/>
-      <c r="B19" s="216"/>
-      <c r="C19" s="218"/>
-      <c r="D19" s="219"/>
-      <c r="E19" s="219"/>
-      <c r="F19" s="220"/>
+      <c r="B19" s="224"/>
+      <c r="C19" s="215"/>
+      <c r="D19" s="216"/>
+      <c r="E19" s="216"/>
+      <c r="F19" s="217"/>
       <c r="G19" s="100"/>
       <c r="H19" s="100"/>
       <c r="I19" s="100"/>
@@ -9162,11 +9167,11 @@
     </row>
     <row r="20" spans="1:13" ht="22.5" customHeight="1">
       <c r="A20" s="95"/>
-      <c r="B20" s="216"/>
-      <c r="C20" s="218"/>
-      <c r="D20" s="219"/>
-      <c r="E20" s="219"/>
-      <c r="F20" s="220"/>
+      <c r="B20" s="224"/>
+      <c r="C20" s="215"/>
+      <c r="D20" s="216"/>
+      <c r="E20" s="216"/>
+      <c r="F20" s="217"/>
       <c r="G20" s="100"/>
       <c r="H20" s="100"/>
       <c r="I20" s="100"/>
@@ -9177,11 +9182,11 @@
     </row>
     <row r="21" spans="1:13" ht="22.5" customHeight="1">
       <c r="A21" s="95"/>
-      <c r="B21" s="216"/>
-      <c r="C21" s="218"/>
-      <c r="D21" s="219"/>
-      <c r="E21" s="219"/>
-      <c r="F21" s="220"/>
+      <c r="B21" s="224"/>
+      <c r="C21" s="215"/>
+      <c r="D21" s="216"/>
+      <c r="E21" s="216"/>
+      <c r="F21" s="217"/>
       <c r="G21" s="100"/>
       <c r="H21" s="100"/>
       <c r="I21" s="100"/>
@@ -9192,11 +9197,11 @@
     </row>
     <row r="22" spans="1:13" ht="22.5" customHeight="1">
       <c r="A22" s="95"/>
-      <c r="B22" s="216"/>
-      <c r="C22" s="218"/>
-      <c r="D22" s="219"/>
-      <c r="E22" s="219"/>
-      <c r="F22" s="220"/>
+      <c r="B22" s="224"/>
+      <c r="C22" s="215"/>
+      <c r="D22" s="216"/>
+      <c r="E22" s="216"/>
+      <c r="F22" s="217"/>
       <c r="G22" s="100"/>
       <c r="H22" s="100"/>
       <c r="I22" s="100"/>
@@ -9207,11 +9212,11 @@
     </row>
     <row r="23" spans="1:13" ht="22.5" customHeight="1">
       <c r="A23" s="95"/>
-      <c r="B23" s="216"/>
-      <c r="C23" s="218"/>
-      <c r="D23" s="219"/>
-      <c r="E23" s="219"/>
-      <c r="F23" s="220"/>
+      <c r="B23" s="224"/>
+      <c r="C23" s="215"/>
+      <c r="D23" s="216"/>
+      <c r="E23" s="216"/>
+      <c r="F23" s="217"/>
       <c r="G23" s="100"/>
       <c r="H23" s="100"/>
       <c r="I23" s="100"/>
@@ -9222,11 +9227,11 @@
     </row>
     <row r="24" spans="1:13" ht="22.5" customHeight="1">
       <c r="A24" s="95"/>
-      <c r="B24" s="216"/>
-      <c r="C24" s="218"/>
-      <c r="D24" s="219"/>
-      <c r="E24" s="219"/>
-      <c r="F24" s="220"/>
+      <c r="B24" s="224"/>
+      <c r="C24" s="215"/>
+      <c r="D24" s="216"/>
+      <c r="E24" s="216"/>
+      <c r="F24" s="217"/>
       <c r="G24" s="100"/>
       <c r="H24" s="100"/>
       <c r="I24" s="100"/>
@@ -9237,11 +9242,11 @@
     </row>
     <row r="25" spans="1:13" ht="22.5" customHeight="1">
       <c r="A25" s="95"/>
-      <c r="B25" s="216"/>
-      <c r="C25" s="218"/>
-      <c r="D25" s="219"/>
-      <c r="E25" s="219"/>
-      <c r="F25" s="220"/>
+      <c r="B25" s="224"/>
+      <c r="C25" s="215"/>
+      <c r="D25" s="216"/>
+      <c r="E25" s="216"/>
+      <c r="F25" s="217"/>
       <c r="G25" s="100"/>
       <c r="H25" s="100"/>
       <c r="I25" s="100"/>
@@ -9252,11 +9257,11 @@
     </row>
     <row r="26" spans="1:13" ht="22.5" customHeight="1">
       <c r="A26" s="95"/>
-      <c r="B26" s="216"/>
-      <c r="C26" s="218"/>
-      <c r="D26" s="219"/>
-      <c r="E26" s="219"/>
-      <c r="F26" s="220"/>
+      <c r="B26" s="224"/>
+      <c r="C26" s="215"/>
+      <c r="D26" s="216"/>
+      <c r="E26" s="216"/>
+      <c r="F26" s="217"/>
       <c r="G26" s="100"/>
       <c r="H26" s="100"/>
       <c r="I26" s="100"/>
@@ -9267,11 +9272,11 @@
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1">
       <c r="A27" s="95"/>
-      <c r="B27" s="216"/>
-      <c r="C27" s="218"/>
-      <c r="D27" s="219"/>
-      <c r="E27" s="219"/>
-      <c r="F27" s="220"/>
+      <c r="B27" s="224"/>
+      <c r="C27" s="215"/>
+      <c r="D27" s="216"/>
+      <c r="E27" s="216"/>
+      <c r="F27" s="217"/>
       <c r="G27" s="100"/>
       <c r="H27" s="100"/>
       <c r="I27" s="100"/>
@@ -9282,11 +9287,11 @@
     </row>
     <row r="28" spans="1:13" ht="22.5" customHeight="1">
       <c r="A28" s="95"/>
-      <c r="B28" s="216"/>
-      <c r="C28" s="218"/>
-      <c r="D28" s="219"/>
-      <c r="E28" s="219"/>
-      <c r="F28" s="220"/>
+      <c r="B28" s="224"/>
+      <c r="C28" s="215"/>
+      <c r="D28" s="216"/>
+      <c r="E28" s="216"/>
+      <c r="F28" s="217"/>
       <c r="G28" s="100"/>
       <c r="H28" s="100"/>
       <c r="I28" s="100"/>
@@ -9297,11 +9302,11 @@
     </row>
     <row r="29" spans="1:13" ht="22.5" customHeight="1">
       <c r="A29" s="95"/>
-      <c r="B29" s="216"/>
-      <c r="C29" s="218"/>
-      <c r="D29" s="219"/>
-      <c r="E29" s="219"/>
-      <c r="F29" s="220"/>
+      <c r="B29" s="224"/>
+      <c r="C29" s="215"/>
+      <c r="D29" s="216"/>
+      <c r="E29" s="216"/>
+      <c r="F29" s="217"/>
       <c r="G29" s="100"/>
       <c r="H29" s="100"/>
       <c r="I29" s="100"/>
@@ -9312,11 +9317,11 @@
     </row>
     <row r="30" spans="1:13" ht="22.5" customHeight="1">
       <c r="A30" s="95"/>
-      <c r="B30" s="216"/>
-      <c r="C30" s="218"/>
-      <c r="D30" s="219"/>
-      <c r="E30" s="219"/>
-      <c r="F30" s="220"/>
+      <c r="B30" s="224"/>
+      <c r="C30" s="215"/>
+      <c r="D30" s="216"/>
+      <c r="E30" s="216"/>
+      <c r="F30" s="217"/>
       <c r="G30" s="100"/>
       <c r="H30" s="100"/>
       <c r="I30" s="100"/>
@@ -9327,11 +9332,11 @@
     </row>
     <row r="31" spans="1:13" ht="22.5" customHeight="1">
       <c r="A31" s="95"/>
-      <c r="B31" s="216"/>
-      <c r="C31" s="218"/>
-      <c r="D31" s="219"/>
-      <c r="E31" s="219"/>
-      <c r="F31" s="220"/>
+      <c r="B31" s="224"/>
+      <c r="C31" s="215"/>
+      <c r="D31" s="216"/>
+      <c r="E31" s="216"/>
+      <c r="F31" s="217"/>
       <c r="G31" s="100"/>
       <c r="H31" s="100"/>
       <c r="I31" s="100"/>
@@ -9342,11 +9347,11 @@
     </row>
     <row r="32" spans="1:13" ht="23.25" customHeight="1">
       <c r="A32" s="95"/>
-      <c r="B32" s="216"/>
-      <c r="C32" s="218"/>
-      <c r="D32" s="219"/>
-      <c r="E32" s="219"/>
-      <c r="F32" s="220"/>
+      <c r="B32" s="224"/>
+      <c r="C32" s="215"/>
+      <c r="D32" s="216"/>
+      <c r="E32" s="216"/>
+      <c r="F32" s="217"/>
       <c r="G32" s="100"/>
       <c r="H32" s="100"/>
       <c r="I32" s="100"/>
@@ -9357,11 +9362,11 @@
     </row>
     <row r="33" spans="1:13" ht="23.25" customHeight="1">
       <c r="A33" s="95"/>
-      <c r="B33" s="216"/>
-      <c r="C33" s="218"/>
-      <c r="D33" s="219"/>
-      <c r="E33" s="219"/>
-      <c r="F33" s="220"/>
+      <c r="B33" s="224"/>
+      <c r="C33" s="215"/>
+      <c r="D33" s="216"/>
+      <c r="E33" s="216"/>
+      <c r="F33" s="217"/>
       <c r="G33" s="100"/>
       <c r="H33" s="100"/>
       <c r="I33" s="100"/>
@@ -9372,11 +9377,11 @@
     </row>
     <row r="34" spans="1:13" ht="23.25" customHeight="1">
       <c r="A34" s="95"/>
-      <c r="B34" s="217"/>
-      <c r="C34" s="218"/>
-      <c r="D34" s="219"/>
-      <c r="E34" s="219"/>
-      <c r="F34" s="220"/>
+      <c r="B34" s="225"/>
+      <c r="C34" s="215"/>
+      <c r="D34" s="216"/>
+      <c r="E34" s="216"/>
+      <c r="F34" s="217"/>
       <c r="G34" s="100"/>
       <c r="H34" s="100"/>
       <c r="I34" s="100"/>
@@ -9406,19 +9411,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="C15:F15"/>
     <mergeCell ref="B11:B34"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
@@ -9435,6 +9427,19 @@
     <mergeCell ref="C32:F32"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="C17:F17"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9603,15 +9608,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="c8a424a7-50d7-4cd5-819d-65031445e48f">
@@ -9619,6 +9615,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9640,14 +9645,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96326D39-5435-48DC-AF0E-CDD4943397FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1631EF5-CEDC-4597-B938-E1023FBA0E2F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9655,4 +9652,12 @@
     <ds:schemaRef ds:uri="c8a424a7-50d7-4cd5-819d-65031445e48f"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96326D39-5435-48DC-AF0E-CDD4943397FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>